--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dropdowns" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -28,48 +29,176 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">house_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string_name</t>
+    <t xml:space="preserve">tile_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stringname</t>
   </si>
   <si>
     <t xml:space="preserve">population</t>
   </si>
   <si>
-    <t xml:space="preserve">item_fukuda_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x1</t>
+    <t xml:space="preserve">probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearstart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">townzone_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">townzones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substitute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">building_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">building_flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo_pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphics_default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphics_north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphics_east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphics_west</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphics_south</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fukuda_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium</t>
   </si>
   <si>
     <t xml:space="preserve">NAME_APARTMENTS_FUKUDA</t>
   </si>
   <si>
-    <t xml:space="preserve">item_fukuda_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_harada_m</t>
+    <t xml:space="preserve">4,3,2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fukuda_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harada_m</t>
   </si>
   <si>
     <t xml:space="preserve">NAME_APARTMENTS_HARADA</t>
   </si>
   <si>
-    <t xml:space="preserve">item_harada_l</t>
+    <t xml:space="preserve">0xFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harada_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hayashi_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_APARTMENTS_HAYASHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hayashi_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;height&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;townzone_number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;townzones&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;building_flags&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_TOWNZONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_CENTRE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,8 +258,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,106 +296,564 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f aca="false">VLOOKUP(K2,dropdowns!D:E,2,0)</f>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">VLOOKUP(D2,dropdowns!A:C,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <f aca="false">VLOOKUP(D2,dropdowns!A:C,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <f aca="false">IF(C2="1X1",A2,"none")</f>
+        <v>fukuda_m</v>
+      </c>
+      <c r="S2" s="0" t="str">
+        <f aca="false">IF(C2="1X1","none",CONCATENATE(A2,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="T2" s="0" t="str">
+        <f aca="false">IF(C2="2X2",CONCATENATE(A2,"_east"),IF(C2="1X2",CONCATENATE(A2,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <f aca="false">IF(C2="2X2",CONCATENATE(A2,"_west"),IF(C2="2X1",CONCATENATE(A2,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V2" s="0" t="str">
+        <f aca="false">IF(C2="2X2",CONCATENATE(A2,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f aca="false">VLOOKUP(K3,dropdowns!D:E,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">VLOOKUP(D3,dropdowns!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <f aca="false">VLOOKUP(D3,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="R3" s="0" t="str">
+        <f aca="false">IF(C3="1X1",A3,"none")</f>
+        <v>fukuda_l</v>
+      </c>
+      <c r="S3" s="0" t="str">
+        <f aca="false">IF(C3="1X1","none",CONCATENATE(A3,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="T3" s="0" t="str">
+        <f aca="false">IF(C3="2X2",CONCATENATE(A3,"_east"),IF(C3="1X2",CONCATENATE(A3,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <f aca="false">IF(C3="2X2",CONCATENATE(A3,"_west"),IF(C3="2X1",CONCATENATE(A3,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V3" s="0" t="str">
+        <f aca="false">IF(C3="2X2",CONCATENATE(A3,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f aca="false">VLOOKUP(K4,dropdowns!D:E,2,0)</f>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">VLOOKUP(D4,dropdowns!A:C,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <f aca="false">VLOOKUP(D4,dropdowns!A:C,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <f aca="false">IF(C4="1X1",A4,"none")</f>
+        <v>harada_m</v>
+      </c>
+      <c r="S4" s="0" t="str">
+        <f aca="false">IF(C4="1X1","none",CONCATENATE(A4,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <f aca="false">IF(C4="2X2",CONCATENATE(A4,"_east"),IF(C4="1X2",CONCATENATE(A4,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <f aca="false">IF(C4="2X2",CONCATENATE(A4,"_west"),IF(C4="2X1",CONCATENATE(A4,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V4" s="0" t="str">
+        <f aca="false">IF(C4="2X2",CONCATENATE(A4,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f aca="false">VLOOKUP(K5,dropdowns!D:E,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">VLOOKUP(D5,dropdowns!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <f aca="false">VLOOKUP(D5,dropdowns!A:C,3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="R5" s="0" t="str">
+        <f aca="false">IF(C5="1X1",A5,"none")</f>
+        <v>harada_l</v>
+      </c>
+      <c r="S5" s="0" t="str">
+        <f aca="false">IF(C5="1X1","none",CONCATENATE(A5,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="T5" s="0" t="str">
+        <f aca="false">IF(C5="2X2",CONCATENATE(A5,"_east"),IF(C5="1X2",CONCATENATE(A5,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="U5" s="0" t="str">
+        <f aca="false">IF(C5="2X2",CONCATENATE(A5,"_west"),IF(C5="2X1",CONCATENATE(A5,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V5" s="0" t="str">
+        <f aca="false">IF(C5="2X2",CONCATENATE(A5,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f aca="false">VLOOKUP(K6,dropdowns!D:E,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="Q6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="str">
+        <f aca="false">IF(C6="1X1",A6,"none")</f>
+        <v>hayashi_s</v>
+      </c>
+      <c r="S6" s="0" t="str">
+        <f aca="false">IF(C6="1X1","none",CONCATENATE(A6,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="T6" s="0" t="str">
+        <f aca="false">IF(C6="2X2",CONCATENATE(A6,"_east"),IF(C6="1X2",CONCATENATE(A6,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="U6" s="0" t="str">
+        <f aca="false">IF(C6="2X2",CONCATENATE(A6,"_west"),IF(C6="2X1",CONCATENATE(A6,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V6" s="0" t="str">
+        <f aca="false">IF(C6="2X2",CONCATENATE(A6,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f aca="false">VLOOKUP(K7,dropdowns!D:E,2,0)</f>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>125</v>
+      <c r="Q7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="0" t="str">
+        <f aca="false">IF(C7="1X1",A7,"none")</f>
+        <v>hayashi_m</v>
+      </c>
+      <c r="S7" s="0" t="str">
+        <f aca="false">IF(C7="1X1","none",CONCATENATE(A7,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="T7" s="0" t="str">
+        <f aca="false">IF(C7="2X2",CONCATENATE(A7,"_east"),IF(C7="1X2",CONCATENATE(A7,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <f aca="false">IF(C7="2X2",CONCATENATE(A7,"_west"),IF(C7="2X1",CONCATENATE(A7,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V7" s="0" t="str">
+        <f aca="false">IF(C7="2X2",CONCATENATE(A7,"_south"),"none")</f>
+        <v>none</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D7" type="list">
+      <formula1>dropdowns!$A:$A</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2:K7" type="list">
+      <formula1>dropdowns!$D:$D</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2:O7" type="list">
+      <formula1>dropdowns!$F:$F</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -259,4 +862,127 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="81.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -8,8 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="buildings" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dropdowns" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="items" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="colours" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="variants" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="colour_dict" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ID checks" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="dropdowns" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">folder</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -92,6 +99,9 @@
     <t xml:space="preserve">fukuda_m</t>
   </si>
   <si>
+    <t xml:space="preserve">fukuda</t>
+  </si>
+  <si>
     <t xml:space="preserve">1X1</t>
   </si>
   <si>
@@ -119,6 +129,9 @@
     <t xml:space="preserve">harada_m</t>
   </si>
   <si>
+    <t xml:space="preserve">harada</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME_APARTMENTS_HARADA</t>
   </si>
   <si>
@@ -131,6 +144,9 @@
     <t xml:space="preserve">hayashi_s</t>
   </si>
   <si>
+    <t xml:space="preserve">hayashi</t>
+  </si>
+  <si>
     <t xml:space="preserve">small</t>
   </si>
   <si>
@@ -143,6 +159,75 @@
     <t xml:space="preserve">hayashi_m</t>
   </si>
   <si>
+    <t xml:space="preserve">colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red_brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">midgrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X2</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;height&gt;</t>
   </si>
   <si>
@@ -174,6 +259,9 @@
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</t>
@@ -191,7 +279,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -275,7 +363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,7 +384,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -305,18 +393,19 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,485 +460,506 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="J2" s="3" t="n">
         <v>1980</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f aca="false">VLOOKUP(K2,dropdowns!D:E,2,0)</f>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f aca="false">VLOOKUP(L2,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <f aca="false">VLOOKUP(D2,dropdowns!A:C,2,0)</f>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <f aca="false">VLOOKUP(E2,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <f aca="false">VLOOKUP(D2,dropdowns!A:C,3,0)</f>
+      <c r="R2" s="1" t="n">
+        <f aca="false">VLOOKUP(E2,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="R2" s="0" t="str">
-        <f aca="false">IF(C2="1X1",A2,"none")</f>
+      <c r="S2" s="1" t="str">
+        <f aca="false">IF(D2="1X1",A2,"none")</f>
         <v>fukuda_m</v>
       </c>
-      <c r="S2" s="0" t="str">
-        <f aca="false">IF(C2="1X1","none",CONCATENATE(A2,"_north"))</f>
+      <c r="T2" s="1" t="str">
+        <f aca="false">IF(D2="1X1","none",CONCATENATE(A2,"_north"))</f>
         <v>none</v>
       </c>
-      <c r="T2" s="0" t="str">
-        <f aca="false">IF(C2="2X2",CONCATENATE(A2,"_east"),IF(C2="1X2",CONCATENATE(A2,"_east"),"none"))</f>
+      <c r="U2" s="1" t="str">
+        <f aca="false">IF(D2="2X2",CONCATENATE(A2,"_east"),IF(D2="1X2",CONCATENATE(A2,"_east"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="U2" s="0" t="str">
-        <f aca="false">IF(C2="2X2",CONCATENATE(A2,"_west"),IF(C2="2X1",CONCATENATE(A2,"_west"),"none"))</f>
+      <c r="V2" s="1" t="str">
+        <f aca="false">IF(D2="2X2",CONCATENATE(A2,"_west"),IF(D2="2X1",CONCATENATE(A2,"_west"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="V2" s="0" t="str">
-        <f aca="false">IF(C2="2X2",CONCATENATE(A2,"_south"),"none")</f>
+      <c r="W2" s="1" t="str">
+        <f aca="false">IF(D2="2X2",CONCATENATE(A2,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1980</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f aca="false">VLOOKUP(L3,dropdowns!D:E,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1980</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f aca="false">VLOOKUP(K3,dropdowns!D:E,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <f aca="false">VLOOKUP(D3,dropdowns!A:C,2,0)</f>
+      <c r="Q3" s="1" t="n">
+        <f aca="false">VLOOKUP(E3,dropdowns!A:C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="n">
-        <f aca="false">VLOOKUP(D3,dropdowns!A:C,3,0)</f>
+      <c r="R3" s="1" t="n">
+        <f aca="false">VLOOKUP(E3,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
-      <c r="R3" s="0" t="str">
-        <f aca="false">IF(C3="1X1",A3,"none")</f>
+      <c r="S3" s="1" t="str">
+        <f aca="false">IF(D3="1X1",A3,"none")</f>
         <v>fukuda_l</v>
       </c>
-      <c r="S3" s="0" t="str">
-        <f aca="false">IF(C3="1X1","none",CONCATENATE(A3,"_north"))</f>
+      <c r="T3" s="1" t="str">
+        <f aca="false">IF(D3="1X1","none",CONCATENATE(A3,"_north"))</f>
         <v>none</v>
       </c>
-      <c r="T3" s="0" t="str">
-        <f aca="false">IF(C3="2X2",CONCATENATE(A3,"_east"),IF(C3="1X2",CONCATENATE(A3,"_east"),"none"))</f>
+      <c r="U3" s="1" t="str">
+        <f aca="false">IF(D3="2X2",CONCATENATE(A3,"_east"),IF(D3="1X2",CONCATENATE(A3,"_east"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="U3" s="0" t="str">
-        <f aca="false">IF(C3="2X2",CONCATENATE(A3,"_west"),IF(C3="2X1",CONCATENATE(A3,"_west"),"none"))</f>
+      <c r="V3" s="1" t="str">
+        <f aca="false">IF(D3="2X2",CONCATENATE(A3,"_west"),IF(D3="2X1",CONCATENATE(A3,"_west"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="V3" s="0" t="str">
-        <f aca="false">IF(C3="2X2",CONCATENATE(A3,"_south"),"none")</f>
+      <c r="W3" s="1" t="str">
+        <f aca="false">IF(D3="2X2",CONCATENATE(A3,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <f aca="false">VLOOKUP(K4,dropdowns!D:E,2,0)</f>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f aca="false">VLOOKUP(L4,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <f aca="false">VLOOKUP(D4,dropdowns!A:C,2,0)</f>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <f aca="false">VLOOKUP(E4,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
-      <c r="Q4" s="1" t="n">
-        <f aca="false">VLOOKUP(D4,dropdowns!A:C,3,0)</f>
+      <c r="R4" s="1" t="n">
+        <f aca="false">VLOOKUP(E4,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="R4" s="0" t="str">
-        <f aca="false">IF(C4="1X1",A4,"none")</f>
+      <c r="S4" s="1" t="str">
+        <f aca="false">IF(D4="1X1",A4,"none")</f>
         <v>harada_m</v>
       </c>
-      <c r="S4" s="0" t="str">
-        <f aca="false">IF(C4="1X1","none",CONCATENATE(A4,"_north"))</f>
+      <c r="T4" s="1" t="str">
+        <f aca="false">IF(D4="1X1","none",CONCATENATE(A4,"_north"))</f>
         <v>none</v>
       </c>
-      <c r="T4" s="0" t="str">
-        <f aca="false">IF(C4="2X2",CONCATENATE(A4,"_east"),IF(C4="1X2",CONCATENATE(A4,"_east"),"none"))</f>
+      <c r="U4" s="1" t="str">
+        <f aca="false">IF(D4="2X2",CONCATENATE(A4,"_east"),IF(D4="1X2",CONCATENATE(A4,"_east"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="U4" s="0" t="str">
-        <f aca="false">IF(C4="2X2",CONCATENATE(A4,"_west"),IF(C4="2X1",CONCATENATE(A4,"_west"),"none"))</f>
+      <c r="V4" s="1" t="str">
+        <f aca="false">IF(D4="2X2",CONCATENATE(A4,"_west"),IF(D4="2X1",CONCATENATE(A4,"_west"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="V4" s="0" t="str">
-        <f aca="false">IF(C4="2X2",CONCATENATE(A4,"_south"),"none")</f>
+      <c r="W4" s="1" t="str">
+        <f aca="false">IF(D4="2X2",CONCATENATE(A4,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f aca="false">VLOOKUP(L5,dropdowns!D:E,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f aca="false">VLOOKUP(K5,dropdowns!D:E,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <f aca="false">VLOOKUP(D5,dropdowns!A:C,2,0)</f>
+      <c r="Q5" s="1" t="n">
+        <f aca="false">VLOOKUP(E5,dropdowns!A:C,2,0)</f>
         <v>14</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <f aca="false">VLOOKUP(D5,dropdowns!A:C,3,0)</f>
+      <c r="R5" s="1" t="n">
+        <f aca="false">VLOOKUP(E5,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
-      <c r="R5" s="0" t="str">
-        <f aca="false">IF(C5="1X1",A5,"none")</f>
+      <c r="S5" s="1" t="str">
+        <f aca="false">IF(D5="1X1",A5,"none")</f>
         <v>harada_l</v>
       </c>
-      <c r="S5" s="0" t="str">
-        <f aca="false">IF(C5="1X1","none",CONCATENATE(A5,"_north"))</f>
+      <c r="T5" s="1" t="str">
+        <f aca="false">IF(D5="1X1","none",CONCATENATE(A5,"_north"))</f>
         <v>none</v>
       </c>
-      <c r="T5" s="0" t="str">
-        <f aca="false">IF(C5="2X2",CONCATENATE(A5,"_east"),IF(C5="1X2",CONCATENATE(A5,"_east"),"none"))</f>
+      <c r="U5" s="1" t="str">
+        <f aca="false">IF(D5="2X2",CONCATENATE(A5,"_east"),IF(D5="1X2",CONCATENATE(A5,"_east"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="U5" s="0" t="str">
-        <f aca="false">IF(C5="2X2",CONCATENATE(A5,"_west"),IF(C5="2X1",CONCATENATE(A5,"_west"),"none"))</f>
+      <c r="V5" s="1" t="str">
+        <f aca="false">IF(D5="2X2",CONCATENATE(A5,"_west"),IF(D5="2X1",CONCATENATE(A5,"_west"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="V5" s="0" t="str">
-        <f aca="false">IF(C5="2X2",CONCATENATE(A5,"_south"),"none")</f>
+      <c r="W5" s="1" t="str">
+        <f aca="false">IF(D5="2X2",CONCATENATE(A5,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f aca="false">VLOOKUP(K6,dropdowns!D:E,2,0)</f>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f aca="false">VLOOKUP(L6,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="0" t="str">
-        <f aca="false">IF(C6="1X1",A6,"none")</f>
+      <c r="S6" s="1" t="str">
+        <f aca="false">IF(D6="1X1",A6,"none")</f>
         <v>hayashi_s</v>
       </c>
-      <c r="S6" s="0" t="str">
-        <f aca="false">IF(C6="1X1","none",CONCATENATE(A6,"_north"))</f>
+      <c r="T6" s="1" t="str">
+        <f aca="false">IF(D6="1X1","none",CONCATENATE(A6,"_north"))</f>
         <v>none</v>
       </c>
-      <c r="T6" s="0" t="str">
-        <f aca="false">IF(C6="2X2",CONCATENATE(A6,"_east"),IF(C6="1X2",CONCATENATE(A6,"_east"),"none"))</f>
+      <c r="U6" s="1" t="str">
+        <f aca="false">IF(D6="2X2",CONCATENATE(A6,"_east"),IF(D6="1X2",CONCATENATE(A6,"_east"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="U6" s="0" t="str">
-        <f aca="false">IF(C6="2X2",CONCATENATE(A6,"_west"),IF(C6="2X1",CONCATENATE(A6,"_west"),"none"))</f>
+      <c r="V6" s="1" t="str">
+        <f aca="false">IF(D6="2X2",CONCATENATE(A6,"_west"),IF(D6="2X1",CONCATENATE(A6,"_west"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="V6" s="0" t="str">
-        <f aca="false">IF(C6="2X2",CONCATENATE(A6,"_south"),"none")</f>
+      <c r="W6" s="1" t="str">
+        <f aca="false">IF(D6="2X2",CONCATENATE(A6,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f aca="false">VLOOKUP(K7,dropdowns!D:E,2,0)</f>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f aca="false">VLOOKUP(L7,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="R7" s="0" t="str">
-        <f aca="false">IF(C7="1X1",A7,"none")</f>
+      <c r="S7" s="1" t="str">
+        <f aca="false">IF(D7="1X1",A7,"none")</f>
         <v>hayashi_m</v>
       </c>
-      <c r="S7" s="0" t="str">
-        <f aca="false">IF(C7="1X1","none",CONCATENATE(A7,"_north"))</f>
+      <c r="T7" s="1" t="str">
+        <f aca="false">IF(D7="1X1","none",CONCATENATE(A7,"_north"))</f>
         <v>none</v>
       </c>
-      <c r="T7" s="0" t="str">
-        <f aca="false">IF(C7="2X2",CONCATENATE(A7,"_east"),IF(C7="1X2",CONCATENATE(A7,"_east"),"none"))</f>
+      <c r="U7" s="1" t="str">
+        <f aca="false">IF(D7="2X2",CONCATENATE(A7,"_east"),IF(D7="1X2",CONCATENATE(A7,"_east"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="U7" s="0" t="str">
-        <f aca="false">IF(C7="2X2",CONCATENATE(A7,"_west"),IF(C7="2X1",CONCATENATE(A7,"_west"),"none"))</f>
+      <c r="V7" s="1" t="str">
+        <f aca="false">IF(D7="2X2",CONCATENATE(A7,"_west"),IF(D7="2X1",CONCATENATE(A7,"_west"),"none"))</f>
         <v>none</v>
       </c>
-      <c r="V7" s="0" t="str">
-        <f aca="false">IF(C7="2X2",CONCATENATE(A7,"_south"),"none")</f>
+      <c r="W7" s="1" t="str">
+        <f aca="false">IF(D7="2X2",CONCATENATE(A7,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D7" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E7" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2:K7" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L7" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2:O7" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P7" type="list">
       <formula1>dropdowns!$F:$F</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -869,43 +979,1877 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="str">
+        <f aca="false">colour_dict!A2</f>
+        <v>white</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <f aca="false">colour_dict!A3</f>
+        <v>grey</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <f aca="false">colour_dict!A4</f>
+        <v>brown1</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <f aca="false">colour_dict!A5</f>
+        <v>brown2</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">colour_dict!A6</f>
+        <v>mauve</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">colour_dict!A7</f>
+        <v>dark_green</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <f aca="false">colour_dict!A8</f>
+        <v>peach</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <f aca="false">colour_dict!A9</f>
+        <v>pink</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <f aca="false">colour_dict!A10</f>
+        <v>light_blue</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <f aca="false">colour_dict!A11</f>
+        <v>dark_blue</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <f aca="false">colour_dict!A12</f>
+        <v>light_green</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <f aca="false">colour_dict!A13</f>
+        <v>black</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <f aca="false">colour_dict!A14</f>
+        <v>gold</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <f aca="false">colour_dict!A15</f>
+        <v>red_brown</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <f aca="false">colour_dict!A16</f>
+        <v>red</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <f aca="false">colour_dict!A17</f>
+        <v>midgrey</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="str">
+        <f aca="false">IF(items!A2="","",items!A2)</f>
+        <v>fukuda_m</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="str">
+        <f aca="false">IF(items!A3="","",items!A3)</f>
+        <v>fukuda_l</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="false">IF(items!A4="","",items!A4)</f>
+        <v>harada_m</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <f aca="false">IF(items!A5="","",items!A5)</f>
+        <v>harada_l</v>
+      </c>
+      <c r="B5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="false">IF(items!A6="","",items!A6)</f>
+        <v>hayashi_s</v>
+      </c>
+      <c r="B6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="false">IF(items!A7="","",items!A7)</f>
+        <v>hayashi_m</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="false">IF(items!A8="","",items!A8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="str">
+        <f aca="false">IF(items!A9="","",items!A9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="str">
+        <f aca="false">IF(items!A10="","",items!A10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="str">
+        <f aca="false">IF(items!A11="","",items!A11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="str">
+        <f aca="false">IF(items!A12="","",items!A12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="str">
+        <f aca="false">IF(items!A13="","",items!A13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="str">
+        <f aca="false">IF(items!A14="","",items!A14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="str">
+        <f aca="false">IF(items!A15="","",items!A15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="str">
+        <f aca="false">IF(items!A16="","",items!A16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="str">
+        <f aca="false">IF(items!A17="","",items!A17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="str">
+        <f aca="false">IF(items!A18="","",items!A18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="str">
+        <f aca="false">IF(items!A19="","",items!A19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="str">
+        <f aca="false">IF(items!A20="","",items!A20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="str">
+        <f aca="false">IF(items!A21="","",items!A21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="str">
+        <f aca="false">IF(items!A22="","",items!A22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="str">
+        <f aca="false">IF(items!A23="","",items!A23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="str">
+        <f aca="false">IF(items!A24="","",items!A24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="str">
+        <f aca="false">IF(items!A25="","",items!A25)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D127"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <f aca="false">IF(C2="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A2,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">MAX(IF(C2="ID not in use",0,IF(C2="1X1",1,IF(C2="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">IF(C3="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A3,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">MAX(IF(C3="ID not in use",0,IF(C3="1X1",1,IF(C3="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <f aca="false">IF(C4="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A4,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">MAX(IF(C4="ID not in use",0,IF(C4="1X1",1,IF(C4="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <f aca="false">IF(C5="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A5,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">MAX(IF(C5="ID not in use",0,IF(C5="1X1",1,IF(C5="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <f aca="false">IF(C6="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A6,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">MAX(IF(C6="ID not in use",0,IF(C6="1X1",1,IF(C6="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">IF(C7="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A7,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">MAX(IF(C7="ID not in use",0,IF(C7="1X1",1,IF(C7="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <f aca="false">IF(C8="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A8,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">MAX(IF(C8="ID not in use",0,IF(C8="1X1",1,IF(C8="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <f aca="false">IF(C9="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A9,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">MAX(IF(C9="ID not in use",0,IF(C9="1X1",1,IF(C9="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <f aca="false">IF(C10="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A10,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">MAX(IF(C10="ID not in use",0,IF(C10="1X1",1,IF(C10="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="str">
+        <f aca="false">IF(C11="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C11" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A11,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">MAX(IF(C11="ID not in use",0,IF(C11="1X1",1,IF(C11="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="str">
+        <f aca="false">IF(C12="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C12" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A12,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">MAX(IF(C12="ID not in use",0,IF(C12="1X1",1,IF(C12="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <f aca="false">IF(C13="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C13" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A13,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">MAX(IF(C13="ID not in use",0,IF(C13="1X1",1,IF(C13="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="str">
+        <f aca="false">IF(C14="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C14" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A14,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">MAX(IF(C14="ID not in use",0,IF(C14="1X1",1,IF(C14="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="str">
+        <f aca="false">IF(C15="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C15" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A15,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">MAX(IF(C15="ID not in use",0,IF(C15="1X1",1,IF(C15="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="str">
+        <f aca="false">IF(C16="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C16" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A16,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">MAX(IF(C16="ID not in use",0,IF(C16="1X1",1,IF(C16="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="str">
+        <f aca="false">IF(C17="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C17" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A17,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">MAX(IF(C17="ID not in use",0,IF(C17="1X1",1,IF(C17="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="str">
+        <f aca="false">IF(C18="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C18" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A18,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">MAX(IF(C18="ID not in use",0,IF(C18="1X1",1,IF(C18="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="str">
+        <f aca="false">IF(C19="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C19" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A19,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">MAX(IF(C19="ID not in use",0,IF(C19="1X1",1,IF(C19="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="str">
+        <f aca="false">IF(C20="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C20" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A20,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">MAX(IF(C20="ID not in use",0,IF(C20="1X1",1,IF(C20="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="str">
+        <f aca="false">IF(C21="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C21" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A21,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">MAX(IF(C21="ID not in use",0,IF(C21="1X1",1,IF(C21="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="str">
+        <f aca="false">IF(C22="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C22" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A22,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">MAX(IF(C22="ID not in use",0,IF(C22="1X1",1,IF(C22="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="str">
+        <f aca="false">IF(C23="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C23" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A23,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">MAX(IF(C23="ID not in use",0,IF(C23="1X1",1,IF(C23="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="str">
+        <f aca="false">IF(C24="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C24" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A24,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">MAX(IF(C24="ID not in use",0,IF(C24="1X1",1,IF(C24="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="str">
+        <f aca="false">IF(C25="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C25" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A25,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">MAX(IF(C25="ID not in use",0,IF(C25="1X1",1,IF(C25="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="str">
+        <f aca="false">IF(C26="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C26" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A26,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">MAX(IF(C26="ID not in use",0,IF(C26="1X1",1,IF(C26="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="str">
+        <f aca="false">IF(C27="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C27" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A27,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">MAX(IF(C27="ID not in use",0,IF(C27="1X1",1,IF(C27="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="str">
+        <f aca="false">IF(C28="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C28" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A28,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">MAX(IF(C28="ID not in use",0,IF(C28="1X1",1,IF(C28="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="str">
+        <f aca="false">IF(C29="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C29" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A29,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">MAX(IF(C29="ID not in use",0,IF(C29="1X1",1,IF(C29="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="str">
+        <f aca="false">IF(C30="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C30" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A30,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">MAX(IF(C30="ID not in use",0,IF(C30="1X1",1,IF(C30="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="str">
+        <f aca="false">IF(C31="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C31" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A31,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">MAX(IF(C31="ID not in use",0,IF(C31="1X1",1,IF(C31="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="str">
+        <f aca="false">IF(C32="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C32" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A32,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">MAX(IF(C32="ID not in use",0,IF(C32="1X1",1,IF(C32="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="str">
+        <f aca="false">IF(C33="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C33" s="0" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A33,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">MAX(IF(C33="ID not in use",0,IF(C33="1X1",1,IF(C33="2X2",4,2)))-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="str">
+        <f aca="false">IF(C34="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">MAX(IF(C34="ID not in use",0,IF(C34="1X1",1,IF(C34="2X2",4,2)))-1,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="str">
+        <f aca="false">IF(C35="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C35" s="0" t="str">
+        <f aca="false">IF(D34&gt;0,"Multi-tile","ID not in use")</f>
+        <v>Multi-tile</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">IF(C35="Multi-tile",D34-1,MAX(IF(C35="ID not in use",0,IF(C35="1X1",1,IF(C35="2X2",4,2)))-1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="str">
+        <f aca="false">IF(C36="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C36" s="0" t="str">
+        <f aca="false">IF(D35&gt;0,"Multi-tile","ID not in use")</f>
+        <v>Multi-tile</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">IF(C36="Multi-tile",D35-1,MAX(IF(C36="ID not in use",0,IF(C36="1X1",1,IF(C36="2X2",4,2)))-1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="str">
+        <f aca="false">IF(C37="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C37" s="0" t="str">
+        <f aca="false">IF(D36&gt;0,"Multi-tile","ID not in use")</f>
+        <v>Multi-tile</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">IF(C37="Multi-tile",D36-1,MAX(IF(C37="ID not in use",0,IF(C37="1X1",1,IF(C37="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="str">
+        <f aca="false">IF(C38="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C38" s="0" t="str">
+        <f aca="false">IF(D37&gt;0,"Multi-tile","ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">IF(C38="Multi-tile",D37-1,MAX(IF(C38="ID not in use",0,IF(C38="1X1",1,IF(C38="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="str">
+        <f aca="false">IF(C39="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C39" s="0" t="str">
+        <f aca="false">IF(D38&gt;0,"Multi-tile","ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">IF(C39="Multi-tile",D38-1,MAX(IF(C39="ID not in use",0,IF(C39="1X1",1,IF(C39="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="81.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -914,18 +2858,18 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
@@ -934,18 +2878,18 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>14</v>
@@ -954,26 +2898,29 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t xml:space="preserve">hayashi_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirano_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_APARTMENTS_HIRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirano_m</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -277,9 +289,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -346,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,7 +376,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,7 +401,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -516,7 +533,7 @@
       <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="M2" s="4" t="str">
         <f aca="false">VLOOKUP(L2,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -595,7 +612,7 @@
       <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="M3" s="4" t="str">
         <f aca="false">VLOOKUP(L3,dropdowns!D:E,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -674,7 +691,7 @@
       <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="M4" s="4" t="str">
         <f aca="false">VLOOKUP(L4,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -753,7 +770,7 @@
       <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="M5" s="4" t="str">
         <f aca="false">VLOOKUP(L5,dropdowns!D:E,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -832,7 +849,7 @@
       <c r="L6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M6" s="4" t="str">
         <f aca="false">VLOOKUP(L6,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
@@ -909,7 +926,7 @@
       <c r="L7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="4" t="str">
         <f aca="false">VLOOKUP(L7,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -949,17 +966,171 @@
         <v>none</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f aca="false">VLOOKUP(L8,dropdowns!D:E,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f aca="false">IF(D8="1X1",A8,"none")</f>
+        <v>hirano_s</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f aca="false">IF(D8="1X1","none",CONCATENATE(A8,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f aca="false">IF(D8="2X2",CONCATENATE(A8,"_east"),IF(D8="1X2",CONCATENATE(A8,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f aca="false">IF(D8="2X2",CONCATENATE(A8,"_west"),IF(D8="2X1",CONCATENATE(A8,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f aca="false">IF(D8="2X2",CONCATENATE(A8,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f aca="false">VLOOKUP(L9,dropdowns!D:E,2,0)</f>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f aca="false">IF(D9="1X1",A9,"none")</f>
+        <v>hirano_m</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f aca="false">IF(D9="1X1","none",CONCATENATE(A9,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f aca="false">IF(D9="2X2",CONCATENATE(A9,"_east"),IF(D9="1X2",CONCATENATE(A9,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f aca="false">IF(D9="2X2",CONCATENATE(A9,"_west"),IF(D9="2X1",CONCATENATE(A9,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f aca="false">IF(D9="2X2",CONCATENATE(A9,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E7" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E9" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L7" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L9" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P7" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P9" type="list">
       <formula1>dropdowns!$F:$F</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -991,499 +1162,595 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="str">
+      <c r="B1" s="1" t="str">
         <f aca="false">colour_dict!A2</f>
         <v>white</v>
       </c>
-      <c r="C1" s="0" t="str">
+      <c r="C1" s="1" t="str">
         <f aca="false">colour_dict!A3</f>
         <v>grey</v>
       </c>
-      <c r="D1" s="0" t="str">
+      <c r="D1" s="1" t="str">
         <f aca="false">colour_dict!A4</f>
         <v>brown1</v>
       </c>
-      <c r="E1" s="0" t="str">
+      <c r="E1" s="1" t="str">
         <f aca="false">colour_dict!A5</f>
         <v>brown2</v>
       </c>
-      <c r="F1" s="0" t="str">
+      <c r="F1" s="1" t="str">
         <f aca="false">colour_dict!A6</f>
         <v>mauve</v>
       </c>
-      <c r="G1" s="0" t="str">
+      <c r="G1" s="1" t="str">
         <f aca="false">colour_dict!A7</f>
         <v>dark_green</v>
       </c>
-      <c r="H1" s="0" t="str">
+      <c r="H1" s="1" t="str">
         <f aca="false">colour_dict!A8</f>
         <v>peach</v>
       </c>
-      <c r="I1" s="0" t="str">
+      <c r="I1" s="1" t="str">
         <f aca="false">colour_dict!A9</f>
         <v>pink</v>
       </c>
-      <c r="J1" s="0" t="str">
+      <c r="J1" s="1" t="str">
         <f aca="false">colour_dict!A10</f>
         <v>light_blue</v>
       </c>
-      <c r="K1" s="0" t="str">
+      <c r="K1" s="1" t="str">
         <f aca="false">colour_dict!A11</f>
         <v>dark_blue</v>
       </c>
-      <c r="L1" s="0" t="str">
+      <c r="L1" s="1" t="str">
         <f aca="false">colour_dict!A12</f>
         <v>light_green</v>
       </c>
-      <c r="M1" s="0" t="str">
+      <c r="M1" s="1" t="str">
         <f aca="false">colour_dict!A13</f>
         <v>black</v>
       </c>
-      <c r="N1" s="0" t="str">
+      <c r="N1" s="1" t="str">
         <f aca="false">colour_dict!A14</f>
         <v>gold</v>
       </c>
-      <c r="O1" s="0" t="str">
+      <c r="O1" s="1" t="str">
         <f aca="false">colour_dict!A15</f>
         <v>red_brown</v>
       </c>
-      <c r="P1" s="0" t="str">
+      <c r="P1" s="1" t="str">
         <f aca="false">colour_dict!A16</f>
         <v>red</v>
       </c>
-      <c r="Q1" s="0" t="str">
+      <c r="Q1" s="1" t="str">
         <f aca="false">colour_dict!A17</f>
         <v>midgrey</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="str">
+      <c r="A2" s="1" t="str">
         <f aca="false">IF(items!A2="","",items!A2)</f>
         <v>fukuda_m</v>
       </c>
-      <c r="B2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="b">
+      <c r="B2" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
+      <c r="A3" s="1" t="str">
         <f aca="false">IF(items!A3="","",items!A3)</f>
         <v>fukuda_l</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="b">
+      <c r="B3" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
+      <c r="A4" s="1" t="str">
         <f aca="false">IF(items!A4="","",items!A4)</f>
         <v>harada_m</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4" t="b">
+      <c r="B4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
+      <c r="A5" s="1" t="str">
         <f aca="false">IF(items!A5="","",items!A5)</f>
         <v>harada_l</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="b">
+      <c r="B5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
+      <c r="A6" s="1" t="str">
         <f aca="false">IF(items!A6="","",items!A6)</f>
         <v>hayashi_s</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="b">
+      <c r="B6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
+      <c r="A7" s="1" t="str">
         <f aca="false">IF(items!A7="","",items!A7)</f>
         <v>hayashi_m</v>
       </c>
-      <c r="B7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="b">
+      <c r="B7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
+      <c r="A8" s="1" t="str">
         <f aca="false">IF(items!A8="","",items!A8)</f>
-        <v/>
+        <v>hirano_s</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="str">
+      <c r="A9" s="1" t="str">
         <f aca="false">IF(items!A9="","",items!A9)</f>
-        <v/>
+        <v>hirano_m</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="str">
+      <c r="A10" s="1" t="str">
         <f aca="false">IF(items!A10="","",items!A10)</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="str">
+      <c r="A11" s="1" t="str">
         <f aca="false">IF(items!A11="","",items!A11)</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="str">
+      <c r="A12" s="1" t="str">
         <f aca="false">IF(items!A12="","",items!A12)</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="str">
+      <c r="A13" s="1" t="str">
         <f aca="false">IF(items!A13="","",items!A13)</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="str">
+      <c r="A14" s="1" t="str">
         <f aca="false">IF(items!A14="","",items!A14)</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="str">
+      <c r="A15" s="1" t="str">
         <f aca="false">IF(items!A15="","",items!A15)</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="str">
+      <c r="A16" s="1" t="str">
         <f aca="false">IF(items!A16="","",items!A16)</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="str">
+      <c r="A17" s="1" t="str">
         <f aca="false">IF(items!A17="","",items!A17)</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
+      <c r="A18" s="1" t="str">
         <f aca="false">IF(items!A18="","",items!A18)</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="str">
+      <c r="A19" s="1" t="str">
         <f aca="false">IF(items!A19="","",items!A19)</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="str">
+      <c r="A20" s="1" t="str">
         <f aca="false">IF(items!A20="","",items!A20)</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="str">
+      <c r="A21" s="1" t="str">
         <f aca="false">IF(items!A21="","",items!A21)</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="str">
+      <c r="A22" s="1" t="str">
         <f aca="false">IF(items!A22="","",items!A22)</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="str">
+      <c r="A23" s="1" t="str">
         <f aca="false">IF(items!A23="","",items!A23)</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="str">
+      <c r="A24" s="1" t="str">
         <f aca="false">IF(items!A24="","",items!A24)</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="str">
+      <c r="A25" s="1" t="str">
         <f aca="false">IF(items!A25="","",items!A25)</f>
         <v/>
       </c>
@@ -1535,143 +1802,143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>45</v>
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1700,1101 +1967,1101 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>65</v>
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="str">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <f aca="false">IF(C2="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C2" s="0" t="str">
+      <c r="C2" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A2,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">MAX(IF(C2="ID not in use",0,IF(C2="1X1",1,IF(C2="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="str">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="str">
         <f aca="false">IF(C3="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C3" s="0" t="str">
+      <c r="C3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A3,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">MAX(IF(C3="ID not in use",0,IF(C3="1X1",1,IF(C3="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="str">
+      <c r="B4" s="1" t="str">
         <f aca="false">IF(C4="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C4" s="0" t="str">
+      <c r="C4" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A4,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">MAX(IF(C4="ID not in use",0,IF(C4="1X1",1,IF(C4="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="str">
+      <c r="B5" s="1" t="str">
         <f aca="false">IF(C5="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C5" s="0" t="str">
+      <c r="C5" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A5,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">MAX(IF(C5="ID not in use",0,IF(C5="1X1",1,IF(C5="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="str">
+      <c r="B6" s="1" t="str">
         <f aca="false">IF(C6="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C6" s="0" t="str">
+      <c r="C6" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A6,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">MAX(IF(C6="ID not in use",0,IF(C6="1X1",1,IF(C6="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="str">
+      <c r="B7" s="1" t="str">
         <f aca="false">IF(C7="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C7" s="0" t="str">
+      <c r="C7" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A7,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">MAX(IF(C7="ID not in use",0,IF(C7="1X1",1,IF(C7="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="str">
+      <c r="B8" s="1" t="str">
         <f aca="false">IF(C8="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C8" s="0" t="str">
+      <c r="C8" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A8,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">MAX(IF(C8="ID not in use",0,IF(C8="1X1",1,IF(C8="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="str">
+      <c r="B9" s="1" t="str">
         <f aca="false">IF(C9="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C9" s="0" t="str">
+      <c r="C9" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A9,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">MAX(IF(C9="ID not in use",0,IF(C9="1X1",1,IF(C9="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="str">
+      <c r="B10" s="1" t="str">
         <f aca="false">IF(C10="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C10" s="0" t="str">
+      <c r="C10" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A10,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">MAX(IF(C10="ID not in use",0,IF(C10="1X1",1,IF(C10="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="str">
+      <c r="B11" s="1" t="str">
         <f aca="false">IF(C11="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C11" s="0" t="str">
+      <c r="C11" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A11,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">MAX(IF(C11="ID not in use",0,IF(C11="1X1",1,IF(C11="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="str">
+      <c r="B12" s="1" t="str">
         <f aca="false">IF(C12="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C12" s="0" t="str">
+      <c r="C12" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A12,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">MAX(IF(C12="ID not in use",0,IF(C12="1X1",1,IF(C12="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="str">
+      <c r="B13" s="1" t="str">
         <f aca="false">IF(C13="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C13" s="0" t="str">
+      <c r="C13" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A13,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">MAX(IF(C13="ID not in use",0,IF(C13="1X1",1,IF(C13="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="str">
+      <c r="B14" s="1" t="str">
         <f aca="false">IF(C14="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C14" s="0" t="str">
+      <c r="C14" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A14,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">MAX(IF(C14="ID not in use",0,IF(C14="1X1",1,IF(C14="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="str">
+      <c r="B15" s="1" t="str">
         <f aca="false">IF(C15="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C15" s="0" t="str">
+      <c r="C15" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A15,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">MAX(IF(C15="ID not in use",0,IF(C15="1X1",1,IF(C15="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="str">
+      <c r="B16" s="1" t="str">
         <f aca="false">IF(C16="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C16" s="0" t="str">
+      <c r="C16" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A16,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">MAX(IF(C16="ID not in use",0,IF(C16="1X1",1,IF(C16="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="str">
+      <c r="B17" s="1" t="str">
         <f aca="false">IF(C17="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C17" s="0" t="str">
+      <c r="C17" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A17,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false">MAX(IF(C17="ID not in use",0,IF(C17="1X1",1,IF(C17="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="str">
+      <c r="B18" s="1" t="str">
         <f aca="false">IF(C18="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C18" s="0" t="str">
+      <c r="C18" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A18,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">MAX(IF(C18="ID not in use",0,IF(C18="1X1",1,IF(C18="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="str">
+      <c r="B19" s="1" t="str">
         <f aca="false">IF(C19="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C19" s="0" t="str">
+      <c r="C19" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A19,items!C:D,2,0),"ID not in use")</f>
         <v>1X1</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">MAX(IF(C19="ID not in use",0,IF(C19="1X1",1,IF(C19="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="str">
+      <c r="B20" s="1" t="str">
         <f aca="false">IF(C20="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C20" s="0" t="str">
+      <c r="C20" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A20,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false">MAX(IF(C20="ID not in use",0,IF(C20="1X1",1,IF(C20="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="str">
+      <c r="B21" s="1" t="str">
         <f aca="false">IF(C21="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C21" s="0" t="str">
+      <c r="C21" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A21,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">MAX(IF(C21="ID not in use",0,IF(C21="1X1",1,IF(C21="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="str">
+      <c r="B22" s="1" t="str">
         <f aca="false">IF(C22="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C22" s="0" t="str">
+      <c r="C22" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A22,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <f aca="false">MAX(IF(C22="ID not in use",0,IF(C22="1X1",1,IF(C22="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="str">
+      <c r="B23" s="1" t="str">
         <f aca="false">IF(C23="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C23" s="0" t="str">
+      <c r="C23" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A23,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">MAX(IF(C23="ID not in use",0,IF(C23="1X1",1,IF(C23="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="str">
+      <c r="B24" s="1" t="str">
         <f aca="false">IF(C24="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C24" s="0" t="str">
+      <c r="C24" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A24,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">MAX(IF(C24="ID not in use",0,IF(C24="1X1",1,IF(C24="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="str">
+      <c r="B25" s="1" t="str">
         <f aca="false">IF(C25="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C25" s="0" t="str">
+      <c r="C25" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A25,items!C:D,2,0),"ID not in use")</f>
         <v>1X1</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">MAX(IF(C25="ID not in use",0,IF(C25="1X1",1,IF(C25="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="str">
+      <c r="B26" s="1" t="str">
         <f aca="false">IF(C26="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C26" s="0" t="str">
+      <c r="C26" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A26,items!C:D,2,0),"ID not in use")</f>
         <v>1X1</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false">MAX(IF(C26="ID not in use",0,IF(C26="1X1",1,IF(C26="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="str">
+      <c r="B27" s="1" t="str">
         <f aca="false">IF(C27="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C27" s="0" t="str">
+      <c r="C27" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A27,items!C:D,2,0),"ID not in use")</f>
         <v>1X1</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <f aca="false">MAX(IF(C27="ID not in use",0,IF(C27="1X1",1,IF(C27="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="str">
+      <c r="B28" s="1" t="str">
         <f aca="false">IF(C28="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C28" s="0" t="str">
+      <c r="C28" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A28,items!C:D,2,0),"ID not in use")</f>
         <v>1X1</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false">MAX(IF(C28="ID not in use",0,IF(C28="1X1",1,IF(C28="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="str">
+      <c r="B29" s="1" t="str">
         <f aca="false">IF(C29="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C29" s="0" t="str">
+      <c r="C29" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A29,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <f aca="false">MAX(IF(C29="ID not in use",0,IF(C29="1X1",1,IF(C29="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="str">
+      <c r="B30" s="1" t="str">
         <f aca="false">IF(C30="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C30" s="0" t="str">
+      <c r="C30" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A30,items!C:D,2,0),"ID not in use")</f>
         <v>1X1</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false">MAX(IF(C30="ID not in use",0,IF(C30="1X1",1,IF(C30="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="str">
+      <c r="B31" s="1" t="str">
         <f aca="false">IF(C31="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
-      </c>
-      <c r="C31" s="0" t="str">
+        <v>Used</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A31,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
-      </c>
-      <c r="D31" s="0" t="n">
+        <v>1X1</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <f aca="false">MAX(IF(C31="ID not in use",0,IF(C31="1X1",1,IF(C31="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="str">
+      <c r="B32" s="1" t="str">
         <f aca="false">IF(C32="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C32" s="0" t="str">
+      <c r="C32" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A32,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <f aca="false">MAX(IF(C32="ID not in use",0,IF(C32="1X1",1,IF(C32="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="0" t="str">
+      <c r="B33" s="1" t="str">
         <f aca="false">IF(C33="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C33" s="0" t="str">
+      <c r="C33" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A33,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <f aca="false">MAX(IF(C33="ID not in use",0,IF(C33="1X1",1,IF(C33="2X2",4,2)))-1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="str">
+      <c r="B34" s="1" t="str">
         <f aca="false">IF(C34="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <f aca="false">MAX(IF(C34="ID not in use",0,IF(C34="1X1",1,IF(C34="2X2",4,2)))-1,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="str">
+      <c r="B35" s="1" t="str">
         <f aca="false">IF(C35="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C35" s="0" t="str">
+      <c r="C35" s="1" t="str">
         <f aca="false">IF(D34&gt;0,"Multi-tile","ID not in use")</f>
         <v>Multi-tile</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <f aca="false">IF(C35="Multi-tile",D34-1,MAX(IF(C35="ID not in use",0,IF(C35="1X1",1,IF(C35="2X2",4,2)))-1,0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="str">
+      <c r="B36" s="1" t="str">
         <f aca="false">IF(C36="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C36" s="0" t="str">
+      <c r="C36" s="1" t="str">
         <f aca="false">IF(D35&gt;0,"Multi-tile","ID not in use")</f>
         <v>Multi-tile</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <f aca="false">IF(C36="Multi-tile",D35-1,MAX(IF(C36="ID not in use",0,IF(C36="1X1",1,IF(C36="2X2",4,2)))-1,0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="str">
+      <c r="B37" s="1" t="str">
         <f aca="false">IF(C37="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C37" s="0" t="str">
+      <c r="C37" s="1" t="str">
         <f aca="false">IF(D36&gt;0,"Multi-tile","ID not in use")</f>
         <v>Multi-tile</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <f aca="false">IF(C37="Multi-tile",D36-1,MAX(IF(C37="ID not in use",0,IF(C37="1X1",1,IF(C37="2X2",4,2)))-1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="0" t="str">
+      <c r="B38" s="1" t="str">
         <f aca="false">IF(C38="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C38" s="0" t="str">
+      <c r="C38" s="1" t="str">
         <f aca="false">IF(D37&gt;0,"Multi-tile","ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <f aca="false">IF(C38="Multi-tile",D37-1,MAX(IF(C38="ID not in use",0,IF(C38="1X1",1,IF(C38="2X2",4,2)))-1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="0" t="str">
+      <c r="B39" s="1" t="str">
         <f aca="false">IF(C39="ID not in use","ID not in use","Used")</f>
         <v>ID not in use</v>
       </c>
-      <c r="C39" s="0" t="str">
+      <c r="C39" s="1" t="str">
         <f aca="false">IF(D38&gt;0,"Multi-tile","ID not in use")</f>
         <v>ID not in use</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <f aca="false">IF(C39="Multi-tile",D38-1,MAX(IF(C39="ID not in use",0,IF(C39="1X1",1,IF(C39="2X2",4,2)))-1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
     </row>
@@ -2829,22 +3096,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,7 +3128,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -2880,11 +3147,11 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
+      <c r="E3" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,29 +3165,29 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -181,6 +181,21 @@
     <t xml:space="preserve">hirata_m</t>
   </si>
   <si>
+    <t xml:space="preserve">bank_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skyscraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_BANK_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
+  </si>
+  <si>
     <t xml:space="preserve">colour</t>
   </si>
   <si>
@@ -274,9 +289,6 @@
     <t xml:space="preserve">ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</t>
   </si>
   <si>
-    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4,3,2</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 only</t>
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE)</t>
@@ -299,8 +308,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -367,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,6 +392,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -401,24 +415,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.12"/>
@@ -533,7 +548,7 @@
       <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="M2" s="4" t="str">
         <f aca="false">VLOOKUP(L2,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -555,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f aca="false">IF(D2="1X1",A2,"none")</f>
+        <f aca="false">IF(NOT(D2="1X1"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c"),A2))</f>
         <v>fukuda_m</v>
       </c>
       <c r="T2" s="1" t="str">
@@ -612,7 +627,7 @@
       <c r="L3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="M3" s="4" t="str">
         <f aca="false">VLOOKUP(L3,dropdowns!D:E,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -634,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f aca="false">IF(D3="1X1",A3,"none")</f>
+        <f aca="false">IF(NOT(D3="1X1"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c"),A3))</f>
         <v>fukuda_l</v>
       </c>
       <c r="T3" s="1" t="str">
@@ -691,7 +706,7 @@
       <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="M4" s="4" t="str">
         <f aca="false">VLOOKUP(L4,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -713,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f aca="false">IF(D4="1X1",A4,"none")</f>
+        <f aca="false">IF(NOT(D4="1X1"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c"),A4))</f>
         <v>harada_m</v>
       </c>
       <c r="T4" s="1" t="str">
@@ -770,7 +785,7 @@
       <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="M5" s="4" t="str">
         <f aca="false">VLOOKUP(L5,dropdowns!D:E,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -792,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f aca="false">IF(D5="1X1",A5,"none")</f>
+        <f aca="false">IF(NOT(D5="1X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c"),A5))</f>
         <v>harada_l</v>
       </c>
       <c r="T5" s="1" t="str">
@@ -849,7 +864,7 @@
       <c r="L6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="2" t="str">
+      <c r="M6" s="4" t="str">
         <f aca="false">VLOOKUP(L6,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
@@ -869,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f aca="false">IF(D6="1X1",A6,"none")</f>
+        <f aca="false">IF(NOT(D6="1X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c"),A6))</f>
         <v>hayashi_s</v>
       </c>
       <c r="T6" s="1" t="str">
@@ -926,7 +941,7 @@
       <c r="L7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="2" t="str">
+      <c r="M7" s="4" t="str">
         <f aca="false">VLOOKUP(L7,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -946,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f aca="false">IF(D7="1X1",A7,"none")</f>
+        <f aca="false">IF(NOT(D7="1X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c"),A7))</f>
         <v>hayashi_m</v>
       </c>
       <c r="T7" s="1" t="str">
@@ -1003,7 +1018,7 @@
       <c r="L8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="M8" s="4" t="str">
         <f aca="false">VLOOKUP(L8,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f aca="false">IF(D8="1X1",A8,"none")</f>
+        <f aca="false">IF(NOT(D8="1X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c"),A8))</f>
         <v>hirano_s</v>
       </c>
       <c r="T8" s="1" t="str">
@@ -1080,7 +1095,7 @@
       <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="2" t="str">
+      <c r="M9" s="4" t="str">
         <f aca="false">VLOOKUP(L9,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f aca="false">IF(D9="1X1",A9,"none")</f>
+        <f aca="false">IF(NOT(D9="1X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c"),A9))</f>
         <v>hirano_m</v>
       </c>
       <c r="T9" s="1" t="str">
@@ -1157,14 +1172,14 @@
       <c r="L10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="M10" s="4" t="str">
         <f aca="false">VLOOKUP(L10,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -1177,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f aca="false">IF(D10="1X1",A10,"none")</f>
+        <f aca="false">IF(NOT(D10="1X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c"),A10))</f>
         <v>hirata_s</v>
       </c>
       <c r="T10" s="1" t="str">
@@ -1234,14 +1249,14 @@
       <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="M11" s="4" t="str">
         <f aca="false">VLOOKUP(L11,dropdowns!D:E,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1254,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f aca="false">IF(D11="1X1",A11,"none")</f>
+        <f aca="false">IF(NOT(D11="1X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c"),A11))</f>
         <v>hirata_m</v>
       </c>
       <c r="T11" s="1" t="str">
@@ -1271,6 +1286,83 @@
       </c>
       <c r="W11" s="1" t="str">
         <f aca="false">IF(D11="2X2",CONCATENATE(A11,"_south"),"none")</f>
+        <v>none</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f aca="false">VLOOKUP(L12,dropdowns!D:E,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f aca="false">IF(NOT(D12="1X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c"),A12))</f>
+        <v>bank_building_c</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f aca="false">IF(D12="1X1","none",CONCATENATE(A12,"_north"))</f>
+        <v>none</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f aca="false">IF(D12="2X2",CONCATENATE(A12,"_east"),IF(D12="1X2",CONCATENATE(A12,"_east"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f aca="false">IF(D12="2X2",CONCATENATE(A12,"_west"),IF(D12="2X1",CONCATENATE(A12,"_west"),"none"))</f>
+        <v>none</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f aca="false">IF(D12="2X2",CONCATENATE(A12,"_south"),"none")</f>
         <v>none</v>
       </c>
     </row>
@@ -1280,11 +1372,11 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L11" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L12" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P11" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P12" type="list">
       <formula1>dropdowns!$F:$F</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1318,15 +1410,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1334,7 +1426,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -1342,7 +1434,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -1350,7 +1442,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -1358,7 +1450,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -1366,7 +1458,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -1374,7 +1466,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -1382,7 +1474,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -1390,7 +1482,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -1398,7 +1490,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -1406,7 +1498,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -1414,7 +1506,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -1422,7 +1514,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -1430,7 +1522,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -1438,7 +1530,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -1446,7 +1538,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -1478,16 +1570,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2135,7 @@
         <v>Used</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">MAX(IF(C34="ID not in use",0,IF(C34="1X1",1,IF(C34="2X2",4,2)))-1,0)</f>
@@ -2606,22 +2698,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2730,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -2657,11 +2749,11 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>82</v>
+      <c r="E3" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,29 +2767,29 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>87</v>
+      <c r="E5" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">cargo_mail</t>
   </si>
   <si>
+    <t xml:space="preserve">accepted_cargoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">graphics_default</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t xml:space="preserve">graphics_south</t>
   </si>
   <si>
+    <t xml:space="preserve">con_check_override</t>
+  </si>
+  <si>
     <t xml:space="preserve">fukuda_m</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
+    <t xml:space="preserve">[PASS, 4],[MAIL, 2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">fukuda_l</t>
   </si>
   <si>
@@ -196,6 +205,27 @@
     <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
   </si>
   <si>
+    <t xml:space="preserve">hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
+  </si>
+  <si>
     <t xml:space="preserve">colour</t>
   </si>
   <si>
@@ -262,9 +292,6 @@
     <t xml:space="preserve">Multiple Ids</t>
   </si>
   <si>
-    <t xml:space="preserve">2X2</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;height&gt;</t>
   </si>
   <si>
@@ -274,6 +301,9 @@
     <t xml:space="preserve">cargo mail</t>
   </si>
   <si>
+    <t xml:space="preserve">accepted cargoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;townzone_number&gt;</t>
   </si>
   <si>
@@ -295,13 +325,13 @@
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
   </si>
   <si>
-    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
-  </si>
-  <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</t>
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
   </si>
 </sst>
 </file>
@@ -415,10 +445,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,11 +463,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,25 +540,31 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>100</v>
@@ -546,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="str">
-        <f aca="false">VLOOKUP(L2,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L2,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N2" s="1" t="n">
@@ -559,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">VLOOKUP(E2,dropdowns!A:C,2,0)</f>
@@ -569,45 +605,51 @@
         <f aca="false">VLOOKUP(E2,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="str">
         <f aca="false">IF(NOT(D2="1X1"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c"),A2))</f>
         <v>fukuda_m</v>
       </c>
-      <c r="T2" s="1" t="str">
-        <f aca="false">IF(D2="1X1","none",CONCATENATE(A2,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U2" s="1" t="str">
-        <f aca="false">IF(D2="2X2",CONCATENATE(A2,"_east"),IF(D2="1X2",CONCATENATE(A2,"_east"),"none"))</f>
+        <f aca="false">IF(D2="1X1","none",IF(E2="skyscraper",CONCATENATE(A2,"_c_north"),IF(E2="landmark",CONCATENATE(A2,"_k_north"),CONCATENATE(A2,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V2" s="1" t="str">
-        <f aca="false">IF(D2="2X2",CONCATENATE(A2,"_west"),IF(D2="2X1",CONCATENATE(A2,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D2="1X1",D2="2X1"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c_east"),IF(E2="landmark",CONCATENATE(A2,"_k_east"),CONCATENATE(A2,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f aca="false">IF(D2="2X2",CONCATENATE(A2,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D2="1X1",D2="1X2"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c_west"),IF(E2="landmark",CONCATENATE(A2,"_k_west"),CONCATENATE(A2,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f aca="false">IF(NOT(D2="2X2"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c_south"),IF(E2="landmark",CONCATENATE(A2,"_k_south"),CONCATENATE(A2,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>125</v>
@@ -625,10 +667,10 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" s="4" t="str">
-        <f aca="false">VLOOKUP(L3,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L3,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N3" s="1" t="n">
@@ -638,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">VLOOKUP(E3,dropdowns!A:C,2,0)</f>
@@ -648,45 +690,51 @@
         <f aca="false">VLOOKUP(E3,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
-      <c r="S3" s="1" t="str">
+      <c r="S3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="str">
         <f aca="false">IF(NOT(D3="1X1"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c"),A3))</f>
         <v>fukuda_l</v>
       </c>
-      <c r="T3" s="1" t="str">
-        <f aca="false">IF(D3="1X1","none",CONCATENATE(A3,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U3" s="1" t="str">
-        <f aca="false">IF(D3="2X2",CONCATENATE(A3,"_east"),IF(D3="1X2",CONCATENATE(A3,"_east"),"none"))</f>
+        <f aca="false">IF(D3="1X1","none",IF(E3="skyscraper",CONCATENATE(A3,"_c_north"),IF(E3="landmark",CONCATENATE(A3,"_k_north"),CONCATENATE(A3,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f aca="false">IF(D3="2X2",CONCATENATE(A3,"_west"),IF(D3="2X1",CONCATENATE(A3,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D3="1X1",D3="2X1"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c_east"),IF(E3="landmark",CONCATENATE(A3,"_k_east"),CONCATENATE(A3,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f aca="false">IF(D3="2X2",CONCATENATE(A3,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D3="1X1",D3="1X2"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c_west"),IF(E3="landmark",CONCATENATE(A3,"_k_west"),CONCATENATE(A3,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f aca="false">IF(NOT(D3="2X2"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c_south"),IF(E3="landmark",CONCATENATE(A3,"_k_south"),CONCATENATE(A3,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>100</v>
@@ -698,16 +746,16 @@
         <v>1960</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>7</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4" t="str">
-        <f aca="false">VLOOKUP(L4,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L4,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N4" s="1" t="n">
@@ -717,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">VLOOKUP(E4,dropdowns!A:C,2,0)</f>
@@ -727,45 +775,51 @@
         <f aca="false">VLOOKUP(E4,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="S4" s="1" t="str">
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="1" t="str">
         <f aca="false">IF(NOT(D4="1X1"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c"),A4))</f>
         <v>harada_m</v>
       </c>
-      <c r="T4" s="1" t="str">
-        <f aca="false">IF(D4="1X1","none",CONCATENATE(A4,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U4" s="1" t="str">
-        <f aca="false">IF(D4="2X2",CONCATENATE(A4,"_east"),IF(D4="1X2",CONCATENATE(A4,"_east"),"none"))</f>
+        <f aca="false">IF(D4="1X1","none",IF(E4="skyscraper",CONCATENATE(A4,"_c_north"),IF(E4="landmark",CONCATENATE(A4,"_k_north"),CONCATENATE(A4,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V4" s="1" t="str">
-        <f aca="false">IF(D4="2X2",CONCATENATE(A4,"_west"),IF(D4="2X1",CONCATENATE(A4,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D4="1X1",D4="2X1"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c_east"),IF(E4="landmark",CONCATENATE(A4,"_k_east"),CONCATENATE(A4,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f aca="false">IF(D4="2X2",CONCATENATE(A4,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D4="1X1",D4="1X2"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c_west"),IF(E4="landmark",CONCATENATE(A4,"_k_west"),CONCATENATE(A4,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f aca="false">IF(NOT(D4="2X2"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c_south"),IF(E4="landmark",CONCATENATE(A4,"_k_south"),CONCATENATE(A4,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>125</v>
@@ -777,16 +831,16 @@
         <v>1960</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f aca="false">VLOOKUP(L5,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L5,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N5" s="1" t="n">
@@ -796,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">VLOOKUP(E5,dropdowns!A:C,2,0)</f>
@@ -806,45 +860,51 @@
         <f aca="false">VLOOKUP(E5,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="1" t="str">
         <f aca="false">IF(NOT(D5="1X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c"),A5))</f>
         <v>harada_l</v>
       </c>
-      <c r="T5" s="1" t="str">
-        <f aca="false">IF(D5="1X1","none",CONCATENATE(A5,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U5" s="1" t="str">
-        <f aca="false">IF(D5="2X2",CONCATENATE(A5,"_east"),IF(D5="1X2",CONCATENATE(A5,"_east"),"none"))</f>
+        <f aca="false">IF(D5="1X1","none",IF(E5="skyscraper",CONCATENATE(A5,"_c_north"),IF(E5="landmark",CONCATENATE(A5,"_k_north"),CONCATENATE(A5,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f aca="false">IF(D5="2X2",CONCATENATE(A5,"_west"),IF(D5="2X1",CONCATENATE(A5,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D5="1X1",D5="2X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c_east"),IF(E5="landmark",CONCATENATE(A5,"_k_east"),CONCATENATE(A5,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f aca="false">IF(D5="2X2",CONCATENATE(A5,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D5="1X1",D5="1X2"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c_west"),IF(E5="landmark",CONCATENATE(A5,"_k_west"),CONCATENATE(A5,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f aca="false">IF(NOT(D5="2X2"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c_south"),IF(E5="landmark",CONCATENATE(A5,"_k_south"),CONCATENATE(A5,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>75</v>
@@ -856,16 +916,16 @@
         <v>1960</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f aca="false">VLOOKUP(L6,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L6,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
       <c r="N6" s="1" t="n">
@@ -875,53 +935,61 @@
         <v>4</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="1" t="n">
+        <f aca="false">VLOOKUP(E6,dropdowns!A:C,2,0)</f>
         <v>6</v>
       </c>
       <c r="R6" s="1" t="n">
+        <f aca="false">VLOOKUP(E6,dropdowns!A:C,3,0)</f>
         <v>2</v>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="S6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="1" t="str">
         <f aca="false">IF(NOT(D6="1X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c"),A6))</f>
         <v>hayashi_s</v>
       </c>
-      <c r="T6" s="1" t="str">
-        <f aca="false">IF(D6="1X1","none",CONCATENATE(A6,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U6" s="1" t="str">
-        <f aca="false">IF(D6="2X2",CONCATENATE(A6,"_east"),IF(D6="1X2",CONCATENATE(A6,"_east"),"none"))</f>
+        <f aca="false">IF(D6="1X1","none",IF(E6="skyscraper",CONCATENATE(A6,"_c_north"),IF(E6="landmark",CONCATENATE(A6,"_k_north"),CONCATENATE(A6,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f aca="false">IF(D6="2X2",CONCATENATE(A6,"_west"),IF(D6="2X1",CONCATENATE(A6,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D6="1X1",D6="2X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c_east"),IF(E6="landmark",CONCATENATE(A6,"_k_east"),CONCATENATE(A6,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f aca="false">IF(D6="2X2",CONCATENATE(A6,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D6="1X1",D6="1X2"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c_west"),IF(E6="landmark",CONCATENATE(A6,"_k_west"),CONCATENATE(A6,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f aca="false">IF(NOT(D6="2X2"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c_south"),IF(E6="landmark",CONCATENATE(A6,"_k_south"),CONCATENATE(A6,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>100</v>
@@ -933,16 +1001,16 @@
         <v>1960</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f aca="false">VLOOKUP(L7,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L7,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N7" s="1" t="n">
@@ -952,53 +1020,61 @@
         <v>4</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="1" t="n">
+        <f aca="false">VLOOKUP(E7,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R7" s="1" t="n">
+        <f aca="false">VLOOKUP(E7,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="S7" s="1" t="str">
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="1" t="str">
         <f aca="false">IF(NOT(D7="1X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c"),A7))</f>
         <v>hayashi_m</v>
       </c>
-      <c r="T7" s="1" t="str">
-        <f aca="false">IF(D7="1X1","none",CONCATENATE(A7,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U7" s="1" t="str">
-        <f aca="false">IF(D7="2X2",CONCATENATE(A7,"_east"),IF(D7="1X2",CONCATENATE(A7,"_east"),"none"))</f>
+        <f aca="false">IF(D7="1X1","none",IF(E7="skyscraper",CONCATENATE(A7,"_c_north"),IF(E7="landmark",CONCATENATE(A7,"_k_north"),CONCATENATE(A7,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f aca="false">IF(D7="2X2",CONCATENATE(A7,"_west"),IF(D7="2X1",CONCATENATE(A7,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D7="1X1",D7="2X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c_east"),IF(E7="landmark",CONCATENATE(A7,"_k_east"),CONCATENATE(A7,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f aca="false">IF(D7="2X2",CONCATENATE(A7,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D7="1X1",D7="1X2"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c_west"),IF(E7="landmark",CONCATENATE(A7,"_k_west"),CONCATENATE(A7,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f aca="false">IF(NOT(D7="2X2"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c_south"),IF(E7="landmark",CONCATENATE(A7,"_k_south"),CONCATENATE(A7,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>75</v>
@@ -1010,16 +1086,16 @@
         <v>1955</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f aca="false">VLOOKUP(L8,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L8,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
       <c r="N8" s="1" t="n">
@@ -1029,53 +1105,61 @@
         <v>4</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="1" t="n">
+        <f aca="false">VLOOKUP(E8,dropdowns!A:C,2,0)</f>
         <v>6</v>
       </c>
       <c r="R8" s="1" t="n">
+        <f aca="false">VLOOKUP(E8,dropdowns!A:C,3,0)</f>
         <v>2</v>
       </c>
-      <c r="S8" s="1" t="str">
+      <c r="S8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="1" t="str">
         <f aca="false">IF(NOT(D8="1X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c"),A8))</f>
         <v>hirano_s</v>
       </c>
-      <c r="T8" s="1" t="str">
-        <f aca="false">IF(D8="1X1","none",CONCATENATE(A8,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U8" s="1" t="str">
-        <f aca="false">IF(D8="2X2",CONCATENATE(A8,"_east"),IF(D8="1X2",CONCATENATE(A8,"_east"),"none"))</f>
+        <f aca="false">IF(D8="1X1","none",IF(E8="skyscraper",CONCATENATE(A8,"_c_north"),IF(E8="landmark",CONCATENATE(A8,"_k_north"),CONCATENATE(A8,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f aca="false">IF(D8="2X2",CONCATENATE(A8,"_west"),IF(D8="2X1",CONCATENATE(A8,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D8="1X1",D8="2X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c_east"),IF(E8="landmark",CONCATENATE(A8,"_k_east"),CONCATENATE(A8,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f aca="false">IF(D8="2X2",CONCATENATE(A8,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D8="1X1",D8="1X2"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c_west"),IF(E8="landmark",CONCATENATE(A8,"_k_west"),CONCATENATE(A8,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f aca="false">IF(NOT(D8="2X2"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c_south"),IF(E8="landmark",CONCATENATE(A8,"_k_south"),CONCATENATE(A8,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>100</v>
@@ -1087,16 +1171,16 @@
         <v>1955</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f aca="false">VLOOKUP(L9,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L9,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N9" s="1" t="n">
@@ -1106,53 +1190,61 @@
         <v>4</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="1" t="n">
+        <f aca="false">VLOOKUP(E9,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R9" s="1" t="n">
+        <f aca="false">VLOOKUP(E9,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="S9" s="1" t="str">
+      <c r="S9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="1" t="str">
         <f aca="false">IF(NOT(D9="1X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c"),A9))</f>
         <v>hirano_m</v>
       </c>
-      <c r="T9" s="1" t="str">
-        <f aca="false">IF(D9="1X1","none",CONCATENATE(A9,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U9" s="1" t="str">
-        <f aca="false">IF(D9="2X2",CONCATENATE(A9,"_east"),IF(D9="1X2",CONCATENATE(A9,"_east"),"none"))</f>
+        <f aca="false">IF(D9="1X1","none",IF(E9="skyscraper",CONCATENATE(A9,"_c_north"),IF(E9="landmark",CONCATENATE(A9,"_k_north"),CONCATENATE(A9,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f aca="false">IF(D9="2X2",CONCATENATE(A9,"_west"),IF(D9="2X1",CONCATENATE(A9,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D9="1X1",D9="2X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c_east"),IF(E9="landmark",CONCATENATE(A9,"_k_east"),CONCATENATE(A9,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f aca="false">IF(D9="2X2",CONCATENATE(A9,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D9="1X1",D9="1X2"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c_west"),IF(E9="landmark",CONCATENATE(A9,"_k_west"),CONCATENATE(A9,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f aca="false">IF(NOT(D9="2X2"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c_south"),IF(E9="landmark",CONCATENATE(A9,"_k_south"),CONCATENATE(A9,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>75</v>
@@ -1164,16 +1256,16 @@
         <v>1945</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f aca="false">VLOOKUP(L10,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L10,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
       <c r="N10" s="1" t="n">
@@ -1183,53 +1275,61 @@
         <v>4</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="1" t="n">
+        <f aca="false">VLOOKUP(E10,dropdowns!A:C,2,0)</f>
         <v>6</v>
       </c>
       <c r="R10" s="1" t="n">
+        <f aca="false">VLOOKUP(E10,dropdowns!A:C,3,0)</f>
         <v>2</v>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="S10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="1" t="str">
         <f aca="false">IF(NOT(D10="1X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c"),A10))</f>
         <v>hirata_s</v>
       </c>
-      <c r="T10" s="1" t="str">
-        <f aca="false">IF(D10="1X1","none",CONCATENATE(A10,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U10" s="1" t="str">
-        <f aca="false">IF(D10="2X2",CONCATENATE(A10,"_east"),IF(D10="1X2",CONCATENATE(A10,"_east"),"none"))</f>
+        <f aca="false">IF(D10="1X1","none",IF(E10="skyscraper",CONCATENATE(A10,"_c_north"),IF(E10="landmark",CONCATENATE(A10,"_k_north"),CONCATENATE(A10,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f aca="false">IF(D10="2X2",CONCATENATE(A10,"_west"),IF(D10="2X1",CONCATENATE(A10,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D10="1X1",D10="2X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c_east"),IF(E10="landmark",CONCATENATE(A10,"_k_east"),CONCATENATE(A10,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f aca="false">IF(D10="2X2",CONCATENATE(A10,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D10="1X1",D10="1X2"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c_west"),IF(E10="landmark",CONCATENATE(A10,"_k_west"),CONCATENATE(A10,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f aca="false">IF(NOT(D10="2X2"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c_south"),IF(E10="landmark",CONCATENATE(A10,"_k_south"),CONCATENATE(A10,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>100</v>
@@ -1241,16 +1341,16 @@
         <v>1945</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f aca="false">VLOOKUP(L11,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L11,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N11" s="1" t="n">
@@ -1260,84 +1360,92 @@
         <v>4</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="1" t="n">
+        <f aca="false">VLOOKUP(E11,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R11" s="1" t="n">
+        <f aca="false">VLOOKUP(E11,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
-      <c r="S11" s="1" t="str">
+      <c r="S11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="1" t="str">
         <f aca="false">IF(NOT(D11="1X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c"),A11))</f>
         <v>hirata_m</v>
       </c>
-      <c r="T11" s="1" t="str">
-        <f aca="false">IF(D11="1X1","none",CONCATENATE(A11,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U11" s="1" t="str">
-        <f aca="false">IF(D11="2X2",CONCATENATE(A11,"_east"),IF(D11="1X2",CONCATENATE(A11,"_east"),"none"))</f>
+        <f aca="false">IF(D11="1X1","none",IF(E11="skyscraper",CONCATENATE(A11,"_c_north"),IF(E11="landmark",CONCATENATE(A11,"_k_north"),CONCATENATE(A11,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f aca="false">IF(D11="2X2",CONCATENATE(A11,"_west"),IF(D11="2X1",CONCATENATE(A11,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D11="1X1",D11="2X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c_east"),IF(E11="landmark",CONCATENATE(A11,"_k_east"),CONCATENATE(A11,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f aca="false">IF(D11="2X2",CONCATENATE(A11,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D11="1X1",D11="1X2"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c_west"),IF(E11="landmark",CONCATENATE(A11,"_k_west"),CONCATENATE(A11,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f aca="false">IF(NOT(D11="2X2"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c_south"),IF(E11="landmark",CONCATENATE(A11,"_k_south"),CONCATENATE(A11,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>1980</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>20</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f aca="false">VLOOKUP(L12,dropdowns!D:E,2,0)</f>
+        <f aca="false">VLOOKUP(L12,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="1" t="n">
         <v>16</v>
@@ -1345,39 +1453,132 @@
       <c r="R12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="S12" s="1" t="str">
+      <c r="S12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="1" t="str">
         <f aca="false">IF(NOT(D12="1X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c"),A12))</f>
         <v>bank_building_c</v>
       </c>
-      <c r="T12" s="1" t="str">
-        <f aca="false">IF(D12="1X1","none",CONCATENATE(A12,"_north"))</f>
-        <v>none</v>
-      </c>
       <c r="U12" s="1" t="str">
-        <f aca="false">IF(D12="2X2",CONCATENATE(A12,"_east"),IF(D12="1X2",CONCATENATE(A12,"_east"),"none"))</f>
+        <f aca="false">IF(D12="1X1","none",IF(E12="skyscraper",CONCATENATE(A12,"_c_north"),IF(E12="landmark",CONCATENATE(A12,"_k_north"),CONCATENATE(A12,"_north"))))</f>
         <v>none</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f aca="false">IF(D12="2X2",CONCATENATE(A12,"_west"),IF(D12="2X1",CONCATENATE(A12,"_west"),"none"))</f>
+        <f aca="false">IF(OR(D12="1X1",D12="2X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c_east"),IF(E12="landmark",CONCATENATE(A12,"_k_east"),CONCATENATE(A12,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f aca="false">IF(D12="2X2",CONCATENATE(A12,"_south"),"none")</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D12="1X1",D12="1X2"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c_west"),IF(E12="landmark",CONCATENATE(A12,"_k_west"),CONCATENATE(A12,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f aca="false">IF(NOT(D12="2X2"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c_south"),IF(E12="landmark",CONCATENATE(A12,"_k_south"),CONCATENATE(A12,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f aca="false">VLOOKUP(L13,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),A13))</f>
+        <v>none</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),CONCATENATE(A13,"_north"))))</f>
+        <v>hospital_k_north</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f aca="false">IF(OR(D13="1X1",D13="2X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_east"),IF(E13="landmark",CONCATENATE(A13,"_k_east"),CONCATENATE(A13,"_east"))))</f>
+        <v>hospital_k_east</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f aca="false">IF(OR(D13="1X1",D13="1X2"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_west"),IF(E13="landmark",CONCATENATE(A13,"_k_west"),CONCATENATE(A13,"_west"))))</f>
+        <v>hospital_k_west</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f aca="false">IF(NOT(D13="2X2"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_south"),IF(E13="landmark",CONCATENATE(A13,"_k_south"),CONCATENATE(A13,"_south"))))</f>
+        <v>hospital_k_south</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E11" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L12" type="list">
-      <formula1>dropdowns!$D:$D</formula1>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L13" type="list">
+      <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P12" type="list">
-      <formula1>dropdowns!$F:$F</formula1>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P13" type="list">
+      <formula1>dropdowns!$G:$G</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S13" type="list">
+      <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1410,15 +1611,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1426,7 +1627,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -1434,7 +1635,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -1442,7 +1643,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -1450,7 +1651,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -1458,7 +1659,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -1466,7 +1667,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -1474,7 +1675,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -1482,7 +1683,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -1490,7 +1691,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -1498,7 +1699,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -1506,7 +1707,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -1514,7 +1715,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -1522,7 +1723,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -1530,7 +1731,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -1538,7 +1739,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -1570,16 +1771,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,7 +2336,7 @@
         <v>Used</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">MAX(IF(C34="ID not in use",0,IF(C34="1X1",1,IF(C34="2X2",4,2)))-1,0)</f>
@@ -2683,42 +2884,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="18.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="81.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="81.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="59.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -2727,18 +2934,21 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
@@ -2747,18 +2957,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>14</v>
@@ -2766,30 +2979,38 @@
       <c r="C4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>91</v>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -12,6 +12,7 @@
     <sheet name="colour_dict" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ID checks" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="dropdowns" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="alphabet" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -115,213 +116,222 @@
     <t xml:space="preserve">NAME_APARTMENTS_FUKUDA</t>
   </si>
   <si>
+    <t xml:space="preserve">4,3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 4],[MAIL, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fukuda_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harada_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_APARTMENTS_HARADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harada_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hayashi_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hayashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_APARTMENTS_HAYASHI</t>
+  </si>
+  <si>
     <t xml:space="preserve">4,3,2,1</t>
   </si>
   <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PASS, 4],[MAIL, 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fukuda_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harada_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HARADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harada_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hayashi_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hayashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HAYASHI</t>
+    <t xml:space="preserve">hayashi_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirano_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_APARTMENTS_HIRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirano_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirata_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_APARTMENTS_HIRATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hirata_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skyscraper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_BANK_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_STADIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 8],[BEER, 8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red_brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">midgrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;height&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargo mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accepted cargoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;townzone_number&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;townzones&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;building_flags&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">hayashi_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hirano_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hirano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HIRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hirano_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hirata_s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hirata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HIRATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hirata_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank_building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skyscraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_BANK_BUILDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_HOSPITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brown1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brown2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark_green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light_blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dark_blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light_green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red_brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">midgrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;height&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cargo pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cargo mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accepted cargoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;townzone_number&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;townzones&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;building_flags&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALL_TOWNZONES</t>
   </si>
   <si>
     <t xml:space="preserve">ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</t>
   </si>
   <si>
-    <t xml:space="preserve">4,3,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
   </si>
   <si>
@@ -332,6 +342,45 @@
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 1 level</t>
   </si>
 </sst>
 </file>
@@ -445,10 +494,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,6 +517,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="17.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +593,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -586,7 +636,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f aca="false">VLOOKUP(L2,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>27</v>
@@ -628,7 +678,7 @@
         <f aca="false">IF(NOT(D2="2X2"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c_south"),IF(E2="landmark",CONCATENATE(A2,"_k_south"),CONCATENATE(A2,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -713,7 +763,7 @@
         <f aca="false">IF(NOT(D3="2X2"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c_south"),IF(E3="landmark",CONCATENATE(A3,"_k_south"),CONCATENATE(A3,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -756,7 +806,7 @@
       </c>
       <c r="M4" s="4" t="str">
         <f aca="false">VLOOKUP(L4,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>27</v>
@@ -798,7 +848,7 @@
         <f aca="false">IF(NOT(D4="2X2"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c_south"),IF(E4="landmark",CONCATENATE(A4,"_k_south"),CONCATENATE(A4,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Y4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -883,7 +933,7 @@
         <f aca="false">IF(NOT(D5="2X2"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c_south"),IF(E5="landmark",CONCATENATE(A5,"_k_south"),CONCATENATE(A5,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Y5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -926,7 +976,7 @@
       </c>
       <c r="M6" s="4" t="str">
         <f aca="false">VLOOKUP(L6,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>27</v>
@@ -968,7 +1018,7 @@
         <f aca="false">IF(NOT(D6="2X2"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c_south"),IF(E6="landmark",CONCATENATE(A6,"_k_south"),CONCATENATE(A6,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Y6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1011,7 +1061,7 @@
       </c>
       <c r="M7" s="4" t="str">
         <f aca="false">VLOOKUP(L7,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>27</v>
@@ -1053,7 +1103,7 @@
         <f aca="false">IF(NOT(D7="2X2"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c_south"),IF(E7="landmark",CONCATENATE(A7,"_k_south"),CONCATENATE(A7,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Y7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1096,7 +1146,7 @@
       </c>
       <c r="M8" s="4" t="str">
         <f aca="false">VLOOKUP(L8,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>27</v>
@@ -1138,7 +1188,7 @@
         <f aca="false">IF(NOT(D8="2X2"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c_south"),IF(E8="landmark",CONCATENATE(A8,"_k_south"),CONCATENATE(A8,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Y8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1181,7 +1231,7 @@
       </c>
       <c r="M9" s="4" t="str">
         <f aca="false">VLOOKUP(L9,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>27</v>
@@ -1223,7 +1273,7 @@
         <f aca="false">IF(NOT(D9="2X2"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c_south"),IF(E9="landmark",CONCATENATE(A9,"_k_south"),CONCATENATE(A9,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Y9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1266,7 +1316,7 @@
       </c>
       <c r="M10" s="4" t="str">
         <f aca="false">VLOOKUP(L10,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>27</v>
@@ -1308,7 +1358,7 @@
         <f aca="false">IF(NOT(D10="2X2"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c_south"),IF(E10="landmark",CONCATENATE(A10,"_k_south"),CONCATENATE(A10,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="Y10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1351,7 +1401,7 @@
       </c>
       <c r="M11" s="4" t="str">
         <f aca="false">VLOOKUP(L11,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>27</v>
@@ -1393,7 +1443,7 @@
         <f aca="false">IF(NOT(D11="2X2"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c_south"),IF(E11="landmark",CONCATENATE(A11,"_k_south"),CONCATENATE(A11,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Y11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1476,7 +1526,7 @@
         <f aca="false">IF(NOT(D12="2X2"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c_south"),IF(E12="landmark",CONCATENATE(A12,"_k_south"),CONCATENATE(A12,"_south"))))</f>
         <v>none</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Y12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1488,7 +1538,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>61</v>
@@ -1559,7 +1609,90 @@
         <f aca="false">IF(NOT(D13="2X2"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_south"),IF(E13="landmark",CONCATENATE(A13,"_k_south"),CONCATENATE(A13,"_south"))))</f>
         <v>hospital_k_south</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="Y13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f aca="false">VLOOKUP(L14,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),A14))</f>
+        <v>none</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),CONCATENATE(A14,"_north"))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),CONCATENATE(A14,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),CONCATENATE(A14,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f aca="false">IF(NOT(D14="2X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_south"),IF(E14="landmark",CONCATENATE(A14,"_k_south"),CONCATENATE(A14,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1569,15 +1702,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L13" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L14" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P13" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P14" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S13" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S14" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1600,7 +1733,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1611,15 +1744,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1627,7 +1760,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -1635,7 +1768,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -1643,7 +1776,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -1651,7 +1784,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -1659,7 +1792,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -1667,7 +1800,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -1675,7 +1808,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -1683,7 +1816,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -1691,7 +1824,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -1699,7 +1832,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -1707,7 +1840,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -1715,7 +1848,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -1723,7 +1856,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -1731,7 +1864,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -1739,7 +1872,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -1771,16 +1904,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,7 +3020,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2902,25 +3035,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,10 +3070,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -2960,10 +3093,10 @@
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -2979,11 +3112,14 @@
       <c r="C4" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
@@ -2994,7 +3130,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,7 +3138,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3146,94 @@
         <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="126">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -206,6 +206,18 @@
     <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
   </si>
   <si>
+    <t xml:space="preserve">tsuno_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_TSUNO_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 4],[GOOD, 4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">hospital</t>
   </si>
   <si>
@@ -236,6 +248,18 @@
     <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 8],[BEER, 8]</t>
   </si>
   <si>
+    <t xml:space="preserve">temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_TEMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">colour</t>
   </si>
   <si>
@@ -321,9 +345,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;building_flags&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">ALL_TOWNZONES</t>
@@ -494,10 +515,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,11 +534,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="17.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,25 +1560,25 @@
         <v>60</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G13" s="1" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>39</v>
@@ -1565,29 +1587,29 @@
         <v>20</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M13" s="4" t="str">
         <f aca="false">VLOOKUP(L13,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="R13" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="S13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T13" s="1" t="str">
         <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),A13))</f>
@@ -1595,42 +1617,42 @@
       </c>
       <c r="U13" s="1" t="str">
         <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),CONCATENATE(A13,"_north"))))</f>
-        <v>hospital_k_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V13" s="1" t="str">
         <f aca="false">IF(OR(D13="1X1",D13="2X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_east"),IF(E13="landmark",CONCATENATE(A13,"_k_east"),CONCATENATE(A13,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W13" s="1" t="str">
         <f aca="false">IF(OR(D13="1X1",D13="1X2"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_west"),IF(E13="landmark",CONCATENATE(A13,"_k_west"),CONCATENATE(A13,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <v>none</v>
       </c>
       <c r="X13" s="1" t="str">
         <f aca="false">IF(NOT(D13="2X2"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_south"),IF(E13="landmark",CONCATENATE(A13,"_k_south"),CONCATENATE(A13,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>150</v>
@@ -1638,7 +1660,7 @@
       <c r="H14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>1970</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1648,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M14" s="4" t="str">
         <f aca="false">VLOOKUP(L14,dropdowns!E:F,2,0)</f>
@@ -1661,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>10</v>
@@ -1670,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T14" s="1" t="str">
         <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),A14))</f>
@@ -1678,23 +1700,194 @@
       </c>
       <c r="U14" s="1" t="str">
         <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),CONCATENATE(A14,"_north"))))</f>
-        <v>stadium_k_north</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V14" s="1" t="str">
         <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),CONCATENATE(A14,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W14" s="1" t="str">
         <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),CONCATENATE(A14,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X14" s="1" t="str">
         <f aca="false">IF(NOT(D14="2X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_south"),IF(E14="landmark",CONCATENATE(A14,"_k_south"),CONCATENATE(A14,"_south"))))</f>
+        <v>hospital_k_south</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f aca="false">VLOOKUP(L15,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),A15))</f>
+        <v>none</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),CONCATENATE(A15,"_north"))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),CONCATENATE(A15,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),CONCATENATE(A15,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f aca="false">IF(NOT(D15="2X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_south"),IF(E15="landmark",CONCATENATE(A15,"_k_south"),CONCATENATE(A15,"_south"))))</f>
         <v>stadium_k_south</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),A16))</f>
+        <v>none</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),CONCATENATE(A16,"_north"))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),CONCATENATE(A16,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),CONCATENATE(A16,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),CONCATENATE(A16,"_south"))))</f>
+        <v>temple_k_south</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1702,15 +1895,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L14" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L16" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P14" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P16" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S14" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S16" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1744,15 +1937,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1760,7 +1953,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -1768,7 +1961,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -1776,7 +1969,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -1784,7 +1977,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -1792,7 +1985,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -1800,7 +1993,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -1808,7 +2001,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -1816,7 +2009,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -1824,7 +2017,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -1832,7 +2025,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -1840,7 +2033,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -1848,7 +2041,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -1856,7 +2049,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -1864,7 +2057,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -1872,7 +2065,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -1894,26 +2087,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C203" activeCellId="0" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,12 +2661,13 @@
         <f aca="false">IF(C34="ID not in use","ID not in use","Used")</f>
         <v>Used</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>61</v>
+      <c r="C34" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A34,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">MAX(IF(C34="ID not in use",0,IF(C34="1X1",1,IF(C34="2X2",4,2)))-1,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,12 +2679,12 @@
         <v>Used</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f aca="false">IF(D34&gt;0,"Multi-tile","ID not in use")</f>
-        <v>Multi-tile</v>
+        <f aca="false">IFERROR(VLOOKUP(A35,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">IF(C35="Multi-tile",D34-1,MAX(IF(C35="ID not in use",0,IF(C35="1X1",1,IF(C35="2X2",4,2)))-1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,12 +2696,12 @@
         <v>Used</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f aca="false">IF(D35&gt;0,"Multi-tile","ID not in use")</f>
-        <v>Multi-tile</v>
+        <f aca="false">IFERROR(VLOOKUP(A36,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">IF(C36="Multi-tile",D35-1,MAX(IF(C36="ID not in use",0,IF(C36="1X1",1,IF(C36="2X2",4,2)))-1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,11 +2710,11 @@
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">IF(C37="ID not in use","ID not in use","Used")</f>
-        <v>Used</v>
+        <v>ID not in use</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f aca="false">IF(D36&gt;0,"Multi-tile","ID not in use")</f>
-        <v>Multi-tile</v>
+        <f aca="false">IFERROR(VLOOKUP(A37,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">IF(C37="Multi-tile",D36-1,MAX(IF(C37="ID not in use",0,IF(C37="1X1",1,IF(C37="2X2",4,2)))-1,0))</f>
@@ -2536,7 +2730,7 @@
         <v>ID not in use</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f aca="false">IF(D37&gt;0,"Multi-tile","ID not in use")</f>
+        <f aca="false">IFERROR(VLOOKUP(A38,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
       <c r="D38" s="1" t="n">
@@ -2553,7 +2747,7 @@
         <v>ID not in use</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f aca="false">IF(D38&gt;0,"Multi-tile","ID not in use")</f>
+        <f aca="false">IFERROR(VLOOKUP(A39,items!C:D,2,0),"ID not in use")</f>
         <v>ID not in use</v>
       </c>
       <c r="D39" s="1" t="n">
@@ -2565,440 +2759,3706 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B40" s="1" t="str">
+        <f aca="false">IF(C40="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A40,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <f aca="false">IF(C40="Multi-tile",D39-1,MAX(IF(C40="ID not in use",0,IF(C40="1X1",1,IF(C40="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B41" s="1" t="str">
+        <f aca="false">IF(C41="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A41,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <f aca="false">IF(C41="Multi-tile",D40-1,MAX(IF(C41="ID not in use",0,IF(C41="1X1",1,IF(C41="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="B42" s="1" t="str">
+        <f aca="false">IF(C42="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A42,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <f aca="false">IF(C42="Multi-tile",D41-1,MAX(IF(C42="ID not in use",0,IF(C42="1X1",1,IF(C42="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="B43" s="1" t="str">
+        <f aca="false">IF(C43="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A43,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <f aca="false">IF(C43="Multi-tile",D42-1,MAX(IF(C43="ID not in use",0,IF(C43="1X1",1,IF(C43="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="B44" s="1" t="str">
+        <f aca="false">IF(C44="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A44,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <f aca="false">IF(C44="Multi-tile",D43-1,MAX(IF(C44="ID not in use",0,IF(C44="1X1",1,IF(C44="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="B45" s="1" t="str">
+        <f aca="false">IF(C45="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A45,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <f aca="false">IF(C45="Multi-tile",D44-1,MAX(IF(C45="ID not in use",0,IF(C45="1X1",1,IF(C45="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="B46" s="1" t="str">
+        <f aca="false">IF(C46="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A46,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <f aca="false">IF(C46="Multi-tile",D45-1,MAX(IF(C46="ID not in use",0,IF(C46="1X1",1,IF(C46="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="B47" s="1" t="str">
+        <f aca="false">IF(C47="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A47,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <f aca="false">IF(C47="Multi-tile",D46-1,MAX(IF(C47="ID not in use",0,IF(C47="1X1",1,IF(C47="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="B48" s="1" t="str">
+        <f aca="false">IF(C48="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A48,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <f aca="false">IF(C48="Multi-tile",D47-1,MAX(IF(C48="ID not in use",0,IF(C48="1X1",1,IF(C48="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="B49" s="1" t="str">
+        <f aca="false">IF(C49="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A49,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <f aca="false">IF(C49="Multi-tile",D48-1,MAX(IF(C49="ID not in use",0,IF(C49="1X1",1,IF(C49="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="B50" s="1" t="str">
+        <f aca="false">IF(C50="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A50,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <f aca="false">IF(C50="Multi-tile",D49-1,MAX(IF(C50="ID not in use",0,IF(C50="1X1",1,IF(C50="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="B51" s="1" t="str">
+        <f aca="false">IF(C51="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A51,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <f aca="false">IF(C51="Multi-tile",D50-1,MAX(IF(C51="ID not in use",0,IF(C51="1X1",1,IF(C51="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="B52" s="1" t="str">
+        <f aca="false">IF(C52="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A52,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <f aca="false">IF(C52="Multi-tile",D51-1,MAX(IF(C52="ID not in use",0,IF(C52="1X1",1,IF(C52="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="B53" s="1" t="str">
+        <f aca="false">IF(C53="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A53,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <f aca="false">IF(C53="Multi-tile",D52-1,MAX(IF(C53="ID not in use",0,IF(C53="1X1",1,IF(C53="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="B54" s="1" t="str">
+        <f aca="false">IF(C54="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A54,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <f aca="false">IF(C54="Multi-tile",D53-1,MAX(IF(C54="ID not in use",0,IF(C54="1X1",1,IF(C54="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="B55" s="1" t="str">
+        <f aca="false">IF(C55="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A55,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <f aca="false">IF(C55="Multi-tile",D54-1,MAX(IF(C55="ID not in use",0,IF(C55="1X1",1,IF(C55="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="B56" s="1" t="str">
+        <f aca="false">IF(C56="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A56,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <f aca="false">IF(C56="Multi-tile",D55-1,MAX(IF(C56="ID not in use",0,IF(C56="1X1",1,IF(C56="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="B57" s="1" t="str">
+        <f aca="false">IF(C57="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A57,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <f aca="false">IF(C57="Multi-tile",D56-1,MAX(IF(C57="ID not in use",0,IF(C57="1X1",1,IF(C57="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="B58" s="1" t="str">
+        <f aca="false">IF(C58="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A58,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <f aca="false">IF(C58="Multi-tile",D57-1,MAX(IF(C58="ID not in use",0,IF(C58="1X1",1,IF(C58="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="B59" s="1" t="str">
+        <f aca="false">IF(C59="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A59,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <f aca="false">IF(C59="Multi-tile",D58-1,MAX(IF(C59="ID not in use",0,IF(C59="1X1",1,IF(C59="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="B60" s="1" t="str">
+        <f aca="false">IF(C60="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A60,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <f aca="false">IF(C60="Multi-tile",D59-1,MAX(IF(C60="ID not in use",0,IF(C60="1X1",1,IF(C60="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="B61" s="1" t="str">
+        <f aca="false">IF(C61="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A61,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <f aca="false">IF(C61="Multi-tile",D60-1,MAX(IF(C61="ID not in use",0,IF(C61="1X1",1,IF(C61="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="B62" s="1" t="str">
+        <f aca="false">IF(C62="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A62,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <f aca="false">IF(C62="Multi-tile",D61-1,MAX(IF(C62="ID not in use",0,IF(C62="1X1",1,IF(C62="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="B63" s="1" t="str">
+        <f aca="false">IF(C63="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A63,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <f aca="false">IF(C63="Multi-tile",D62-1,MAX(IF(C63="ID not in use",0,IF(C63="1X1",1,IF(C63="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="B64" s="1" t="str">
+        <f aca="false">IF(C64="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A64,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <f aca="false">IF(C64="Multi-tile",D63-1,MAX(IF(C64="ID not in use",0,IF(C64="1X1",1,IF(C64="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
+      <c r="B65" s="1" t="str">
+        <f aca="false">IF(C65="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A65,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <f aca="false">IF(C65="Multi-tile",D64-1,MAX(IF(C65="ID not in use",0,IF(C65="1X1",1,IF(C65="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="B66" s="1" t="str">
+        <f aca="false">IF(C66="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A66,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <f aca="false">IF(C66="Multi-tile",D65-1,MAX(IF(C66="ID not in use",0,IF(C66="1X1",1,IF(C66="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="B67" s="1" t="str">
+        <f aca="false">IF(C67="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A67,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <f aca="false">IF(C67="Multi-tile",D66-1,MAX(IF(C67="ID not in use",0,IF(C67="1X1",1,IF(C67="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="B68" s="1" t="str">
+        <f aca="false">IF(C68="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A68,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <f aca="false">IF(C68="Multi-tile",D67-1,MAX(IF(C68="ID not in use",0,IF(C68="1X1",1,IF(C68="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="B69" s="1" t="str">
+        <f aca="false">IF(C69="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A69,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <f aca="false">IF(C69="Multi-tile",D68-1,MAX(IF(C69="ID not in use",0,IF(C69="1X1",1,IF(C69="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="B70" s="1" t="str">
+        <f aca="false">IF(C70="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A70,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <f aca="false">IF(C70="Multi-tile",D69-1,MAX(IF(C70="ID not in use",0,IF(C70="1X1",1,IF(C70="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
+      <c r="B71" s="1" t="str">
+        <f aca="false">IF(C71="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A71,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <f aca="false">IF(C71="Multi-tile",D70-1,MAX(IF(C71="ID not in use",0,IF(C71="1X1",1,IF(C71="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="B72" s="1" t="str">
+        <f aca="false">IF(C72="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A72,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <f aca="false">IF(C72="Multi-tile",D71-1,MAX(IF(C72="ID not in use",0,IF(C72="1X1",1,IF(C72="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
+      <c r="B73" s="1" t="str">
+        <f aca="false">IF(C73="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A73,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <f aca="false">IF(C73="Multi-tile",D72-1,MAX(IF(C73="ID not in use",0,IF(C73="1X1",1,IF(C73="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="B74" s="1" t="str">
+        <f aca="false">IF(C74="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A74,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <f aca="false">IF(C74="Multi-tile",D73-1,MAX(IF(C74="ID not in use",0,IF(C74="1X1",1,IF(C74="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="B75" s="1" t="str">
+        <f aca="false">IF(C75="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A75,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <f aca="false">IF(C75="Multi-tile",D74-1,MAX(IF(C75="ID not in use",0,IF(C75="1X1",1,IF(C75="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="B76" s="1" t="str">
+        <f aca="false">IF(C76="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A76,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <f aca="false">IF(C76="Multi-tile",D75-1,MAX(IF(C76="ID not in use",0,IF(C76="1X1",1,IF(C76="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="B77" s="1" t="str">
+        <f aca="false">IF(C77="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A77,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <f aca="false">IF(C77="Multi-tile",D76-1,MAX(IF(C77="ID not in use",0,IF(C77="1X1",1,IF(C77="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="B78" s="1" t="str">
+        <f aca="false">IF(C78="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A78,items!C:D,2,0),"ID not in use")</f>
+        <v>1X2</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <f aca="false">IF(C78="Multi-tile",D77-1,MAX(IF(C78="ID not in use",0,IF(C78="1X1",1,IF(C78="2X2",4,2)))-1,0))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="B79" s="1" t="str">
+        <f aca="false">IF(C79="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A79,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <f aca="false">IF(C79="Multi-tile",D78-1,MAX(IF(C79="ID not in use",0,IF(C79="1X1",1,IF(C79="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
+      <c r="B80" s="1" t="str">
+        <f aca="false">IF(C80="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A80,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <f aca="false">IF(C80="Multi-tile",D79-1,MAX(IF(C80="ID not in use",0,IF(C80="1X1",1,IF(C80="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="B81" s="1" t="str">
+        <f aca="false">IF(C81="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A81,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <f aca="false">IF(C81="Multi-tile",D80-1,MAX(IF(C81="ID not in use",0,IF(C81="1X1",1,IF(C81="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="B82" s="1" t="str">
+        <f aca="false">IF(C82="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A82,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <f aca="false">IF(C82="Multi-tile",D81-1,MAX(IF(C82="ID not in use",0,IF(C82="1X1",1,IF(C82="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="B83" s="1" t="str">
+        <f aca="false">IF(C83="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A83,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <f aca="false">IF(C83="Multi-tile",D82-1,MAX(IF(C83="ID not in use",0,IF(C83="1X1",1,IF(C83="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="B84" s="1" t="str">
+        <f aca="false">IF(C84="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A84,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <f aca="false">IF(C84="Multi-tile",D83-1,MAX(IF(C84="ID not in use",0,IF(C84="1X1",1,IF(C84="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="B85" s="1" t="str">
+        <f aca="false">IF(C85="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A85,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <f aca="false">IF(C85="Multi-tile",D84-1,MAX(IF(C85="ID not in use",0,IF(C85="1X1",1,IF(C85="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="B86" s="1" t="str">
+        <f aca="false">IF(C86="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A86,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <f aca="false">IF(C86="Multi-tile",D85-1,MAX(IF(C86="ID not in use",0,IF(C86="1X1",1,IF(C86="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
+      <c r="B87" s="1" t="str">
+        <f aca="false">IF(C87="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A87,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <f aca="false">IF(C87="Multi-tile",D86-1,MAX(IF(C87="ID not in use",0,IF(C87="1X1",1,IF(C87="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="B88" s="1" t="str">
+        <f aca="false">IF(C88="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A88,items!C:D,2,0),"ID not in use")</f>
+        <v>1X1</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <f aca="false">IF(C88="Multi-tile",D87-1,MAX(IF(C88="ID not in use",0,IF(C88="1X1",1,IF(C88="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
+      <c r="B89" s="1" t="str">
+        <f aca="false">IF(C89="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A89,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <f aca="false">IF(C89="Multi-tile",D88-1,MAX(IF(C89="ID not in use",0,IF(C89="1X1",1,IF(C89="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="B90" s="1" t="str">
+        <f aca="false">IF(C90="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A90,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <f aca="false">IF(C90="Multi-tile",D89-1,MAX(IF(C90="ID not in use",0,IF(C90="1X1",1,IF(C90="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
+      <c r="B91" s="1" t="str">
+        <f aca="false">IF(C91="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A91,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <f aca="false">IF(C91="Multi-tile",D90-1,MAX(IF(C91="ID not in use",0,IF(C91="1X1",1,IF(C91="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="B92" s="1" t="str">
+        <f aca="false">IF(C92="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A92,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <f aca="false">IF(C92="Multi-tile",D91-1,MAX(IF(C92="ID not in use",0,IF(C92="1X1",1,IF(C92="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="B93" s="1" t="str">
+        <f aca="false">IF(C93="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A93,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <f aca="false">IF(C93="Multi-tile",D92-1,MAX(IF(C93="ID not in use",0,IF(C93="1X1",1,IF(C93="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="B94" s="1" t="str">
+        <f aca="false">IF(C94="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A94,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <f aca="false">IF(C94="Multi-tile",D93-1,MAX(IF(C94="ID not in use",0,IF(C94="1X1",1,IF(C94="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
+      <c r="B95" s="1" t="str">
+        <f aca="false">IF(C95="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A95,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <f aca="false">IF(C95="Multi-tile",D94-1,MAX(IF(C95="ID not in use",0,IF(C95="1X1",1,IF(C95="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
+      <c r="B96" s="1" t="str">
+        <f aca="false">IF(C96="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A96,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <f aca="false">IF(C96="Multi-tile",D95-1,MAX(IF(C96="ID not in use",0,IF(C96="1X1",1,IF(C96="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
+      <c r="B97" s="1" t="str">
+        <f aca="false">IF(C97="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A97,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <f aca="false">IF(C97="Multi-tile",D96-1,MAX(IF(C97="ID not in use",0,IF(C97="1X1",1,IF(C97="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="B98" s="1" t="str">
+        <f aca="false">IF(C98="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A98,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <f aca="false">IF(C98="Multi-tile",D97-1,MAX(IF(C98="ID not in use",0,IF(C98="1X1",1,IF(C98="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
+      <c r="B99" s="1" t="str">
+        <f aca="false">IF(C99="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A99,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <f aca="false">IF(C99="Multi-tile",D98-1,MAX(IF(C99="ID not in use",0,IF(C99="1X1",1,IF(C99="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
+      <c r="B100" s="1" t="str">
+        <f aca="false">IF(C100="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A100,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <f aca="false">IF(C100="Multi-tile",D99-1,MAX(IF(C100="ID not in use",0,IF(C100="1X1",1,IF(C100="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="B101" s="1" t="str">
+        <f aca="false">IF(C101="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A101,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <f aca="false">IF(C101="Multi-tile",D100-1,MAX(IF(C101="ID not in use",0,IF(C101="1X1",1,IF(C101="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="B102" s="1" t="str">
+        <f aca="false">IF(C102="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A102,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <f aca="false">IF(C102="Multi-tile",D101-1,MAX(IF(C102="ID not in use",0,IF(C102="1X1",1,IF(C102="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
+      <c r="B103" s="1" t="str">
+        <f aca="false">IF(C103="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A103,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <f aca="false">IF(C103="Multi-tile",D102-1,MAX(IF(C103="ID not in use",0,IF(C103="1X1",1,IF(C103="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
+      <c r="B104" s="1" t="str">
+        <f aca="false">IF(C104="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A104,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <f aca="false">IF(C104="Multi-tile",D103-1,MAX(IF(C104="ID not in use",0,IF(C104="1X1",1,IF(C104="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
+      <c r="B105" s="1" t="str">
+        <f aca="false">IF(C105="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A105,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <f aca="false">IF(C105="Multi-tile",D104-1,MAX(IF(C105="ID not in use",0,IF(C105="1X1",1,IF(C105="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
+      <c r="B106" s="1" t="str">
+        <f aca="false">IF(C106="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A106,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <f aca="false">IF(C106="Multi-tile",D105-1,MAX(IF(C106="ID not in use",0,IF(C106="1X1",1,IF(C106="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
+      <c r="B107" s="1" t="str">
+        <f aca="false">IF(C107="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A107,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <f aca="false">IF(C107="Multi-tile",D106-1,MAX(IF(C107="ID not in use",0,IF(C107="1X1",1,IF(C107="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
+      <c r="B108" s="1" t="str">
+        <f aca="false">IF(C108="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A108,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <f aca="false">IF(C108="Multi-tile",D107-1,MAX(IF(C108="ID not in use",0,IF(C108="1X1",1,IF(C108="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="B109" s="1" t="str">
+        <f aca="false">IF(C109="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A109,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <f aca="false">IF(C109="Multi-tile",D108-1,MAX(IF(C109="ID not in use",0,IF(C109="1X1",1,IF(C109="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="B110" s="1" t="str">
+        <f aca="false">IF(C110="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A110,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <f aca="false">IF(C110="Multi-tile",D109-1,MAX(IF(C110="ID not in use",0,IF(C110="1X1",1,IF(C110="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
+      <c r="B111" s="1" t="str">
+        <f aca="false">IF(C111="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A111,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <f aca="false">IF(C111="Multi-tile",D110-1,MAX(IF(C111="ID not in use",0,IF(C111="1X1",1,IF(C111="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="B112" s="1" t="str">
+        <f aca="false">IF(C112="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A112,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <f aca="false">IF(C112="Multi-tile",D111-1,MAX(IF(C112="ID not in use",0,IF(C112="1X1",1,IF(C112="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
+      <c r="B113" s="1" t="str">
+        <f aca="false">IF(C113="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A113,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <f aca="false">IF(C113="Multi-tile",D112-1,MAX(IF(C113="ID not in use",0,IF(C113="1X1",1,IF(C113="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="B114" s="1" t="str">
+        <f aca="false">IF(C114="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A114,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <f aca="false">IF(C114="Multi-tile",D113-1,MAX(IF(C114="ID not in use",0,IF(C114="1X1",1,IF(C114="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
+      <c r="B115" s="1" t="str">
+        <f aca="false">IF(C115="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A115,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <f aca="false">IF(C115="Multi-tile",D114-1,MAX(IF(C115="ID not in use",0,IF(C115="1X1",1,IF(C115="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
+      <c r="B116" s="1" t="str">
+        <f aca="false">IF(C116="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A116,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <f aca="false">IF(C116="Multi-tile",D115-1,MAX(IF(C116="ID not in use",0,IF(C116="1X1",1,IF(C116="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
+      <c r="B117" s="1" t="str">
+        <f aca="false">IF(C117="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A117,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <f aca="false">IF(C117="Multi-tile",D116-1,MAX(IF(C117="ID not in use",0,IF(C117="1X1",1,IF(C117="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
+      <c r="B118" s="1" t="str">
+        <f aca="false">IF(C118="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A118,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <f aca="false">IF(C118="Multi-tile",D117-1,MAX(IF(C118="ID not in use",0,IF(C118="1X1",1,IF(C118="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
+      <c r="B119" s="1" t="str">
+        <f aca="false">IF(C119="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A119,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <f aca="false">IF(C119="Multi-tile",D118-1,MAX(IF(C119="ID not in use",0,IF(C119="1X1",1,IF(C119="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="B120" s="1" t="str">
+        <f aca="false">IF(C120="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A120,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <f aca="false">IF(C120="Multi-tile",D119-1,MAX(IF(C120="ID not in use",0,IF(C120="1X1",1,IF(C120="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
+      <c r="B121" s="1" t="str">
+        <f aca="false">IF(C121="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A121,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <f aca="false">IF(C121="Multi-tile",D120-1,MAX(IF(C121="ID not in use",0,IF(C121="1X1",1,IF(C121="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="B122" s="1" t="str">
+        <f aca="false">IF(C122="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A122,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <f aca="false">IF(C122="Multi-tile",D121-1,MAX(IF(C122="ID not in use",0,IF(C122="1X1",1,IF(C122="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
+      <c r="B123" s="1" t="str">
+        <f aca="false">IF(C123="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A123,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <f aca="false">IF(C123="Multi-tile",D122-1,MAX(IF(C123="ID not in use",0,IF(C123="1X1",1,IF(C123="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
+      <c r="B124" s="1" t="str">
+        <f aca="false">IF(C124="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A124,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <f aca="false">IF(C124="Multi-tile",D123-1,MAX(IF(C124="ID not in use",0,IF(C124="1X1",1,IF(C124="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
+      <c r="B125" s="1" t="str">
+        <f aca="false">IF(C125="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A125,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <f aca="false">IF(C125="Multi-tile",D124-1,MAX(IF(C125="ID not in use",0,IF(C125="1X1",1,IF(C125="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="B126" s="1" t="str">
+        <f aca="false">IF(C126="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A126,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <f aca="false">IF(C126="Multi-tile",D125-1,MAX(IF(C126="ID not in use",0,IF(C126="1X1",1,IF(C126="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f aca="false">IF(C127="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A127,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <f aca="false">IF(C127="Multi-tile",D126-1,MAX(IF(C127="ID not in use",0,IF(C127="1X1",1,IF(C127="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f aca="false">IF(C128="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A128,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <f aca="false">IF(C128="Multi-tile",D127-1,MAX(IF(C128="ID not in use",0,IF(C128="1X1",1,IF(C128="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f aca="false">IF(C129="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A129,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <f aca="false">IF(C129="Multi-tile",D128-1,MAX(IF(C129="ID not in use",0,IF(C129="1X1",1,IF(C129="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f aca="false">IF(C130="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A130,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <f aca="false">IF(C130="Multi-tile",D129-1,MAX(IF(C130="ID not in use",0,IF(C130="1X1",1,IF(C130="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f aca="false">IF(C131="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A131,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <f aca="false">IF(C131="Multi-tile",D130-1,MAX(IF(C131="ID not in use",0,IF(C131="1X1",1,IF(C131="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f aca="false">IF(C132="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A132,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <f aca="false">IF(C132="Multi-tile",D131-1,MAX(IF(C132="ID not in use",0,IF(C132="1X1",1,IF(C132="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f aca="false">IF(C133="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A133,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <f aca="false">IF(C133="Multi-tile",D132-1,MAX(IF(C133="ID not in use",0,IF(C133="1X1",1,IF(C133="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f aca="false">IF(C134="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A134,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <f aca="false">IF(C134="Multi-tile",D133-1,MAX(IF(C134="ID not in use",0,IF(C134="1X1",1,IF(C134="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f aca="false">IF(C135="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A135,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <f aca="false">IF(C135="Multi-tile",D134-1,MAX(IF(C135="ID not in use",0,IF(C135="1X1",1,IF(C135="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f aca="false">IF(C136="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C136" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A136,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <f aca="false">IF(C136="Multi-tile",D135-1,MAX(IF(C136="ID not in use",0,IF(C136="1X1",1,IF(C136="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f aca="false">IF(C137="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A137,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <f aca="false">IF(C137="Multi-tile",D136-1,MAX(IF(C137="ID not in use",0,IF(C137="1X1",1,IF(C137="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f aca="false">IF(C138="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A138,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <f aca="false">IF(C138="Multi-tile",D137-1,MAX(IF(C138="ID not in use",0,IF(C138="1X1",1,IF(C138="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f aca="false">IF(C139="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A139,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <f aca="false">IF(C139="Multi-tile",D138-1,MAX(IF(C139="ID not in use",0,IF(C139="1X1",1,IF(C139="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f aca="false">IF(C140="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A140,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <f aca="false">IF(C140="Multi-tile",D139-1,MAX(IF(C140="ID not in use",0,IF(C140="1X1",1,IF(C140="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f aca="false">IF(C141="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A141,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <f aca="false">IF(C141="Multi-tile",D140-1,MAX(IF(C141="ID not in use",0,IF(C141="1X1",1,IF(C141="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f aca="false">IF(C142="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C142" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A142,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <f aca="false">IF(C142="Multi-tile",D141-1,MAX(IF(C142="ID not in use",0,IF(C142="1X1",1,IF(C142="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f aca="false">IF(C143="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C143" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A143,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <f aca="false">IF(C143="Multi-tile",D142-1,MAX(IF(C143="ID not in use",0,IF(C143="1X1",1,IF(C143="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f aca="false">IF(C144="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C144" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A144,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <f aca="false">IF(C144="Multi-tile",D143-1,MAX(IF(C144="ID not in use",0,IF(C144="1X1",1,IF(C144="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f aca="false">IF(C145="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A145,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <f aca="false">IF(C145="Multi-tile",D144-1,MAX(IF(C145="ID not in use",0,IF(C145="1X1",1,IF(C145="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f aca="false">IF(C146="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C146" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A146,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <f aca="false">IF(C146="Multi-tile",D145-1,MAX(IF(C146="ID not in use",0,IF(C146="1X1",1,IF(C146="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f aca="false">IF(C147="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C147" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A147,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <f aca="false">IF(C147="Multi-tile",D146-1,MAX(IF(C147="ID not in use",0,IF(C147="1X1",1,IF(C147="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f aca="false">IF(C148="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A148,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <f aca="false">IF(C148="Multi-tile",D147-1,MAX(IF(C148="ID not in use",0,IF(C148="1X1",1,IF(C148="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f aca="false">IF(C149="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A149,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <f aca="false">IF(C149="Multi-tile",D148-1,MAX(IF(C149="ID not in use",0,IF(C149="1X1",1,IF(C149="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f aca="false">IF(C150="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C150" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A150,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <f aca="false">IF(C150="Multi-tile",D149-1,MAX(IF(C150="ID not in use",0,IF(C150="1X1",1,IF(C150="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f aca="false">IF(C151="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C151" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A151,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <f aca="false">IF(C151="Multi-tile",D150-1,MAX(IF(C151="ID not in use",0,IF(C151="1X1",1,IF(C151="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <f aca="false">IF(C152="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A152,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <f aca="false">IF(C152="Multi-tile",D151-1,MAX(IF(C152="ID not in use",0,IF(C152="1X1",1,IF(C152="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f aca="false">IF(C153="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C153" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A153,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <f aca="false">IF(C153="Multi-tile",D152-1,MAX(IF(C153="ID not in use",0,IF(C153="1X1",1,IF(C153="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <f aca="false">IF(C154="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C154" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A154,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <f aca="false">IF(C154="Multi-tile",D153-1,MAX(IF(C154="ID not in use",0,IF(C154="1X1",1,IF(C154="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f aca="false">IF(C155="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C155" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A155,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <f aca="false">IF(C155="Multi-tile",D154-1,MAX(IF(C155="ID not in use",0,IF(C155="1X1",1,IF(C155="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f aca="false">IF(C156="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C156" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A156,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <f aca="false">IF(C156="Multi-tile",D155-1,MAX(IF(C156="ID not in use",0,IF(C156="1X1",1,IF(C156="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="str">
+        <f aca="false">IF(C157="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C157" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A157,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <f aca="false">IF(C157="Multi-tile",D156-1,MAX(IF(C157="ID not in use",0,IF(C157="1X1",1,IF(C157="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f aca="false">IF(C158="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C158" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A158,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <f aca="false">IF(C158="Multi-tile",D157-1,MAX(IF(C158="ID not in use",0,IF(C158="1X1",1,IF(C158="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f aca="false">IF(C159="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C159" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A159,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <f aca="false">IF(C159="Multi-tile",D158-1,MAX(IF(C159="ID not in use",0,IF(C159="1X1",1,IF(C159="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f aca="false">IF(C160="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C160" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A160,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <f aca="false">IF(C160="Multi-tile",D159-1,MAX(IF(C160="ID not in use",0,IF(C160="1X1",1,IF(C160="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="str">
+        <f aca="false">IF(C161="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C161" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A161,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <f aca="false">IF(C161="Multi-tile",D160-1,MAX(IF(C161="ID not in use",0,IF(C161="1X1",1,IF(C161="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="str">
+        <f aca="false">IF(C162="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C162" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A162,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <f aca="false">IF(C162="Multi-tile",D161-1,MAX(IF(C162="ID not in use",0,IF(C162="1X1",1,IF(C162="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="str">
+        <f aca="false">IF(C163="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A163,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D163" s="1" t="n">
+        <f aca="false">IF(C163="Multi-tile",D162-1,MAX(IF(C163="ID not in use",0,IF(C163="1X1",1,IF(C163="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="str">
+        <f aca="false">IF(C164="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C164" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A164,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D164" s="1" t="n">
+        <f aca="false">IF(C164="Multi-tile",D163-1,MAX(IF(C164="ID not in use",0,IF(C164="1X1",1,IF(C164="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="str">
+        <f aca="false">IF(C165="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C165" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A165,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D165" s="1" t="n">
+        <f aca="false">IF(C165="Multi-tile",D164-1,MAX(IF(C165="ID not in use",0,IF(C165="1X1",1,IF(C165="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="str">
+        <f aca="false">IF(C166="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C166" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A166,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <f aca="false">IF(C166="Multi-tile",D165-1,MAX(IF(C166="ID not in use",0,IF(C166="1X1",1,IF(C166="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="str">
+        <f aca="false">IF(C167="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C167" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A167,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <f aca="false">IF(C167="Multi-tile",D166-1,MAX(IF(C167="ID not in use",0,IF(C167="1X1",1,IF(C167="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f aca="false">IF(C168="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A168,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <f aca="false">IF(C168="Multi-tile",D167-1,MAX(IF(C168="ID not in use",0,IF(C168="1X1",1,IF(C168="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <f aca="false">IF(C169="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A169,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D169" s="1" t="n">
+        <f aca="false">IF(C169="Multi-tile",D168-1,MAX(IF(C169="ID not in use",0,IF(C169="1X1",1,IF(C169="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <f aca="false">IF(C170="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C170" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A170,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <f aca="false">IF(C170="Multi-tile",D169-1,MAX(IF(C170="ID not in use",0,IF(C170="1X1",1,IF(C170="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <f aca="false">IF(C171="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C171" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A171,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D171" s="1" t="n">
+        <f aca="false">IF(C171="Multi-tile",D170-1,MAX(IF(C171="ID not in use",0,IF(C171="1X1",1,IF(C171="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="str">
+        <f aca="false">IF(C172="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C172" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A172,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <f aca="false">IF(C172="Multi-tile",D171-1,MAX(IF(C172="ID not in use",0,IF(C172="1X1",1,IF(C172="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="str">
+        <f aca="false">IF(C173="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C173" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A173,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <f aca="false">IF(C173="Multi-tile",D172-1,MAX(IF(C173="ID not in use",0,IF(C173="1X1",1,IF(C173="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="str">
+        <f aca="false">IF(C174="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C174" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A174,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <f aca="false">IF(C174="Multi-tile",D173-1,MAX(IF(C174="ID not in use",0,IF(C174="1X1",1,IF(C174="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="str">
+        <f aca="false">IF(C175="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C175" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A175,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D175" s="1" t="n">
+        <f aca="false">IF(C175="Multi-tile",D174-1,MAX(IF(C175="ID not in use",0,IF(C175="1X1",1,IF(C175="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="str">
+        <f aca="false">IF(C176="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C176" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A176,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D176" s="1" t="n">
+        <f aca="false">IF(C176="Multi-tile",D175-1,MAX(IF(C176="ID not in use",0,IF(C176="1X1",1,IF(C176="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="str">
+        <f aca="false">IF(C177="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C177" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A177,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D177" s="1" t="n">
+        <f aca="false">IF(C177="Multi-tile",D176-1,MAX(IF(C177="ID not in use",0,IF(C177="1X1",1,IF(C177="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f aca="false">IF(C178="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C178" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A178,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D178" s="1" t="n">
+        <f aca="false">IF(C178="Multi-tile",D177-1,MAX(IF(C178="ID not in use",0,IF(C178="1X1",1,IF(C178="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f aca="false">IF(C179="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C179" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A179,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D179" s="1" t="n">
+        <f aca="false">IF(C179="Multi-tile",D178-1,MAX(IF(C179="ID not in use",0,IF(C179="1X1",1,IF(C179="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="str">
+        <f aca="false">IF(C180="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C180" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A180,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <f aca="false">IF(C180="Multi-tile",D179-1,MAX(IF(C180="ID not in use",0,IF(C180="1X1",1,IF(C180="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="str">
+        <f aca="false">IF(C181="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C181" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A181,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D181" s="1" t="n">
+        <f aca="false">IF(C181="Multi-tile",D180-1,MAX(IF(C181="ID not in use",0,IF(C181="1X1",1,IF(C181="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="str">
+        <f aca="false">IF(C182="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C182" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A182,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <f aca="false">IF(C182="Multi-tile",D181-1,MAX(IF(C182="ID not in use",0,IF(C182="1X1",1,IF(C182="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="str">
+        <f aca="false">IF(C183="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C183" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A183,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <f aca="false">IF(C183="Multi-tile",D182-1,MAX(IF(C183="ID not in use",0,IF(C183="1X1",1,IF(C183="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="str">
+        <f aca="false">IF(C184="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C184" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A184,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <f aca="false">IF(C184="Multi-tile",D183-1,MAX(IF(C184="ID not in use",0,IF(C184="1X1",1,IF(C184="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="str">
+        <f aca="false">IF(C185="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C185" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A185,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <f aca="false">IF(C185="Multi-tile",D184-1,MAX(IF(C185="ID not in use",0,IF(C185="1X1",1,IF(C185="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="str">
+        <f aca="false">IF(C186="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C186" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A186,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <f aca="false">IF(C186="Multi-tile",D185-1,MAX(IF(C186="ID not in use",0,IF(C186="1X1",1,IF(C186="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="str">
+        <f aca="false">IF(C187="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C187" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A187,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <f aca="false">IF(C187="Multi-tile",D186-1,MAX(IF(C187="ID not in use",0,IF(C187="1X1",1,IF(C187="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="str">
+        <f aca="false">IF(C188="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C188" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A188,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <f aca="false">IF(C188="Multi-tile",D187-1,MAX(IF(C188="ID not in use",0,IF(C188="1X1",1,IF(C188="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="str">
+        <f aca="false">IF(C189="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C189" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A189,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D189" s="1" t="n">
+        <f aca="false">IF(C189="Multi-tile",D188-1,MAX(IF(C189="ID not in use",0,IF(C189="1X1",1,IF(C189="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="str">
+        <f aca="false">IF(C190="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C190" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A190,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <f aca="false">IF(C190="Multi-tile",D189-1,MAX(IF(C190="ID not in use",0,IF(C190="1X1",1,IF(C190="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="str">
+        <f aca="false">IF(C191="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C191" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A191,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <f aca="false">IF(C191="Multi-tile",D190-1,MAX(IF(C191="ID not in use",0,IF(C191="1X1",1,IF(C191="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="str">
+        <f aca="false">IF(C192="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C192" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A192,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <f aca="false">IF(C192="Multi-tile",D191-1,MAX(IF(C192="ID not in use",0,IF(C192="1X1",1,IF(C192="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="str">
+        <f aca="false">IF(C193="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C193" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A193,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <f aca="false">IF(C193="Multi-tile",D192-1,MAX(IF(C193="ID not in use",0,IF(C193="1X1",1,IF(C193="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="str">
+        <f aca="false">IF(C194="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C194" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A194,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <f aca="false">IF(C194="Multi-tile",D193-1,MAX(IF(C194="ID not in use",0,IF(C194="1X1",1,IF(C194="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="str">
+        <f aca="false">IF(C195="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C195" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A195,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <f aca="false">IF(C195="Multi-tile",D194-1,MAX(IF(C195="ID not in use",0,IF(C195="1X1",1,IF(C195="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="str">
+        <f aca="false">IF(C196="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C196" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A196,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <f aca="false">IF(C196="Multi-tile",D195-1,MAX(IF(C196="ID not in use",0,IF(C196="1X1",1,IF(C196="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="str">
+        <f aca="false">IF(C197="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C197" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A197,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <f aca="false">IF(C197="Multi-tile",D196-1,MAX(IF(C197="ID not in use",0,IF(C197="1X1",1,IF(C197="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="str">
+        <f aca="false">IF(C198="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C198" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A198,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <f aca="false">IF(C198="Multi-tile",D197-1,MAX(IF(C198="ID not in use",0,IF(C198="1X1",1,IF(C198="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="str">
+        <f aca="false">IF(C199="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C199" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A199,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <f aca="false">IF(C199="Multi-tile",D198-1,MAX(IF(C199="ID not in use",0,IF(C199="1X1",1,IF(C199="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="str">
+        <f aca="false">IF(C200="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C200" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A200,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D200" s="1" t="n">
+        <f aca="false">IF(C200="Multi-tile",D199-1,MAX(IF(C200="ID not in use",0,IF(C200="1X1",1,IF(C200="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="str">
+        <f aca="false">IF(C201="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C201" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A201,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D201" s="1" t="n">
+        <f aca="false">IF(C201="Multi-tile",D200-1,MAX(IF(C201="ID not in use",0,IF(C201="1X1",1,IF(C201="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="str">
+        <f aca="false">IF(C202="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C202" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A202,items!C:D,2,0),"ID not in use")</f>
+        <v>2X2</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <f aca="false">IF(C202="Multi-tile",D201-1,MAX(IF(C202="ID not in use",0,IF(C202="1X1",1,IF(C202="2X2",4,2)))-1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="str">
+        <f aca="false">IF(C203="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C203" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A203,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <f aca="false">IF(C203="Multi-tile",D202-1,MAX(IF(C203="ID not in use",0,IF(C203="1X1",1,IF(C203="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="str">
+        <f aca="false">IF(C204="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C204" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A204,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <f aca="false">IF(C204="Multi-tile",D203-1,MAX(IF(C204="ID not in use",0,IF(C204="1X1",1,IF(C204="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="str">
+        <f aca="false">IF(C205="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C205" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A205,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <f aca="false">IF(C205="Multi-tile",D204-1,MAX(IF(C205="ID not in use",0,IF(C205="1X1",1,IF(C205="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="str">
+        <f aca="false">IF(C206="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C206" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A206,items!C:D,2,0),"ID not in use")</f>
+        <v>2X2</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <f aca="false">IF(C206="Multi-tile",D205-1,MAX(IF(C206="ID not in use",0,IF(C206="1X1",1,IF(C206="2X2",4,2)))-1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="str">
+        <f aca="false">IF(C207="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C207" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A207,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <f aca="false">IF(C207="Multi-tile",D206-1,MAX(IF(C207="ID not in use",0,IF(C207="1X1",1,IF(C207="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="str">
+        <f aca="false">IF(C208="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C208" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A208,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <f aca="false">IF(C208="Multi-tile",D207-1,MAX(IF(C208="ID not in use",0,IF(C208="1X1",1,IF(C208="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="str">
+        <f aca="false">IF(C209="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C209" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A209,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <f aca="false">IF(C209="Multi-tile",D208-1,MAX(IF(C209="ID not in use",0,IF(C209="1X1",1,IF(C209="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="str">
+        <f aca="false">IF(C210="ID not in use","ID not in use","Used")</f>
+        <v>Used</v>
+      </c>
+      <c r="C210" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A210,items!C:D,2,0),"ID not in use")</f>
+        <v>2X2</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <f aca="false">IF(C210="Multi-tile",D209-1,MAX(IF(C210="ID not in use",0,IF(C210="1X1",1,IF(C210="2X2",4,2)))-1,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="str">
+        <f aca="false">IF(C211="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C211" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A211,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D211" s="1" t="n">
+        <f aca="false">IF(C211="Multi-tile",D210-1,MAX(IF(C211="ID not in use",0,IF(C211="1X1",1,IF(C211="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="str">
+        <f aca="false">IF(C212="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C212" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A212,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D212" s="1" t="n">
+        <f aca="false">IF(C212="Multi-tile",D211-1,MAX(IF(C212="ID not in use",0,IF(C212="1X1",1,IF(C212="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="str">
+        <f aca="false">IF(C213="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C213" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A213,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D213" s="1" t="n">
+        <f aca="false">IF(C213="Multi-tile",D212-1,MAX(IF(C213="ID not in use",0,IF(C213="1X1",1,IF(C213="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="str">
+        <f aca="false">IF(C214="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C214" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A214,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D214" s="1" t="n">
+        <f aca="false">IF(C214="Multi-tile",D213-1,MAX(IF(C214="ID not in use",0,IF(C214="1X1",1,IF(C214="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="str">
+        <f aca="false">IF(C215="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C215" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A215,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D215" s="1" t="n">
+        <f aca="false">IF(C215="Multi-tile",D214-1,MAX(IF(C215="ID not in use",0,IF(C215="1X1",1,IF(C215="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="str">
+        <f aca="false">IF(C216="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C216" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A216,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D216" s="1" t="n">
+        <f aca="false">IF(C216="Multi-tile",D215-1,MAX(IF(C216="ID not in use",0,IF(C216="1X1",1,IF(C216="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="str">
+        <f aca="false">IF(C217="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C217" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A217,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <f aca="false">IF(C217="Multi-tile",D216-1,MAX(IF(C217="ID not in use",0,IF(C217="1X1",1,IF(C217="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="str">
+        <f aca="false">IF(C218="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C218" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A218,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <f aca="false">IF(C218="Multi-tile",D217-1,MAX(IF(C218="ID not in use",0,IF(C218="1X1",1,IF(C218="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="str">
+        <f aca="false">IF(C219="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C219" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A219,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D219" s="1" t="n">
+        <f aca="false">IF(C219="Multi-tile",D218-1,MAX(IF(C219="ID not in use",0,IF(C219="1X1",1,IF(C219="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="str">
+        <f aca="false">IF(C220="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C220" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A220,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D220" s="1" t="n">
+        <f aca="false">IF(C220="Multi-tile",D219-1,MAX(IF(C220="ID not in use",0,IF(C220="1X1",1,IF(C220="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="str">
+        <f aca="false">IF(C221="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C221" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A221,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <f aca="false">IF(C221="Multi-tile",D220-1,MAX(IF(C221="ID not in use",0,IF(C221="1X1",1,IF(C221="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="str">
+        <f aca="false">IF(C222="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C222" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A222,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <f aca="false">IF(C222="Multi-tile",D221-1,MAX(IF(C222="ID not in use",0,IF(C222="1X1",1,IF(C222="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="str">
+        <f aca="false">IF(C223="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C223" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A223,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D223" s="1" t="n">
+        <f aca="false">IF(C223="Multi-tile",D222-1,MAX(IF(C223="ID not in use",0,IF(C223="1X1",1,IF(C223="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="str">
+        <f aca="false">IF(C224="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C224" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A224,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D224" s="1" t="n">
+        <f aca="false">IF(C224="Multi-tile",D223-1,MAX(IF(C224="ID not in use",0,IF(C224="1X1",1,IF(C224="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="str">
+        <f aca="false">IF(C225="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C225" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A225,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <f aca="false">IF(C225="Multi-tile",D224-1,MAX(IF(C225="ID not in use",0,IF(C225="1X1",1,IF(C225="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="str">
+        <f aca="false">IF(C226="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C226" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A226,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D226" s="1" t="n">
+        <f aca="false">IF(C226="Multi-tile",D225-1,MAX(IF(C226="ID not in use",0,IF(C226="1X1",1,IF(C226="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="str">
+        <f aca="false">IF(C227="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C227" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A227,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <f aca="false">IF(C227="Multi-tile",D226-1,MAX(IF(C227="ID not in use",0,IF(C227="1X1",1,IF(C227="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="str">
+        <f aca="false">IF(C228="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C228" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A228,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <f aca="false">IF(C228="Multi-tile",D227-1,MAX(IF(C228="ID not in use",0,IF(C228="1X1",1,IF(C228="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="str">
+        <f aca="false">IF(C229="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C229" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A229,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <f aca="false">IF(C229="Multi-tile",D228-1,MAX(IF(C229="ID not in use",0,IF(C229="1X1",1,IF(C229="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="str">
+        <f aca="false">IF(C230="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C230" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A230,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <f aca="false">IF(C230="Multi-tile",D229-1,MAX(IF(C230="ID not in use",0,IF(C230="1X1",1,IF(C230="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="str">
+        <f aca="false">IF(C231="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C231" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A231,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D231" s="1" t="n">
+        <f aca="false">IF(C231="Multi-tile",D230-1,MAX(IF(C231="ID not in use",0,IF(C231="1X1",1,IF(C231="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="str">
+        <f aca="false">IF(C232="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C232" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A232,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <f aca="false">IF(C232="Multi-tile",D231-1,MAX(IF(C232="ID not in use",0,IF(C232="1X1",1,IF(C232="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="str">
+        <f aca="false">IF(C233="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C233" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A233,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <f aca="false">IF(C233="Multi-tile",D232-1,MAX(IF(C233="ID not in use",0,IF(C233="1X1",1,IF(C233="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="str">
+        <f aca="false">IF(C234="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C234" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A234,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D234" s="1" t="n">
+        <f aca="false">IF(C234="Multi-tile",D233-1,MAX(IF(C234="ID not in use",0,IF(C234="1X1",1,IF(C234="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="str">
+        <f aca="false">IF(C235="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C235" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A235,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D235" s="1" t="n">
+        <f aca="false">IF(C235="Multi-tile",D234-1,MAX(IF(C235="ID not in use",0,IF(C235="1X1",1,IF(C235="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="str">
+        <f aca="false">IF(C236="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C236" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A236,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <f aca="false">IF(C236="Multi-tile",D235-1,MAX(IF(C236="ID not in use",0,IF(C236="1X1",1,IF(C236="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="str">
+        <f aca="false">IF(C237="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C237" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A237,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D237" s="1" t="n">
+        <f aca="false">IF(C237="Multi-tile",D236-1,MAX(IF(C237="ID not in use",0,IF(C237="1X1",1,IF(C237="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="str">
+        <f aca="false">IF(C238="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C238" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A238,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <f aca="false">IF(C238="Multi-tile",D237-1,MAX(IF(C238="ID not in use",0,IF(C238="1X1",1,IF(C238="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="str">
+        <f aca="false">IF(C239="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C239" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A239,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <f aca="false">IF(C239="Multi-tile",D238-1,MAX(IF(C239="ID not in use",0,IF(C239="1X1",1,IF(C239="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="str">
+        <f aca="false">IF(C240="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C240" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A240,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <f aca="false">IF(C240="Multi-tile",D239-1,MAX(IF(C240="ID not in use",0,IF(C240="1X1",1,IF(C240="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="str">
+        <f aca="false">IF(C241="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C241" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A241,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <f aca="false">IF(C241="Multi-tile",D240-1,MAX(IF(C241="ID not in use",0,IF(C241="1X1",1,IF(C241="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="str">
+        <f aca="false">IF(C242="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C242" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A242,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <f aca="false">IF(C242="Multi-tile",D241-1,MAX(IF(C242="ID not in use",0,IF(C242="1X1",1,IF(C242="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="str">
+        <f aca="false">IF(C243="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C243" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A243,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <f aca="false">IF(C243="Multi-tile",D242-1,MAX(IF(C243="ID not in use",0,IF(C243="1X1",1,IF(C243="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="str">
+        <f aca="false">IF(C244="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C244" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A244,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <f aca="false">IF(C244="Multi-tile",D243-1,MAX(IF(C244="ID not in use",0,IF(C244="1X1",1,IF(C244="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="str">
+        <f aca="false">IF(C245="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C245" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A245,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <f aca="false">IF(C245="Multi-tile",D244-1,MAX(IF(C245="ID not in use",0,IF(C245="1X1",1,IF(C245="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="str">
+        <f aca="false">IF(C246="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C246" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A246,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <f aca="false">IF(C246="Multi-tile",D245-1,MAX(IF(C246="ID not in use",0,IF(C246="1X1",1,IF(C246="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="str">
+        <f aca="false">IF(C247="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C247" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A247,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <f aca="false">IF(C247="Multi-tile",D246-1,MAX(IF(C247="ID not in use",0,IF(C247="1X1",1,IF(C247="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="str">
+        <f aca="false">IF(C248="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C248" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A248,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D248" s="1" t="n">
+        <f aca="false">IF(C248="Multi-tile",D247-1,MAX(IF(C248="ID not in use",0,IF(C248="1X1",1,IF(C248="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="str">
+        <f aca="false">IF(C249="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C249" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A249,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D249" s="1" t="n">
+        <f aca="false">IF(C249="Multi-tile",D248-1,MAX(IF(C249="ID not in use",0,IF(C249="1X1",1,IF(C249="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="str">
+        <f aca="false">IF(C250="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C250" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A250,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D250" s="1" t="n">
+        <f aca="false">IF(C250="Multi-tile",D249-1,MAX(IF(C250="ID not in use",0,IF(C250="1X1",1,IF(C250="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="str">
+        <f aca="false">IF(C251="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C251" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A251,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <f aca="false">IF(C251="Multi-tile",D250-1,MAX(IF(C251="ID not in use",0,IF(C251="1X1",1,IF(C251="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="str">
+        <f aca="false">IF(C252="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C252" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A252,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D252" s="1" t="n">
+        <f aca="false">IF(C252="Multi-tile",D251-1,MAX(IF(C252="ID not in use",0,IF(C252="1X1",1,IF(C252="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="str">
+        <f aca="false">IF(C253="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C253" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A253,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D253" s="1" t="n">
+        <f aca="false">IF(C253="Multi-tile",D252-1,MAX(IF(C253="ID not in use",0,IF(C253="1X1",1,IF(C253="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="str">
+        <f aca="false">IF(C254="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C254" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A254,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D254" s="1" t="n">
+        <f aca="false">IF(C254="Multi-tile",D253-1,MAX(IF(C254="ID not in use",0,IF(C254="1X1",1,IF(C254="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="str">
+        <f aca="false">IF(C255="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C255" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A255,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D255" s="1" t="n">
+        <f aca="false">IF(C255="Multi-tile",D254-1,MAX(IF(C255="ID not in use",0,IF(C255="1X1",1,IF(C255="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="str">
+        <f aca="false">IF(C256="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C256" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A256,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D256" s="1" t="n">
+        <f aca="false">IF(C256="Multi-tile",D255-1,MAX(IF(C256="ID not in use",0,IF(C256="1X1",1,IF(C256="2X2",4,2)))-1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="str">
+        <f aca="false">IF(C257="ID not in use","ID not in use","Used")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="C257" s="1" t="str">
+        <f aca="false">IFERROR(VLOOKUP(A257,items!C:D,2,0),"ID not in use")</f>
+        <v>ID not in use</v>
+      </c>
+      <c r="D257" s="1" t="n">
+        <f aca="false">IF(C257="Multi-tile",D256-1,MAX(IF(C257="ID not in use",0,IF(C257="1X1",1,IF(C257="2X2",4,2)))-1,0))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +6480,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3035,25 +6495,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +6530,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -3090,13 +6550,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -3113,40 +6573,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3175,40 +6641,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -3216,24 +6682,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="137">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME_APARTMENTS_FUKUDA</t>
+    <t xml:space="preserve">NAME_FUKUDA</t>
   </si>
   <si>
     <t xml:space="preserve">4,3,2</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">harada</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HARADA</t>
+    <t xml:space="preserve">NAME_HARADA</t>
   </si>
   <si>
     <t xml:space="preserve">0xFFFF</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">small</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HAYASHI</t>
+    <t xml:space="preserve">NAME_HAYASHI</t>
   </si>
   <si>
     <t xml:space="preserve">4,3,2,1</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">hirano</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HIRANO</t>
+    <t xml:space="preserve">NAME_HIRANO</t>
   </si>
   <si>
     <t xml:space="preserve">hirano_m</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">hirata</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME_APARTMENTS_HIRATA</t>
+    <t xml:space="preserve">NAME_HIRATA</t>
   </si>
   <si>
     <t xml:space="preserve">hirata_m</t>
@@ -218,12 +218,42 @@
     <t xml:space="preserve">[PASS, 8],[MAIL, 4],[GOOD, 4]</t>
   </si>
   <si>
+    <t xml:space="preserve">farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 1],[MAIL, 1],[FOOD, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naganuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_NAGANUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single_house</t>
+  </si>
+  <si>
     <t xml:space="preserve">hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">2X2</t>
-  </si>
-  <si>
     <t xml:space="preserve">landmark</t>
   </si>
   <si>
@@ -233,9 +263,6 @@
     <t xml:space="preserve">3,2</t>
   </si>
   <si>
-    <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
   </si>
   <si>
@@ -363,6 +390,12 @@
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</t>
   </si>
   <si>
     <t xml:space="preserve">Letter</t>
@@ -408,9 +441,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -477,7 +509,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,10 +524,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -515,7 +543,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -656,7 +684,7 @@
       <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="4" t="str">
+      <c r="M2" s="2" t="str">
         <f aca="false">VLOOKUP(L2,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -681,11 +709,11 @@
         <v>32</v>
       </c>
       <c r="T2" s="1" t="str">
-        <f aca="false">IF(NOT(D2="1X1"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c"),A2))</f>
+        <f aca="false">IF(NOT(D2="1X1"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c"),IF(E2="landmark",CONCATENATE(A2,"_k"),IF(E2="house",CONCATENATE(A2,"_h"),A2))))</f>
         <v>fukuda_m</v>
       </c>
       <c r="U2" s="1" t="str">
-        <f aca="false">IF(D2="1X1","none",IF(E2="skyscraper",CONCATENATE(A2,"_c_north"),IF(E2="landmark",CONCATENATE(A2,"_k_north"),CONCATENATE(A2,"_north"))))</f>
+        <f aca="false">IF(D2="1X1","none",IF(E2="skyscraper",CONCATENATE(A2,"_c_north"),IF(E2="landmark",CONCATENATE(A2,"_k_north"),IF(E2="house",CONCATENATE(A2,"_h_north"),CONCATENATE(A2,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V2" s="1" t="str">
@@ -741,7 +769,7 @@
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="4" t="str">
+      <c r="M3" s="2" t="str">
         <f aca="false">VLOOKUP(L3,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -766,11 +794,11 @@
         <v>32</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f aca="false">IF(NOT(D3="1X1"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c"),A3))</f>
+        <f aca="false">IF(NOT(D3="1X1"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c"),IF(E3="landmark",CONCATENATE(A3,"_k"),IF(E3="house",CONCATENATE(A3,"_h"),A3))))</f>
         <v>fukuda_l</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f aca="false">IF(D3="1X1","none",IF(E3="skyscraper",CONCATENATE(A3,"_c_north"),IF(E3="landmark",CONCATENATE(A3,"_k_north"),CONCATENATE(A3,"_north"))))</f>
+        <f aca="false">IF(D3="1X1","none",IF(E3="skyscraper",CONCATENATE(A3,"_c_north"),IF(E3="landmark",CONCATENATE(A3,"_k_north"),IF(E3="house",CONCATENATE(A3,"_h_north"),CONCATENATE(A3,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V3" s="1" t="str">
@@ -826,7 +854,7 @@
       <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4" t="str">
+      <c r="M4" s="2" t="str">
         <f aca="false">VLOOKUP(L4,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -851,11 +879,11 @@
         <v>32</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f aca="false">IF(NOT(D4="1X1"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c"),A4))</f>
+        <f aca="false">IF(NOT(D4="1X1"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c"),IF(E4="landmark",CONCATENATE(A4,"_k"),IF(E4="house",CONCATENATE(A4,"_h"),A4))))</f>
         <v>harada_m</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f aca="false">IF(D4="1X1","none",IF(E4="skyscraper",CONCATENATE(A4,"_c_north"),IF(E4="landmark",CONCATENATE(A4,"_k_north"),CONCATENATE(A4,"_north"))))</f>
+        <f aca="false">IF(D4="1X1","none",IF(E4="skyscraper",CONCATENATE(A4,"_c_north"),IF(E4="landmark",CONCATENATE(A4,"_k_north"),IF(E4="house",CONCATENATE(A4,"_h_north"),CONCATENATE(A4,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V4" s="1" t="str">
@@ -911,7 +939,7 @@
       <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="4" t="str">
+      <c r="M5" s="2" t="str">
         <f aca="false">VLOOKUP(L5,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -936,11 +964,11 @@
         <v>32</v>
       </c>
       <c r="T5" s="1" t="str">
-        <f aca="false">IF(NOT(D5="1X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c"),A5))</f>
+        <f aca="false">IF(NOT(D5="1X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c"),IF(E5="landmark",CONCATENATE(A5,"_k"),IF(E5="house",CONCATENATE(A5,"_h"),A5))))</f>
         <v>harada_l</v>
       </c>
       <c r="U5" s="1" t="str">
-        <f aca="false">IF(D5="1X1","none",IF(E5="skyscraper",CONCATENATE(A5,"_c_north"),IF(E5="landmark",CONCATENATE(A5,"_k_north"),CONCATENATE(A5,"_north"))))</f>
+        <f aca="false">IF(D5="1X1","none",IF(E5="skyscraper",CONCATENATE(A5,"_c_north"),IF(E5="landmark",CONCATENATE(A5,"_k_north"),IF(E5="house",CONCATENATE(A5,"_h_north"),CONCATENATE(A5,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V5" s="1" t="str">
@@ -996,7 +1024,7 @@
       <c r="L6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="2" t="str">
         <f aca="false">VLOOKUP(L6,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -1021,11 +1049,11 @@
         <v>32</v>
       </c>
       <c r="T6" s="1" t="str">
-        <f aca="false">IF(NOT(D6="1X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c"),A6))</f>
+        <f aca="false">IF(NOT(D6="1X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c"),IF(E6="landmark",CONCATENATE(A6,"_k"),IF(E6="house",CONCATENATE(A6,"_h"),A6))))</f>
         <v>hayashi_s</v>
       </c>
       <c r="U6" s="1" t="str">
-        <f aca="false">IF(D6="1X1","none",IF(E6="skyscraper",CONCATENATE(A6,"_c_north"),IF(E6="landmark",CONCATENATE(A6,"_k_north"),CONCATENATE(A6,"_north"))))</f>
+        <f aca="false">IF(D6="1X1","none",IF(E6="skyscraper",CONCATENATE(A6,"_c_north"),IF(E6="landmark",CONCATENATE(A6,"_k_north"),IF(E6="house",CONCATENATE(A6,"_h_north"),CONCATENATE(A6,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V6" s="1" t="str">
@@ -1081,7 +1109,7 @@
       <c r="L7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="2" t="str">
         <f aca="false">VLOOKUP(L7,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -1106,11 +1134,11 @@
         <v>32</v>
       </c>
       <c r="T7" s="1" t="str">
-        <f aca="false">IF(NOT(D7="1X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c"),A7))</f>
+        <f aca="false">IF(NOT(D7="1X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c"),IF(E7="landmark",CONCATENATE(A7,"_k"),IF(E7="house",CONCATENATE(A7,"_h"),A7))))</f>
         <v>hayashi_m</v>
       </c>
       <c r="U7" s="1" t="str">
-        <f aca="false">IF(D7="1X1","none",IF(E7="skyscraper",CONCATENATE(A7,"_c_north"),IF(E7="landmark",CONCATENATE(A7,"_k_north"),CONCATENATE(A7,"_north"))))</f>
+        <f aca="false">IF(D7="1X1","none",IF(E7="skyscraper",CONCATENATE(A7,"_c_north"),IF(E7="landmark",CONCATENATE(A7,"_k_north"),IF(E7="house",CONCATENATE(A7,"_h_north"),CONCATENATE(A7,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V7" s="1" t="str">
@@ -1166,7 +1194,7 @@
       <c r="L8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="4" t="str">
+      <c r="M8" s="2" t="str">
         <f aca="false">VLOOKUP(L8,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -1191,11 +1219,11 @@
         <v>32</v>
       </c>
       <c r="T8" s="1" t="str">
-        <f aca="false">IF(NOT(D8="1X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c"),A8))</f>
+        <f aca="false">IF(NOT(D8="1X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c"),IF(E8="landmark",CONCATENATE(A8,"_k"),IF(E8="house",CONCATENATE(A8,"_h"),A8))))</f>
         <v>hirano_s</v>
       </c>
       <c r="U8" s="1" t="str">
-        <f aca="false">IF(D8="1X1","none",IF(E8="skyscraper",CONCATENATE(A8,"_c_north"),IF(E8="landmark",CONCATENATE(A8,"_k_north"),CONCATENATE(A8,"_north"))))</f>
+        <f aca="false">IF(D8="1X1","none",IF(E8="skyscraper",CONCATENATE(A8,"_c_north"),IF(E8="landmark",CONCATENATE(A8,"_k_north"),IF(E8="house",CONCATENATE(A8,"_h_north"),CONCATENATE(A8,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V8" s="1" t="str">
@@ -1251,7 +1279,7 @@
       <c r="L9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="4" t="str">
+      <c r="M9" s="2" t="str">
         <f aca="false">VLOOKUP(L9,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -1276,11 +1304,11 @@
         <v>32</v>
       </c>
       <c r="T9" s="1" t="str">
-        <f aca="false">IF(NOT(D9="1X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c"),A9))</f>
+        <f aca="false">IF(NOT(D9="1X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c"),IF(E9="landmark",CONCATENATE(A9,"_k"),IF(E9="house",CONCATENATE(A9,"_h"),A9))))</f>
         <v>hirano_m</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f aca="false">IF(D9="1X1","none",IF(E9="skyscraper",CONCATENATE(A9,"_c_north"),IF(E9="landmark",CONCATENATE(A9,"_k_north"),CONCATENATE(A9,"_north"))))</f>
+        <f aca="false">IF(D9="1X1","none",IF(E9="skyscraper",CONCATENATE(A9,"_c_north"),IF(E9="landmark",CONCATENATE(A9,"_k_north"),IF(E9="house",CONCATENATE(A9,"_h_north"),CONCATENATE(A9,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V9" s="1" t="str">
@@ -1336,7 +1364,7 @@
       <c r="L10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="M10" s="2" t="str">
         <f aca="false">VLOOKUP(L10,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
@@ -1361,11 +1389,11 @@
         <v>32</v>
       </c>
       <c r="T10" s="1" t="str">
-        <f aca="false">IF(NOT(D10="1X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c"),A10))</f>
+        <f aca="false">IF(NOT(D10="1X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c"),IF(E10="landmark",CONCATENATE(A10,"_k"),IF(E10="house",CONCATENATE(A10,"_h"),A10))))</f>
         <v>hirata_s</v>
       </c>
       <c r="U10" s="1" t="str">
-        <f aca="false">IF(D10="1X1","none",IF(E10="skyscraper",CONCATENATE(A10,"_c_north"),IF(E10="landmark",CONCATENATE(A10,"_k_north"),CONCATENATE(A10,"_north"))))</f>
+        <f aca="false">IF(D10="1X1","none",IF(E10="skyscraper",CONCATENATE(A10,"_c_north"),IF(E10="landmark",CONCATENATE(A10,"_k_north"),IF(E10="house",CONCATENATE(A10,"_h_north"),CONCATENATE(A10,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V10" s="1" t="str">
@@ -1421,7 +1449,7 @@
       <c r="L11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="4" t="str">
+      <c r="M11" s="2" t="str">
         <f aca="false">VLOOKUP(L11,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -1446,11 +1474,11 @@
         <v>32</v>
       </c>
       <c r="T11" s="1" t="str">
-        <f aca="false">IF(NOT(D11="1X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c"),A11))</f>
+        <f aca="false">IF(NOT(D11="1X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c"),IF(E11="landmark",CONCATENATE(A11,"_k"),IF(E11="house",CONCATENATE(A11,"_h"),A11))))</f>
         <v>hirata_m</v>
       </c>
       <c r="U11" s="1" t="str">
-        <f aca="false">IF(D11="1X1","none",IF(E11="skyscraper",CONCATENATE(A11,"_c_north"),IF(E11="landmark",CONCATENATE(A11,"_k_north"),CONCATENATE(A11,"_north"))))</f>
+        <f aca="false">IF(D11="1X1","none",IF(E11="skyscraper",CONCATENATE(A11,"_c_north"),IF(E11="landmark",CONCATENATE(A11,"_k_north"),IF(E11="house",CONCATENATE(A11,"_h_north"),CONCATENATE(A11,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V11" s="1" t="str">
@@ -1506,7 +1534,7 @@
       <c r="L12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="4" t="str">
+      <c r="M12" s="2" t="str">
         <f aca="false">VLOOKUP(L12,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -1529,11 +1557,11 @@
         <v>32</v>
       </c>
       <c r="T12" s="1" t="str">
-        <f aca="false">IF(NOT(D12="1X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c"),A12))</f>
+        <f aca="false">IF(NOT(D12="1X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c"),IF(E12="landmark",CONCATENATE(A12,"_k"),IF(E12="house",CONCATENATE(A12,"_h"),A12))))</f>
         <v>bank_building_c</v>
       </c>
       <c r="U12" s="1" t="str">
-        <f aca="false">IF(D12="1X1","none",IF(E12="skyscraper",CONCATENATE(A12,"_c_north"),IF(E12="landmark",CONCATENATE(A12,"_k_north"),CONCATENATE(A12,"_north"))))</f>
+        <f aca="false">IF(D12="1X1","none",IF(E12="skyscraper",CONCATENATE(A12,"_c_north"),IF(E12="landmark",CONCATENATE(A12,"_k_north"),IF(E12="house",CONCATENATE(A12,"_h_north"),CONCATENATE(A12,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V12" s="1" t="str">
@@ -1562,7 +1590,7 @@
       <c r="C13" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1589,7 +1617,7 @@
       <c r="L13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="4" t="str">
+      <c r="M13" s="2" t="str">
         <f aca="false">VLOOKUP(L13,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -1612,11 +1640,11 @@
         <v>63</v>
       </c>
       <c r="T13" s="1" t="str">
-        <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),A13))</f>
+        <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),IF(E13="landmark",CONCATENATE(A13,"_k"),IF(E13="house",CONCATENATE(A13,"_h"),A13))))</f>
         <v>none</v>
       </c>
       <c r="U13" s="1" t="str">
-        <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),CONCATENATE(A13,"_north"))))</f>
+        <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),IF(E13="house",CONCATENATE(A13,"_h_north"),CONCATENATE(A13,"_north")))))</f>
         <v>tsuno_building_c_north</v>
       </c>
       <c r="V13" s="1" t="str">
@@ -1643,7 +1671,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>65</v>
@@ -1655,64 +1683,64 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="4" t="str">
+      <c r="M14" s="2" t="str">
         <f aca="false">VLOOKUP(L14,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>20</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T14" s="1" t="str">
-        <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),A14))</f>
+        <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),IF(E14="landmark",CONCATENATE(A14,"_k"),IF(E14="house",CONCATENATE(A14,"_h"),A14))))</f>
         <v>none</v>
       </c>
       <c r="U14" s="1" t="str">
-        <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),CONCATENATE(A14,"_north"))))</f>
-        <v>hospital_k_north</v>
+        <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),IF(E14="house",CONCATENATE(A14,"_h_north"),CONCATENATE(A14,"_north")))))</f>
+        <v>farm_h_north</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),CONCATENATE(A14,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),IF(E14="house",CONCATENATE(A14,"_h_east"),CONCATENATE(A14,"_east")))))</f>
+        <v>farm_h_east</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),CONCATENATE(A14,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),IF(E14="house",CONCATENATE(A14,"_h_west"),CONCATENATE(A14,"_west")))))</f>
+        <v>farm_h_west</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f aca="false">IF(NOT(D14="2X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_south"),IF(E14="landmark",CONCATENATE(A14,"_k_south"),CONCATENATE(A14,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D14="2X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_south"),IF(E14="landmark",CONCATENATE(A14,"_k_south"),IF(E14="house",CONCATENATE(A14,"_h_south"),CONCATENATE(A14,"_south")))))</f>
+        <v>farm_h_south</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>64</v>
@@ -1726,10 +1754,10 @@
         <v>71</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>66</v>
@@ -1738,96 +1766,96 @@
         <v>72</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="4" t="str">
+        <v>73</v>
+      </c>
+      <c r="M15" s="2" t="str">
         <f aca="false">VLOOKUP(L15,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="T15" s="1" t="str">
-        <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),A15))</f>
+        <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),IF(E15="landmark",CONCATENATE(A15,"_k"),IF(E15="house",CONCATENATE(A15,"_h"),A15))))</f>
+        <v>naganuma_h</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),IF(E15="house",CONCATENATE(A15,"_h_north"),CONCATENATE(A15,"_north")))))</f>
         <v>none</v>
       </c>
-      <c r="U15" s="1" t="str">
-        <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),CONCATENATE(A15,"_north"))))</f>
-        <v>stadium_k_north</v>
-      </c>
       <c r="V15" s="1" t="str">
-        <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),CONCATENATE(A15,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),IF(E15="house",CONCATENATE(A15,"_h_east"),CONCATENATE(A15,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),CONCATENATE(A15,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),IF(E15="house",CONCATENATE(A15,"_h_west"),CONCATENATE(A15,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f aca="false">IF(NOT(D15="2X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_south"),IF(E15="landmark",CONCATENATE(A15,"_k_south"),CONCATENATE(A15,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <f aca="false">IF(NOT(D15="2X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_south"),IF(E15="landmark",CONCATENATE(A15,"_k_south"),IF(E15="house",CONCATENATE(A15,"_h_south"),CONCATENATE(A15,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>39</v>
@@ -1836,11 +1864,11 @@
         <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="4" t="str">
+        <v>78</v>
+      </c>
+      <c r="M16" s="2" t="str">
         <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>20</v>
@@ -1849,45 +1877,206 @@
         <v>3</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),A16))</f>
+        <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
         <v>none</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),CONCATENATE(A16,"_north"))))</f>
-        <v>temple_k_north</v>
+        <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
+        <v>hospital_k_north</v>
       </c>
       <c r="V16" s="1" t="str">
         <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),CONCATENATE(A16,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W16" s="1" t="str">
         <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),CONCATENATE(A16,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X16" s="1" t="str">
         <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),CONCATENATE(A16,"_south"))))</f>
+        <v>hospital_k_south</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
+        <v>none</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),CONCATENATE(A17,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
+        <v>none</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
+      <c r="Y18" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1895,15 +2084,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L18" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P18" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S18" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1937,15 +2126,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -1953,7 +2142,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -1961,7 +2150,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -1969,7 +2158,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -1977,7 +2166,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -1985,7 +2174,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -1993,7 +2182,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2001,7 +2190,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2009,7 +2198,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2017,7 +2206,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2025,7 +2214,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2033,7 +2222,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2041,7 +2230,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2049,7 +2238,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2057,7 +2246,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2065,7 +2254,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2097,16 +2286,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,11 +2338,11 @@
       </c>
       <c r="B4" s="1" t="str">
         <f aca="false">IF(C4="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A4,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">MAX(IF(C4="ID not in use",0,IF(C4="1X1",1,IF(C4="2X2",4,2)))-1,0)</f>
@@ -5719,15 +5908,15 @@
       </c>
       <c r="B214" s="1" t="str">
         <f aca="false">IF(C214="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C214" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A214,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>2X2</v>
       </c>
       <c r="D214" s="1" t="n">
         <f aca="false">IF(C214="Multi-tile",D213-1,MAX(IF(C214="ID not in use",0,IF(C214="1X1",1,IF(C214="2X2",4,2)))-1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,10 +6666,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6495,25 +6684,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,10 +6719,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -6550,13 +6739,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>108</v>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -6573,13 +6762,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>109</v>
+      <c r="F4" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -6587,13 +6776,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>110</v>
+      <c r="F5" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,16 +6792,35 @@
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>111</v>
+      <c r="F6" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>112</v>
+      <c r="F9" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6641,40 +6849,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -6682,24 +6890,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="141">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -266,6 +266,15 @@
     <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
   </si>
   <si>
+    <t xml:space="preserve">shiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_SHIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">stadium</t>
   </si>
   <si>
@@ -284,9 +293,6 @@
     <t xml:space="preserve">all</t>
   </si>
   <si>
-    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">colour</t>
   </si>
   <si>
@@ -393,6 +399,12 @@
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT)</t>
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</t>
@@ -543,7 +555,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1852,7 +1864,7 @@
         <v>150</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1970</v>
@@ -1920,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>65</v>
@@ -1932,13 +1944,13 @@
         <v>81</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
@@ -1953,20 +1965,20 @@
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>82</v>
@@ -1977,22 +1989,22 @@
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X17" s="1" t="str">
         <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),CONCATENATE(A17,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +2015,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>65</v>
@@ -2015,13 +2027,13 @@
         <v>84</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
@@ -2030,11 +2042,11 @@
         <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>20</v>
@@ -2043,16 +2055,16 @@
         <v>3</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
@@ -2060,23 +2072,115 @@
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X18" s="1" t="str">
         <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
+        <v>none</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="Y19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2084,15 +2188,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L18" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L20" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P18" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P20" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S18" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S20" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2126,15 +2230,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2142,7 +2246,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2150,7 +2254,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2158,7 +2262,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2166,7 +2270,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2174,7 +2278,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2182,7 +2286,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2190,7 +2294,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2198,7 +2302,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2206,7 +2310,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2214,7 +2318,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2222,7 +2326,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2230,7 +2334,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2238,7 +2342,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2246,7 +2350,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2254,7 +2358,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2286,16 +2390,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,15 +6080,15 @@
       </c>
       <c r="B218" s="1" t="str">
         <f aca="false">IF(C218="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C218" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A218,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>2X2</v>
       </c>
       <c r="D218" s="1" t="n">
         <f aca="false">IF(C218="Multi-tile",D217-1,MAX(IF(C218="ID not in use",0,IF(C218="1X1",1,IF(C218="2X2",4,2)))-1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6666,7 +6770,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6684,25 +6788,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,10 +6823,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -6745,7 +6849,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -6762,13 +6866,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -6776,13 +6880,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,7 +6897,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,7 +6908,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6812,15 +6916,23 @@
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>123</v>
+      <c r="F10" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6849,40 +6961,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -6890,24 +7002,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="143">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">police_station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_POLICE_STATION</t>
   </si>
   <si>
     <t xml:space="preserve">shiro</t>
@@ -555,7 +561,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1932,10 +1938,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -1944,13 +1950,13 @@
         <v>81</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
@@ -1959,20 +1965,20 @@
         <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M17" s="2" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O17" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>10</v>
@@ -1981,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
@@ -1989,19 +1995,19 @@
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X17" s="1" t="str">
         <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),CONCATENATE(A17,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>80</v>
@@ -2009,13 +2015,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>65</v>
@@ -2024,16 +2030,16 @@
         <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
@@ -2048,23 +2054,23 @@
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
@@ -2072,33 +2078,33 @@
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X18" s="1" t="str">
         <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>65</v>
@@ -2107,16 +2113,16 @@
         <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
@@ -2125,11 +2131,11 @@
         <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>20</v>
@@ -2138,16 +2144,16 @@
         <v>3</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
@@ -2155,32 +2161,116 @@
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X19" s="1" t="str">
         <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="1" t="str">
+        <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
+        <v>none</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),CONCATENATE(A20,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="Y20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="D21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2188,15 +2278,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L20" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L21" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P20" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P21" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S20" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S21" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2230,15 +2320,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2246,7 +2336,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2254,7 +2344,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2262,7 +2352,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2270,7 +2360,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2278,7 +2368,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2286,7 +2376,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2294,7 +2384,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2302,7 +2392,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2310,7 +2400,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2318,7 +2408,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2326,7 +2416,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2334,7 +2424,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2342,7 +2432,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2350,7 +2440,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2358,7 +2448,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2390,16 +2480,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,15 +4283,15 @@
       </c>
       <c r="B107" s="1" t="str">
         <f aca="false">IF(C107="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A107,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X2</v>
       </c>
       <c r="D107" s="1" t="n">
         <f aca="false">IF(C107="Multi-tile",D106-1,MAX(IF(C107="ID not in use",0,IF(C107="1X1",1,IF(C107="2X2",4,2)))-1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,25 +6878,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,10 +6913,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -6849,7 +6939,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -6866,13 +6956,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -6880,13 +6970,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6897,7 +6987,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,7 +6998,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,15 +7006,15 @@
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6932,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6961,40 +7051,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7002,24 +7092,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="145">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -266,6 +266,15 @@
     <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
   </si>
   <si>
+    <t xml:space="preserve">pachinko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_PACHINKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">police_station</t>
   </si>
   <si>
@@ -276,9 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_SHIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 2]</t>
   </si>
   <si>
     <t xml:space="preserve">stadium</t>
@@ -561,10 +567,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1938,10 +1944,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -1950,29 +1956,29 @@
         <v>81</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="M17" s="2" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>3</v>
@@ -1981,25 +1987,25 @@
         <v>69</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
@@ -2015,31 +2021,31 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
@@ -2048,20 +2054,20 @@
         <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O18" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>10</v>
@@ -2070,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
@@ -2078,22 +2084,22 @@
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X18" s="1" t="str">
         <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,7 +2110,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>65</v>
@@ -2116,13 +2122,13 @@
         <v>86</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
@@ -2137,23 +2143,23 @@
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="N19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
@@ -2161,33 +2167,33 @@
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X19" s="1" t="str">
         <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>65</v>
@@ -2196,16 +2202,16 @@
         <v>76</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
@@ -2214,11 +2220,11 @@
         <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>20</v>
@@ -2227,16 +2233,16 @@
         <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
@@ -2244,33 +2250,116 @@
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X20" s="1" t="str">
         <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),CONCATENATE(A20,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" s="1" t="str">
+        <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
+        <v>none</v>
+      </c>
+      <c r="U21" s="1" t="str">
+        <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="D21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="Y21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="D22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2278,15 +2367,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L22" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P22" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S22" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2320,15 +2409,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2336,7 +2425,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2344,7 +2433,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2352,7 +2441,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2360,7 +2449,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2368,7 +2457,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2376,7 +2465,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2384,7 +2473,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2392,7 +2481,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2400,7 +2489,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2408,7 +2497,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2416,7 +2505,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2424,7 +2513,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2432,7 +2521,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2440,7 +2529,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2448,7 +2537,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2480,16 +2569,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,11 +2774,11 @@
       </c>
       <c r="B13" s="1" t="str">
         <f aca="false">IF(C13="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A13,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">MAX(IF(C13="ID not in use",0,IF(C13="1X1",1,IF(C13="2X2",4,2)))-1,0)</f>
@@ -6878,25 +6967,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,10 +7002,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -6939,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -6956,13 +7045,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -6970,13 +7059,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,7 +7076,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,7 +7087,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,15 +7095,15 @@
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,7 +7111,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7051,40 +7140,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7092,24 +7181,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -251,12 +251,21 @@
     <t xml:space="preserve">single_house</t>
   </si>
   <si>
+    <t xml:space="preserve">fire_station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_FIRE_STATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">landmark</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME_HOSPITAL</t>
   </si>
   <si>
@@ -390,6 +399,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;building_flags&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 4],[MAIL, 2], [GOOD, 2]</t>
   </si>
   <si>
     <t xml:space="preserve">ALL_TOWNZONES</t>
@@ -567,10 +579,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,7 +601,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="17.7"/>
   </cols>
@@ -1861,19 +1873,19 @@
         <v>75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>3</v>
@@ -1888,14 +1900,14 @@
         <v>20</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M16" s="2" t="str">
         <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>3</v>
@@ -1907,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
@@ -1918,19 +1930,19 @@
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),CONCATENATE(A16,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),IF(E16="house",CONCATENATE(A16,"_h_east"),CONCATENATE(A16,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),CONCATENATE(A16,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),IF(E16="house",CONCATENATE(A16,"_h_west"),CONCATENATE(A16,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),CONCATENATE(A16,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),IF(E16="house",CONCATENATE(A16,"_h_south"),CONCATENATE(A16,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>75</v>
@@ -1938,47 +1950,47 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M17" s="2" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>3</v>
@@ -1987,36 +1999,36 @@
         <v>69</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>82</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X17" s="1" t="str">
         <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),CONCATENATE(A17,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,41 +2039,41 @@
         <v>83</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>3</v>
@@ -2070,25 +2082,25 @@
         <v>69</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
@@ -2104,31 +2116,31 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
@@ -2137,20 +2149,20 @@
         <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O19" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>10</v>
@@ -2159,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
@@ -2167,51 +2179,51 @@
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X19" s="1" t="str">
         <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
@@ -2220,29 +2232,29 @@
         <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
@@ -2250,22 +2262,22 @@
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X20" s="1" t="str">
         <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),CONCATENATE(A20,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,25 +2288,25 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
@@ -2303,11 +2315,11 @@
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>20</v>
@@ -2316,16 +2328,16 @@
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
@@ -2333,33 +2345,116 @@
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22" s="1" t="str">
+        <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
+        <v>none</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="D22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="Y22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="D23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2367,15 +2462,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L22" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L23" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P22" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P23" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S22" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S23" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2409,15 +2504,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2425,7 +2520,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2433,7 +2528,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2441,7 +2536,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2449,7 +2544,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2457,7 +2552,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2465,7 +2560,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2473,7 +2568,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2481,7 +2576,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2489,7 +2584,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2497,7 +2592,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2505,7 +2600,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2513,7 +2608,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2521,7 +2616,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2529,7 +2624,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2537,7 +2632,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2561,24 +2656,24 @@
   </sheetPr>
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C203" activeCellId="0" sqref="C203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H194" activeCellId="0" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,15 +4501,15 @@
       </c>
       <c r="B109" s="1" t="str">
         <f aca="false">IF(C109="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A109,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>2X1</v>
       </c>
       <c r="D109" s="1" t="n">
         <f aca="false">IF(C109="Multi-tile",D108-1,MAX(IF(C109="ID not in use",0,IF(C109="1X1",1,IF(C109="2X2",4,2)))-1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,25 +7062,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,13 +7094,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7022,13 +7117,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7045,13 +7140,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -7059,51 +7154,54 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,7 +7209,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -7140,40 +7238,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7181,24 +7279,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -296,6 +296,15 @@
     <t xml:space="preserve">NAME_SHIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">shrine_prohibition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_SHRINE_PROHIBITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
     <t xml:space="preserve">stadium</t>
   </si>
   <si>
@@ -309,9 +318,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_TEMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -579,16 +585,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.55"/>
@@ -598,7 +607,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.15"/>
@@ -2288,10 +2297,10 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>77</v>
@@ -2300,13 +2309,13 @@
         <v>91</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
@@ -2315,52 +2324,52 @@
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O21" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,7 +2380,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>65</v>
@@ -2383,13 +2392,13 @@
         <v>94</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
@@ -2398,11 +2407,11 @@
         <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>20</v>
@@ -2411,16 +2420,16 @@
         <v>3</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
@@ -2428,33 +2437,116 @@
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X22" s="1" t="str">
         <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="1" t="str">
+        <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
+        <v>none</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),CONCATENATE(A23,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),CONCATENATE(A23,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f aca="false">IF(NOT(D23="2X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_south"),IF(E23="landmark",CONCATENATE(A23,"_k_south"),CONCATENATE(A23,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="D23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="Y23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="D24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2462,15 +2554,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L23" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L24" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P23" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P24" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S23" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S24" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2504,15 +2596,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2520,7 +2612,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2528,7 +2620,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2536,7 +2628,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2544,7 +2636,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2552,7 +2644,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2560,7 +2652,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2568,7 +2660,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2576,7 +2668,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2584,7 +2676,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2592,7 +2684,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2600,7 +2692,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2608,7 +2700,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2616,7 +2708,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2624,7 +2716,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2632,7 +2724,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2664,16 +2756,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,11 +4695,11 @@
       </c>
       <c r="B115" s="1" t="str">
         <f aca="false">IF(C115="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A115,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D115" s="1" t="n">
         <f aca="false">IF(C115="Multi-tile",D114-1,MAX(IF(C115="ID not in use",0,IF(C115="1X1",1,IF(C115="2X2",4,2)))-1,0))</f>
@@ -7062,25 +7154,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7094,13 +7186,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7123,7 +7215,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7146,7 +7238,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>69</v>
@@ -7154,13 +7246,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,7 +7263,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,7 +7274,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,15 +7285,15 @@
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7209,7 +7301,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7238,40 +7330,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7279,24 +7371,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -206,6 +206,15 @@
     <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
   </si>
   <si>
+    <t xml:space="preserve">enterprise_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_ENTERPRISE_TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 4],[GOOD, 4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">tsuno_building</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t xml:space="preserve">NAME_TSUNO_BUILDING</t>
   </si>
   <si>
-    <t xml:space="preserve">[PASS, 8],[MAIL, 4],[GOOD, 4]</t>
-  </si>
-  <si>
     <t xml:space="preserve">farm</t>
   </si>
   <si>
@@ -296,13 +302,22 @@
     <t xml:space="preserve">NAME_SHIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">shrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_SHRINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">shrine_prohibition</t>
   </si>
   <si>
     <t xml:space="preserve">NAME_SHRINE_PROHIBITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
   </si>
   <si>
     <t xml:space="preserve">stadium</t>
@@ -585,14 +600,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1633,25 +1648,25 @@
         <v>60</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>39</v>
@@ -1667,7 +1682,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>5</v>
@@ -1682,19 +1697,19 @@
         <v>10</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T13" s="1" t="str">
         <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),IF(E13="landmark",CONCATENATE(A13,"_k"),IF(E13="house",CONCATENATE(A13,"_h"),A13))))</f>
-        <v>none</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U13" s="1" t="str">
         <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),IF(E13="house",CONCATENATE(A13,"_h_north"),CONCATENATE(A13,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V13" s="1" t="str">
         <f aca="false">IF(OR(D13="1X1",D13="2X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_east"),IF(E13="landmark",CONCATENATE(A13,"_k_east"),CONCATENATE(A13,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W13" s="1" t="str">
         <f aca="false">IF(OR(D13="1X1",D13="1X2"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c_west"),IF(E13="landmark",CONCATENATE(A13,"_k_west"),CONCATENATE(A13,"_west"))))</f>
@@ -1710,62 +1725,62 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G14" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M14" s="2" t="str">
         <f aca="false">VLOOKUP(L14,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="T14" s="1" t="str">
         <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),IF(E14="landmark",CONCATENATE(A14,"_k"),IF(E14="house",CONCATENATE(A14,"_h"),A14))))</f>
@@ -1773,173 +1788,173 @@
       </c>
       <c r="U14" s="1" t="str">
         <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),IF(E14="house",CONCATENATE(A14,"_h_north"),CONCATENATE(A14,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),IF(E14="house",CONCATENATE(A14,"_h_east"),CONCATENATE(A14,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),CONCATENATE(A14,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),IF(E14="house",CONCATENATE(A14,"_h_west"),CONCATENATE(A14,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),CONCATENATE(A14,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f aca="false">IF(NOT(D14="2X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_south"),IF(E14="landmark",CONCATENATE(A14,"_k_south"),IF(E14="house",CONCATENATE(A14,"_h_south"),CONCATENATE(A14,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D14="2X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_south"),IF(E14="landmark",CONCATENATE(A14,"_k_south"),CONCATENATE(A14,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M15" s="2" t="str">
         <f aca="false">VLOOKUP(L15,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N15" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O15" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="T15" s="1" t="str">
         <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),IF(E15="landmark",CONCATENATE(A15,"_k"),IF(E15="house",CONCATENATE(A15,"_h"),A15))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U15" s="1" t="str">
         <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),IF(E15="house",CONCATENATE(A15,"_h_north"),CONCATENATE(A15,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V15" s="1" t="str">
         <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),IF(E15="house",CONCATENATE(A15,"_h_east"),CONCATENATE(A15,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W15" s="1" t="str">
         <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),IF(E15="house",CONCATENATE(A15,"_h_west"),CONCATENATE(A15,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X15" s="1" t="str">
         <f aca="false">IF(NOT(D15="2X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_south"),IF(E15="landmark",CONCATENATE(A15,"_k_south"),IF(E15="house",CONCATENATE(A15,"_h_south"),CONCATENATE(A15,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="2" t="str">
         <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V16" s="1" t="str">
         <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),IF(E16="house",CONCATENATE(A16,"_h_east"),CONCATENATE(A16,"_east")))))</f>
@@ -1947,37 +1962,37 @@
       </c>
       <c r="W16" s="1" t="str">
         <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),IF(E16="house",CONCATENATE(A16,"_h_west"),CONCATENATE(A16,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X16" s="1" t="str">
         <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),IF(E16="house",CONCATENATE(A16,"_h_south"),CONCATENATE(A16,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>3</v>
@@ -1992,29 +2007,29 @@
         <v>20</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M17" s="2" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
@@ -2022,177 +2037,177 @@
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),IF(E17="house",CONCATENATE(A17,"_h_east"),CONCATENATE(A17,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),IF(E17="house",CONCATENATE(A17,"_h_west"),CONCATENATE(A17,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),CONCATENATE(A17,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),IF(E17="house",CONCATENATE(A17,"_h_south"),CONCATENATE(A17,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X18" s="1" t="str">
         <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G19" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
@@ -2203,7 +2218,7 @@
         <v>none</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,25 +2229,25 @@
         <v>88</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
@@ -2241,20 +2256,20 @@
         <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O20" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>10</v>
@@ -2263,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
@@ -2271,19 +2286,19 @@
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X20" s="1" t="str">
         <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),CONCATENATE(A20,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>88</v>
@@ -2297,25 +2312,25 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
@@ -2324,14 +2339,14 @@
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>3</v>
@@ -2340,33 +2355,33 @@
         <v>59</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>none</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>90</v>
@@ -2374,31 +2389,31 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
@@ -2407,52 +2422,52 @@
         <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O22" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>none</v>
+        <v>shrine_k</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X22" s="1" t="str">
         <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,25 +2478,25 @@
         <v>96</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>39</v>
@@ -2490,63 +2505,229 @@
         <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M23" s="2" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="N23" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O23" s="1" t="n">
+      <c r="N23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>none</v>
       </c>
       <c r="V23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),CONCATENATE(A23,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>none</v>
       </c>
       <c r="W23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),CONCATENATE(A23,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X23" s="1" t="str">
         <f aca="false">IF(NOT(D23="2X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_south"),IF(E23="landmark",CONCATENATE(A23,"_k_south"),CONCATENATE(A23,"_south"))))</f>
-        <v>temple_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="D24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T24" s="1" t="str">
+        <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
+        <v>none</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V24" s="1" t="str">
+        <f aca="false">IF(OR(D24="1X1",D24="2X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_east"),IF(E24="landmark",CONCATENATE(A24,"_k_east"),CONCATENATE(A24,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <f aca="false">IF(OR(D24="1X1",D24="1X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_west"),IF(E24="landmark",CONCATENATE(A24,"_k_west"),CONCATENATE(A24,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f aca="false">IF(NOT(D24="2X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_south"),IF(E24="landmark",CONCATENATE(A24,"_k_south"),CONCATENATE(A24,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" s="1" t="str">
+        <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
+        <v>none</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f aca="false">IF(NOT(D25="2X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_south"),IF(E25="landmark",CONCATENATE(A25,"_k_south"),CONCATENATE(A25,"_south"))))</f>
+        <v>temple_k_south</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="D26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2554,15 +2735,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L24" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L26" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P24" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P26" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S24" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S26" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2596,15 +2777,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2612,7 +2793,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2620,7 +2801,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2628,7 +2809,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2636,7 +2817,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2644,7 +2825,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2652,7 +2833,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2660,7 +2841,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2668,7 +2849,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2676,7 +2857,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2684,7 +2865,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2692,7 +2873,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2700,7 +2881,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2708,7 +2889,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2716,7 +2897,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2724,7 +2905,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2756,16 +2937,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,11 +4332,11 @@
       </c>
       <c r="B83" s="1" t="str">
         <f aca="false">IF(C83="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A83,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D83" s="1" t="n">
         <f aca="false">IF(C83="Multi-tile",D82-1,MAX(IF(C83="ID not in use",0,IF(C83="1X1",1,IF(C83="2X2",4,2)))-1,0))</f>
@@ -4712,11 +4893,11 @@
       </c>
       <c r="B116" s="1" t="str">
         <f aca="false">IF(C116="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A116,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D116" s="1" t="n">
         <f aca="false">IF(C116="Multi-tile",D115-1,MAX(IF(C116="ID not in use",0,IF(C116="1X1",1,IF(C116="2X2",4,2)))-1,0))</f>
@@ -7139,7 +7320,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7154,25 +7335,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,13 +7367,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7215,7 +7396,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7232,76 +7413,79 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -7330,40 +7514,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7371,24 +7555,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t xml:space="preserve">[PASS, 8],[MAIL, 4],[GOOD, 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insurance_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_INSURANCE_TOWER</t>
   </si>
   <si>
     <t xml:space="preserve">tsuno_building</t>
@@ -600,14 +606,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="Q34" activeCellId="0" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1731,25 +1737,25 @@
         <v>63</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>2006</v>
+        <v>1960</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>39</v>
@@ -1765,7 +1771,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>5</v>
@@ -1784,15 +1790,15 @@
       </c>
       <c r="T14" s="1" t="str">
         <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),IF(E14="landmark",CONCATENATE(A14,"_k"),IF(E14="house",CONCATENATE(A14,"_h"),A14))))</f>
-        <v>none</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U14" s="1" t="str">
         <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),IF(E14="house",CONCATENATE(A14,"_h_north"),CONCATENATE(A14,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V14" s="1" t="str">
         <f aca="false">IF(OR(D14="1X1",D14="2X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_east"),IF(E14="landmark",CONCATENATE(A14,"_k_east"),CONCATENATE(A14,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W14" s="1" t="str">
         <f aca="false">IF(OR(D14="1X1",D14="1X2"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c_west"),IF(E14="landmark",CONCATENATE(A14,"_k_west"),CONCATENATE(A14,"_west"))))</f>
@@ -1808,62 +1814,62 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G15" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2" t="str">
         <f aca="false">VLOOKUP(L15,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="T15" s="1" t="str">
         <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),IF(E15="landmark",CONCATENATE(A15,"_k"),IF(E15="house",CONCATENATE(A15,"_h"),A15))))</f>
@@ -1871,173 +1877,173 @@
       </c>
       <c r="U15" s="1" t="str">
         <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),IF(E15="house",CONCATENATE(A15,"_h_north"),CONCATENATE(A15,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),IF(E15="house",CONCATENATE(A15,"_h_east"),CONCATENATE(A15,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),CONCATENATE(A15,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),IF(E15="house",CONCATENATE(A15,"_h_west"),CONCATENATE(A15,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),CONCATENATE(A15,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f aca="false">IF(NOT(D15="2X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_south"),IF(E15="landmark",CONCATENATE(A15,"_k_south"),IF(E15="house",CONCATENATE(A15,"_h_south"),CONCATENATE(A15,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D15="2X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_south"),IF(E15="landmark",CONCATENATE(A15,"_k_south"),CONCATENATE(A15,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2" t="str">
         <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V16" s="1" t="str">
         <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),IF(E16="house",CONCATENATE(A16,"_h_east"),CONCATENATE(A16,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W16" s="1" t="str">
         <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),IF(E16="house",CONCATENATE(A16,"_h_west"),CONCATENATE(A16,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X16" s="1" t="str">
         <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),IF(E16="house",CONCATENATE(A16,"_h_south"),CONCATENATE(A16,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="2" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),IF(E17="house",CONCATENATE(A17,"_h_east"),CONCATENATE(A17,"_east")))))</f>
@@ -2045,37 +2051,37 @@
       </c>
       <c r="W17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),IF(E17="house",CONCATENATE(A17,"_h_west"),CONCATENATE(A17,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X17" s="1" t="str">
         <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),IF(E17="house",CONCATENATE(A17,"_h_south"),CONCATENATE(A17,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>3</v>
@@ -2090,29 +2096,29 @@
         <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
@@ -2120,177 +2126,177 @@
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),IF(E18="house",CONCATENATE(A18,"_h_east"),CONCATENATE(A18,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),IF(E18="house",CONCATENATE(A18,"_h_west"),CONCATENATE(A18,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),IF(E18="house",CONCATENATE(A18,"_h_south"),CONCATENATE(A18,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X19" s="1" t="str">
         <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G20" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
@@ -2301,7 +2307,7 @@
         <v>none</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,25 +2318,25 @@
         <v>90</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
@@ -2339,20 +2345,20 @@
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O21" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>10</v>
@@ -2361,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
@@ -2369,19 +2375,19 @@
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>90</v>
@@ -2395,25 +2401,25 @@
         <v>92</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
@@ -2422,14 +2428,14 @@
         <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>3</v>
@@ -2438,33 +2444,33 @@
         <v>59</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X22" s="1" t="str">
         <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>92</v>
@@ -2472,28 +2478,28 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>0</v>
@@ -2505,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M23" s="2" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
@@ -2527,11 +2533,11 @@
         <v>1</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
@@ -2550,7 +2556,7 @@
         <v>none</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,25 +2567,25 @@
         <v>98</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>39</v>
@@ -2588,81 +2594,81 @@
         <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M24" s="2" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O24" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="2X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_east"),IF(E24="landmark",CONCATENATE(A24,"_k_east"),CONCATENATE(A24,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="1X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_west"),IF(E24="landmark",CONCATENATE(A24,"_k_west"),CONCATENATE(A24,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X24" s="1" t="str">
         <f aca="false">IF(NOT(D24="2X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_south"),IF(E24="landmark",CONCATENATE(A24,"_k_south"),CONCATENATE(A24,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G25" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>39</v>
@@ -2671,11 +2677,11 @@
         <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>20</v>
@@ -2684,16 +2690,16 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
@@ -2701,33 +2707,116 @@
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X25" s="1" t="str">
         <f aca="false">IF(NOT(D25="2X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_south"),IF(E25="landmark",CONCATENATE(A25,"_k_south"),CONCATENATE(A25,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26" s="1" t="str">
+        <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
+        <v>none</v>
+      </c>
+      <c r="U26" s="1" t="str">
+        <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V26" s="1" t="str">
+        <f aca="false">IF(OR(D26="1X1",D26="2X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_east"),IF(E26="landmark",CONCATENATE(A26,"_k_east"),CONCATENATE(A26,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <f aca="false">IF(OR(D26="1X1",D26="1X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_west"),IF(E26="landmark",CONCATENATE(A26,"_k_west"),CONCATENATE(A26,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <f aca="false">IF(NOT(D26="2X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_south"),IF(E26="landmark",CONCATENATE(A26,"_k_south"),CONCATENATE(A26,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="D26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="Y26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="D27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2735,15 +2824,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L26" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L27" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P26" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P27" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S26" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S27" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2777,15 +2866,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2793,7 +2882,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2801,7 +2890,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2809,7 +2898,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2817,7 +2906,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2825,7 +2914,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2833,7 +2922,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2841,7 +2930,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2849,7 +2938,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2857,7 +2946,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2865,7 +2954,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2873,7 +2962,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2881,7 +2970,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2889,7 +2978,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2897,7 +2986,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2905,7 +2994,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -2937,16 +3026,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,11 +4438,11 @@
       </c>
       <c r="B84" s="1" t="str">
         <f aca="false">IF(C84="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A84,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D84" s="1" t="n">
         <f aca="false">IF(C84="Multi-tile",D83-1,MAX(IF(C84="ID not in use",0,IF(C84="1X1",1,IF(C84="2X2",4,2)))-1,0))</f>
@@ -7335,25 +7424,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,13 +7456,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7396,7 +7485,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7413,49 +7502,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,29 +7552,29 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -7514,40 +7603,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7555,24 +7644,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="162">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_INSURANCE_TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuroi_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_KUROI_TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitsui_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_MITSUI_TOWER</t>
   </si>
   <si>
     <t xml:space="preserve">tsuno_building</t>
@@ -606,14 +618,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q34" activeCellId="0" sqref="Q34"/>
+      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>58</v>
@@ -1678,7 +1690,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>58</v>
@@ -1761,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>58</v>
@@ -1820,31 +1832,31 @@
         <v>65</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>58</v>
@@ -1854,7 +1866,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>5</v>
@@ -1873,15 +1885,15 @@
       </c>
       <c r="T15" s="1" t="str">
         <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),IF(E15="landmark",CONCATENATE(A15,"_k"),IF(E15="house",CONCATENATE(A15,"_h"),A15))))</f>
-        <v>none</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U15" s="1" t="str">
         <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),IF(E15="house",CONCATENATE(A15,"_h_north"),CONCATENATE(A15,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V15" s="1" t="str">
         <f aca="false">IF(OR(D15="1X1",D15="2X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_east"),IF(E15="landmark",CONCATENATE(A15,"_k_east"),CONCATENATE(A15,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W15" s="1" t="str">
         <f aca="false">IF(OR(D15="1X1",D15="1X2"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c_west"),IF(E15="landmark",CONCATENATE(A15,"_k_west"),CONCATENATE(A15,"_west"))))</f>
@@ -1897,228 +1909,228 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" s="1" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M16" s="2" t="str">
         <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>none</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>none</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),IF(E16="house",CONCATENATE(A16,"_h_east"),CONCATENATE(A16,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D16="1X1",D16="2X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_east"),IF(E16="landmark",CONCATENATE(A16,"_k_east"),CONCATENATE(A16,"_east"))))</f>
+        <v>none</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),IF(E16="house",CONCATENATE(A16,"_h_west"),CONCATENATE(A16,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D16="1X1",D16="1X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_west"),IF(E16="landmark",CONCATENATE(A16,"_k_west"),CONCATENATE(A16,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),IF(E16="house",CONCATENATE(A16,"_h_south"),CONCATENATE(A16,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D16="2X2"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c_south"),IF(E16="landmark",CONCATENATE(A16,"_k_south"),CONCATENATE(A16,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1870</v>
+        <v>2006</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M17" s="2" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>none</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),IF(E17="house",CONCATENATE(A17,"_h_east"),CONCATENATE(A17,"_east")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),IF(E17="house",CONCATENATE(A17,"_h_west"),CONCATENATE(A17,"_west")))))</f>
+        <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),IF(E17="house",CONCATENATE(A17,"_h_south"),CONCATENATE(A17,"_south")))))</f>
+        <f aca="false">IF(NOT(D17="2X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_south"),IF(E17="landmark",CONCATENATE(A17,"_k_south"),CONCATENATE(A17,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
@@ -2126,211 +2138,211 @@
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),IF(E18="house",CONCATENATE(A18,"_h_east"),CONCATENATE(A18,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),IF(E18="house",CONCATENATE(A18,"_h_west"),CONCATENATE(A18,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X18" s="1" t="str">
         <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),IF(E18="house",CONCATENATE(A18,"_h_south"),CONCATENATE(A18,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),IF(E19="house",CONCATENATE(A19,"_h_east"),CONCATENATE(A19,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),IF(E19="house",CONCATENATE(A19,"_h_west"),CONCATENATE(A19,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X19" s="1" t="str">
-        <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),IF(E19="house",CONCATENATE(A19,"_h_south"),CONCATENATE(A19,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>none</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V20" s="1" t="str">
-        <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
+        <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),IF(E20="house",CONCATENATE(A20,"_h_east"),CONCATENATE(A20,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),IF(E20="house",CONCATENATE(A20,"_h_west"),CONCATENATE(A20,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),CONCATENATE(A20,"_south"))))</f>
+        <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),IF(E20="house",CONCATENATE(A20,"_h_south"),CONCATENATE(A20,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>3</v>
@@ -2345,29 +2357,29 @@
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
@@ -2375,105 +2387,105 @@
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G22" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1700</v>
+        <v>1980</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N22" s="0" t="n">
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="O22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="R22" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>none</v>
       </c>
       <c r="V22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>none</v>
       </c>
       <c r="W22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X22" s="1" t="str">
         <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,25 +2496,25 @@
         <v>94</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>39</v>
@@ -2511,41 +2523,41 @@
         <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="M23" s="2" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
-        <v>none</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),CONCATENATE(A23,"_east"))))</f>
-        <v>none</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),CONCATENATE(A23,"_west"))))</f>
@@ -2561,31 +2573,31 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>39</v>
@@ -2594,14 +2606,14 @@
         <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M24" s="2" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>3</v>
@@ -2610,65 +2622,65 @@
         <v>59</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>none</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="2X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_east"),IF(E24="landmark",CONCATENATE(A24,"_k_east"),CONCATENATE(A24,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="1X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_west"),IF(E24="landmark",CONCATENATE(A24,"_k_west"),CONCATENATE(A24,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X24" s="1" t="str">
         <f aca="false">IF(NOT(D24="2X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_south"),IF(E24="landmark",CONCATENATE(A24,"_k_south"),CONCATENATE(A24,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>39</v>
@@ -2677,81 +2689,81 @@
         <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M25" s="2" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O25" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>none</v>
+        <v>shrine_k</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X25" s="1" t="str">
         <f aca="false">IF(NOT(D25="2X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_south"),IF(E25="landmark",CONCATENATE(A25,"_k_south"),CONCATENATE(A25,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G26" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>39</v>
@@ -2760,63 +2772,229 @@
         <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M26" s="2" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="N26" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O26" s="1" t="n">
+      <c r="N26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>none</v>
       </c>
       <c r="V26" s="1" t="str">
         <f aca="false">IF(OR(D26="1X1",D26="2X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_east"),IF(E26="landmark",CONCATENATE(A26,"_k_east"),CONCATENATE(A26,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>none</v>
       </c>
       <c r="W26" s="1" t="str">
         <f aca="false">IF(OR(D26="1X1",D26="1X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_west"),IF(E26="landmark",CONCATENATE(A26,"_k_west"),CONCATENATE(A26,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X26" s="1" t="str">
         <f aca="false">IF(NOT(D26="2X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_south"),IF(E26="landmark",CONCATENATE(A26,"_k_south"),CONCATENATE(A26,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T27" s="1" t="str">
+        <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
+        <v>none</v>
+      </c>
+      <c r="U27" s="1" t="str">
+        <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),CONCATENATE(A27,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),CONCATENATE(A27,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f aca="false">IF(NOT(D27="2X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_south"),IF(E27="landmark",CONCATENATE(A27,"_k_south"),CONCATENATE(A27,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T28" s="1" t="str">
+        <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
+        <v>none</v>
+      </c>
+      <c r="U28" s="1" t="str">
+        <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <f aca="false">IF(OR(D28="1X1",D28="2X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_east"),IF(E28="landmark",CONCATENATE(A28,"_k_east"),CONCATENATE(A28,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W28" s="1" t="str">
+        <f aca="false">IF(OR(D28="1X1",D28="1X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_west"),IF(E28="landmark",CONCATENATE(A28,"_k_west"),CONCATENATE(A28,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X28" s="1" t="str">
+        <f aca="false">IF(NOT(D28="2X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_south"),IF(E28="landmark",CONCATENATE(A28,"_k_south"),CONCATENATE(A28,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y26" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="D27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="Y28" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="D29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="S29" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2824,15 +3002,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L27" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L29" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P27" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P29" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S27" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S29" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2866,15 +3044,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -2882,7 +3060,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2890,7 +3068,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -2898,7 +3076,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -2906,7 +3084,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -2914,7 +3092,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2922,7 +3100,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -2930,7 +3108,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -2938,7 +3116,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -2946,7 +3124,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -2954,7 +3132,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -2962,7 +3140,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -2970,7 +3148,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -2978,7 +3156,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -2986,7 +3164,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -2994,7 +3172,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -3018,7 +3196,7 @@
   </sheetPr>
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H194" activeCellId="0" sqref="H194"/>
     </sheetView>
   </sheetViews>
@@ -3026,16 +3204,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,11 +3545,11 @@
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">IF(C21="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A21,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">MAX(IF(C21="ID not in use",0,IF(C21="1X1",1,IF(C21="2X2",4,2)))-1,0)</f>
@@ -3690,11 +3868,11 @@
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">IF(C40="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A40,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">IF(C40="Multi-tile",D39-1,MAX(IF(C40="ID not in use",0,IF(C40="1X1",1,IF(C40="2X2",4,2)))-1,0))</f>
@@ -7424,25 +7602,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7456,13 +7634,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7485,7 +7663,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7502,49 +7680,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,29 +7730,29 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7603,40 +7781,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7644,24 +7822,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_MITSUI_TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modern_office_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_MODERN_OFFICE_TOWER</t>
   </si>
   <si>
     <t xml:space="preserve">tsuno_building</t>
@@ -610,6 +616,16 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -618,30 +634,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
@@ -1998,25 +2013,25 @@
         <v>69</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>39</v>
@@ -2032,7 +2047,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>5</v>
@@ -2051,15 +2066,15 @@
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>none</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="2X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_east"),IF(E17="landmark",CONCATENATE(A17,"_k_east"),CONCATENATE(A17,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W17" s="1" t="str">
         <f aca="false">IF(OR(D17="1X1",D17="1X2"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c_west"),IF(E17="landmark",CONCATENATE(A17,"_k_west"),CONCATENATE(A17,"_west"))))</f>
@@ -2075,62 +2090,62 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G18" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M18" s="2" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
@@ -2138,173 +2153,173 @@
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),IF(E18="house",CONCATENATE(A18,"_h_east"),CONCATENATE(A18,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),IF(E18="house",CONCATENATE(A18,"_h_west"),CONCATENATE(A18,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),IF(E18="house",CONCATENATE(A18,"_h_south"),CONCATENATE(A18,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D18="2X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_south"),IF(E18="landmark",CONCATENATE(A18,"_k_south"),CONCATENATE(A18,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),IF(E19="house",CONCATENATE(A19,"_h_east"),CONCATENATE(A19,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),IF(E19="house",CONCATENATE(A19,"_h_west"),CONCATENATE(A19,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X19" s="1" t="str">
         <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),IF(E19="house",CONCATENATE(A19,"_h_south"),CONCATENATE(A19,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),IF(E20="house",CONCATENATE(A20,"_h_east"),CONCATENATE(A20,"_east")))))</f>
@@ -2312,37 +2327,37 @@
       </c>
       <c r="W20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),IF(E20="house",CONCATENATE(A20,"_h_west"),CONCATENATE(A20,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X20" s="1" t="str">
         <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),IF(E20="house",CONCATENATE(A20,"_h_south"),CONCATENATE(A20,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>3</v>
@@ -2357,29 +2372,29 @@
         <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
@@ -2387,177 +2402,177 @@
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V21" s="1" t="str">
-        <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),CONCATENATE(A21,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),IF(E21="house",CONCATENATE(A21,"_h_east"),CONCATENATE(A21,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),CONCATENATE(A21,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),IF(E21="house",CONCATENATE(A21,"_h_west"),CONCATENATE(A21,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X21" s="1" t="str">
-        <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),CONCATENATE(A21,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),IF(E21="house",CONCATENATE(A21,"_h_south"),CONCATENATE(A21,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X22" s="1" t="str">
         <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G23" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),CONCATENATE(A23,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),CONCATENATE(A23,"_west"))))</f>
@@ -2568,7 +2583,7 @@
         <v>none</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,25 +2594,25 @@
         <v>96</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H24" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>39</v>
@@ -2606,20 +2621,20 @@
         <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M24" s="2" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O24" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>10</v>
@@ -2628,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
@@ -2636,19 +2651,19 @@
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="2X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_east"),IF(E24="landmark",CONCATENATE(A24,"_k_east"),CONCATENATE(A24,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="1X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_west"),IF(E24="landmark",CONCATENATE(A24,"_k_west"),CONCATENATE(A24,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X24" s="1" t="str">
         <f aca="false">IF(NOT(D24="2X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_south"),IF(E24="landmark",CONCATENATE(A24,"_k_south"),CONCATENATE(A24,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>96</v>
@@ -2662,25 +2677,25 @@
         <v>98</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>39</v>
@@ -2689,14 +2704,14 @@
         <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M25" s="2" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>3</v>
@@ -2705,33 +2720,33 @@
         <v>59</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X25" s="1" t="str">
         <f aca="false">IF(NOT(D25="2X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_south"),IF(E25="landmark",CONCATENATE(A25,"_k_south"),CONCATENATE(A25,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>98</v>
@@ -2739,28 +2754,28 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>0</v>
@@ -2772,7 +2787,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M26" s="2" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
@@ -2794,11 +2809,11 @@
         <v>1</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
@@ -2817,7 +2832,7 @@
         <v>none</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,25 +2843,25 @@
         <v>104</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>39</v>
@@ -2855,81 +2870,81 @@
         <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M27" s="2" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O27" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),CONCATENATE(A27,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),CONCATENATE(A27,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X27" s="1" t="str">
         <f aca="false">IF(NOT(D27="2X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_south"),IF(E27="landmark",CONCATENATE(A27,"_k_south"),CONCATENATE(A27,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G28" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>39</v>
@@ -2938,11 +2953,11 @@
         <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M28" s="2" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>20</v>
@@ -2951,16 +2966,16 @@
         <v>3</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
@@ -2968,49 +2983,135 @@
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="2X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_east"),IF(E28="landmark",CONCATENATE(A28,"_k_east"),CONCATENATE(A28,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="1X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_west"),IF(E28="landmark",CONCATENATE(A28,"_k_west"),CONCATENATE(A28,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X28" s="1" t="str">
         <f aca="false">IF(NOT(D28="2X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_south"),IF(E28="landmark",CONCATENATE(A28,"_k_south"),CONCATENATE(A28,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
+        <v>none</v>
+      </c>
+      <c r="U29" s="1" t="str">
+        <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),CONCATENATE(A29,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W29" s="1" t="str">
+        <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),CONCATENATE(A29,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X29" s="1" t="str">
+        <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),CONCATENATE(A29,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="D29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="S29" s="2"/>
+      <c r="Y29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="D30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="S30" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E11" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L29" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L30" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P29" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P30" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S29" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S30" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3044,15 +3145,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -3060,7 +3161,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -3068,7 +3169,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -3076,7 +3177,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -3084,7 +3185,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -3092,7 +3193,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -3100,7 +3201,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -3108,7 +3209,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -3116,7 +3217,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -3124,7 +3225,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -3132,7 +3233,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -3140,7 +3241,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -3148,7 +3249,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -3156,7 +3257,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -3164,7 +3265,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -3172,7 +3273,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -3204,16 +3305,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,11 +4734,11 @@
       </c>
       <c r="B85" s="1" t="str">
         <f aca="false">IF(C85="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A85,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D85" s="1" t="n">
         <f aca="false">IF(C85="Multi-tile",D84-1,MAX(IF(C85="ID not in use",0,IF(C85="1X1",1,IF(C85="2X2",4,2)))-1,0))</f>
@@ -7602,25 +7703,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,13 +7735,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7663,7 +7764,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7680,49 +7781,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7730,29 +7831,29 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -7781,40 +7882,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7822,24 +7923,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="166">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_MODERN_OFFICE_TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multimedia_offices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_MULTIMEDIA_OFFICES</t>
   </si>
   <si>
     <t xml:space="preserve">tsuno_building</t>
@@ -634,14 +640,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1613,7 +1619,7 @@
         <v>220</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1980</v>
@@ -1696,7 +1702,7 @@
         <v>220</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1990</v>
@@ -1779,7 +1785,7 @@
         <v>200</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1960</v>
@@ -1862,7 +1868,7 @@
         <v>220</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>2000</v>
@@ -1945,7 +1951,7 @@
         <v>220</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>2000</v>
@@ -2028,7 +2034,7 @@
         <v>220</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>2000</v>
@@ -2096,25 +2102,25 @@
         <v>71</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>39</v>
@@ -2130,7 +2136,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>5</v>
@@ -2149,15 +2155,15 @@
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>none</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="2X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_east"),IF(E18="landmark",CONCATENATE(A18,"_k_east"),CONCATENATE(A18,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W18" s="1" t="str">
         <f aca="false">IF(OR(D18="1X1",D18="1X2"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c_west"),IF(E18="landmark",CONCATENATE(A18,"_k_west"),CONCATENATE(A18,"_west"))))</f>
@@ -2173,62 +2179,62 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G19" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M19" s="2" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
@@ -2236,173 +2242,173 @@
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),IF(E19="house",CONCATENATE(A19,"_h_east"),CONCATENATE(A19,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),IF(E19="house",CONCATENATE(A19,"_h_west"),CONCATENATE(A19,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X19" s="1" t="str">
-        <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),IF(E19="house",CONCATENATE(A19,"_h_south"),CONCATENATE(A19,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D19="2X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_south"),IF(E19="landmark",CONCATENATE(A19,"_k_south"),CONCATENATE(A19,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O20" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),IF(E20="house",CONCATENATE(A20,"_h_east"),CONCATENATE(A20,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W20" s="1" t="str">
         <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),IF(E20="house",CONCATENATE(A20,"_h_west"),CONCATENATE(A20,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X20" s="1" t="str">
         <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),IF(E20="house",CONCATENATE(A20,"_h_south"),CONCATENATE(A20,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),IF(E21="house",CONCATENATE(A21,"_h_east"),CONCATENATE(A21,"_east")))))</f>
@@ -2410,37 +2416,37 @@
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),IF(E21="house",CONCATENATE(A21,"_h_west"),CONCATENATE(A21,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),IF(E21="house",CONCATENATE(A21,"_h_south"),CONCATENATE(A21,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>3</v>
@@ -2455,29 +2461,29 @@
         <v>20</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
@@ -2485,177 +2491,177 @@
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V22" s="1" t="str">
-        <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),CONCATENATE(A22,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),IF(E22="house",CONCATENATE(A22,"_h_east"),CONCATENATE(A22,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),CONCATENATE(A22,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),IF(E22="house",CONCATENATE(A22,"_h_west"),CONCATENATE(A22,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X22" s="1" t="str">
-        <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),CONCATENATE(A22,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),IF(E22="house",CONCATENATE(A22,"_h_south"),CONCATENATE(A22,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M23" s="2" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),CONCATENATE(A23,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W23" s="1" t="str">
         <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),CONCATENATE(A23,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X23" s="1" t="str">
         <f aca="false">IF(NOT(D23="2X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_south"),IF(E23="landmark",CONCATENATE(A23,"_k_south"),CONCATENATE(A23,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="M24" s="2" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="2X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_east"),IF(E24="landmark",CONCATENATE(A24,"_k_east"),CONCATENATE(A24,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="1X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_west"),IF(E24="landmark",CONCATENATE(A24,"_k_west"),CONCATENATE(A24,"_west"))))</f>
@@ -2666,7 +2672,7 @@
         <v>none</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,25 +2683,25 @@
         <v>98</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>39</v>
@@ -2704,20 +2710,20 @@
         <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O25" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>10</v>
@@ -2726,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
@@ -2734,19 +2740,19 @@
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X25" s="1" t="str">
         <f aca="false">IF(NOT(D25="2X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_south"),IF(E25="landmark",CONCATENATE(A25,"_k_south"),CONCATENATE(A25,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>98</v>
@@ -2760,25 +2766,25 @@
         <v>100</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>39</v>
@@ -2787,14 +2793,14 @@
         <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M26" s="2" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>3</v>
@@ -2803,33 +2809,33 @@
         <v>59</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V26" s="1" t="str">
         <f aca="false">IF(OR(D26="1X1",D26="2X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_east"),IF(E26="landmark",CONCATENATE(A26,"_k_east"),CONCATENATE(A26,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W26" s="1" t="str">
         <f aca="false">IF(OR(D26="1X1",D26="1X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_west"),IF(E26="landmark",CONCATENATE(A26,"_k_west"),CONCATENATE(A26,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X26" s="1" t="str">
         <f aca="false">IF(NOT(D26="2X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_south"),IF(E26="landmark",CONCATENATE(A26,"_k_south"),CONCATENATE(A26,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>100</v>
@@ -2837,28 +2843,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>0</v>
@@ -2870,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" s="2" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
@@ -2892,11 +2898,11 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
@@ -2915,7 +2921,7 @@
         <v>none</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,25 +2932,25 @@
         <v>106</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>39</v>
@@ -2953,81 +2959,81 @@
         <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M28" s="2" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O28" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="2X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_east"),IF(E28="landmark",CONCATENATE(A28,"_k_east"),CONCATENATE(A28,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="1X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_west"),IF(E28="landmark",CONCATENATE(A28,"_k_west"),CONCATENATE(A28,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X28" s="1" t="str">
         <f aca="false">IF(NOT(D28="2X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_south"),IF(E28="landmark",CONCATENATE(A28,"_k_south"),CONCATENATE(A28,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G29" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>39</v>
@@ -3036,11 +3042,11 @@
         <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M29" s="2" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>20</v>
@@ -3049,16 +3055,16 @@
         <v>3</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
@@ -3066,33 +3072,116 @@
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V29" s="1" t="str">
         <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),CONCATENATE(A29,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W29" s="1" t="str">
         <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),CONCATENATE(A29,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X29" s="1" t="str">
         <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),CONCATENATE(A29,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" s="1" t="str">
+        <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
+        <v>none</v>
+      </c>
+      <c r="U30" s="1" t="str">
+        <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),CONCATENATE(A30,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W30" s="1" t="str">
+        <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),CONCATENATE(A30,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X30" s="1" t="str">
+        <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),CONCATENATE(A30,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y29" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="D30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="S30" s="2"/>
+      <c r="Y30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="D31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="S31" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3103,15 +3192,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L30" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L31" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P30" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P31" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S30" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S31" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3145,15 +3234,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -3161,7 +3250,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -3169,7 +3258,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -3177,7 +3266,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -3185,7 +3274,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -3193,7 +3282,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -3201,7 +3290,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -3209,7 +3298,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -3217,7 +3306,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -3225,7 +3314,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -3233,7 +3322,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -3241,7 +3330,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -3249,7 +3338,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -3257,7 +3346,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -3265,7 +3354,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -3273,7 +3362,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -3305,16 +3394,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,11 +4772,11 @@
       </c>
       <c r="B82" s="1" t="str">
         <f aca="false">IF(C82="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A82,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D82" s="1" t="n">
         <f aca="false">IF(C82="Multi-tile",D81-1,MAX(IF(C82="ID not in use",0,IF(C82="1X1",1,IF(C82="2X2",4,2)))-1,0))</f>
@@ -7703,25 +7792,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,13 +7824,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7764,7 +7853,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7781,49 +7870,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,29 +7920,29 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -7882,40 +7971,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -7923,24 +8012,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="168">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_MULTIMEDIA_OFFICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_OFFICE_TOWER</t>
   </si>
   <si>
     <t xml:space="preserve">tsuno_building</t>
@@ -640,14 +646,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2185,25 +2191,25 @@
         <v>73</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
@@ -2219,7 +2225,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>5</v>
@@ -2238,15 +2244,15 @@
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>none</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="2X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_east"),IF(E19="landmark",CONCATENATE(A19,"_k_east"),CONCATENATE(A19,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W19" s="1" t="str">
         <f aca="false">IF(OR(D19="1X1",D19="1X2"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c_west"),IF(E19="landmark",CONCATENATE(A19,"_k_west"),CONCATENATE(A19,"_west"))))</f>
@@ -2262,62 +2268,62 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G20" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M20" s="2" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
@@ -2325,173 +2331,173 @@
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V20" s="1" t="str">
-        <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),IF(E20="house",CONCATENATE(A20,"_h_east"),CONCATENATE(A20,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D20="1X1",D20="2X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_east"),IF(E20="landmark",CONCATENATE(A20,"_k_east"),CONCATENATE(A20,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),IF(E20="house",CONCATENATE(A20,"_h_west"),CONCATENATE(A20,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D20="1X1",D20="1X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_west"),IF(E20="landmark",CONCATENATE(A20,"_k_west"),CONCATENATE(A20,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),IF(E20="house",CONCATENATE(A20,"_h_south"),CONCATENATE(A20,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D20="2X2"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c_south"),IF(E20="landmark",CONCATENATE(A20,"_k_south"),CONCATENATE(A20,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M21" s="2" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="2X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_east"),IF(E21="landmark",CONCATENATE(A21,"_k_east"),IF(E21="house",CONCATENATE(A21,"_h_east"),CONCATENATE(A21,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W21" s="1" t="str">
         <f aca="false">IF(OR(D21="1X1",D21="1X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_west"),IF(E21="landmark",CONCATENATE(A21,"_k_west"),IF(E21="house",CONCATENATE(A21,"_h_west"),CONCATENATE(A21,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X21" s="1" t="str">
         <f aca="false">IF(NOT(D21="2X2"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c_south"),IF(E21="landmark",CONCATENATE(A21,"_k_south"),IF(E21="house",CONCATENATE(A21,"_h_south"),CONCATENATE(A21,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M22" s="2" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="2X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_east"),IF(E22="landmark",CONCATENATE(A22,"_k_east"),IF(E22="house",CONCATENATE(A22,"_h_east"),CONCATENATE(A22,"_east")))))</f>
@@ -2499,37 +2505,37 @@
       </c>
       <c r="W22" s="1" t="str">
         <f aca="false">IF(OR(D22="1X1",D22="1X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_west"),IF(E22="landmark",CONCATENATE(A22,"_k_west"),IF(E22="house",CONCATENATE(A22,"_h_west"),CONCATENATE(A22,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X22" s="1" t="str">
         <f aca="false">IF(NOT(D22="2X2"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c_south"),IF(E22="landmark",CONCATENATE(A22,"_k_south"),IF(E22="house",CONCATENATE(A22,"_h_south"),CONCATENATE(A22,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>3</v>
@@ -2544,29 +2550,29 @@
         <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M23" s="2" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
@@ -2574,177 +2580,177 @@
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),CONCATENATE(A23,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D23="1X1",D23="2X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_east"),IF(E23="landmark",CONCATENATE(A23,"_k_east"),IF(E23="house",CONCATENATE(A23,"_h_east"),CONCATENATE(A23,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),CONCATENATE(A23,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D23="1X1",D23="1X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_west"),IF(E23="landmark",CONCATENATE(A23,"_k_west"),IF(E23="house",CONCATENATE(A23,"_h_west"),CONCATENATE(A23,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X23" s="1" t="str">
-        <f aca="false">IF(NOT(D23="2X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_south"),IF(E23="landmark",CONCATENATE(A23,"_k_south"),CONCATENATE(A23,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D23="2X2"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c_south"),IF(E23="landmark",CONCATENATE(A23,"_k_south"),IF(E23="house",CONCATENATE(A23,"_h_south"),CONCATENATE(A23,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M24" s="2" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="2X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_east"),IF(E24="landmark",CONCATENATE(A24,"_k_east"),CONCATENATE(A24,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W24" s="1" t="str">
         <f aca="false">IF(OR(D24="1X1",D24="1X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_west"),IF(E24="landmark",CONCATENATE(A24,"_k_west"),CONCATENATE(A24,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X24" s="1" t="str">
         <f aca="false">IF(NOT(D24="2X2"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c_south"),IF(E24="landmark",CONCATENATE(A24,"_k_south"),CONCATENATE(A24,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G25" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M25" s="2" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
@@ -2755,7 +2761,7 @@
         <v>none</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,25 +2772,25 @@
         <v>100</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H26" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>39</v>
@@ -2793,20 +2799,20 @@
         <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M26" s="2" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O26" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>10</v>
@@ -2815,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
@@ -2823,19 +2829,19 @@
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V26" s="1" t="str">
         <f aca="false">IF(OR(D26="1X1",D26="2X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_east"),IF(E26="landmark",CONCATENATE(A26,"_k_east"),CONCATENATE(A26,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W26" s="1" t="str">
         <f aca="false">IF(OR(D26="1X1",D26="1X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_west"),IF(E26="landmark",CONCATENATE(A26,"_k_west"),CONCATENATE(A26,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X26" s="1" t="str">
         <f aca="false">IF(NOT(D26="2X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_south"),IF(E26="landmark",CONCATENATE(A26,"_k_south"),CONCATENATE(A26,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>100</v>
@@ -2849,25 +2855,25 @@
         <v>102</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>39</v>
@@ -2876,14 +2882,14 @@
         <v>20</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M27" s="2" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>3</v>
@@ -2892,33 +2898,33 @@
         <v>59</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),CONCATENATE(A27,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),CONCATENATE(A27,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X27" s="1" t="str">
         <f aca="false">IF(NOT(D27="2X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_south"),IF(E27="landmark",CONCATENATE(A27,"_k_south"),CONCATENATE(A27,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>102</v>
@@ -2926,28 +2932,28 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>0</v>
@@ -2959,7 +2965,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M28" s="2" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
@@ -2981,11 +2987,11 @@
         <v>1</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3004,7 +3010,7 @@
         <v>none</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,25 +3021,25 @@
         <v>108</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>39</v>
@@ -3042,81 +3048,81 @@
         <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M29" s="2" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O29" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V29" s="1" t="str">
         <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),CONCATENATE(A29,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W29" s="1" t="str">
         <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),CONCATENATE(A29,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X29" s="1" t="str">
         <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),CONCATENATE(A29,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G30" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>39</v>
@@ -3125,11 +3131,11 @@
         <v>20</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M30" s="2" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>20</v>
@@ -3138,16 +3144,16 @@
         <v>3</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
@@ -3155,33 +3161,116 @@
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V30" s="1" t="str">
         <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),CONCATENATE(A30,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W30" s="1" t="str">
         <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),CONCATENATE(A30,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X30" s="1" t="str">
         <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),CONCATENATE(A30,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T31" s="1" t="str">
+        <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
+        <v>none</v>
+      </c>
+      <c r="U31" s="1" t="str">
+        <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <f aca="false">IF(OR(D31="1X1",D31="2X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_east"),IF(E31="landmark",CONCATENATE(A31,"_k_east"),CONCATENATE(A31,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W31" s="1" t="str">
+        <f aca="false">IF(OR(D31="1X1",D31="1X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_west"),IF(E31="landmark",CONCATENATE(A31,"_k_west"),CONCATENATE(A31,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X31" s="1" t="str">
+        <f aca="false">IF(NOT(D31="2X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_south"),IF(E31="landmark",CONCATENATE(A31,"_k_south"),CONCATENATE(A31,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="D31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="S31" s="2"/>
+      <c r="Y31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="D32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="S32" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3192,15 +3281,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L31" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L32" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P31" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P32" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S31" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S32" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3234,15 +3323,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -3250,7 +3339,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -3258,7 +3347,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -3266,7 +3355,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -3274,7 +3363,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -3282,7 +3371,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -3290,7 +3379,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -3298,7 +3387,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -3306,7 +3395,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -3314,7 +3403,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -3322,7 +3411,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -3330,7 +3419,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -3338,7 +3427,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -3346,7 +3435,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -3354,7 +3443,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -3362,7 +3451,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -3394,16 +3483,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,11 +4827,11 @@
       </c>
       <c r="B80" s="1" t="str">
         <f aca="false">IF(C80="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A80,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D80" s="1" t="n">
         <f aca="false">IF(C80="Multi-tile",D79-1,MAX(IF(C80="ID not in use",0,IF(C80="1X1",1,IF(C80="2X2",4,2)))-1,0))</f>
@@ -7792,25 +7881,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,13 +7913,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -7853,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
@@ -7870,49 +7959,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7920,29 +8009,29 @@
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -7971,40 +8060,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -8012,24 +8101,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="180">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_SATO_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugiyama_office_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_SUGIYAMA_OFFICE_BUILDING</t>
   </si>
   <si>
     <t xml:space="preserve">tsuno_building</t>
@@ -677,29 +683,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
@@ -2728,25 +2736,25 @@
         <v>85</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>39</v>
@@ -2762,7 +2770,7 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O25" s="1" t="n">
         <v>5</v>
@@ -2781,15 +2789,15 @@
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>none</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="2X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_east"),IF(E25="landmark",CONCATENATE(A25,"_k_east"),CONCATENATE(A25,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W25" s="1" t="str">
         <f aca="false">IF(OR(D25="1X1",D25="1X2"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c_west"),IF(E25="landmark",CONCATENATE(A25,"_k_west"),CONCATENATE(A25,"_west"))))</f>
@@ -2805,62 +2813,62 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G26" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="M26" s="2" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
@@ -2868,173 +2876,173 @@
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f aca="false">IF(OR(D26="1X1",D26="2X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_east"),IF(E26="landmark",CONCATENATE(A26,"_k_east"),IF(E26="house",CONCATENATE(A26,"_h_east"),CONCATENATE(A26,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D26="1X1",D26="2X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_east"),IF(E26="landmark",CONCATENATE(A26,"_k_east"),CONCATENATE(A26,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f aca="false">IF(OR(D26="1X1",D26="1X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_west"),IF(E26="landmark",CONCATENATE(A26,"_k_west"),IF(E26="house",CONCATENATE(A26,"_h_west"),CONCATENATE(A26,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D26="1X1",D26="1X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_west"),IF(E26="landmark",CONCATENATE(A26,"_k_west"),CONCATENATE(A26,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X26" s="1" t="str">
-        <f aca="false">IF(NOT(D26="2X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_south"),IF(E26="landmark",CONCATENATE(A26,"_k_south"),IF(E26="house",CONCATENATE(A26,"_h_south"),CONCATENATE(A26,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D26="2X2"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c_south"),IF(E26="landmark",CONCATENATE(A26,"_k_south"),CONCATENATE(A26,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M27" s="2" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O27" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="Q27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),IF(E27="house",CONCATENATE(A27,"_h_east"),CONCATENATE(A27,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),IF(E27="house",CONCATENATE(A27,"_h_west"),CONCATENATE(A27,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X27" s="1" t="str">
         <f aca="false">IF(NOT(D27="2X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_south"),IF(E27="landmark",CONCATENATE(A27,"_k_south"),IF(E27="house",CONCATENATE(A27,"_h_south"),CONCATENATE(A27,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M28" s="2" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="2X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_east"),IF(E28="landmark",CONCATENATE(A28,"_k_east"),IF(E28="house",CONCATENATE(A28,"_h_east"),CONCATENATE(A28,"_east")))))</f>
@@ -3042,37 +3050,37 @@
       </c>
       <c r="W28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="1X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_west"),IF(E28="landmark",CONCATENATE(A28,"_k_west"),IF(E28="house",CONCATENATE(A28,"_h_west"),CONCATENATE(A28,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X28" s="1" t="str">
         <f aca="false">IF(NOT(D28="2X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_south"),IF(E28="landmark",CONCATENATE(A28,"_k_south"),IF(E28="house",CONCATENATE(A28,"_h_south"),CONCATENATE(A28,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>3</v>
@@ -3087,29 +3095,29 @@
         <v>20</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M29" s="2" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
@@ -3117,177 +3125,177 @@
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V29" s="1" t="str">
-        <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),CONCATENATE(A29,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),IF(E29="house",CONCATENATE(A29,"_h_east"),CONCATENATE(A29,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),CONCATENATE(A29,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),IF(E29="house",CONCATENATE(A29,"_h_west"),CONCATENATE(A29,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X29" s="1" t="str">
-        <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),CONCATENATE(A29,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),IF(E29="house",CONCATENATE(A29,"_h_south"),CONCATENATE(A29,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M30" s="2" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V30" s="1" t="str">
         <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),CONCATENATE(A30,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W30" s="1" t="str">
         <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),CONCATENATE(A30,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X30" s="1" t="str">
         <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),CONCATENATE(A30,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="G31" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M31" s="2" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V31" s="1" t="str">
         <f aca="false">IF(OR(D31="1X1",D31="2X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_east"),IF(E31="landmark",CONCATENATE(A31,"_k_east"),CONCATENATE(A31,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W31" s="1" t="str">
         <f aca="false">IF(OR(D31="1X1",D31="1X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_west"),IF(E31="landmark",CONCATENATE(A31,"_k_west"),CONCATENATE(A31,"_west"))))</f>
@@ -3298,7 +3306,7 @@
         <v>none</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,25 +3317,25 @@
         <v>112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H32" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>39</v>
@@ -3336,20 +3344,20 @@
         <v>20</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M32" s="2" t="str">
         <f aca="false">VLOOKUP(L32,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O32" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>10</v>
@@ -3358,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
@@ -3366,19 +3374,19 @@
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V32" s="1" t="str">
         <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),CONCATENATE(A32,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W32" s="1" t="str">
         <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),CONCATENATE(A32,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X32" s="1" t="str">
         <f aca="false">IF(NOT(D32="2X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_south"),IF(E32="landmark",CONCATENATE(A32,"_k_south"),CONCATENATE(A32,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>112</v>
@@ -3392,25 +3400,25 @@
         <v>114</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>39</v>
@@ -3419,14 +3427,14 @@
         <v>20</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M33" s="2" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>3</v>
@@ -3435,33 +3443,33 @@
         <v>67</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),CONCATENATE(A33,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),CONCATENATE(A33,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X33" s="1" t="str">
         <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),CONCATENATE(A33,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>114</v>
@@ -3469,28 +3477,28 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>0</v>
@@ -3502,7 +3510,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M34" s="2" t="str">
         <f aca="false">VLOOKUP(L34,dropdowns!E:F,2,0)</f>
@@ -3524,11 +3532,11 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
@@ -3547,7 +3555,7 @@
         <v>none</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,25 +3566,25 @@
         <v>120</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>39</v>
@@ -3585,81 +3593,81 @@
         <v>20</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="M35" s="2" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O35" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V35" s="1" t="str">
         <f aca="false">IF(OR(D35="1X1",D35="2X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_east"),IF(E35="landmark",CONCATENATE(A35,"_k_east"),CONCATENATE(A35,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W35" s="1" t="str">
         <f aca="false">IF(OR(D35="1X1",D35="1X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_west"),IF(E35="landmark",CONCATENATE(A35,"_k_west"),CONCATENATE(A35,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X35" s="1" t="str">
         <f aca="false">IF(NOT(D35="2X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_south"),IF(E35="landmark",CONCATENATE(A35,"_k_south"),CONCATENATE(A35,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G36" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>39</v>
@@ -3668,11 +3676,11 @@
         <v>20</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M36" s="2" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>20</v>
@@ -3681,16 +3689,16 @@
         <v>3</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
@@ -3698,33 +3706,116 @@
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X36" s="1" t="str">
         <f aca="false">IF(NOT(D36="2X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_south"),IF(E36="landmark",CONCATENATE(A36,"_k_south"),CONCATENATE(A36,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="2" t="str">
+        <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
+        <v>none</v>
+      </c>
+      <c r="U37" s="1" t="str">
+        <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V37" s="1" t="str">
+        <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),CONCATENATE(A37,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W37" s="1" t="str">
+        <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),CONCATENATE(A37,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X37" s="1" t="str">
+        <f aca="false">IF(NOT(D37="2X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_south"),IF(E37="landmark",CONCATENATE(A37,"_k_south"),CONCATENATE(A37,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="D37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="Y37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="D38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="S38" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3735,15 +3826,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L37" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L38" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P37" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P38" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S37" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S38" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3978,15 +4069,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -3994,7 +4085,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -4002,7 +4093,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4010,7 +4101,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -4018,7 +4109,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -4026,7 +4117,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -4034,7 +4125,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -4042,7 +4133,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -4050,7 +4141,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -4058,7 +4149,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -4066,7 +4157,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -4074,7 +4165,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -4082,7 +4173,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -4090,7 +4181,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -4098,7 +4189,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -4106,7 +4197,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -4138,16 +4229,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,11 +5726,11 @@
       </c>
       <c r="B89" s="1" t="str">
         <f aca="false">IF(C89="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A89,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D89" s="1" t="n">
         <f aca="false">IF(C89="Multi-tile",D88-1,MAX(IF(C89="ID not in use",0,IF(C89="1X1",1,IF(C89="2X2",4,2)))-1,0))</f>
@@ -8536,25 +8627,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8568,13 +8659,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -8597,7 +8688,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
@@ -8614,49 +8705,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,29 +8755,29 @@
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8715,40 +8806,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -8756,24 +8847,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="182">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_TSUNO_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ueda_office_block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_UEDA_OFFICE_BLOCK</t>
   </si>
   <si>
     <t xml:space="preserve">farm</t>
@@ -683,14 +689,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,13 +704,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
@@ -2902,230 +2915,230 @@
         <v>90</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G27" s="1" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>39</v>
+        <v>1955</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>1989</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="M27" s="2" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>none</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>none</v>
       </c>
       <c r="V27" s="1" t="str">
-        <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),IF(E27="house",CONCATENATE(A27,"_h_east"),CONCATENATE(A27,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),CONCATENATE(A27,"_east"))))</f>
+        <v>none</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),IF(E27="house",CONCATENATE(A27,"_h_west"),CONCATENATE(A27,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),CONCATENATE(A27,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f aca="false">IF(NOT(D27="2X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_south"),IF(E27="landmark",CONCATENATE(A27,"_k_south"),IF(E27="house",CONCATENATE(A27,"_h_south"),CONCATENATE(A27,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D27="2X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_south"),IF(E27="landmark",CONCATENATE(A27,"_k_south"),CONCATENATE(A27,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M28" s="2" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O28" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="2X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_east"),IF(E28="landmark",CONCATENATE(A28,"_k_east"),IF(E28="house",CONCATENATE(A28,"_h_east"),CONCATENATE(A28,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W28" s="1" t="str">
         <f aca="false">IF(OR(D28="1X1",D28="1X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_west"),IF(E28="landmark",CONCATENATE(A28,"_k_west"),IF(E28="house",CONCATENATE(A28,"_h_west"),CONCATENATE(A28,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X28" s="1" t="str">
         <f aca="false">IF(NOT(D28="2X2"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c_south"),IF(E28="landmark",CONCATENATE(A28,"_k_south"),IF(E28="house",CONCATENATE(A28,"_h_south"),CONCATENATE(A28,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M29" s="2" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V29" s="1" t="str">
         <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),IF(E29="house",CONCATENATE(A29,"_h_east"),CONCATENATE(A29,"_east")))))</f>
@@ -3133,37 +3146,37 @@
       </c>
       <c r="W29" s="1" t="str">
         <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),IF(E29="house",CONCATENATE(A29,"_h_west"),CONCATENATE(A29,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X29" s="1" t="str">
         <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),IF(E29="house",CONCATENATE(A29,"_h_south"),CONCATENATE(A29,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>3</v>
@@ -3178,29 +3191,29 @@
         <v>20</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M30" s="2" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
@@ -3208,177 +3221,177 @@
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V30" s="1" t="str">
-        <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),CONCATENATE(A30,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),IF(E30="house",CONCATENATE(A30,"_h_east"),CONCATENATE(A30,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),CONCATENATE(A30,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),IF(E30="house",CONCATENATE(A30,"_h_west"),CONCATENATE(A30,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X30" s="1" t="str">
-        <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),CONCATENATE(A30,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),IF(E30="house",CONCATENATE(A30,"_h_south"),CONCATENATE(A30,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="M31" s="2" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V31" s="1" t="str">
         <f aca="false">IF(OR(D31="1X1",D31="2X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_east"),IF(E31="landmark",CONCATENATE(A31,"_k_east"),CONCATENATE(A31,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W31" s="1" t="str">
         <f aca="false">IF(OR(D31="1X1",D31="1X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_west"),IF(E31="landmark",CONCATENATE(A31,"_k_west"),CONCATENATE(A31,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X31" s="1" t="str">
         <f aca="false">IF(NOT(D31="2X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_south"),IF(E31="landmark",CONCATENATE(A31,"_k_south"),CONCATENATE(A31,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G32" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M32" s="2" t="str">
         <f aca="false">VLOOKUP(L32,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V32" s="1" t="str">
         <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),CONCATENATE(A32,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W32" s="1" t="str">
         <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),CONCATENATE(A32,"_west"))))</f>
@@ -3389,7 +3402,7 @@
         <v>none</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,25 +3413,25 @@
         <v>114</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>39</v>
@@ -3427,20 +3440,20 @@
         <v>20</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M33" s="2" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O33" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>10</v>
@@ -3449,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
@@ -3457,19 +3470,19 @@
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),CONCATENATE(A33,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),CONCATENATE(A33,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X33" s="1" t="str">
         <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),CONCATENATE(A33,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>114</v>
@@ -3483,25 +3496,25 @@
         <v>116</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>39</v>
@@ -3510,14 +3523,14 @@
         <v>20</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M34" s="2" t="str">
         <f aca="false">VLOOKUP(L34,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>3</v>
@@ -3526,33 +3539,33 @@
         <v>67</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V34" s="1" t="str">
         <f aca="false">IF(OR(D34="1X1",D34="2X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_east"),IF(E34="landmark",CONCATENATE(A34,"_k_east"),CONCATENATE(A34,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W34" s="1" t="str">
         <f aca="false">IF(OR(D34="1X1",D34="1X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_west"),IF(E34="landmark",CONCATENATE(A34,"_k_west"),CONCATENATE(A34,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X34" s="1" t="str">
         <f aca="false">IF(NOT(D34="2X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_south"),IF(E34="landmark",CONCATENATE(A34,"_k_south"),CONCATENATE(A34,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>116</v>
@@ -3560,28 +3573,28 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>0</v>
@@ -3593,7 +3606,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M35" s="2" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
@@ -3615,11 +3628,11 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
@@ -3638,7 +3651,7 @@
         <v>none</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,25 +3662,25 @@
         <v>122</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>39</v>
@@ -3676,81 +3689,81 @@
         <v>20</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M36" s="2" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O36" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X36" s="1" t="str">
         <f aca="false">IF(NOT(D36="2X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_south"),IF(E36="landmark",CONCATENATE(A36,"_k_south"),CONCATENATE(A36,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G37" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>39</v>
@@ -3759,11 +3772,11 @@
         <v>20</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M37" s="2" t="str">
         <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>20</v>
@@ -3772,16 +3785,16 @@
         <v>3</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
@@ -3789,33 +3802,116 @@
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),CONCATENATE(A37,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),CONCATENATE(A37,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X37" s="1" t="str">
         <f aca="false">IF(NOT(D37="2X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_south"),IF(E37="landmark",CONCATENATE(A37,"_k_south"),CONCATENATE(A37,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
+        <v>none</v>
+      </c>
+      <c r="U38" s="1" t="str">
+        <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W38" s="1" t="str">
+        <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X38" s="1" t="str">
+        <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),CONCATENATE(A38,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="D38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="S38" s="2"/>
+      <c r="Y38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="D39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="S39" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3826,15 +3922,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L38" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L39" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P38" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P39" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S38" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S39" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4069,15 +4165,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -4085,7 +4181,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -4093,7 +4189,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4101,7 +4197,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -4109,7 +4205,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -4117,7 +4213,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -4125,7 +4221,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -4133,7 +4229,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -4141,7 +4237,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -4149,7 +4245,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -4157,7 +4253,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -4165,7 +4261,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -4173,7 +4269,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -4181,7 +4277,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -4189,7 +4285,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -4197,7 +4293,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -4229,16 +4325,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,11 +5856,11 @@
       </c>
       <c r="B91" s="1" t="str">
         <f aca="false">IF(C91="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A91,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D91" s="1" t="n">
         <f aca="false">IF(C91="Multi-tile",D90-1,MAX(IF(C91="ID not in use",0,IF(C91="1X1",1,IF(C91="2X2",4,2)))-1,0))</f>
@@ -8627,25 +8723,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,13 +8755,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -8688,7 +8784,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
@@ -8705,49 +8801,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8755,29 +8851,29 @@
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -8806,40 +8902,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -8847,24 +8943,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="192">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -308,6 +308,18 @@
     <t xml:space="preserve">NAME_YAMAGUCHI_OFFICE</t>
   </si>
   <si>
+    <t xml:space="preserve">yamashiro_office_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_YAMASHIRO_OFFICE_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yamashita_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_YAMASHITA_BUILDING</t>
+  </si>
+  <si>
     <t xml:space="preserve">farm</t>
   </si>
   <si>
@@ -341,15 +353,24 @@
     <t xml:space="preserve">single_house</t>
   </si>
   <si>
+    <t xml:space="preserve">onsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_ONSEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">fire_station</t>
   </si>
   <si>
     <t xml:space="preserve">2X1</t>
   </si>
   <si>
-    <t xml:space="preserve">landmark</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME_FIRE_STATION</t>
   </si>
   <si>
@@ -522,6 +543,9 @@
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_CENTRE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</t>
   </si>
   <si>
     <t xml:space="preserve">bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</t>
@@ -694,14 +718,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,8 +749,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="28.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="17.7"/>
@@ -3086,56 +3110,56 @@
         <v>94</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G29" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1700</v>
+        <v>1990</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M29" s="2" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
@@ -3143,165 +3167,165 @@
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V29" s="1" t="str">
-        <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),IF(E29="house",CONCATENATE(A29,"_h_east"),CONCATENATE(A29,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D29="1X1",D29="2X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_east"),IF(E29="landmark",CONCATENATE(A29,"_k_east"),CONCATENATE(A29,"_east"))))</f>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),IF(E29="house",CONCATENATE(A29,"_h_west"),CONCATENATE(A29,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D29="1X1",D29="1X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_west"),IF(E29="landmark",CONCATENATE(A29,"_k_west"),CONCATENATE(A29,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X29" s="1" t="str">
-        <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),IF(E29="house",CONCATENATE(A29,"_h_south"),CONCATENATE(A29,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D29="2X2"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c_south"),IF(E29="landmark",CONCATENATE(A29,"_k_south"),CONCATENATE(A29,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1870</v>
+        <v>2000</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M30" s="2" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>naganuma_h</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V30" s="1" t="str">
-        <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),IF(E30="house",CONCATENATE(A30,"_h_east"),CONCATENATE(A30,"_east")))))</f>
+        <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),CONCATENATE(A30,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),IF(E30="house",CONCATENATE(A30,"_h_west"),CONCATENATE(A30,"_west")))))</f>
+        <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),CONCATENATE(A30,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X30" s="1" t="str">
-        <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),IF(E30="house",CONCATENATE(A30,"_h_south"),CONCATENATE(A30,"_south")))))</f>
+        <f aca="false">IF(NOT(D30="2X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_south"),IF(E30="landmark",CONCATENATE(A30,"_k_south"),CONCATENATE(A30,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M31" s="2" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
@@ -3309,134 +3333,134 @@
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V31" s="1" t="str">
         <f aca="false">IF(OR(D31="1X1",D31="2X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_east"),IF(E31="landmark",CONCATENATE(A31,"_k_east"),IF(E31="house",CONCATENATE(A31,"_h_east"),CONCATENATE(A31,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W31" s="1" t="str">
         <f aca="false">IF(OR(D31="1X1",D31="1X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_west"),IF(E31="landmark",CONCATENATE(A31,"_k_west"),IF(E31="house",CONCATENATE(A31,"_h_west"),CONCATENATE(A31,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X31" s="1" t="str">
         <f aca="false">IF(NOT(D31="2X2"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c_south"),IF(E31="landmark",CONCATENATE(A31,"_k_south"),IF(E31="house",CONCATENATE(A31,"_h_south"),CONCATENATE(A31,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M32" s="2" t="str">
         <f aca="false">VLOOKUP(L32,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V32" s="1" t="str">
-        <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),CONCATENATE(A32,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),IF(E32="house",CONCATENATE(A32,"_h_east"),CONCATENATE(A32,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),CONCATENATE(A32,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),IF(E32="house",CONCATENATE(A32,"_h_west"),CONCATENATE(A32,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X32" s="1" t="str">
-        <f aca="false">IF(NOT(D32="2X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_south"),IF(E32="landmark",CONCATENATE(A32,"_k_south"),CONCATENATE(A32,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D32="2X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_south"),IF(E32="landmark",CONCATENATE(A32,"_k_south"),IF(E32="house",CONCATENATE(A32,"_h_south"),CONCATENATE(A32,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>1980</v>
+        <v>1870</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>39</v>
@@ -3445,11 +3469,11 @@
         <v>10</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M33" s="2" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>29</v>
@@ -3458,59 +3482,59 @@
         <v>3</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>pachinko_k</v>
+        <v>onsen_k</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V33" s="1" t="str">
-        <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),CONCATENATE(A33,"_east"))))</f>
+        <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),IF(E33="house",CONCATENATE(A33,"_h_east"),CONCATENATE(A33,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),CONCATENATE(A33,"_west"))))</f>
+        <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),IF(E33="house",CONCATENATE(A33,"_h_west"),CONCATENATE(A33,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X33" s="1" t="str">
-        <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),CONCATENATE(A33,"_south"))))</f>
+        <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),IF(E33="house",CONCATENATE(A33,"_h_south"),CONCATENATE(A33,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>80</v>
@@ -3528,20 +3552,20 @@
         <v>20</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M34" s="2" t="str">
         <f aca="false">VLOOKUP(L34,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>10</v>
@@ -3550,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
@@ -3558,51 +3582,51 @@
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V34" s="1" t="str">
-        <f aca="false">IF(OR(D34="1X1",D34="2X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_east"),IF(E34="landmark",CONCATENATE(A34,"_k_east"),CONCATENATE(A34,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <f aca="false">IF(OR(D34="1X1",D34="2X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_east"),IF(E34="landmark",CONCATENATE(A34,"_k_east"),IF(E34="house",CONCATENATE(A34,"_h_east"),CONCATENATE(A34,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f aca="false">IF(OR(D34="1X1",D34="1X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_west"),IF(E34="landmark",CONCATENATE(A34,"_k_west"),CONCATENATE(A34,"_west"))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D34="1X1",D34="1X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_west"),IF(E34="landmark",CONCATENATE(A34,"_k_west"),IF(E34="house",CONCATENATE(A34,"_h_west"),CONCATENATE(A34,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X34" s="1" t="str">
-        <f aca="false">IF(NOT(D34="2X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_south"),IF(E34="landmark",CONCATENATE(A34,"_k_south"),CONCATENATE(A34,"_south"))))</f>
+        <f aca="false">IF(NOT(D34="2X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_south"),IF(E34="landmark",CONCATENATE(A34,"_k_south"),IF(E34="house",CONCATENATE(A34,"_h_south"),CONCATENATE(A34,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H35" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>39</v>
@@ -3611,29 +3635,29 @@
         <v>20</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M35" s="2" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="O35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
@@ -3641,22 +3665,22 @@
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V35" s="1" t="str">
         <f aca="false">IF(OR(D35="1X1",D35="2X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_east"),IF(E35="landmark",CONCATENATE(A35,"_k_east"),CONCATENATE(A35,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W35" s="1" t="str">
         <f aca="false">IF(OR(D35="1X1",D35="1X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_west"),IF(E35="landmark",CONCATENATE(A35,"_k_west"),CONCATENATE(A35,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X35" s="1" t="str">
         <f aca="false">IF(NOT(D35="2X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_south"),IF(E35="landmark",CONCATENATE(A35,"_k_south"),CONCATENATE(A35,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,60 +3691,60 @@
         <v>120</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="M36" s="2" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O36" s="0" t="n">
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O36" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>shrine_k</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
@@ -3744,31 +3768,31 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G37" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>39</v>
@@ -3777,41 +3801,41 @@
         <v>20</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M37" s="2" t="str">
         <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O37" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>none</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
-        <v>none</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),CONCATENATE(A37,"_east"))))</f>
-        <v>none</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),CONCATENATE(A37,"_west"))))</f>
@@ -3822,36 +3846,36 @@
         <v>none</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G38" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H38" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>39</v>
@@ -3860,29 +3884,29 @@
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M38" s="2" t="str">
         <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="N38" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="O38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
@@ -3890,51 +3914,51 @@
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X38" s="1" t="str">
         <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),CONCATENATE(A38,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>39</v>
@@ -3943,63 +3967,312 @@
         <v>20</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M39" s="2" t="str">
         <f aca="false">VLOOKUP(L39,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="N39" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O39" s="1" t="n">
+      <c r="N39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>none</v>
+        <v>shrine_k</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>none</v>
       </c>
       <c r="V39" s="1" t="str">
         <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),CONCATENATE(A39,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>none</v>
       </c>
       <c r="W39" s="1" t="str">
         <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),CONCATENATE(A39,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X39" s="1" t="str">
         <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),CONCATENATE(A39,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f aca="false">VLOOKUP(L40,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
+        <v>shrine_prohibition_k</v>
+      </c>
+      <c r="U40" s="1" t="str">
+        <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
+        <v>none</v>
+      </c>
+      <c r="V40" s="1" t="str">
+        <f aca="false">IF(OR(D40="1X1",D40="2X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_east"),IF(E40="landmark",CONCATENATE(A40,"_k_east"),CONCATENATE(A40,"_east"))))</f>
+        <v>none</v>
+      </c>
+      <c r="W40" s="1" t="str">
+        <f aca="false">IF(OR(D40="1X1",D40="1X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_west"),IF(E40="landmark",CONCATENATE(A40,"_k_west"),CONCATENATE(A40,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X40" s="1" t="str">
+        <f aca="false">IF(NOT(D40="2X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_south"),IF(E40="landmark",CONCATENATE(A40,"_k_south"),CONCATENATE(A40,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f aca="false">VLOOKUP(L41,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T41" s="1" t="str">
+        <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
+        <v>none</v>
+      </c>
+      <c r="U41" s="1" t="str">
+        <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V41" s="1" t="str">
+        <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W41" s="1" t="str">
+        <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X41" s="1" t="str">
+        <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),CONCATENATE(A41,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <f aca="false">VLOOKUP(L42,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T42" s="1" t="str">
+        <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
+        <v>none</v>
+      </c>
+      <c r="U42" s="1" t="str">
+        <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V42" s="1" t="str">
+        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),CONCATENATE(A42,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W42" s="1" t="str">
+        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),CONCATENATE(A42,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X42" s="1" t="str">
+        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),CONCATENATE(A42,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="D40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="Y42" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="D43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="S43" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -4010,15 +4283,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L40" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L43" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P40" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P43" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S40" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S43" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4052,15 +4325,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -4068,7 +4341,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -4076,7 +4349,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4084,7 +4357,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -4092,7 +4365,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -4100,7 +4373,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -4108,7 +4381,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -4116,7 +4389,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -4124,7 +4397,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -4132,7 +4405,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -4140,7 +4413,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -4148,7 +4421,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -4156,7 +4429,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -4164,7 +4437,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -4172,7 +4445,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -4180,7 +4453,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -4212,16 +4485,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,11 +5302,11 @@
       </c>
       <c r="B49" s="1" t="str">
         <f aca="false">IF(C49="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A49,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D49" s="1" t="n">
         <f aca="false">IF(C49="Multi-tile",D48-1,MAX(IF(C49="ID not in use",0,IF(C49="1X1",1,IF(C49="2X2",4,2)))-1,0))</f>
@@ -5811,11 +6084,11 @@
       </c>
       <c r="B95" s="1" t="str">
         <f aca="false">IF(C95="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A95,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D95" s="1" t="n">
         <f aca="false">IF(C95="Multi-tile",D94-1,MAX(IF(C95="ID not in use",0,IF(C95="1X1",1,IF(C95="2X2",4,2)))-1,0))</f>
@@ -5947,15 +6220,15 @@
       </c>
       <c r="B103" s="1" t="str">
         <f aca="false">IF(C103="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A103,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X2</v>
       </c>
       <c r="D103" s="1" t="n">
         <f aca="false">IF(C103="Multi-tile",D102-1,MAX(IF(C103="ID not in use",0,IF(C103="1X1",1,IF(C103="2X2",4,2)))-1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,10 +8865,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8604,31 +8877,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="81.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="83.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="59.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,13 +8915,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -8671,7 +8944,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
@@ -8688,49 +8961,49 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,29 +9011,37 @@
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8789,40 +9070,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -8830,24 +9111,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="194">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -353,39 +353,48 @@
     <t xml:space="preserve">single_house</t>
   </si>
   <si>
+    <t xml:space="preserve">convini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_CONVINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 8],[BEER, 8]</t>
+  </si>
+  <si>
     <t xml:space="preserve">onsen</t>
   </si>
   <si>
-    <t xml:space="preserve">landmark</t>
+    <t xml:space="preserve">fire_station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_FIRE_STATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
   </si>
   <si>
     <t xml:space="preserve">NAME_ONSEN</t>
   </si>
   <si>
-    <t xml:space="preserve">3,2,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire_station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2X1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_FIRE_STATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_HOSPITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PASS, 8], [MAIL, 4], [GOOD, 4], [RFPR, 8]</t>
-  </si>
-  <si>
     <t xml:space="preserve">pachinko</t>
   </si>
   <si>
@@ -429,9 +438,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_STADIUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PASS, 8],[MAIL, 1],[FOOD, 8],[BEER, 8]</t>
   </si>
   <si>
     <t xml:space="preserve">temple</t>
@@ -718,14 +724,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3435,14 +3441,14 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>93</v>
+      <c r="C33" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
@@ -3453,20 +3459,20 @@
       <c r="F33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H33" s="1" t="n">
+      <c r="G33" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <v>1870</v>
+      <c r="I33" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="1" t="n">
-        <v>10</v>
+      <c r="K33" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>112</v>
@@ -3475,27 +3481,27 @@
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="N33" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="O33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q33" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R33" s="1" t="n">
-        <v>6</v>
+      <c r="Q33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>onsen_k</v>
+        <v>convini_k</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
@@ -3513,28 +3519,28 @@
         <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),IF(E33="house",CONCATENATE(A33,"_h_south"),CONCATENATE(A33,"_south")))))</f>
         <v>none</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>109</v>
+      <c r="Y33" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>80</v>
@@ -3597,15 +3603,15 @@
         <v>none</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>200</v>
@@ -3617,7 +3623,7 @@
         <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>150</v>
@@ -3635,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M35" s="2" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
@@ -3657,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
@@ -3680,18 +3686,18 @@
         <v>hospital_k_south</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
@@ -3700,16 +3706,16 @@
         <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1980</v>
+        <v>1870</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>39</v>
@@ -3718,11 +3724,11 @@
         <v>10</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M36" s="2" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>29</v>
@@ -3734,36 +3740,36 @@
         <v>103</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>pachinko_k</v>
+        <v>onsen_k</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V36" s="1" t="str">
-        <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
+        <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),IF(E36="house",CONCATENATE(A36,"_h_east"),CONCATENATE(A36,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
+        <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),IF(E36="house",CONCATENATE(A36,"_h_west"),CONCATENATE(A36,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X36" s="1" t="str">
-        <f aca="false">IF(NOT(D36="2X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_south"),IF(E36="landmark",CONCATENATE(A36,"_k_south"),CONCATENATE(A36,"_south"))))</f>
+        <f aca="false">IF(NOT(D36="2X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_south"),IF(E36="landmark",CONCATENATE(A36,"_k_south"),IF(E36="house",CONCATENATE(A36,"_h_south"),CONCATENATE(A36,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,10 +3780,10 @@
         <v>123</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>110</v>
@@ -3786,29 +3792,29 @@
         <v>124</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="M37" s="2" t="str">
         <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O37" s="1" t="n">
         <v>3</v>
@@ -3817,25 +3823,25 @@
         <v>103</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),CONCATENATE(A37,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),CONCATENATE(A37,"_west"))))</f>
@@ -3851,31 +3857,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H38" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>39</v>
@@ -3884,20 +3890,20 @@
         <v>20</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M38" s="2" t="str">
         <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O38" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>10</v>
@@ -3906,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
@@ -3914,51 +3920,51 @@
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X38" s="1" t="str">
         <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),CONCATENATE(A38,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>39</v>
@@ -3967,14 +3973,14 @@
         <v>20</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M39" s="2" t="str">
         <f aca="false">VLOOKUP(L39,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>3</v>
@@ -3983,47 +3989,47 @@
         <v>67</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V39" s="1" t="str">
         <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),CONCATENATE(A39,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W39" s="1" t="str">
         <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),CONCATENATE(A39,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X39" s="1" t="str">
         <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),CONCATENATE(A39,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
@@ -4032,13 +4038,13 @@
         <v>110</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>0</v>
@@ -4050,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M40" s="2" t="str">
         <f aca="false">VLOOKUP(L40,dropdowns!E:F,2,0)</f>
@@ -4072,11 +4078,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
@@ -4095,36 +4101,36 @@
         <v>none</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>39</v>
@@ -4133,52 +4139,52 @@
         <v>20</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M41" s="2" t="str">
         <f aca="false">VLOOKUP(L41,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N41" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O41" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X41" s="1" t="str">
         <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),CONCATENATE(A41,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,7 +4195,7 @@
         <v>136</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>99</v>
@@ -4201,13 +4207,13 @@
         <v>137</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>39</v>
@@ -4216,11 +4222,11 @@
         <v>20</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M42" s="2" t="str">
         <f aca="false">VLOOKUP(L42,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N42" s="1" t="n">
         <v>20</v>
@@ -4229,16 +4235,16 @@
         <v>3</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
@@ -4246,36 +4252,119 @@
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V42" s="1" t="str">
         <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),CONCATENATE(A42,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W42" s="1" t="str">
         <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),CONCATENATE(A42,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X42" s="1" t="str">
         <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),CONCATENATE(A42,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <f aca="false">VLOOKUP(L43,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T43" s="1" t="str">
+        <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
+        <v>none</v>
+      </c>
+      <c r="U43" s="1" t="str">
+        <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V43" s="1" t="str">
+        <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),CONCATENATE(A43,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W43" s="1" t="str">
+        <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),CONCATENATE(A43,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X43" s="1" t="str">
+        <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),CONCATENATE(A43,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y42" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="D43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="S43" s="2"/>
+      <c r="Y43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="D44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="S44" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C32 C34:C1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -4283,15 +4372,15 @@
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L43" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L44" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P43" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P44" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S43" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S44" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4325,15 +4414,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -4341,7 +4430,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -4349,7 +4438,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -4357,7 +4446,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
@@ -4365,7 +4454,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -4373,7 +4462,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -4381,7 +4470,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>6</v>
@@ -4389,7 +4478,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>7</v>
@@ -4397,7 +4486,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>8</v>
@@ -4405,7 +4494,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>9</v>
@@ -4413,7 +4502,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
@@ -4421,7 +4510,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>11</v>
@@ -4429,7 +4518,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>12</v>
@@ -4437,7 +4526,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>13</v>
@@ -4445,7 +4534,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>14</v>
@@ -4453,7 +4542,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15</v>
@@ -4485,16 +4574,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,11 +6207,11 @@
       </c>
       <c r="B97" s="1" t="str">
         <f aca="false">IF(C97="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A97,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D97" s="1" t="n">
         <f aca="false">IF(C97="Multi-tile",D96-1,MAX(IF(C97="ID not in use",0,IF(C97="1X1",1,IF(C97="2X2",4,2)))-1,0))</f>
@@ -8883,25 +8972,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8915,13 +9004,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -8944,7 +9033,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
@@ -8961,13 +9050,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>103</v>
@@ -8975,35 +9064,35 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9011,10 +9100,10 @@
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9025,15 +9114,15 @@
         <v>107</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9041,7 +9130,7 @@
         <v>102</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9070,40 +9159,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>64</v>
@@ -9111,24 +9200,24 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="175">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -213,6 +213,39 @@
     <t xml:space="preserve">murakami_m</t>
   </si>
   <si>
+    <t xml:space="preserve">okada_office_tower_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okada_office_tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_OKADA_OFFICE_TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okada_office_tower_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okada_office_tower_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old_office_building_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old_office_building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_OLD_OFFICE_BUILDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old_office_building_l</t>
+  </si>
+  <si>
     <t xml:space="preserve">yano_m</t>
   </si>
   <si>
@@ -226,9 +259,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME_BANK_BUILDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 only</t>
   </si>
   <si>
     <t xml:space="preserve">bitmask(HOUSE_FLAG_NOT_SLOPED,HOUSE_FLAG_PROTECTED)</t>
@@ -643,14 +673,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1953,10 +1983,10 @@
         <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -1965,7 +1995,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>100</v>
@@ -1974,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>39</v>
@@ -1999,9 +2029,11 @@
         <v>31</v>
       </c>
       <c r="Q16" s="1" t="n">
+        <f aca="false">VLOOKUP(E16,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R16" s="1" t="n">
+        <f aca="false">VLOOKUP(E16,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -2009,7 +2041,7 @@
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>yano_m</v>
+        <v>okada_office_tower_m</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
@@ -2033,66 +2065,66 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1980</v>
+        <v>1955</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M17" s="3" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>6</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>bank_building_c</v>
+        <v>okada_office_tower_l</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
@@ -2116,66 +2148,66 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1990</v>
+        <v>1955</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M18" s="3" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N18" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O18" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P18" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>enterprise_tower_c</v>
+        <v>okada_office_tower_x</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
@@ -2199,66 +2231,66 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>66</v>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M19" s="3" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N19" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O19" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P19" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>insurance_tower_c</v>
+        <v>old_office_building_m</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
@@ -2282,66 +2314,66 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>66</v>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>2000</v>
+        <v>1945</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="M20" s="3" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N20" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="S20" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>kuroi_tower_c</v>
+        <v>old_office_building_l</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
@@ -2365,66 +2397,66 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>2000</v>
+        <v>1970</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M21" s="3" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O21" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>mitsui_tower_c</v>
+        <v>yano_m</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
@@ -2448,22 +2480,22 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>220</v>
@@ -2472,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>39</v>
@@ -2481,33 +2513,33 @@
         <v>25</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M22" s="3" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>modern_office_tower_c</v>
+        <v>bank_building_c</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
@@ -2531,22 +2563,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="n">
         <v>81</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>220</v>
@@ -2564,7 +2596,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M23" s="3" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
@@ -2577,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="1" t="n">
         <v>24</v>
@@ -2586,11 +2618,11 @@
         <v>10</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>multimedia_offices_c</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
@@ -2620,25 +2652,25 @@
         <v>83</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>39</v>
@@ -2647,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M24" s="3" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
@@ -2660,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>24</v>
@@ -2669,11 +2701,11 @@
         <v>10</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>office_tower_c</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
@@ -2703,25 +2735,25 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>39</v>
@@ -2730,7 +2762,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M25" s="3" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
@@ -2743,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>24</v>
@@ -2752,11 +2784,11 @@
         <v>10</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>sato_building_c</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
@@ -2786,25 +2818,25 @@
         <v>87</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>39</v>
@@ -2813,7 +2845,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M26" s="3" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
@@ -2826,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>24</v>
@@ -2835,11 +2867,11 @@
         <v>10</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>sugiyama_office_building_c</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
@@ -2869,25 +2901,25 @@
         <v>89</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G27" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>39</v>
@@ -2896,20 +2928,20 @@
         <v>25</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M27" s="3" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>24</v>
@@ -2918,19 +2950,19 @@
         <v>10</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>none</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="2X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_east"),IF(E27="landmark",CONCATENATE(A27,"_k_east"),CONCATENATE(A27,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W27" s="1" t="str">
         <f aca="false">IF(OR(D27="1X1",D27="1X2"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c_west"),IF(E27="landmark",CONCATENATE(A27,"_k_west"),CONCATENATE(A27,"_west"))))</f>
@@ -2946,40 +2978,40 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>1989</v>
+        <v>1990</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M28" s="3" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
@@ -2992,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>24</v>
@@ -3001,11 +3033,11 @@
         <v>10</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>ueda_office_block_c</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3029,31 +3061,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1965</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>39</v>
@@ -3062,7 +3094,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M29" s="3" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
@@ -3075,20 +3107,20 @@
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>yamaguchi_office_c</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
@@ -3112,31 +3144,31 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G30" s="1" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>39</v>
@@ -3145,20 +3177,20 @@
         <v>25</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" s="3" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>24</v>
@@ -3167,19 +3199,19 @@
         <v>10</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>none</v>
+        <v>sato_building_c</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
-        <v>yamashiro_office_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V30" s="1" t="str">
         <f aca="false">IF(OR(D30="1X1",D30="2X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_east"),IF(E30="landmark",CONCATENATE(A30,"_k_east"),CONCATENATE(A30,"_east"))))</f>
-        <v>yamashiro_office_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W30" s="1" t="str">
         <f aca="false">IF(OR(D30="1X1",D30="1X2"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c_west"),IF(E30="landmark",CONCATENATE(A30,"_k_west"),CONCATENATE(A30,"_west"))))</f>
@@ -3195,31 +3227,31 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>39</v>
@@ -3228,7 +3260,7 @@
         <v>25</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="3" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
@@ -3241,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>24</v>
@@ -3250,11 +3282,11 @@
         <v>10</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>yamashita_building_c</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
@@ -3278,62 +3310,62 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G32" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1700</v>
+        <v>2006</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="M32" s="3" t="str">
         <f aca="false">VLOOKUP(L32,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
@@ -3341,248 +3373,248 @@
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V32" s="1" t="str">
-        <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),IF(E32="house",CONCATENATE(A32,"_h_east"),CONCATENATE(A32,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),CONCATENATE(A32,"_east"))))</f>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),IF(E32="house",CONCATENATE(A32,"_h_west"),CONCATENATE(A32,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),CONCATENATE(A32,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X32" s="1" t="str">
-        <f aca="false">IF(NOT(D32="2X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_south"),IF(E32="landmark",CONCATENATE(A32,"_k_south"),IF(E32="house",CONCATENATE(A32,"_h_south"),CONCATENATE(A32,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D32="2X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_south"),IF(E32="landmark",CONCATENATE(A32,"_k_south"),CONCATENATE(A32,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>1870</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>39</v>
+        <v>1955</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>1989</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M33" s="3" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>naganuma_h</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V33" s="1" t="str">
-        <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),IF(E33="house",CONCATENATE(A33,"_h_east"),CONCATENATE(A33,"_east")))))</f>
+        <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),CONCATENATE(A33,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),IF(E33="house",CONCATENATE(A33,"_h_west"),CONCATENATE(A33,"_west")))))</f>
+        <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),CONCATENATE(A33,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X33" s="1" t="str">
-        <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),IF(E33="house",CONCATENATE(A33,"_h_south"),CONCATENATE(A33,"_south")))))</f>
+        <f aca="false">IF(NOT(D33="2X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_south"),IF(E33="landmark",CONCATENATE(A33,"_k_south"),CONCATENATE(A33,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>95</v>
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H34" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <v>1950</v>
+      <c r="I34" s="1" t="n">
+        <v>1965</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="0" t="n">
-        <v>5</v>
+      <c r="K34" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="M34" s="3" t="str">
         <f aca="false">VLOOKUP(L34,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>3</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q34" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="R34" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="S34" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>convini_k</v>
+        <v>yamaguchi_office_c</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V34" s="1" t="str">
-        <f aca="false">IF(OR(D34="1X1",D34="2X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_east"),IF(E34="landmark",CONCATENATE(A34,"_k_east"),IF(E34="house",CONCATENATE(A34,"_h_east"),CONCATENATE(A34,"_east")))))</f>
+        <f aca="false">IF(OR(D34="1X1",D34="2X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_east"),IF(E34="landmark",CONCATENATE(A34,"_k_east"),CONCATENATE(A34,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f aca="false">IF(OR(D34="1X1",D34="1X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_west"),IF(E34="landmark",CONCATENATE(A34,"_k_west"),IF(E34="house",CONCATENATE(A34,"_h_west"),CONCATENATE(A34,"_west")))))</f>
+        <f aca="false">IF(OR(D34="1X1",D34="1X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_west"),IF(E34="landmark",CONCATENATE(A34,"_k_west"),CONCATENATE(A34,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X34" s="1" t="str">
-        <f aca="false">IF(NOT(D34="2X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_south"),IF(E34="landmark",CONCATENATE(A34,"_k_south"),IF(E34="house",CONCATENATE(A34,"_h_south"),CONCATENATE(A34,"_south")))))</f>
-        <v>none</v>
-      </c>
-      <c r="Y34" s="0" t="s">
-        <v>116</v>
+        <f aca="false">IF(NOT(D34="2X2"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c_south"),IF(E34="landmark",CONCATENATE(A34,"_k_south"),CONCATENATE(A34,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G35" s="1" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M35" s="3" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R35" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="R35" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="S35" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
@@ -3590,199 +3622,199 @@
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V35" s="1" t="str">
-        <f aca="false">IF(OR(D35="1X1",D35="2X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_east"),IF(E35="landmark",CONCATENATE(A35,"_k_east"),IF(E35="house",CONCATENATE(A35,"_h_east"),CONCATENATE(A35,"_east")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D35="1X1",D35="2X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_east"),IF(E35="landmark",CONCATENATE(A35,"_k_east"),CONCATENATE(A35,"_east"))))</f>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f aca="false">IF(OR(D35="1X1",D35="1X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_west"),IF(E35="landmark",CONCATENATE(A35,"_k_west"),IF(E35="house",CONCATENATE(A35,"_h_west"),CONCATENATE(A35,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <f aca="false">IF(OR(D35="1X1",D35="1X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_west"),IF(E35="landmark",CONCATENATE(A35,"_k_west"),CONCATENATE(A35,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X35" s="1" t="str">
-        <f aca="false">IF(NOT(D35="2X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_south"),IF(E35="landmark",CONCATENATE(A35,"_k_south"),IF(E35="house",CONCATENATE(A35,"_h_south"),CONCATENATE(A35,"_south")))))</f>
+        <f aca="false">IF(NOT(D35="2X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_south"),IF(E35="landmark",CONCATENATE(A35,"_k_south"),CONCATENATE(A35,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="M36" s="3" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R36" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="R36" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="S36" s="3" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>none</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <v>none</v>
       </c>
       <c r="W36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <v>none</v>
       </c>
       <c r="X36" s="1" t="str">
         <f aca="false">IF(NOT(D36="2X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_south"),IF(E36="landmark",CONCATENATE(A36,"_k_south"),CONCATENATE(A36,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>114</v>
       </c>
       <c r="M37" s="3" t="str">
         <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>onsen_k</v>
+        <v>none</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),IF(E37="house",CONCATENATE(A37,"_h_east"),CONCATENATE(A37,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W37" s="1" t="str">
         <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),IF(E37="house",CONCATENATE(A37,"_h_west"),CONCATENATE(A37,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X37" s="1" t="str">
         <f aca="false">IF(NOT(D37="2X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_south"),IF(E37="landmark",CONCATENATE(A37,"_k_south"),IF(E37="house",CONCATENATE(A37,"_h_south"),CONCATENATE(A37,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
@@ -3791,182 +3823,182 @@
         <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1980</v>
+        <v>1870</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="M38" s="3" t="str">
         <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
-        <v>pachinko_k</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V38" s="1" t="str">
-        <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
+        <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),IF(E38="house",CONCATENATE(A38,"_h_east"),CONCATENATE(A38,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
+        <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),IF(E38="house",CONCATENATE(A38,"_h_west"),CONCATENATE(A38,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X38" s="1" t="str">
-        <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),CONCATENATE(A38,"_south"))))</f>
+        <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),IF(E38="house",CONCATENATE(A38,"_h_south"),CONCATENATE(A38,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>105</v>
+      <c r="A39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>95</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>1970</v>
+        <v>123</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="1" t="n">
-        <v>20</v>
+      <c r="K39" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="M39" s="3" t="str">
         <f aca="false">VLOOKUP(L39,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="O39" s="1" t="n">
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q39" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="R39" s="1" t="n">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>none</v>
+        <v>convini_k</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V39" s="1" t="str">
-        <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),CONCATENATE(A39,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),IF(E39="house",CONCATENATE(A39,"_h_east"),CONCATENATE(A39,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),CONCATENATE(A39,"_west"))))</f>
+        <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),IF(E39="house",CONCATENATE(A39,"_h_west"),CONCATENATE(A39,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X39" s="1" t="str">
-        <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),CONCATENATE(A39,"_south"))))</f>
-        <v>none</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>128</v>
+        <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),IF(E39="house",CONCATENATE(A39,"_h_south"),CONCATENATE(A39,"_south")))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y39" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H40" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H40" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>39</v>
@@ -3975,20 +4007,20 @@
         <v>20</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M40" s="3" t="str">
         <f aca="false">VLOOKUP(L40,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O40" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="O40" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="Q40" s="1" t="n">
         <v>10</v>
@@ -3997,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
@@ -4005,51 +4037,51 @@
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V40" s="1" t="str">
-        <f aca="false">IF(OR(D40="1X1",D40="2X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_east"),IF(E40="landmark",CONCATENATE(A40,"_k_east"),CONCATENATE(A40,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <f aca="false">IF(OR(D40="1X1",D40="2X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_east"),IF(E40="landmark",CONCATENATE(A40,"_k_east"),IF(E40="house",CONCATENATE(A40,"_h_east"),CONCATENATE(A40,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f aca="false">IF(OR(D40="1X1",D40="1X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_west"),IF(E40="landmark",CONCATENATE(A40,"_k_west"),CONCATENATE(A40,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <f aca="false">IF(OR(D40="1X1",D40="1X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_west"),IF(E40="landmark",CONCATENATE(A40,"_k_west"),IF(E40="house",CONCATENATE(A40,"_h_west"),CONCATENATE(A40,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X40" s="1" t="str">
-        <f aca="false">IF(NOT(D40="2X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_south"),IF(E40="landmark",CONCATENATE(A40,"_k_south"),CONCATENATE(A40,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <f aca="false">IF(NOT(D40="2X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_south"),IF(E40="landmark",CONCATENATE(A40,"_k_south"),IF(E40="house",CONCATENATE(A40,"_h_south"),CONCATENATE(A40,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>39</v>
@@ -4058,247 +4090,247 @@
         <v>20</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M41" s="3" t="str">
         <f aca="false">VLOOKUP(L41,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O41" s="0" t="n">
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X41" s="1" t="str">
         <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),CONCATENATE(A41,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M42" s="3" t="str">
         <f aca="false">VLOOKUP(L42,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N42" s="0" t="n">
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S42" s="3" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>onsen_k</v>
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),CONCATENATE(A42,"_east"))))</f>
+        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),IF(E42="house",CONCATENATE(A42,"_h_east"),CONCATENATE(A42,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),CONCATENATE(A42,"_west"))))</f>
+        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),IF(E42="house",CONCATENATE(A42,"_h_west"),CONCATENATE(A42,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X42" s="1" t="str">
-        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),CONCATENATE(A42,"_south"))))</f>
+        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),IF(E42="house",CONCATENATE(A42,"_h_south"),CONCATENATE(A42,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="M43" s="3" t="str">
         <f aca="false">VLOOKUP(L43,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="O43" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U43" s="1" t="str">
         <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V43" s="1" t="str">
         <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),CONCATENATE(A43,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W43" s="1" t="str">
         <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),CONCATENATE(A43,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X43" s="1" t="str">
         <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),CONCATENATE(A43,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>39</v>
@@ -4307,20 +4339,20 @@
         <v>20</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M44" s="3" t="str">
         <f aca="false">VLOOKUP(L44,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="Q44" s="1" t="n">
         <v>10</v>
@@ -4329,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(NOT(D44="1X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c"),IF(E44="landmark",CONCATENATE(A44,"_k"),IF(E44="house",CONCATENATE(A44,"_h"),A44))))</f>
@@ -4337,52 +4369,467 @@
       </c>
       <c r="U44" s="1" t="str">
         <f aca="false">IF(D44="1X1","none",IF(E44="skyscraper",CONCATENATE(A44,"_c_north"),IF(E44="landmark",CONCATENATE(A44,"_k_north"),IF(E44="house",CONCATENATE(A44,"_h_north"),CONCATENATE(A44,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),CONCATENATE(A44,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),CONCATENATE(A44,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X44" s="1" t="str">
         <f aca="false">IF(NOT(D44="2X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_south"),IF(E44="landmark",CONCATENATE(A44,"_k_south"),CONCATENATE(A44,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M45" s="3" t="str">
+        <f aca="false">VLOOKUP(L45,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T45" s="1" t="str">
+        <f aca="false">IF(NOT(D45="1X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c"),IF(E45="landmark",CONCATENATE(A45,"_k"),IF(E45="house",CONCATENATE(A45,"_h"),A45))))</f>
+        <v>none</v>
+      </c>
+      <c r="U45" s="1" t="str">
+        <f aca="false">IF(D45="1X1","none",IF(E45="skyscraper",CONCATENATE(A45,"_c_north"),IF(E45="landmark",CONCATENATE(A45,"_k_north"),IF(E45="house",CONCATENATE(A45,"_h_north"),CONCATENATE(A45,"_north")))))</f>
+        <v>shiro_k_north</v>
+      </c>
+      <c r="V45" s="1" t="str">
+        <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),CONCATENATE(A45,"_east"))))</f>
+        <v>shiro_k_east</v>
+      </c>
+      <c r="W45" s="1" t="str">
+        <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),CONCATENATE(A45,"_west"))))</f>
+        <v>shiro_k_west</v>
+      </c>
+      <c r="X45" s="1" t="str">
+        <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),CONCATENATE(A45,"_south"))))</f>
+        <v>shiro_k_south</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" s="3" t="str">
+        <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T46" s="1" t="str">
+        <f aca="false">IF(NOT(D46="1X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c"),IF(E46="landmark",CONCATENATE(A46,"_k"),IF(E46="house",CONCATENATE(A46,"_h"),A46))))</f>
+        <v>shrine_k</v>
+      </c>
+      <c r="U46" s="1" t="str">
+        <f aca="false">IF(D46="1X1","none",IF(E46="skyscraper",CONCATENATE(A46,"_c_north"),IF(E46="landmark",CONCATENATE(A46,"_k_north"),IF(E46="house",CONCATENATE(A46,"_h_north"),CONCATENATE(A46,"_north")))))</f>
+        <v>none</v>
+      </c>
+      <c r="V46" s="1" t="str">
+        <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),CONCATENATE(A46,"_east"))))</f>
+        <v>none</v>
+      </c>
+      <c r="W46" s="1" t="str">
+        <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),CONCATENATE(A46,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X46" s="1" t="str">
+        <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),CONCATENATE(A46,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" s="3" t="str">
+        <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47" s="1" t="str">
+        <f aca="false">IF(NOT(D47="1X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c"),IF(E47="landmark",CONCATENATE(A47,"_k"),IF(E47="house",CONCATENATE(A47,"_h"),A47))))</f>
+        <v>shrine_prohibition_k</v>
+      </c>
+      <c r="U47" s="1" t="str">
+        <f aca="false">IF(D47="1X1","none",IF(E47="skyscraper",CONCATENATE(A47,"_c_north"),IF(E47="landmark",CONCATENATE(A47,"_k_north"),IF(E47="house",CONCATENATE(A47,"_h_north"),CONCATENATE(A47,"_north")))))</f>
+        <v>none</v>
+      </c>
+      <c r="V47" s="1" t="str">
+        <f aca="false">IF(OR(D47="1X1",D47="2X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_east"),IF(E47="landmark",CONCATENATE(A47,"_k_east"),CONCATENATE(A47,"_east"))))</f>
+        <v>none</v>
+      </c>
+      <c r="W47" s="1" t="str">
+        <f aca="false">IF(OR(D47="1X1",D47="1X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_west"),IF(E47="landmark",CONCATENATE(A47,"_k_west"),CONCATENATE(A47,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X47" s="1" t="str">
+        <f aca="false">IF(NOT(D47="2X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_south"),IF(E47="landmark",CONCATENATE(A47,"_k_south"),CONCATENATE(A47,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M48" s="3" t="str">
+        <f aca="false">VLOOKUP(L48,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T48" s="1" t="str">
+        <f aca="false">IF(NOT(D48="1X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c"),IF(E48="landmark",CONCATENATE(A48,"_k"),IF(E48="house",CONCATENATE(A48,"_h"),A48))))</f>
+        <v>none</v>
+      </c>
+      <c r="U48" s="1" t="str">
+        <f aca="false">IF(D48="1X1","none",IF(E48="skyscraper",CONCATENATE(A48,"_c_north"),IF(E48="landmark",CONCATENATE(A48,"_k_north"),IF(E48="house",CONCATENATE(A48,"_h_north"),CONCATENATE(A48,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V48" s="1" t="str">
+        <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),CONCATENATE(A48,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W48" s="1" t="str">
+        <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),CONCATENATE(A48,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X48" s="1" t="str">
+        <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),CONCATENATE(A48,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" s="3" t="str">
+        <f aca="false">VLOOKUP(L49,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T49" s="1" t="str">
+        <f aca="false">IF(NOT(D49="1X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c"),IF(E49="landmark",CONCATENATE(A49,"_k"),IF(E49="house",CONCATENATE(A49,"_h"),A49))))</f>
+        <v>none</v>
+      </c>
+      <c r="U49" s="1" t="str">
+        <f aca="false">IF(D49="1X1","none",IF(E49="skyscraper",CONCATENATE(A49,"_c_north"),IF(E49="landmark",CONCATENATE(A49,"_k_north"),IF(E49="house",CONCATENATE(A49,"_h_north"),CONCATENATE(A49,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),CONCATENATE(A49,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W49" s="1" t="str">
+        <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),CONCATENATE(A49,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X49" s="1" t="str">
+        <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),CONCATENATE(A49,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y44" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="D45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="S45" s="3"/>
+      <c r="Y49" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="D50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="S50" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C33 C35:C1048576">
+  <conditionalFormatting sqref="C1:C38 C40:C1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E21" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L45" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L50" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P45" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P50" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S45" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S50" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4404,7 +4851,7 @@
   </sheetPr>
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H194" activeCellId="0" sqref="H194"/>
     </sheetView>
   </sheetViews>
@@ -4412,16 +4859,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,11 +6832,11 @@
       </c>
       <c r="B117" s="1" t="str">
         <f aca="false">IF(C117="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A117,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D117" s="1" t="n">
         <f aca="false">IF(C117="Multi-tile",D116-1,MAX(IF(C117="ID not in use",0,IF(C117="1X1",1,IF(C117="2X2",4,2)))-1,0))</f>
@@ -6402,11 +6849,11 @@
       </c>
       <c r="B118" s="1" t="str">
         <f aca="false">IF(C118="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A118,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D118" s="1" t="n">
         <f aca="false">IF(C118="Multi-tile",D117-1,MAX(IF(C118="ID not in use",0,IF(C118="1X1",1,IF(C118="2X2",4,2)))-1,0))</f>
@@ -6470,11 +6917,11 @@
       </c>
       <c r="B122" s="1" t="str">
         <f aca="false">IF(C122="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A122,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D122" s="1" t="n">
         <f aca="false">IF(C122="Multi-tile",D121-1,MAX(IF(C122="ID not in use",0,IF(C122="1X1",1,IF(C122="2X2",4,2)))-1,0))</f>
@@ -6487,11 +6934,11 @@
       </c>
       <c r="B123" s="1" t="str">
         <f aca="false">IF(C123="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A123,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D123" s="1" t="n">
         <f aca="false">IF(C123="Multi-tile",D122-1,MAX(IF(C123="ID not in use",0,IF(C123="1X1",1,IF(C123="2X2",4,2)))-1,0))</f>
@@ -6504,11 +6951,11 @@
       </c>
       <c r="B124" s="1" t="str">
         <f aca="false">IF(C124="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A124,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D124" s="1" t="n">
         <f aca="false">IF(C124="Multi-tile",D123-1,MAX(IF(C124="ID not in use",0,IF(C124="1X1",1,IF(C124="2X2",4,2)))-1,0))</f>
@@ -8795,7 +9242,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8810,25 +9257,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,13 +9289,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -8871,10 +9318,10 @@
         <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8888,87 +9335,90 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="178">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t xml:space="preserve">murakami_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nakayama_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nakayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_NAKAYAMA</t>
   </si>
   <si>
     <t xml:space="preserve">okada_office_tower_m</t>
@@ -673,7 +682,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1986,7 +1995,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -2004,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>39</v>
@@ -2041,7 +2050,7 @@
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>okada_office_tower_m</v>
+        <v>nakayama_m</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
@@ -2068,22 +2077,22 @@
         <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
@@ -2095,14 +2104,14 @@
         <v>39</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M17" s="3" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>27</v>
@@ -2114,17 +2123,19 @@
         <v>31</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>14</v>
+        <f aca="false">VLOOKUP(E17,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E17,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>okada_office_tower_l</v>
+        <v>okada_office_tower_m</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
@@ -2148,25 +2159,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C18" s="2" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G18" s="1" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
@@ -2178,14 +2189,14 @@
         <v>39</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M18" s="3" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>27</v>
@@ -2197,17 +2208,17 @@
         <v>31</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>okada_office_tower_x</v>
+        <v>okada_office_tower_l</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
@@ -2234,41 +2245,41 @@
         <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M19" s="3" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>27</v>
@@ -2280,17 +2291,17 @@
         <v>31</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>old_office_building_m</v>
+        <v>okada_office_tower_x</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
@@ -2317,22 +2328,22 @@
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
@@ -2344,14 +2355,14 @@
         <v>39</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M20" s="3" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>27</v>
@@ -2363,17 +2374,17 @@
         <v>31</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>old_office_building_l</v>
+        <v>old_office_building_m</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
@@ -2397,44 +2408,44 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1970</v>
+        <v>1945</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M21" s="3" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>27</v>
@@ -2446,17 +2457,17 @@
         <v>31</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>yano_m</v>
+        <v>old_office_building_l</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
@@ -2480,66 +2491,66 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>77</v>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M22" s="3" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>bank_building_c</v>
+        <v>yano_m</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
@@ -2563,19 +2574,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>81</v>
@@ -2587,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>39</v>
@@ -2596,33 +2607,33 @@
         <v>25</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M23" s="3" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>enterprise_tower_c</v>
+        <v>bank_building_c</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
@@ -2652,25 +2663,25 @@
         <v>83</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>39</v>
@@ -2679,7 +2690,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M24" s="3" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
@@ -2692,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>24</v>
@@ -2701,11 +2712,11 @@
         <v>10</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>insurance_tower_c</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
@@ -2729,31 +2740,31 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>39</v>
@@ -2762,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M25" s="3" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
@@ -2775,7 +2786,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>24</v>
@@ -2784,11 +2795,11 @@
         <v>10</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>kuroi_tower_c</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
@@ -2812,22 +2823,22 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>220</v>
@@ -2845,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M26" s="3" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
@@ -2858,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>24</v>
@@ -2867,11 +2878,11 @@
         <v>10</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>mitsui_tower_c</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
@@ -2895,22 +2906,22 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>220</v>
@@ -2928,7 +2939,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M27" s="3" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
@@ -2941,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>24</v>
@@ -2950,11 +2961,11 @@
         <v>10</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>modern_office_tower_c</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
@@ -2978,22 +2989,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>220</v>
@@ -3002,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>39</v>
@@ -3011,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M28" s="3" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
@@ -3024,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>24</v>
@@ -3033,11 +3044,11 @@
         <v>10</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>multimedia_offices_c</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3061,22 +3072,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>220</v>
@@ -3085,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>39</v>
@@ -3094,7 +3105,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M29" s="3" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
@@ -3107,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>24</v>
@@ -3116,11 +3127,11 @@
         <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>office_tower_c</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
@@ -3144,31 +3155,31 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>39</v>
@@ -3177,7 +3188,7 @@
         <v>25</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M30" s="3" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
@@ -3190,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>24</v>
@@ -3199,11 +3210,11 @@
         <v>10</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>sato_building_c</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
@@ -3227,22 +3238,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>200</v>
@@ -3251,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>39</v>
@@ -3260,7 +3271,7 @@
         <v>25</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M31" s="3" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
@@ -3273,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>24</v>
@@ -3282,11 +3293,11 @@
         <v>10</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>sugiyama_office_building_c</v>
+        <v>sato_building_c</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
@@ -3310,31 +3321,31 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>39</v>
@@ -3343,20 +3354,20 @@
         <v>25</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M32" s="3" t="str">
         <f aca="false">VLOOKUP(L32,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>24</v>
@@ -3365,19 +3376,19 @@
         <v>10</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>none</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V32" s="1" t="str">
         <f aca="false">IF(OR(D32="1X1",D32="2X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_east"),IF(E32="landmark",CONCATENATE(A32,"_k_east"),CONCATENATE(A32,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W32" s="1" t="str">
         <f aca="false">IF(OR(D32="1X1",D32="1X2"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c_west"),IF(E32="landmark",CONCATENATE(A32,"_k_west"),CONCATENATE(A32,"_west"))))</f>
@@ -3399,47 +3410,47 @@
         <v>102</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>1989</v>
+        <v>2006</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M33" s="3" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>24</v>
@@ -3448,19 +3459,19 @@
         <v>10</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>ueda_office_block_c</v>
+        <v>none</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
-        <v>none</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),CONCATENATE(A33,"_east"))))</f>
-        <v>none</v>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),CONCATENATE(A33,"_west"))))</f>
@@ -3476,40 +3487,40 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>1965</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>39</v>
+        <v>1955</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>1989</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M34" s="3" t="str">
         <f aca="false">VLOOKUP(L34,dropdowns!E:F,2,0)</f>
@@ -3522,20 +3533,20 @@
         <v>5</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>yamaguchi_office_c</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
@@ -3559,31 +3570,31 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>39</v>
@@ -3592,41 +3603,41 @@
         <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M35" s="3" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O35" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>none</v>
+        <v>yamaguchi_office_c</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
-        <v>yamashiro_office_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V35" s="1" t="str">
         <f aca="false">IF(OR(D35="1X1",D35="2X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_east"),IF(E35="landmark",CONCATENATE(A35,"_k_east"),CONCATENATE(A35,"_east"))))</f>
-        <v>yamashiro_office_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W35" s="1" t="str">
         <f aca="false">IF(OR(D35="1X1",D35="1X2"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c_west"),IF(E35="landmark",CONCATENATE(A35,"_k_west"),CONCATENATE(A35,"_west"))))</f>
@@ -3642,31 +3653,31 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>39</v>
@@ -3675,20 +3686,20 @@
         <v>25</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M36" s="3" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>24</v>
@@ -3697,19 +3708,19 @@
         <v>10</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>yamashita_building_c</v>
+        <v>none</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
-        <v>none</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
-        <v>none</v>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
@@ -3725,232 +3736,232 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G37" s="1" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="M37" s="3" t="str">
         <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>none</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>none</v>
       </c>
       <c r="V37" s="1" t="str">
-        <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),IF(E37="house",CONCATENATE(A37,"_h_east"),CONCATENATE(A37,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D37="1X1",D37="2X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_east"),IF(E37="landmark",CONCATENATE(A37,"_k_east"),CONCATENATE(A37,"_east"))))</f>
+        <v>none</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),IF(E37="house",CONCATENATE(A37,"_h_west"),CONCATENATE(A37,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D37="1X1",D37="1X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_west"),IF(E37="landmark",CONCATENATE(A37,"_k_west"),CONCATENATE(A37,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X37" s="1" t="str">
-        <f aca="false">IF(NOT(D37="2X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_south"),IF(E37="landmark",CONCATENATE(A37,"_k_south"),IF(E37="house",CONCATENATE(A37,"_h_south"),CONCATENATE(A37,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D37="2X2"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c_south"),IF(E37="landmark",CONCATENATE(A37,"_k_south"),CONCATENATE(A37,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M38" s="3" t="str">
         <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N38" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="O38" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="Q38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R38" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S38" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),IF(E38="house",CONCATENATE(A38,"_h_east"),CONCATENATE(A38,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),IF(E38="house",CONCATENATE(A38,"_h_west"),CONCATENATE(A38,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X38" s="1" t="str">
         <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),IF(E38="house",CONCATENATE(A38,"_h_south"),CONCATENATE(A38,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>95</v>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>1950</v>
+        <v>121</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1870</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39" s="1" t="n">
         <v>5</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M39" s="3" t="str">
         <f aca="false">VLOOKUP(L39,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>3</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>convini_k</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
@@ -3968,76 +3979,76 @@
         <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),IF(E39="house",CONCATENATE(A39,"_h_south"),CONCATENATE(A39,"_south")))))</f>
         <v>none</v>
       </c>
-      <c r="Y39" s="0" t="s">
+      <c r="Y39" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>1970</v>
+      <c r="G40" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="1" t="n">
-        <v>20</v>
+      <c r="K40" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M40" s="3" t="str">
         <f aca="false">VLOOKUP(L40,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
-      </c>
-      <c r="N40" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="O40" s="1" t="n">
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="O40" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q40" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="R40" s="1" t="n">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
-        <v>none</v>
+        <v>convini_k</v>
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V40" s="1" t="str">
         <f aca="false">IF(OR(D40="1X1",D40="2X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_east"),IF(E40="landmark",CONCATENATE(A40,"_k_east"),IF(E40="house",CONCATENATE(A40,"_h_east"),CONCATENATE(A40,"_east")))))</f>
@@ -4045,14 +4056,14 @@
       </c>
       <c r="W40" s="1" t="str">
         <f aca="false">IF(OR(D40="1X1",D40="1X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_west"),IF(E40="landmark",CONCATENATE(A40,"_k_west"),IF(E40="house",CONCATENATE(A40,"_h_west"),CONCATENATE(A40,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X40" s="1" t="str">
         <f aca="false">IF(NOT(D40="2X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_south"),IF(E40="landmark",CONCATENATE(A40,"_k_south"),IF(E40="house",CONCATENATE(A40,"_h_south"),CONCATENATE(A40,"_south")))))</f>
         <v>none</v>
       </c>
-      <c r="Y40" s="1" t="s">
-        <v>127</v>
+      <c r="Y40" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,19 +4074,19 @@
         <v>130</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>3</v>
@@ -4090,29 +4101,29 @@
         <v>20</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M41" s="3" t="str">
         <f aca="false">VLOOKUP(L41,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="O41" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
@@ -4120,19 +4131,19 @@
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V41" s="1" t="str">
-        <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),IF(E41="house",CONCATENATE(A41,"_h_east"),CONCATENATE(A41,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),IF(E41="house",CONCATENATE(A41,"_h_west"),CONCATENATE(A41,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X41" s="1" t="str">
-        <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),CONCATENATE(A41,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),IF(E41="house",CONCATENATE(A41,"_h_south"),CONCATENATE(A41,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>130</v>
@@ -4140,114 +4151,114 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>1870</v>
+        <v>1970</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M42" s="3" t="str">
         <f aca="false">VLOOKUP(L42,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O42" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
-        <v>onsen_k</v>
+        <v>none</v>
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),IF(E42="house",CONCATENATE(A42,"_h_east"),CONCATENATE(A42,"_east")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),CONCATENATE(A42,"_east"))))</f>
+        <v>hospital_k_east</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),IF(E42="house",CONCATENATE(A42,"_h_west"),CONCATENATE(A42,"_west")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),CONCATENATE(A42,"_west"))))</f>
+        <v>hospital_k_west</v>
       </c>
       <c r="X42" s="1" t="str">
-        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),IF(E42="house",CONCATENATE(A42,"_h_south"),CONCATENATE(A42,"_south")))))</f>
-        <v>none</v>
+        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),CONCATENATE(A42,"_south"))))</f>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>1980</v>
+        <v>1870</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>39</v>
@@ -4256,11 +4267,11 @@
         <v>10</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="M43" s="3" t="str">
         <f aca="false">VLOOKUP(L43,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
       <c r="N43" s="1" t="n">
         <v>29</v>
@@ -4269,39 +4280,39 @@
         <v>3</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
-        <v>pachinko_k</v>
+        <v>onsen_k</v>
       </c>
       <c r="U43" s="1" t="str">
         <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V43" s="1" t="str">
-        <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),CONCATENATE(A43,"_east"))))</f>
+        <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),IF(E43="house",CONCATENATE(A43,"_h_east"),CONCATENATE(A43,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),CONCATENATE(A43,"_west"))))</f>
+        <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),IF(E43="house",CONCATENATE(A43,"_h_west"),CONCATENATE(A43,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X43" s="1" t="str">
-        <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),CONCATENATE(A43,"_south"))))</f>
+        <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),IF(E43="house",CONCATENATE(A43,"_h_south"),CONCATENATE(A43,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,68 +4323,68 @@
         <v>138</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="M44" s="3" t="str">
         <f aca="false">VLOOKUP(L44,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(NOT(D44="1X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c"),IF(E44="landmark",CONCATENATE(A44,"_k"),IF(E44="house",CONCATENATE(A44,"_h"),A44))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U44" s="1" t="str">
         <f aca="false">IF(D44="1X1","none",IF(E44="skyscraper",CONCATENATE(A44,"_c_north"),IF(E44="landmark",CONCATENATE(A44,"_k_north"),IF(E44="house",CONCATENATE(A44,"_h_north"),CONCATENATE(A44,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),CONCATENATE(A44,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>none</v>
       </c>
       <c r="W44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),CONCATENATE(A44,"_west"))))</f>
@@ -4389,31 +4400,31 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H45" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H45" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>39</v>
@@ -4422,20 +4433,20 @@
         <v>20</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M45" s="3" t="str">
         <f aca="false">VLOOKUP(L45,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O45" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>10</v>
@@ -4444,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(NOT(D45="1X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c"),IF(E45="landmark",CONCATENATE(A45,"_k"),IF(E45="house",CONCATENATE(A45,"_h"),A45))))</f>
@@ -4452,51 +4463,51 @@
       </c>
       <c r="U45" s="1" t="str">
         <f aca="false">IF(D45="1X1","none",IF(E45="skyscraper",CONCATENATE(A45,"_c_north"),IF(E45="landmark",CONCATENATE(A45,"_k_north"),IF(E45="house",CONCATENATE(A45,"_h_north"),CONCATENATE(A45,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V45" s="1" t="str">
         <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),CONCATENATE(A45,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W45" s="1" t="str">
         <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),CONCATENATE(A45,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X45" s="1" t="str">
         <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),CONCATENATE(A45,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>39</v>
@@ -4505,78 +4516,78 @@
         <v>20</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M46" s="3" t="str">
         <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(NOT(D46="1X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c"),IF(E46="landmark",CONCATENATE(A46,"_k"),IF(E46="house",CONCATENATE(A46,"_h"),A46))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U46" s="1" t="str">
         <f aca="false">IF(D46="1X1","none",IF(E46="skyscraper",CONCATENATE(A46,"_c_north"),IF(E46="landmark",CONCATENATE(A46,"_k_north"),IF(E46="house",CONCATENATE(A46,"_h_north"),CONCATENATE(A46,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V46" s="1" t="str">
         <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),CONCATENATE(A46,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W46" s="1" t="str">
         <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),CONCATENATE(A46,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X46" s="1" t="str">
         <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),CONCATENATE(A46,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>0</v>
@@ -4588,7 +4599,7 @@
         <v>20</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M47" s="3" t="str">
         <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
@@ -4601,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>1</v>
@@ -4610,11 +4621,11 @@
         <v>1</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(NOT(D47="1X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c"),IF(E47="landmark",CONCATENATE(A47,"_k"),IF(E47="house",CONCATENATE(A47,"_h"),A47))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>shrine_k</v>
       </c>
       <c r="U47" s="1" t="str">
         <f aca="false">IF(D47="1X1","none",IF(E47="skyscraper",CONCATENATE(A47,"_c_north"),IF(E47="landmark",CONCATENATE(A47,"_k_north"),IF(E47="house",CONCATENATE(A47,"_h_north"),CONCATENATE(A47,"_north")))))</f>
@@ -4633,36 +4644,36 @@
         <v>none</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>39</v>
@@ -4671,81 +4682,81 @@
         <v>20</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M48" s="3" t="str">
         <f aca="false">VLOOKUP(L48,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O48" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(NOT(D48="1X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c"),IF(E48="landmark",CONCATENATE(A48,"_k"),IF(E48="house",CONCATENATE(A48,"_h"),A48))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U48" s="1" t="str">
         <f aca="false">IF(D48="1X1","none",IF(E48="skyscraper",CONCATENATE(A48,"_c_north"),IF(E48="landmark",CONCATENATE(A48,"_k_north"),IF(E48="house",CONCATENATE(A48,"_h_north"),CONCATENATE(A48,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V48" s="1" t="str">
         <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),CONCATENATE(A48,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W48" s="1" t="str">
         <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),CONCATENATE(A48,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X48" s="1" t="str">
         <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),CONCATENATE(A48,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="1" t="n">
         <v>150</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>208</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>39</v>
@@ -4754,11 +4765,11 @@
         <v>20</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M49" s="3" t="str">
         <f aca="false">VLOOKUP(L49,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>20</v>
@@ -4767,16 +4778,16 @@
         <v>3</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(NOT(D49="1X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c"),IF(E49="landmark",CONCATENATE(A49,"_k"),IF(E49="house",CONCATENATE(A49,"_h"),A49))))</f>
@@ -4784,52 +4795,135 @@
       </c>
       <c r="U49" s="1" t="str">
         <f aca="false">IF(D49="1X1","none",IF(E49="skyscraper",CONCATENATE(A49,"_c_north"),IF(E49="landmark",CONCATENATE(A49,"_k_north"),IF(E49="house",CONCATENATE(A49,"_h_north"),CONCATENATE(A49,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>stadium_k_north</v>
       </c>
       <c r="V49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),CONCATENATE(A49,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>stadium_k_east</v>
       </c>
       <c r="W49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),CONCATENATE(A49,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>stadium_k_west</v>
       </c>
       <c r="X49" s="1" t="str">
         <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),CONCATENATE(A49,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M50" s="3" t="str">
+        <f aca="false">VLOOKUP(L50,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T50" s="1" t="str">
+        <f aca="false">IF(NOT(D50="1X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c"),IF(E50="landmark",CONCATENATE(A50,"_k"),IF(E50="house",CONCATENATE(A50,"_h"),A50))))</f>
+        <v>none</v>
+      </c>
+      <c r="U50" s="1" t="str">
+        <f aca="false">IF(D50="1X1","none",IF(E50="skyscraper",CONCATENATE(A50,"_c_north"),IF(E50="landmark",CONCATENATE(A50,"_k_north"),IF(E50="house",CONCATENATE(A50,"_h_north"),CONCATENATE(A50,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V50" s="1" t="str">
+        <f aca="false">IF(OR(D50="1X1",D50="2X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_east"),IF(E50="landmark",CONCATENATE(A50,"_k_east"),CONCATENATE(A50,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W50" s="1" t="str">
+        <f aca="false">IF(OR(D50="1X1",D50="1X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_west"),IF(E50="landmark",CONCATENATE(A50,"_k_west"),CONCATENATE(A50,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X50" s="1" t="str">
+        <f aca="false">IF(NOT(D50="2X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_south"),IF(E50="landmark",CONCATENATE(A50,"_k_south"),CONCATENATE(A50,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y49" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-      <c r="D50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="S50" s="3"/>
+      <c r="Y50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="D51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="S51" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C38 C40:C1048576">
+  <conditionalFormatting sqref="C1:C39 C41:C1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E22" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L50" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L51" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P50" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P51" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S50" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S51" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4859,16 +4953,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,11 +5600,11 @@
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">IF(C39="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A39,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">IF(C39="Multi-tile",D38-1,MAX(IF(C39="ID not in use",0,IF(C39="1X1",1,IF(C39="2X2",4,2)))-1,0))</f>
@@ -9257,25 +9351,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,13 +9383,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -9318,10 +9412,10 @@
         <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9335,90 +9429,90 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="183">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -99,39 +99,63 @@
     <t xml:space="preserve">con_check_override</t>
   </si>
   <si>
+    <t xml:space="preserve">aoki_office_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoki_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_AOKI_OFFICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PASS, 4],[MAIL, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoki_office_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoki_office_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 only</t>
+  </si>
+  <si>
     <t xml:space="preserve">fukuda_m</t>
   </si>
   <si>
     <t xml:space="preserve">fukuda</t>
   </si>
   <si>
-    <t xml:space="preserve">1X1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME_FUKUDA</t>
   </si>
   <si>
-    <t xml:space="preserve">4,3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PASS, 4],[MAIL, 2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">fukuda_l</t>
   </si>
   <si>
-    <t xml:space="preserve">large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">harada_m</t>
   </si>
   <si>
@@ -141,9 +165,6 @@
     <t xml:space="preserve">NAME_HARADA</t>
   </si>
   <si>
-    <t xml:space="preserve">0xFFFF</t>
-  </si>
-  <si>
     <t xml:space="preserve">harada_l</t>
   </si>
   <si>
@@ -235,12 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">okada_office_tower_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 only</t>
   </si>
   <si>
     <t xml:space="preserve">old_office_building_m</t>
@@ -562,8 +577,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -630,7 +646,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,6 +665,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -682,14 +702,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,7 +825,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -825,16 +845,16 @@
       <c r="I2" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K2" s="4" t="n">
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M2" s="5" t="str">
         <f aca="false">VLOOKUP(L2,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -845,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">VLOOKUP(E2,dropdowns!A:C,2,0)</f>
@@ -856,11 +876,11 @@
         <v>4</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="1" t="str">
         <f aca="false">IF(NOT(D2="1X1"),"none",IF(E2="skyscraper",CONCATENATE(A2,"_c"),IF(E2="landmark",CONCATENATE(A2,"_k"),IF(E2="house",CONCATENATE(A2,"_h"),A2))))</f>
-        <v>fukuda_m</v>
+        <v>aoki_office_m</v>
       </c>
       <c r="U2" s="1" t="str">
         <f aca="false">IF(D2="1X1","none",IF(E2="skyscraper",CONCATENATE(A2,"_c_north"),IF(E2="landmark",CONCATENATE(A2,"_k_north"),IF(E2="house",CONCATENATE(A2,"_h_north"),CONCATENATE(A2,"_north")))))</f>
@@ -879,24 +899,24 @@
         <v>none</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>29</v>
@@ -910,16 +930,16 @@
       <c r="I3" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K3" s="4" t="n">
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="str">
+        <v>36</v>
+      </c>
+      <c r="M3" s="5" t="str">
         <f aca="false">VLOOKUP(L3,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -930,22 +950,20 @@
         <v>4</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <f aca="false">VLOOKUP(E3,dropdowns!A:C,2,0)</f>
         <v>14</v>
       </c>
       <c r="R3" s="1" t="n">
-        <f aca="false">VLOOKUP(E3,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="1" t="str">
         <f aca="false">IF(NOT(D3="1X1"),"none",IF(E3="skyscraper",CONCATENATE(A3,"_c"),IF(E3="landmark",CONCATENATE(A3,"_k"),IF(E3="house",CONCATENATE(A3,"_h"),A3))))</f>
-        <v>fukuda_l</v>
+        <v>aoki_office_l</v>
       </c>
       <c r="U3" s="1" t="str">
         <f aca="false">IF(D3="1X1","none",IF(E3="skyscraper",CONCATENATE(A3,"_c_north"),IF(E3="landmark",CONCATENATE(A3,"_k_north"),IF(E3="house",CONCATENATE(A3,"_h_north"),CONCATENATE(A3,"_north")))))</f>
@@ -964,30 +982,30 @@
         <v>none</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>1</v>
@@ -996,17 +1014,17 @@
         <v>1960</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="str">
+      <c r="M4" s="5" t="str">
         <f aca="false">VLOOKUP(L4,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>27</v>
@@ -1015,22 +1033,20 @@
         <v>4</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <f aca="false">VLOOKUP(E4,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R4" s="1" t="n">
-        <f aca="false">VLOOKUP(E4,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="1" t="str">
         <f aca="false">IF(NOT(D4="1X1"),"none",IF(E4="skyscraper",CONCATENATE(A4,"_c"),IF(E4="landmark",CONCATENATE(A4,"_k"),IF(E4="house",CONCATENATE(A4,"_h"),A4))))</f>
-        <v>harada_m</v>
+        <v>aoki_office_x</v>
       </c>
       <c r="U4" s="1" t="str">
         <f aca="false">IF(D4="1X1","none",IF(E4="skyscraper",CONCATENATE(A4,"_c_north"),IF(E4="landmark",CONCATENATE(A4,"_k_north"),IF(E4="house",CONCATENATE(A4,"_h_north"),CONCATENATE(A4,"_north")))))</f>
@@ -1049,7 +1065,7 @@
         <v>none</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,22 +1073,22 @@
         <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>1</v>
@@ -1080,18 +1096,18 @@
       <c r="I5" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
+      <c r="J5" s="4" t="n">
+        <v>1980</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M5" s="5" t="str">
         <f aca="false">VLOOKUP(L5,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>27</v>
@@ -1100,22 +1116,22 @@
         <v>4</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">VLOOKUP(E5,dropdowns!A:C,2,0)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">VLOOKUP(E5,dropdowns!A:C,3,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="1" t="str">
         <f aca="false">IF(NOT(D5="1X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c"),IF(E5="landmark",CONCATENATE(A5,"_k"),IF(E5="house",CONCATENATE(A5,"_h"),A5))))</f>
-        <v>harada_l</v>
+        <v>fukuda_m</v>
       </c>
       <c r="U5" s="1" t="str">
         <f aca="false">IF(D5="1X1","none",IF(E5="skyscraper",CONCATENATE(A5,"_c_north"),IF(E5="landmark",CONCATENATE(A5,"_k_north"),IF(E5="house",CONCATENATE(A5,"_h_north"),CONCATENATE(A5,"_north")))))</f>
@@ -1134,30 +1150,30 @@
         <v>none</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" s="2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>1</v>
@@ -1165,18 +1181,18 @@
       <c r="I6" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>5</v>
+      <c r="J6" s="4" t="n">
+        <v>1980</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="3" t="str">
+        <v>36</v>
+      </c>
+      <c r="M6" s="5" t="str">
         <f aca="false">VLOOKUP(L6,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>27</v>
@@ -1185,22 +1201,22 @@
         <v>4</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">VLOOKUP(E6,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">VLOOKUP(E6,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="1" t="str">
         <f aca="false">IF(NOT(D6="1X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c"),IF(E6="landmark",CONCATENATE(A6,"_k"),IF(E6="house",CONCATENATE(A6,"_h"),A6))))</f>
-        <v>hayashi_s</v>
+        <v>fukuda_l</v>
       </c>
       <c r="U6" s="1" t="str">
         <f aca="false">IF(D6="1X1","none",IF(E6="skyscraper",CONCATENATE(A6,"_c_north"),IF(E6="landmark",CONCATENATE(A6,"_k_north"),IF(E6="house",CONCATENATE(A6,"_h_north"),CONCATENATE(A6,"_north")))))</f>
@@ -1219,18 +1235,18 @@
         <v>none</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1239,7 +1255,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>100</v>
@@ -1251,15 +1267,15 @@
         <v>1960</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>7</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M7" s="5" t="str">
         <f aca="false">VLOOKUP(L7,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -1270,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">VLOOKUP(E7,dropdowns!A:C,2,0)</f>
@@ -1281,11 +1297,11 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="1" t="str">
         <f aca="false">IF(NOT(D7="1X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c"),IF(E7="landmark",CONCATENATE(A7,"_k"),IF(E7="house",CONCATENATE(A7,"_h"),A7))))</f>
-        <v>hayashi_m</v>
+        <v>harada_m</v>
       </c>
       <c r="U7" s="1" t="str">
         <f aca="false">IF(D7="1X1","none",IF(E7="skyscraper",CONCATENATE(A7,"_c_north"),IF(E7="landmark",CONCATENATE(A7,"_k_north"),IF(E7="house",CONCATENATE(A7,"_h_north"),CONCATENATE(A7,"_north")))))</f>
@@ -1304,7 +1320,7 @@
         <v>none</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,41 +1328,41 @@
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="3" t="str">
+        <v>36</v>
+      </c>
+      <c r="M8" s="5" t="str">
         <f aca="false">VLOOKUP(L8,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>27</v>
@@ -1355,22 +1371,22 @@
         <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">VLOOKUP(E8,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">VLOOKUP(E8,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="1" t="str">
         <f aca="false">IF(NOT(D8="1X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c"),IF(E8="landmark",CONCATENATE(A8,"_k"),IF(E8="house",CONCATENATE(A8,"_h"),A8))))</f>
-        <v>hirano_s</v>
+        <v>harada_l</v>
       </c>
       <c r="U8" s="1" t="str">
         <f aca="false">IF(D8="1X1","none",IF(E8="skyscraper",CONCATENATE(A8,"_c_north"),IF(E8="landmark",CONCATENATE(A8,"_k_north"),IF(E8="house",CONCATENATE(A8,"_h_north"),CONCATENATE(A8,"_north")))))</f>
@@ -1389,49 +1405,49 @@
         <v>none</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="3" t="str">
+        <v>52</v>
+      </c>
+      <c r="M9" s="5" t="str">
         <f aca="false">VLOOKUP(L9,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>27</v>
@@ -1440,22 +1456,22 @@
         <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="false">VLOOKUP(E9,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">VLOOKUP(E9,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="1" t="str">
         <f aca="false">IF(NOT(D9="1X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c"),IF(E9="landmark",CONCATENATE(A9,"_k"),IF(E9="house",CONCATENATE(A9,"_h"),A9))))</f>
-        <v>hirano_m</v>
+        <v>hayashi_s</v>
       </c>
       <c r="U9" s="1" t="str">
         <f aca="false">IF(D9="1X1","none",IF(E9="skyscraper",CONCATENATE(A9,"_c_north"),IF(E9="landmark",CONCATENATE(A9,"_k_north"),IF(E9="house",CONCATENATE(A9,"_h_north"),CONCATENATE(A9,"_north")))))</f>
@@ -1474,49 +1490,49 @@
         <v>none</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>1945</v>
+        <v>1960</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M10" s="5" t="str">
         <f aca="false">VLOOKUP(L10,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>27</v>
@@ -1525,22 +1541,22 @@
         <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="n">
         <f aca="false">VLOOKUP(E10,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R10" s="1" t="n">
         <f aca="false">VLOOKUP(E10,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="1" t="str">
         <f aca="false">IF(NOT(D10="1X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c"),IF(E10="landmark",CONCATENATE(A10,"_k"),IF(E10="house",CONCATENATE(A10,"_h"),A10))))</f>
-        <v>hirata_s</v>
+        <v>hayashi_m</v>
       </c>
       <c r="U10" s="1" t="str">
         <f aca="false">IF(D10="1X1","none",IF(E10="skyscraper",CONCATENATE(A10,"_c_north"),IF(E10="landmark",CONCATENATE(A10,"_k_north"),IF(E10="house",CONCATENATE(A10,"_h_north"),CONCATENATE(A10,"_north")))))</f>
@@ -1559,7 +1575,7 @@
         <v>none</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,41 +1583,41 @@
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="3" t="str">
+        <v>52</v>
+      </c>
+      <c r="M11" s="5" t="str">
         <f aca="false">VLOOKUP(L11,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>27</v>
@@ -1610,22 +1626,22 @@
         <v>4</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="n">
         <f aca="false">VLOOKUP(E11,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R11" s="1" t="n">
         <f aca="false">VLOOKUP(E11,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="1" t="str">
         <f aca="false">IF(NOT(D11="1X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c"),IF(E11="landmark",CONCATENATE(A11,"_k"),IF(E11="house",CONCATENATE(A11,"_h"),A11))))</f>
-        <v>hirata_m</v>
+        <v>hirano_s</v>
       </c>
       <c r="U11" s="1" t="str">
         <f aca="false">IF(D11="1X1","none",IF(E11="skyscraper",CONCATENATE(A11,"_c_north"),IF(E11="landmark",CONCATENATE(A11,"_k_north"),IF(E11="house",CONCATENATE(A11,"_h_north"),CONCATENATE(A11,"_north")))))</f>
@@ -1644,49 +1660,49 @@
         <v>none</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="2" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M12" s="5" t="str">
         <f aca="false">VLOOKUP(L12,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>27</v>
@@ -1695,22 +1711,22 @@
         <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="1" t="n">
         <f aca="false">VLOOKUP(E12,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R12" s="1" t="n">
         <f aca="false">VLOOKUP(E12,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="1" t="str">
         <f aca="false">IF(NOT(D12="1X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c"),IF(E12="landmark",CONCATENATE(A12,"_k"),IF(E12="house",CONCATENATE(A12,"_h"),A12))))</f>
-        <v>kimura_s</v>
+        <v>hirano_m</v>
       </c>
       <c r="U12" s="1" t="str">
         <f aca="false">IF(D12="1X1","none",IF(E12="skyscraper",CONCATENATE(A12,"_c_north"),IF(E12="landmark",CONCATENATE(A12,"_k_north"),IF(E12="house",CONCATENATE(A12,"_h_north"),CONCATENATE(A12,"_north")))))</f>
@@ -1729,7 +1745,7 @@
         <v>none</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,41 +1753,41 @@
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="3" t="str">
+        <v>52</v>
+      </c>
+      <c r="M13" s="5" t="str">
         <f aca="false">VLOOKUP(L13,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>27</v>
@@ -1780,22 +1796,22 @@
         <v>4</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="1" t="n">
         <f aca="false">VLOOKUP(E13,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R13" s="1" t="n">
         <f aca="false">VLOOKUP(E13,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="1" t="str">
         <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),IF(E13="landmark",CONCATENATE(A13,"_k"),IF(E13="house",CONCATENATE(A13,"_h"),A13))))</f>
-        <v>kimura_m</v>
+        <v>hirata_s</v>
       </c>
       <c r="U13" s="1" t="str">
         <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),IF(E13="house",CONCATENATE(A13,"_h_north"),CONCATENATE(A13,"_north")))))</f>
@@ -1814,30 +1830,30 @@
         <v>none</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="2" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
@@ -1846,17 +1862,17 @@
         <v>1945</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M14" s="5" t="str">
         <f aca="false">VLOOKUP(L14,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>27</v>
@@ -1865,22 +1881,22 @@
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">VLOOKUP(E14,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R14" s="1" t="n">
         <f aca="false">VLOOKUP(E14,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="1" t="str">
         <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),IF(E14="landmark",CONCATENATE(A14,"_k"),IF(E14="house",CONCATENATE(A14,"_h"),A14))))</f>
-        <v>murakami_s</v>
+        <v>hirata_m</v>
       </c>
       <c r="U14" s="1" t="str">
         <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),IF(E14="house",CONCATENATE(A14,"_h_north"),CONCATENATE(A14,"_north")))))</f>
@@ -1899,7 +1915,7 @@
         <v>none</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,41 +1923,41 @@
         <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="3" t="str">
+        <v>52</v>
+      </c>
+      <c r="M15" s="5" t="str">
         <f aca="false">VLOOKUP(L15,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>27</v>
@@ -1950,22 +1966,22 @@
         <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="1" t="n">
         <f aca="false">VLOOKUP(E15,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R15" s="1" t="n">
         <f aca="false">VLOOKUP(E15,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="1" t="str">
         <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),IF(E15="landmark",CONCATENATE(A15,"_k"),IF(E15="house",CONCATENATE(A15,"_h"),A15))))</f>
-        <v>murakami_m</v>
+        <v>kimura_s</v>
       </c>
       <c r="U15" s="1" t="str">
         <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),IF(E15="house",CONCATENATE(A15,"_h_north"),CONCATENATE(A15,"_north")))))</f>
@@ -1984,18 +2000,18 @@
         <v>none</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" s="2" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -2004,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>100</v>
@@ -2016,15 +2032,15 @@
         <v>1950</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M16" s="5" t="str">
         <f aca="false">VLOOKUP(L16,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -2035,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="1" t="n">
         <f aca="false">VLOOKUP(E16,dropdowns!A:C,2,0)</f>
@@ -2046,11 +2062,11 @@
         <v>4</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>nakayama_m</v>
+        <v>kimura_m</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
@@ -2069,7 +2085,7 @@
         <v>none</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,38 +2096,38 @@
         <v>67</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="3" t="str">
+        <v>52</v>
+      </c>
+      <c r="M17" s="5" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>27</v>
@@ -2120,22 +2136,22 @@
         <v>4</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="1" t="n">
         <f aca="false">VLOOKUP(E17,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">VLOOKUP(E17,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>okada_office_tower_m</v>
+        <v>murakami_s</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
@@ -2154,7 +2170,7 @@
         <v>none</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,38 +2181,38 @@
         <v>67</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M18" s="5" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>27</v>
@@ -2205,20 +2221,22 @@
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>14</v>
+        <f aca="false">VLOOKUP(E18,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E18,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>okada_office_tower_l</v>
+        <v>murakami_m</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
@@ -2237,7 +2255,7 @@
         <v>none</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,41 +2263,41 @@
         <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M19" s="5" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>27</v>
@@ -2288,20 +2306,22 @@
         <v>4</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>16</v>
+        <f aca="false">VLOOKUP(E19,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E19,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>okada_office_tower_x</v>
+        <v>nakayama_m</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
@@ -2320,7 +2340,7 @@
         <v>none</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2351,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
@@ -2349,18 +2369,18 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M20" s="5" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
@@ -2371,20 +2391,22 @@
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="1" t="n">
+        <f aca="false">VLOOKUP(E20,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R20" s="1" t="n">
+        <f aca="false">VLOOKUP(E20,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>old_office_building_m</v>
+        <v>okada_office_tower_m</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
@@ -2403,7 +2425,7 @@
         <v>none</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,13 +2436,13 @@
         <v>74</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>75</v>
@@ -2432,18 +2454,18 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="3" t="str">
+        <v>36</v>
+      </c>
+      <c r="M21" s="5" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
@@ -2454,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>14</v>
@@ -2463,11 +2485,11 @@
         <v>5</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>old_office_building_l</v>
+        <v>okada_office_tower_l</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
@@ -2486,7 +2508,7 @@
         <v>none</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,41 +2516,41 @@
         <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="3" t="str">
+      <c r="M22" s="5" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>27</v>
@@ -2537,20 +2559,20 @@
         <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>yano_m</v>
+        <v>okada_office_tower_x</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
@@ -2569,71 +2591,71 @@
         <v>none</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G23" s="1" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1980</v>
+        <v>1945</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M23" s="5" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>bank_building_c</v>
+        <v>old_office_building_m</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
@@ -2652,71 +2674,71 @@
         <v>none</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G24" s="1" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1990</v>
+        <v>1945</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="3" t="str">
+        <v>36</v>
+      </c>
+      <c r="M24" s="5" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="P24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q24" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="S24" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>enterprise_tower_c</v>
+        <v>old_office_building_l</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
@@ -2735,71 +2757,71 @@
         <v>none</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>80</v>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="3" t="str">
+        <v>31</v>
+      </c>
+      <c r="M25" s="5" t="str">
         <f aca="false">VLOOKUP(L25,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N25" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O25" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P25" s="3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>insurance_tower_c</v>
+        <v>yano_m</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
@@ -2818,27 +2840,27 @@
         <v>none</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>220</v>
@@ -2847,42 +2869,42 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M26" s="5" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>kuroi_tower_c</v>
+        <v>bank_building_c</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
@@ -2901,27 +2923,27 @@
         <v>none</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>220</v>
@@ -2930,18 +2952,18 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M27" s="5" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -2952,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>24</v>
@@ -2961,11 +2983,11 @@
         <v>10</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>mitsui_tower_c</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
@@ -2984,47 +3006,47 @@
         <v>none</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M28" s="5" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3035,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>24</v>
@@ -3044,11 +3066,11 @@
         <v>10</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>modern_office_tower_c</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3067,27 +3089,27 @@
         <v>none</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>220</v>
@@ -3096,18 +3118,18 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M29" s="5" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>24</v>
@@ -3127,11 +3149,11 @@
         <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>multimedia_offices_c</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
@@ -3150,27 +3172,27 @@
         <v>none</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>220</v>
@@ -3182,15 +3204,15 @@
         <v>2000</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M30" s="5" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3201,7 +3223,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>24</v>
@@ -3210,11 +3232,11 @@
         <v>10</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>office_tower_c</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
@@ -3233,47 +3255,47 @@
         <v>none</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M31" s="5" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3284,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>24</v>
@@ -3293,11 +3315,11 @@
         <v>10</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>sato_building_c</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
@@ -3316,30 +3338,30 @@
         <v>none</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1</v>
@@ -3348,15 +3370,15 @@
         <v>1990</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M32" s="5" t="str">
         <f aca="false">VLOOKUP(L32,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3367,7 +3389,7 @@
         <v>5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>24</v>
@@ -3376,11 +3398,11 @@
         <v>10</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>sugiyama_office_building_c</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
@@ -3399,58 +3421,58 @@
         <v>none</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G33" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M33" s="5" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>24</v>
@@ -3459,19 +3481,19 @@
         <v>10</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>none</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="2X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_east"),IF(E33="landmark",CONCATENATE(A33,"_k_east"),CONCATENATE(A33,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W33" s="1" t="str">
         <f aca="false">IF(OR(D33="1X1",D33="1X2"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c_west"),IF(E33="landmark",CONCATENATE(A33,"_k_west"),CONCATENATE(A33,"_west"))))</f>
@@ -3482,27 +3504,27 @@
         <v>none</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>200</v>
@@ -3511,18 +3533,18 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J34" s="4" t="n">
-        <v>1989</v>
+        <v>1960</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M34" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M34" s="5" t="str">
         <f aca="false">VLOOKUP(L34,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>24</v>
@@ -3542,11 +3564,11 @@
         <v>10</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>ueda_office_block_c</v>
+        <v>sato_building_c</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
@@ -3565,47 +3587,47 @@
         <v>none</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>1965</v>
+        <v>1990</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M35" s="5" t="str">
         <f aca="false">VLOOKUP(L35,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3616,20 +3638,20 @@
         <v>5</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>yamaguchi_office_c</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
@@ -3648,27 +3670,27 @@
         <v>none</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>255</v>
@@ -3677,18 +3699,18 @@
         <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M36" s="5" t="str">
         <f aca="false">VLOOKUP(L36,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3699,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>24</v>
@@ -3708,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
@@ -3716,11 +3738,11 @@
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
-        <v>yamashiro_office_building_c_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
-        <v>yamashiro_office_building_c_east</v>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
@@ -3731,47 +3753,47 @@
         <v>none</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>39</v>
+        <v>1955</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>1989</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>25</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M37" s="3" t="str">
+        <v>39</v>
+      </c>
+      <c r="M37" s="5" t="str">
         <f aca="false">VLOOKUP(L37,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
@@ -3782,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>24</v>
@@ -3791,11 +3813,11 @@
         <v>10</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>yamashita_building_c</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
@@ -3814,316 +3836,316 @@
         <v>none</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G38" s="1" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>1965</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="5" t="str">
+        <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" s="3" t="str">
-        <f aca="false">VLOOKUP(L38,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="P38" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
-        <v>none</v>
+        <v>yamaguchi_office_c</v>
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>none</v>
       </c>
       <c r="V38" s="1" t="str">
-        <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),IF(E38="house",CONCATENATE(A38,"_h_east"),CONCATENATE(A38,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
+        <v>none</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),IF(E38="house",CONCATENATE(A38,"_h_west"),CONCATENATE(A38,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X38" s="1" t="str">
-        <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),IF(E38="house",CONCATENATE(A38,"_h_south"),CONCATENATE(A38,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D38="2X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_south"),IF(E38="landmark",CONCATENATE(A38,"_k_south"),CONCATENATE(A38,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G39" s="1" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="H39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="5" t="str">
+        <f aca="false">VLOOKUP(L39,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O39" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <v>1870</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M39" s="3" t="str">
-        <f aca="false">VLOOKUP(L39,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" s="3" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
-        <v>none</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V39" s="1" t="str">
-        <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),IF(E39="house",CONCATENATE(A39,"_h_east"),CONCATENATE(A39,"_east")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),CONCATENATE(A39,"_east"))))</f>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),IF(E39="house",CONCATENATE(A39,"_h_west"),CONCATENATE(A39,"_west")))))</f>
+        <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),CONCATENATE(A39,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X39" s="1" t="str">
-        <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),IF(E39="house",CONCATENATE(A39,"_h_south"),CONCATENATE(A39,"_south")))))</f>
+        <f aca="false">IF(NOT(D39="2X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_south"),IF(E39="landmark",CONCATENATE(A39,"_k_south"),CONCATENATE(A39,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>95</v>
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H40" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="H40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I40" s="0" t="n">
-        <v>1950</v>
+      <c r="I40" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="M40" s="5" t="str">
+        <f aca="false">VLOOKUP(L40,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M40" s="3" t="str">
-        <f aca="false">VLOOKUP(L40,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="P40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" s="0" t="n">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
-        <v>convini_k</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V40" s="1" t="str">
-        <f aca="false">IF(OR(D40="1X1",D40="2X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_east"),IF(E40="landmark",CONCATENATE(A40,"_k_east"),IF(E40="house",CONCATENATE(A40,"_h_east"),CONCATENATE(A40,"_east")))))</f>
+        <f aca="false">IF(OR(D40="1X1",D40="2X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_east"),IF(E40="landmark",CONCATENATE(A40,"_k_east"),CONCATENATE(A40,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f aca="false">IF(OR(D40="1X1",D40="1X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_west"),IF(E40="landmark",CONCATENATE(A40,"_k_west"),IF(E40="house",CONCATENATE(A40,"_h_west"),CONCATENATE(A40,"_west")))))</f>
+        <f aca="false">IF(OR(D40="1X1",D40="1X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_west"),IF(E40="landmark",CONCATENATE(A40,"_k_west"),CONCATENATE(A40,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X40" s="1" t="str">
-        <f aca="false">IF(NOT(D40="2X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_south"),IF(E40="landmark",CONCATENATE(A40,"_k_south"),IF(E40="house",CONCATENATE(A40,"_h_south"),CONCATENATE(A40,"_south")))))</f>
-        <v>none</v>
-      </c>
-      <c r="Y40" s="0" t="s">
-        <v>129</v>
+        <f aca="false">IF(NOT(D40="2X2"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c_south"),IF(E40="landmark",CONCATENATE(A40,"_k_south"),CONCATENATE(A40,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M41" s="3" t="str">
+      <c r="M41" s="5" t="str">
         <f aca="false">VLOOKUP(L41,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
@@ -4131,169 +4153,169 @@
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),IF(E41="house",CONCATENATE(A41,"_h_east"),CONCATENATE(A41,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),IF(E41="house",CONCATENATE(A41,"_h_west"),CONCATENATE(A41,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X41" s="1" t="str">
         <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),IF(E41="house",CONCATENATE(A41,"_h_south"),CONCATENATE(A41,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" s="3" t="str">
+        <v>127</v>
+      </c>
+      <c r="M42" s="5" t="str">
         <f aca="false">VLOOKUP(L42,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),CONCATENATE(A42,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),IF(E42="house",CONCATENATE(A42,"_h_east"),CONCATENATE(A42,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),CONCATENATE(A42,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),IF(E42="house",CONCATENATE(A42,"_h_west"),CONCATENATE(A42,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X42" s="1" t="str">
-        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),CONCATENATE(A42,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),IF(E42="house",CONCATENATE(A42,"_h_south"),CONCATENATE(A42,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>93</v>
+      <c r="C43" s="6" t="n">
+        <v>95</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H43" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I43" s="1" t="n">
-        <v>1870</v>
+      <c r="I43" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M43" s="3" t="str">
+        <v>132</v>
+      </c>
+      <c r="M43" s="5" t="str">
         <f aca="false">VLOOKUP(L43,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="N43" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="O43" s="1" t="n">
+      <c r="O43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R43" s="1" t="n">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
-        <v>onsen_k</v>
+        <v>convini_k</v>
       </c>
       <c r="U43" s="1" t="str">
         <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
@@ -4311,114 +4333,114 @@
         <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),IF(E43="house",CONCATENATE(A43,"_h_south"),CONCATENATE(A43,"_south")))))</f>
         <v>none</v>
       </c>
-      <c r="Y43" s="1" t="s">
-        <v>129</v>
+      <c r="Y43" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44" s="3" t="str">
+        <v>127</v>
+      </c>
+      <c r="M44" s="5" t="str">
         <f aca="false">VLOOKUP(L44,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="O44" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(NOT(D44="1X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c"),IF(E44="landmark",CONCATENATE(A44,"_k"),IF(E44="house",CONCATENATE(A44,"_h"),A44))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U44" s="1" t="str">
         <f aca="false">IF(D44="1X1","none",IF(E44="skyscraper",CONCATENATE(A44,"_c_north"),IF(E44="landmark",CONCATENATE(A44,"_k_north"),IF(E44="house",CONCATENATE(A44,"_h_north"),CONCATENATE(A44,"_north")))))</f>
-        <v>none</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V44" s="1" t="str">
-        <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),CONCATENATE(A44,"_east"))))</f>
+        <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),IF(E44="house",CONCATENATE(A44,"_h_east"),CONCATENATE(A44,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),CONCATENATE(A44,"_west"))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),IF(E44="house",CONCATENATE(A44,"_h_west"),CONCATENATE(A44,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X44" s="1" t="str">
-        <f aca="false">IF(NOT(D44="2X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_south"),IF(E44="landmark",CONCATENATE(A44,"_k_south"),CONCATENATE(A44,"_south"))))</f>
+        <f aca="false">IF(NOT(D44="2X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_south"),IF(E44="landmark",CONCATENATE(A44,"_k_south"),IF(E44="house",CONCATENATE(A44,"_h_south"),CONCATENATE(A44,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>3</v>
@@ -4427,35 +4449,35 @@
         <v>1970</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>20</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="3" t="str">
+        <v>140</v>
+      </c>
+      <c r="M45" s="5" t="str">
         <f aca="false">VLOOKUP(L45,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O45" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(NOT(D45="1X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c"),IF(E45="landmark",CONCATENATE(A45,"_k"),IF(E45="house",CONCATENATE(A45,"_h"),A45))))</f>
@@ -4463,169 +4485,169 @@
       </c>
       <c r="U45" s="1" t="str">
         <f aca="false">IF(D45="1X1","none",IF(E45="skyscraper",CONCATENATE(A45,"_c_north"),IF(E45="landmark",CONCATENATE(A45,"_k_north"),IF(E45="house",CONCATENATE(A45,"_h_north"),CONCATENATE(A45,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V45" s="1" t="str">
         <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),CONCATENATE(A45,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W45" s="1" t="str">
         <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),CONCATENATE(A45,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X45" s="1" t="str">
         <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),CONCATENATE(A45,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M46" s="5" t="str">
+        <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O46" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I46" s="1" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M46" s="3" t="str">
-        <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(NOT(D46="1X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c"),IF(E46="landmark",CONCATENATE(A46,"_k"),IF(E46="house",CONCATENATE(A46,"_h"),A46))))</f>
-        <v>none</v>
+        <v>onsen_k</v>
       </c>
       <c r="U46" s="1" t="str">
         <f aca="false">IF(D46="1X1","none",IF(E46="skyscraper",CONCATENATE(A46,"_c_north"),IF(E46="landmark",CONCATENATE(A46,"_k_north"),IF(E46="house",CONCATENATE(A46,"_h_north"),CONCATENATE(A46,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>none</v>
       </c>
       <c r="V46" s="1" t="str">
-        <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),CONCATENATE(A46,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),IF(E46="house",CONCATENATE(A46,"_h_east"),CONCATENATE(A46,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),CONCATENATE(A46,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),IF(E46="house",CONCATENATE(A46,"_h_west"),CONCATENATE(A46,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X46" s="1" t="str">
-        <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),CONCATENATE(A46,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),IF(E46="house",CONCATENATE(A46,"_h_south"),CONCATENATE(A46,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="5" t="str">
+        <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="R47" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M47" s="3" t="str">
-        <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S47" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(NOT(D47="1X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c"),IF(E47="landmark",CONCATENATE(A47,"_k"),IF(E47="house",CONCATENATE(A47,"_h"),A47))))</f>
-        <v>shrine_k</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U47" s="1" t="str">
         <f aca="false">IF(D47="1X1","none",IF(E47="skyscraper",CONCATENATE(A47,"_c_north"),IF(E47="landmark",CONCATENATE(A47,"_k_north"),IF(E47="house",CONCATENATE(A47,"_h_north"),CONCATENATE(A47,"_north")))))</f>
@@ -4644,79 +4666,79 @@
         <v>none</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>20</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M48" s="3" t="str">
+        <v>127</v>
+      </c>
+      <c r="M48" s="5" t="str">
         <f aca="false">VLOOKUP(L48,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O48" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O48" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(NOT(D48="1X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c"),IF(E48="landmark",CONCATENATE(A48,"_k"),IF(E48="house",CONCATENATE(A48,"_h"),A48))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>none</v>
       </c>
       <c r="U48" s="1" t="str">
         <f aca="false">IF(D48="1X1","none",IF(E48="skyscraper",CONCATENATE(A48,"_c_north"),IF(E48="landmark",CONCATENATE(A48,"_k_north"),IF(E48="house",CONCATENATE(A48,"_h_north"),CONCATENATE(A48,"_north")))))</f>
-        <v>none</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V48" s="1" t="str">
         <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),CONCATENATE(A48,"_east"))))</f>
-        <v>none</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W48" s="1" t="str">
         <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),CONCATENATE(A48,"_west"))))</f>
@@ -4727,67 +4749,67 @@
         <v>none</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H49" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>20</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M49" s="3" t="str">
+        <v>140</v>
+      </c>
+      <c r="M49" s="5" t="str">
         <f aca="false">VLOOKUP(L49,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N49" s="1" t="n">
+      <c r="N49" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O49" s="1" t="n">
+      <c r="O49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(NOT(D49="1X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c"),IF(E49="landmark",CONCATENATE(A49,"_k"),IF(E49="house",CONCATENATE(A49,"_h"),A49))))</f>
@@ -4795,135 +4817,384 @@
       </c>
       <c r="U49" s="1" t="str">
         <f aca="false">IF(D49="1X1","none",IF(E49="skyscraper",CONCATENATE(A49,"_c_north"),IF(E49="landmark",CONCATENATE(A49,"_k_north"),IF(E49="house",CONCATENATE(A49,"_h_north"),CONCATENATE(A49,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),CONCATENATE(A49,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),CONCATENATE(A49,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X49" s="1" t="str">
         <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),CONCATENATE(A49,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>20</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M50" s="3" t="str">
+        <v>152</v>
+      </c>
+      <c r="M50" s="5" t="str">
         <f aca="false">VLOOKUP(L50,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="N50" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O50" s="1" t="n">
+      <c r="N50" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="T50" s="1" t="str">
         <f aca="false">IF(NOT(D50="1X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c"),IF(E50="landmark",CONCATENATE(A50,"_k"),IF(E50="house",CONCATENATE(A50,"_h"),A50))))</f>
-        <v>none</v>
+        <v>shrine_k</v>
       </c>
       <c r="U50" s="1" t="str">
         <f aca="false">IF(D50="1X1","none",IF(E50="skyscraper",CONCATENATE(A50,"_c_north"),IF(E50="landmark",CONCATENATE(A50,"_k_north"),IF(E50="house",CONCATENATE(A50,"_h_north"),CONCATENATE(A50,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>none</v>
       </c>
       <c r="V50" s="1" t="str">
         <f aca="false">IF(OR(D50="1X1",D50="2X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_east"),IF(E50="landmark",CONCATENATE(A50,"_k_east"),CONCATENATE(A50,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>none</v>
       </c>
       <c r="W50" s="1" t="str">
         <f aca="false">IF(OR(D50="1X1",D50="1X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_west"),IF(E50="landmark",CONCATENATE(A50,"_k_west"),CONCATENATE(A50,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X50" s="1" t="str">
         <f aca="false">IF(NOT(D50="2X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_south"),IF(E50="landmark",CONCATENATE(A50,"_k_south"),CONCATENATE(A50,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M51" s="5" t="str">
+        <f aca="false">VLOOKUP(L51,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T51" s="1" t="str">
+        <f aca="false">IF(NOT(D51="1X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c"),IF(E51="landmark",CONCATENATE(A51,"_k"),IF(E51="house",CONCATENATE(A51,"_h"),A51))))</f>
+        <v>shrine_prohibition_k</v>
+      </c>
+      <c r="U51" s="1" t="str">
+        <f aca="false">IF(D51="1X1","none",IF(E51="skyscraper",CONCATENATE(A51,"_c_north"),IF(E51="landmark",CONCATENATE(A51,"_k_north"),IF(E51="house",CONCATENATE(A51,"_h_north"),CONCATENATE(A51,"_north")))))</f>
+        <v>none</v>
+      </c>
+      <c r="V51" s="1" t="str">
+        <f aca="false">IF(OR(D51="1X1",D51="2X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_east"),IF(E51="landmark",CONCATENATE(A51,"_k_east"),CONCATENATE(A51,"_east"))))</f>
+        <v>none</v>
+      </c>
+      <c r="W51" s="1" t="str">
+        <f aca="false">IF(OR(D51="1X1",D51="1X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_west"),IF(E51="landmark",CONCATENATE(A51,"_k_west"),CONCATENATE(A51,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X51" s="1" t="str">
+        <f aca="false">IF(NOT(D51="2X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_south"),IF(E51="landmark",CONCATENATE(A51,"_k_south"),CONCATENATE(A51,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M52" s="5" t="str">
+        <f aca="false">VLOOKUP(L52,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T52" s="1" t="str">
+        <f aca="false">IF(NOT(D52="1X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c"),IF(E52="landmark",CONCATENATE(A52,"_k"),IF(E52="house",CONCATENATE(A52,"_h"),A52))))</f>
+        <v>none</v>
+      </c>
+      <c r="U52" s="1" t="str">
+        <f aca="false">IF(D52="1X1","none",IF(E52="skyscraper",CONCATENATE(A52,"_c_north"),IF(E52="landmark",CONCATENATE(A52,"_k_north"),IF(E52="house",CONCATENATE(A52,"_h_north"),CONCATENATE(A52,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V52" s="1" t="str">
+        <f aca="false">IF(OR(D52="1X1",D52="2X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_east"),IF(E52="landmark",CONCATENATE(A52,"_k_east"),CONCATENATE(A52,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W52" s="1" t="str">
+        <f aca="false">IF(OR(D52="1X1",D52="1X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_west"),IF(E52="landmark",CONCATENATE(A52,"_k_west"),CONCATENATE(A52,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X52" s="1" t="str">
+        <f aca="false">IF(NOT(D52="2X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_south"),IF(E52="landmark",CONCATENATE(A52,"_k_south"),CONCATENATE(A52,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M53" s="5" t="str">
+        <f aca="false">VLOOKUP(L53,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T53" s="1" t="str">
+        <f aca="false">IF(NOT(D53="1X1"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c"),IF(E53="landmark",CONCATENATE(A53,"_k"),IF(E53="house",CONCATENATE(A53,"_h"),A53))))</f>
+        <v>none</v>
+      </c>
+      <c r="U53" s="1" t="str">
+        <f aca="false">IF(D53="1X1","none",IF(E53="skyscraper",CONCATENATE(A53,"_c_north"),IF(E53="landmark",CONCATENATE(A53,"_k_north"),IF(E53="house",CONCATENATE(A53,"_h_north"),CONCATENATE(A53,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V53" s="1" t="str">
+        <f aca="false">IF(OR(D53="1X1",D53="2X1"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_east"),IF(E53="landmark",CONCATENATE(A53,"_k_east"),CONCATENATE(A53,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W53" s="1" t="str">
+        <f aca="false">IF(OR(D53="1X1",D53="1X2"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_west"),IF(E53="landmark",CONCATENATE(A53,"_k_west"),CONCATENATE(A53,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X53" s="1" t="str">
+        <f aca="false">IF(NOT(D53="2X2"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_south"),IF(E53="landmark",CONCATENATE(A53,"_k_south"),CONCATENATE(A53,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y50" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="D51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="S51" s="3"/>
+      <c r="Y53" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="D54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5"/>
+      <c r="P54" s="3"/>
+      <c r="S54" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C39 C41:C1048576">
+  <conditionalFormatting sqref="C1:C42 C44:C1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E22" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E25" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L51" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L54" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P51" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P54" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S51" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S54" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4945,7 +5216,7 @@
   </sheetPr>
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H194" activeCellId="0" sqref="H194"/>
     </sheetView>
   </sheetViews>
@@ -4953,16 +5224,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7062,11 +7333,11 @@
       </c>
       <c r="B125" s="1" t="str">
         <f aca="false">IF(C125="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A125,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D125" s="1" t="n">
         <f aca="false">IF(C125="Multi-tile",D124-1,MAX(IF(C125="ID not in use",0,IF(C125="1X1",1,IF(C125="2X2",4,2)))-1,0))</f>
@@ -7079,11 +7350,11 @@
       </c>
       <c r="B126" s="1" t="str">
         <f aca="false">IF(C126="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A126,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D126" s="1" t="n">
         <f aca="false">IF(C126="Multi-tile",D125-1,MAX(IF(C126="ID not in use",0,IF(C126="1X1",1,IF(C126="2X2",4,2)))-1,0))</f>
@@ -7096,11 +7367,11 @@
       </c>
       <c r="B127" s="1" t="str">
         <f aca="false">IF(C127="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A127,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D127" s="1" t="n">
         <f aca="false">IF(C127="Multi-tile",D126-1,MAX(IF(C127="ID not in use",0,IF(C127="1X1",1,IF(C127="2X2",4,2)))-1,0))</f>
@@ -9351,30 +9622,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -9383,16 +9654,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9406,21 +9677,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>168</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>14</v>
@@ -9429,90 +9700,90 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>171</v>
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>174</v>
+        <v>127</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="187">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t xml:space="preserve">4 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoyama_office_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoyama_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_AOYAMA_OFFICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoyama_office_l</t>
   </si>
   <si>
     <t xml:space="preserve">fukuda_m</t>
@@ -702,14 +714,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,7 +1088,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1094,12 +1106,12 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K5" s="4" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1131,7 +1143,7 @@
       </c>
       <c r="T5" s="1" t="str">
         <f aca="false">IF(NOT(D5="1X1"),"none",IF(E5="skyscraper",CONCATENATE(A5,"_c"),IF(E5="landmark",CONCATENATE(A5,"_k"),IF(E5="house",CONCATENATE(A5,"_h"),A5))))</f>
-        <v>fukuda_m</v>
+        <v>aoyama_office_m</v>
       </c>
       <c r="U5" s="1" t="str">
         <f aca="false">IF(D5="1X1","none",IF(E5="skyscraper",CONCATENATE(A5,"_c_north"),IF(E5="landmark",CONCATENATE(A5,"_k_north"),IF(E5="house",CONCATENATE(A5,"_h_north"),CONCATENATE(A5,"_north")))))</f>
@@ -1161,7 +1173,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1179,12 +1191,12 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1980</v>
-      </c>
-      <c r="K6" s="4" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1204,11 +1216,9 @@
         <v>32</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <f aca="false">VLOOKUP(E6,dropdowns!A:C,2,0)</f>
         <v>14</v>
       </c>
       <c r="R6" s="1" t="n">
-        <f aca="false">VLOOKUP(E6,dropdowns!A:C,3,0)</f>
         <v>5</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -1216,7 +1226,7 @@
       </c>
       <c r="T6" s="1" t="str">
         <f aca="false">IF(NOT(D6="1X1"),"none",IF(E6="skyscraper",CONCATENATE(A6,"_c"),IF(E6="landmark",CONCATENATE(A6,"_k"),IF(E6="house",CONCATENATE(A6,"_h"),A6))))</f>
-        <v>fukuda_l</v>
+        <v>aoyama_office_l</v>
       </c>
       <c r="U6" s="1" t="str">
         <f aca="false">IF(D6="1X1","none",IF(E6="skyscraper",CONCATENATE(A6,"_c_north"),IF(E6="landmark",CONCATENATE(A6,"_k_north"),IF(E6="house",CONCATENATE(A6,"_h_north"),CONCATENATE(A6,"_north")))))</f>
@@ -1246,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1266,8 +1276,8 @@
       <c r="I7" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>30</v>
+      <c r="J7" s="4" t="n">
+        <v>1980</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>7</v>
@@ -1301,7 +1311,7 @@
       </c>
       <c r="T7" s="1" t="str">
         <f aca="false">IF(NOT(D7="1X1"),"none",IF(E7="skyscraper",CONCATENATE(A7,"_c"),IF(E7="landmark",CONCATENATE(A7,"_k"),IF(E7="house",CONCATENATE(A7,"_h"),A7))))</f>
-        <v>harada_m</v>
+        <v>fukuda_m</v>
       </c>
       <c r="U7" s="1" t="str">
         <f aca="false">IF(D7="1X1","none",IF(E7="skyscraper",CONCATENATE(A7,"_c_north"),IF(E7="landmark",CONCATENATE(A7,"_k_north"),IF(E7="house",CONCATENATE(A7,"_h_north"),CONCATENATE(A7,"_north")))))</f>
@@ -1331,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -1351,8 +1361,8 @@
       <c r="I8" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>30</v>
+      <c r="J8" s="4" t="n">
+        <v>1980</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>10</v>
@@ -1386,7 +1396,7 @@
       </c>
       <c r="T8" s="1" t="str">
         <f aca="false">IF(NOT(D8="1X1"),"none",IF(E8="skyscraper",CONCATENATE(A8,"_c"),IF(E8="landmark",CONCATENATE(A8,"_k"),IF(E8="house",CONCATENATE(A8,"_h"),A8))))</f>
-        <v>harada_l</v>
+        <v>fukuda_l</v>
       </c>
       <c r="U8" s="1" t="str">
         <f aca="false">IF(D8="1X1","none",IF(E8="skyscraper",CONCATENATE(A8,"_c_north"),IF(E8="landmark",CONCATENATE(A8,"_k_north"),IF(E8="house",CONCATENATE(A8,"_h_north"),CONCATENATE(A8,"_north")))))</f>
@@ -1416,19 +1426,19 @@
         <v>49</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" s="1" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
@@ -1439,15 +1449,15 @@
       <c r="J9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>5</v>
+      <c r="K9" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M9" s="5" t="str">
         <f aca="false">VLOOKUP(L9,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>27</v>
@@ -1460,18 +1470,18 @@
       </c>
       <c r="Q9" s="1" t="n">
         <f aca="false">VLOOKUP(E9,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">VLOOKUP(E9,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T9" s="1" t="str">
         <f aca="false">IF(NOT(D9="1X1"),"none",IF(E9="skyscraper",CONCATENATE(A9,"_c"),IF(E9="landmark",CONCATENATE(A9,"_k"),IF(E9="house",CONCATENATE(A9,"_h"),A9))))</f>
-        <v>hayashi_s</v>
+        <v>harada_m</v>
       </c>
       <c r="U9" s="1" t="str">
         <f aca="false">IF(D9="1X1","none",IF(E9="skyscraper",CONCATENATE(A9,"_c_north"),IF(E9="landmark",CONCATENATE(A9,"_k_north"),IF(E9="house",CONCATENATE(A9,"_h_north"),CONCATENATE(A9,"_north")))))</f>
@@ -1495,25 +1505,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -1524,15 +1534,15 @@
       <c r="J10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>7</v>
+      <c r="K10" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M10" s="5" t="str">
         <f aca="false">VLOOKUP(L10,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>27</v>
@@ -1545,18 +1555,18 @@
       </c>
       <c r="Q10" s="1" t="n">
         <f aca="false">VLOOKUP(E10,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R10" s="1" t="n">
         <f aca="false">VLOOKUP(E10,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T10" s="1" t="str">
         <f aca="false">IF(NOT(D10="1X1"),"none",IF(E10="skyscraper",CONCATENATE(A10,"_c"),IF(E10="landmark",CONCATENATE(A10,"_k"),IF(E10="house",CONCATENATE(A10,"_h"),A10))))</f>
-        <v>hayashi_m</v>
+        <v>harada_l</v>
       </c>
       <c r="U10" s="1" t="str">
         <f aca="false">IF(D10="1X1","none",IF(E10="skyscraper",CONCATENATE(A10,"_c_north"),IF(E10="landmark",CONCATENATE(A10,"_k_north"),IF(E10="house",CONCATENATE(A10,"_h_north"),CONCATENATE(A10,"_north")))))</f>
@@ -1580,22 +1590,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>75</v>
@@ -1604,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>30</v>
@@ -1613,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M11" s="5" t="str">
         <f aca="false">VLOOKUP(L11,dropdowns!E:F,2,0)</f>
@@ -1641,7 +1651,7 @@
       </c>
       <c r="T11" s="1" t="str">
         <f aca="false">IF(NOT(D11="1X1"),"none",IF(E11="skyscraper",CONCATENATE(A11,"_c"),IF(E11="landmark",CONCATENATE(A11,"_k"),IF(E11="house",CONCATENATE(A11,"_h"),A11))))</f>
-        <v>hirano_s</v>
+        <v>hayashi_s</v>
       </c>
       <c r="U11" s="1" t="str">
         <f aca="false">IF(D11="1X1","none",IF(E11="skyscraper",CONCATENATE(A11,"_c_north"),IF(E11="landmark",CONCATENATE(A11,"_k_north"),IF(E11="house",CONCATENATE(A11,"_h_north"),CONCATENATE(A11,"_north")))))</f>
@@ -1668,10 +1678,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1680,7 +1690,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>100</v>
@@ -1689,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>30</v>
@@ -1726,7 +1736,7 @@
       </c>
       <c r="T12" s="1" t="str">
         <f aca="false">IF(NOT(D12="1X1"),"none",IF(E12="skyscraper",CONCATENATE(A12,"_c"),IF(E12="landmark",CONCATENATE(A12,"_k"),IF(E12="house",CONCATENATE(A12,"_h"),A12))))</f>
-        <v>hirano_m</v>
+        <v>hayashi_m</v>
       </c>
       <c r="U12" s="1" t="str">
         <f aca="false">IF(D12="1X1","none",IF(E12="skyscraper",CONCATENATE(A12,"_c_north"),IF(E12="landmark",CONCATENATE(A12,"_k_north"),IF(E12="house",CONCATENATE(A12,"_h_north"),CONCATENATE(A12,"_north")))))</f>
@@ -1756,13 +1766,13 @@
         <v>59</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>60</v>
@@ -1774,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>30</v>
@@ -1783,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M13" s="5" t="str">
         <f aca="false">VLOOKUP(L13,dropdowns!E:F,2,0)</f>
@@ -1811,7 +1821,7 @@
       </c>
       <c r="T13" s="1" t="str">
         <f aca="false">IF(NOT(D13="1X1"),"none",IF(E13="skyscraper",CONCATENATE(A13,"_c"),IF(E13="landmark",CONCATENATE(A13,"_k"),IF(E13="house",CONCATENATE(A13,"_h"),A13))))</f>
-        <v>hirata_s</v>
+        <v>hirano_s</v>
       </c>
       <c r="U13" s="1" t="str">
         <f aca="false">IF(D13="1X1","none",IF(E13="skyscraper",CONCATENATE(A13,"_c_north"),IF(E13="landmark",CONCATENATE(A13,"_k_north"),IF(E13="house",CONCATENATE(A13,"_h_north"),CONCATENATE(A13,"_north")))))</f>
@@ -1841,7 +1851,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1859,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>30</v>
@@ -1896,7 +1906,7 @@
       </c>
       <c r="T14" s="1" t="str">
         <f aca="false">IF(NOT(D14="1X1"),"none",IF(E14="skyscraper",CONCATENATE(A14,"_c"),IF(E14="landmark",CONCATENATE(A14,"_k"),IF(E14="house",CONCATENATE(A14,"_h"),A14))))</f>
-        <v>hirata_m</v>
+        <v>hirano_m</v>
       </c>
       <c r="U14" s="1" t="str">
         <f aca="false">IF(D14="1X1","none",IF(E14="skyscraper",CONCATENATE(A14,"_c_north"),IF(E14="landmark",CONCATENATE(A14,"_k_north"),IF(E14="house",CONCATENATE(A14,"_h_north"),CONCATENATE(A14,"_north")))))</f>
@@ -1926,13 +1936,13 @@
         <v>63</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>64</v>
@@ -1944,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>30</v>
@@ -1953,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M15" s="5" t="str">
         <f aca="false">VLOOKUP(L15,dropdowns!E:F,2,0)</f>
@@ -1981,7 +1991,7 @@
       </c>
       <c r="T15" s="1" t="str">
         <f aca="false">IF(NOT(D15="1X1"),"none",IF(E15="skyscraper",CONCATENATE(A15,"_c"),IF(E15="landmark",CONCATENATE(A15,"_k"),IF(E15="house",CONCATENATE(A15,"_h"),A15))))</f>
-        <v>kimura_s</v>
+        <v>hirata_s</v>
       </c>
       <c r="U15" s="1" t="str">
         <f aca="false">IF(D15="1X1","none",IF(E15="skyscraper",CONCATENATE(A15,"_c_north"),IF(E15="landmark",CONCATENATE(A15,"_k_north"),IF(E15="house",CONCATENATE(A15,"_h_north"),CONCATENATE(A15,"_north")))))</f>
@@ -2011,7 +2021,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -2029,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>30</v>
@@ -2066,7 +2076,7 @@
       </c>
       <c r="T16" s="1" t="str">
         <f aca="false">IF(NOT(D16="1X1"),"none",IF(E16="skyscraper",CONCATENATE(A16,"_c"),IF(E16="landmark",CONCATENATE(A16,"_k"),IF(E16="house",CONCATENATE(A16,"_h"),A16))))</f>
-        <v>kimura_m</v>
+        <v>hirata_m</v>
       </c>
       <c r="U16" s="1" t="str">
         <f aca="false">IF(D16="1X1","none",IF(E16="skyscraper",CONCATENATE(A16,"_c_north"),IF(E16="landmark",CONCATENATE(A16,"_k_north"),IF(E16="house",CONCATENATE(A16,"_h_north"),CONCATENATE(A16,"_north")))))</f>
@@ -2096,13 +2106,13 @@
         <v>67</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>68</v>
@@ -2114,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>30</v>
@@ -2123,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M17" s="5" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
@@ -2151,7 +2161,7 @@
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>murakami_s</v>
+        <v>kimura_s</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
@@ -2181,7 +2191,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
@@ -2199,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>30</v>
@@ -2236,7 +2246,7 @@
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>murakami_m</v>
+        <v>kimura_m</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
@@ -2266,38 +2276,38 @@
         <v>71</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M19" s="5" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>27</v>
@@ -2310,18 +2320,18 @@
       </c>
       <c r="Q19" s="1" t="n">
         <f aca="false">VLOOKUP(E19,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R19" s="1" t="n">
         <f aca="false">VLOOKUP(E19,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>nakayama_m</v>
+        <v>murakami_s</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
@@ -2348,10 +2358,10 @@
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
@@ -2360,7 +2370,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>100</v>
@@ -2369,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>30</v>
@@ -2406,7 +2416,7 @@
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>okada_office_tower_m</v>
+        <v>murakami_m</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
@@ -2430,44 +2440,44 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M21" s="5" t="str">
         <f aca="false">VLOOKUP(L21,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>27</v>
@@ -2479,17 +2489,19 @@
         <v>32</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>14</v>
+        <f aca="false">VLOOKUP(E21,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E21,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>okada_office_tower_l</v>
+        <v>nakayama_m</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
@@ -2516,22 +2528,22 @@
         <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
@@ -2543,14 +2555,14 @@
         <v>30</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M22" s="5" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>27</v>
@@ -2562,17 +2574,19 @@
         <v>32</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>16</v>
+        <f aca="false">VLOOKUP(E22,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E22,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>okada_office_tower_x</v>
+        <v>okada_office_tower_m</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
@@ -2596,44 +2610,44 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C23" s="2" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M23" s="5" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>27</v>
@@ -2645,17 +2659,17 @@
         <v>32</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>old_office_building_m</v>
+        <v>okada_office_tower_l</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
@@ -2682,41 +2696,41 @@
         <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M24" s="5" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>27</v>
@@ -2728,17 +2742,17 @@
         <v>32</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>old_office_building_l</v>
+        <v>okada_office_tower_x</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
@@ -2765,10 +2779,10 @@
         <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -2777,7 +2791,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>100</v>
@@ -2786,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1970</v>
+        <v>1945</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>30</v>
@@ -2821,7 +2835,7 @@
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>yano_m</v>
+        <v>old_office_building_m</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
@@ -2845,66 +2859,66 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>85</v>
+      <c r="E26" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1980</v>
+        <v>1945</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M26" s="5" t="str">
         <f aca="false">VLOOKUP(L26,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R26" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>6</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>bank_building_c</v>
+        <v>old_office_building_l</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
@@ -2928,66 +2942,66 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>85</v>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M27" s="5" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N27" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O27" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P27" s="3" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>enterprise_tower_c</v>
+        <v>yano_m</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
@@ -3011,31 +3025,31 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>30</v>
@@ -3051,26 +3065,26 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>insurance_tower_c</v>
+        <v>bank_building_c</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3094,22 +3108,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>220</v>
@@ -3118,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>30</v>
@@ -3140,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>24</v>
@@ -3149,11 +3163,11 @@
         <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>kuroi_tower_c</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
@@ -3183,25 +3197,25 @@
         <v>95</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>30</v>
@@ -3223,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>24</v>
@@ -3232,11 +3246,11 @@
         <v>10</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>mitsui_tower_c</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
@@ -3266,13 +3280,13 @@
         <v>97</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>98</v>
@@ -3306,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>24</v>
@@ -3315,11 +3329,11 @@
         <v>10</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>modern_office_tower_c</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
@@ -3349,13 +3363,13 @@
         <v>99</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>100</v>
@@ -3367,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>30</v>
@@ -3389,7 +3403,7 @@
         <v>5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>24</v>
@@ -3398,11 +3412,11 @@
         <v>10</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>multimedia_offices_c</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
@@ -3432,13 +3446,13 @@
         <v>101</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>102</v>
@@ -3472,7 +3486,7 @@
         <v>5</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>24</v>
@@ -3481,11 +3495,11 @@
         <v>10</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>office_tower_c</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
@@ -3515,25 +3529,25 @@
         <v>103</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>30</v>
@@ -3555,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>24</v>
@@ -3564,11 +3578,11 @@
         <v>10</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>sato_building_c</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
@@ -3598,25 +3612,25 @@
         <v>105</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>30</v>
@@ -3638,7 +3652,7 @@
         <v>5</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="1" t="n">
         <v>24</v>
@@ -3647,11 +3661,11 @@
         <v>10</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>sugiyama_office_building_c</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
@@ -3681,25 +3695,25 @@
         <v>107</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G36" s="1" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>2006</v>
+        <v>1960</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>30</v>
@@ -3715,13 +3729,13 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>24</v>
@@ -3730,19 +3744,19 @@
         <v>10</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>none</v>
+        <v>sato_building_c</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="2X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_east"),IF(E36="landmark",CONCATENATE(A36,"_k_east"),CONCATENATE(A36,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W36" s="1" t="str">
         <f aca="false">IF(OR(D36="1X1",D36="1X2"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c_west"),IF(E36="landmark",CONCATENATE(A36,"_k_west"),CONCATENATE(A36,"_west"))))</f>
@@ -3758,22 +3772,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>200</v>
@@ -3782,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <v>1989</v>
+        <v>1990</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>25</v>
@@ -3804,7 +3818,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>24</v>
@@ -3813,11 +3827,11 @@
         <v>10</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>ueda_office_block_c</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
@@ -3841,31 +3855,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>1965</v>
+        <v>2006</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>30</v>
@@ -3881,34 +3895,34 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
-        <v>yamaguchi_office_c</v>
+        <v>none</v>
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
-        <v>none</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
-        <v>none</v>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
@@ -3930,28 +3944,28 @@
         <v>114</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>30</v>
+        <v>1955</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>1989</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>25</v>
@@ -3964,13 +3978,13 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O39" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>24</v>
@@ -3979,19 +3993,19 @@
         <v>10</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>none</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
-        <v>yamashiro_office_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V39" s="1" t="str">
         <f aca="false">IF(OR(D39="1X1",D39="2X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_east"),IF(E39="landmark",CONCATENATE(A39,"_k_east"),CONCATENATE(A39,"_east"))))</f>
-        <v>yamashiro_office_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W39" s="1" t="str">
         <f aca="false">IF(OR(D39="1X1",D39="1X2"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c_west"),IF(E39="landmark",CONCATENATE(A39,"_k_west"),CONCATENATE(A39,"_west"))))</f>
@@ -4013,25 +4027,25 @@
         <v>116</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>30</v>
@@ -4053,20 +4067,20 @@
         <v>5</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
-        <v>yamashita_building_c</v>
+        <v>yamaguchi_office_c</v>
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
@@ -4096,56 +4110,56 @@
         <v>118</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G41" s="1" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>1700</v>
+        <v>1990</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="M41" s="5" t="str">
         <f aca="false">VLOOKUP(L41,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
@@ -4153,256 +4167,256 @@
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V41" s="1" t="str">
-        <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),IF(E41="house",CONCATENATE(A41,"_h_east"),CONCATENATE(A41,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),IF(E41="house",CONCATENATE(A41,"_h_west"),CONCATENATE(A41,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X41" s="1" t="str">
-        <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),IF(E41="house",CONCATENATE(A41,"_h_south"),CONCATENATE(A41,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D41="2X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_south"),IF(E41="landmark",CONCATENATE(A41,"_k_south"),CONCATENATE(A41,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>1870</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="M42" s="5" t="str">
         <f aca="false">VLOOKUP(L42,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
-        <v>naganuma_h</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),IF(E42="house",CONCATENATE(A42,"_h_east"),CONCATENATE(A42,"_east")))))</f>
+        <f aca="false">IF(OR(D42="1X1",D42="2X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_east"),IF(E42="landmark",CONCATENATE(A42,"_k_east"),CONCATENATE(A42,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),IF(E42="house",CONCATENATE(A42,"_h_west"),CONCATENATE(A42,"_west")))))</f>
+        <f aca="false">IF(OR(D42="1X1",D42="1X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_west"),IF(E42="landmark",CONCATENATE(A42,"_k_west"),CONCATENATE(A42,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X42" s="1" t="str">
-        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),IF(E42="house",CONCATENATE(A42,"_h_south"),CONCATENATE(A42,"_south")))))</f>
+        <f aca="false">IF(NOT(D42="2X2"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c_south"),IF(E42="landmark",CONCATENATE(A42,"_k_south"),CONCATENATE(A42,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="6" t="n">
-        <v>95</v>
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>212</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>1950</v>
+        <v>125</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>1700</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="0" t="n">
-        <v>5</v>
+      <c r="K43" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M43" s="5" t="str">
         <f aca="false">VLOOKUP(L43,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>3</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>3</v>
+        <v>127</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
-        <v>convini_k</v>
+        <v>none</v>
       </c>
       <c r="U43" s="1" t="str">
         <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
-        <v>none</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V43" s="1" t="str">
         <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),IF(E43="house",CONCATENATE(A43,"_h_east"),CONCATENATE(A43,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W43" s="1" t="str">
         <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),IF(E43="house",CONCATENATE(A43,"_h_west"),CONCATENATE(A43,"_west")))))</f>
-        <v>none</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X43" s="1" t="str">
         <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),IF(E43="house",CONCATENATE(A43,"_h_south"),CONCATENATE(A43,"_south")))))</f>
-        <v>none</v>
-      </c>
-      <c r="Y43" s="0" t="s">
-        <v>134</v>
+        <v>farm_h_south</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G44" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M44" s="5" t="str">
         <f aca="false">VLOOKUP(L44,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(NOT(D44="1X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c"),IF(E44="landmark",CONCATENATE(A44,"_k"),IF(E44="house",CONCATENATE(A44,"_h"),A44))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U44" s="1" t="str">
         <f aca="false">IF(D44="1X1","none",IF(E44="skyscraper",CONCATENATE(A44,"_c_north"),IF(E44="landmark",CONCATENATE(A44,"_k_north"),IF(E44="house",CONCATENATE(A44,"_h_north"),CONCATENATE(A44,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),IF(E44="house",CONCATENATE(A44,"_h_east"),CONCATENATE(A44,"_east")))))</f>
@@ -4410,165 +4424,165 @@
       </c>
       <c r="W44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),IF(E44="house",CONCATENATE(A44,"_h_west"),CONCATENATE(A44,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>none</v>
       </c>
       <c r="X44" s="1" t="str">
         <f aca="false">IF(NOT(D44="2X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_south"),IF(E44="landmark",CONCATENATE(A44,"_k_south"),IF(E44="house",CONCATENATE(A44,"_h_south"),CONCATENATE(A44,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>1970</v>
+      <c r="G45" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="1" t="n">
-        <v>20</v>
+      <c r="K45" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M45" s="5" t="str">
         <f aca="false">VLOOKUP(L45,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N45" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O45" s="1" t="n">
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="O45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q45" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="R45" s="1" t="n">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(NOT(D45="1X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c"),IF(E45="landmark",CONCATENATE(A45,"_k"),IF(E45="house",CONCATENATE(A45,"_h"),A45))))</f>
-        <v>none</v>
+        <v>convini_k</v>
       </c>
       <c r="U45" s="1" t="str">
         <f aca="false">IF(D45="1X1","none",IF(E45="skyscraper",CONCATENATE(A45,"_c_north"),IF(E45="landmark",CONCATENATE(A45,"_k_north"),IF(E45="house",CONCATENATE(A45,"_h_north"),CONCATENATE(A45,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V45" s="1" t="str">
-        <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),CONCATENATE(A45,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),IF(E45="house",CONCATENATE(A45,"_h_east"),CONCATENATE(A45,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),CONCATENATE(A45,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),IF(E45="house",CONCATENATE(A45,"_h_west"),CONCATENATE(A45,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X45" s="1" t="str">
-        <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),CONCATENATE(A45,"_south"))))</f>
-        <v>hospital_k_south</v>
-      </c>
-      <c r="Y45" s="1" t="s">
+        <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),IF(E45="house",CONCATENATE(A45,"_h_south"),CONCATENATE(A45,"_south")))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y45" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>1870</v>
+        <v>1970</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M46" s="5" t="str">
         <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="O46" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(NOT(D46="1X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c"),IF(E46="landmark",CONCATENATE(A46,"_k"),IF(E46="house",CONCATENATE(A46,"_h"),A46))))</f>
-        <v>onsen_k</v>
+        <v>none</v>
       </c>
       <c r="U46" s="1" t="str">
         <f aca="false">IF(D46="1X1","none",IF(E46="skyscraper",CONCATENATE(A46,"_c_north"),IF(E46="landmark",CONCATENATE(A46,"_k_north"),IF(E46="house",CONCATENATE(A46,"_h_north"),CONCATENATE(A46,"_north")))))</f>
-        <v>none</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V46" s="1" t="str">
         <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),IF(E46="house",CONCATENATE(A46,"_h_east"),CONCATENATE(A46,"_east")))))</f>
@@ -4576,263 +4590,263 @@
       </c>
       <c r="W46" s="1" t="str">
         <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),IF(E46="house",CONCATENATE(A46,"_h_west"),CONCATENATE(A46,"_west")))))</f>
-        <v>none</v>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X46" s="1" t="str">
         <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),IF(E46="house",CONCATENATE(A46,"_h_south"),CONCATENATE(A46,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G47" s="1" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="M47" s="5" t="str">
         <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O47" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>145</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(NOT(D47="1X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c"),IF(E47="landmark",CONCATENATE(A47,"_k"),IF(E47="house",CONCATENATE(A47,"_h"),A47))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U47" s="1" t="str">
         <f aca="false">IF(D47="1X1","none",IF(E47="skyscraper",CONCATENATE(A47,"_c_north"),IF(E47="landmark",CONCATENATE(A47,"_k_north"),IF(E47="house",CONCATENATE(A47,"_h_north"),CONCATENATE(A47,"_north")))))</f>
-        <v>none</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V47" s="1" t="str">
         <f aca="false">IF(OR(D47="1X1",D47="2X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_east"),IF(E47="landmark",CONCATENATE(A47,"_k_east"),CONCATENATE(A47,"_east"))))</f>
-        <v>none</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W47" s="1" t="str">
         <f aca="false">IF(OR(D47="1X1",D47="1X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_west"),IF(E47="landmark",CONCATENATE(A47,"_k_west"),CONCATENATE(A47,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X47" s="1" t="str">
         <f aca="false">IF(NOT(D47="2X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_south"),IF(E47="landmark",CONCATENATE(A47,"_k_south"),CONCATENATE(A47,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G48" s="1" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M48" s="5" t="str">
         <f aca="false">VLOOKUP(L48,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O48" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(NOT(D48="1X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c"),IF(E48="landmark",CONCATENATE(A48,"_k"),IF(E48="house",CONCATENATE(A48,"_h"),A48))))</f>
-        <v>none</v>
+        <v>onsen_k</v>
       </c>
       <c r="U48" s="1" t="str">
         <f aca="false">IF(D48="1X1","none",IF(E48="skyscraper",CONCATENATE(A48,"_c_north"),IF(E48="landmark",CONCATENATE(A48,"_k_north"),IF(E48="house",CONCATENATE(A48,"_h_north"),CONCATENATE(A48,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>none</v>
       </c>
       <c r="V48" s="1" t="str">
-        <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),CONCATENATE(A48,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),IF(E48="house",CONCATENATE(A48,"_h_east"),CONCATENATE(A48,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),CONCATENATE(A48,"_west"))))</f>
+        <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),IF(E48="house",CONCATENATE(A48,"_h_west"),CONCATENATE(A48,"_west")))))</f>
         <v>none</v>
       </c>
       <c r="X48" s="1" t="str">
-        <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),CONCATENATE(A48,"_south"))))</f>
+        <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),IF(E48="house",CONCATENATE(A48,"_h_south"),CONCATENATE(A48,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G49" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H49" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1700</v>
+        <v>1980</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="M49" s="5" t="str">
         <f aca="false">VLOOKUP(L49,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N49" s="0" t="n">
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q49" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="O49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q49" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="R49" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(NOT(D49="1X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c"),IF(E49="landmark",CONCATENATE(A49,"_k"),IF(E49="house",CONCATENATE(A49,"_h"),A49))))</f>
-        <v>none</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U49" s="1" t="str">
         <f aca="false">IF(D49="1X1","none",IF(E49="skyscraper",CONCATENATE(A49,"_c_north"),IF(E49="landmark",CONCATENATE(A49,"_k_north"),IF(E49="house",CONCATENATE(A49,"_h_north"),CONCATENATE(A49,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>none</v>
       </c>
       <c r="V49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),CONCATENATE(A49,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <v>none</v>
       </c>
       <c r="W49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),CONCATENATE(A49,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <v>none</v>
       </c>
       <c r="X49" s="1" t="str">
         <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),CONCATENATE(A49,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,25 +4857,25 @@
         <v>150</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>30</v>
@@ -4870,41 +4884,41 @@
         <v>20</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="M50" s="5" t="str">
         <f aca="false">VLOOKUP(L50,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O50" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O50" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="T50" s="1" t="str">
         <f aca="false">IF(NOT(D50="1X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c"),IF(E50="landmark",CONCATENATE(A50,"_k"),IF(E50="house",CONCATENATE(A50,"_h"),A50))))</f>
-        <v>shrine_k</v>
+        <v>none</v>
       </c>
       <c r="U50" s="1" t="str">
         <f aca="false">IF(D50="1X1","none",IF(E50="skyscraper",CONCATENATE(A50,"_c_north"),IF(E50="landmark",CONCATENATE(A50,"_k_north"),IF(E50="house",CONCATENATE(A50,"_h_north"),CONCATENATE(A50,"_north")))))</f>
-        <v>none</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V50" s="1" t="str">
         <f aca="false">IF(OR(D50="1X1",D50="2X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_east"),IF(E50="landmark",CONCATENATE(A50,"_k_east"),CONCATENATE(A50,"_east"))))</f>
-        <v>none</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W50" s="1" t="str">
         <f aca="false">IF(OR(D50="1X1",D50="1X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_west"),IF(E50="landmark",CONCATENATE(A50,"_k_west"),CONCATENATE(A50,"_west"))))</f>
@@ -4920,31 +4934,31 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>30</v>
@@ -4953,81 +4967,81 @@
         <v>20</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M51" s="5" t="str">
         <f aca="false">VLOOKUP(L51,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="T51" s="1" t="str">
         <f aca="false">IF(NOT(D51="1X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c"),IF(E51="landmark",CONCATENATE(A51,"_k"),IF(E51="house",CONCATENATE(A51,"_h"),A51))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>none</v>
       </c>
       <c r="U51" s="1" t="str">
         <f aca="false">IF(D51="1X1","none",IF(E51="skyscraper",CONCATENATE(A51,"_c_north"),IF(E51="landmark",CONCATENATE(A51,"_k_north"),IF(E51="house",CONCATENATE(A51,"_h_north"),CONCATENATE(A51,"_north")))))</f>
-        <v>none</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V51" s="1" t="str">
         <f aca="false">IF(OR(D51="1X1",D51="2X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_east"),IF(E51="landmark",CONCATENATE(A51,"_k_east"),CONCATENATE(A51,"_east"))))</f>
-        <v>none</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W51" s="1" t="str">
         <f aca="false">IF(OR(D51="1X1",D51="1X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_west"),IF(E51="landmark",CONCATENATE(A51,"_k_west"),CONCATENATE(A51,"_west"))))</f>
-        <v>none</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X51" s="1" t="str">
         <f aca="false">IF(NOT(D51="2X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_south"),IF(E51="landmark",CONCATENATE(A51,"_k_south"),CONCATENATE(A51,"_south"))))</f>
-        <v>none</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>30</v>
@@ -5036,52 +5050,52 @@
         <v>20</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M52" s="5" t="str">
         <f aca="false">VLOOKUP(L52,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O52" s="1" t="n">
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="T52" s="1" t="str">
         <f aca="false">IF(NOT(D52="1X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c"),IF(E52="landmark",CONCATENATE(A52,"_k"),IF(E52="house",CONCATENATE(A52,"_h"),A52))))</f>
-        <v>none</v>
+        <v>shrine_k</v>
       </c>
       <c r="U52" s="1" t="str">
         <f aca="false">IF(D52="1X1","none",IF(E52="skyscraper",CONCATENATE(A52,"_c_north"),IF(E52="landmark",CONCATENATE(A52,"_k_north"),IF(E52="house",CONCATENATE(A52,"_h_north"),CONCATENATE(A52,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>none</v>
       </c>
       <c r="V52" s="1" t="str">
         <f aca="false">IF(OR(D52="1X1",D52="2X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_east"),IF(E52="landmark",CONCATENATE(A52,"_k_east"),CONCATENATE(A52,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>none</v>
       </c>
       <c r="W52" s="1" t="str">
         <f aca="false">IF(OR(D52="1X1",D52="1X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_west"),IF(E52="landmark",CONCATENATE(A52,"_k_west"),CONCATENATE(A52,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>none</v>
       </c>
       <c r="X52" s="1" t="str">
         <f aca="false">IF(NOT(D52="2X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_south"),IF(E52="landmark",CONCATENATE(A52,"_k_south"),CONCATENATE(A52,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,25 +5106,25 @@
         <v>158</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>30</v>
@@ -5119,82 +5133,248 @@
         <v>20</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M53" s="5" t="str">
         <f aca="false">VLOOKUP(L53,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="N53" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O53" s="1" t="n">
+      <c r="N53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="T53" s="1" t="str">
         <f aca="false">IF(NOT(D53="1X1"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c"),IF(E53="landmark",CONCATENATE(A53,"_k"),IF(E53="house",CONCATENATE(A53,"_h"),A53))))</f>
-        <v>none</v>
+        <v>shrine_prohibition_k</v>
       </c>
       <c r="U53" s="1" t="str">
         <f aca="false">IF(D53="1X1","none",IF(E53="skyscraper",CONCATENATE(A53,"_c_north"),IF(E53="landmark",CONCATENATE(A53,"_k_north"),IF(E53="house",CONCATENATE(A53,"_h_north"),CONCATENATE(A53,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>none</v>
       </c>
       <c r="V53" s="1" t="str">
         <f aca="false">IF(OR(D53="1X1",D53="2X1"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_east"),IF(E53="landmark",CONCATENATE(A53,"_k_east"),CONCATENATE(A53,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>none</v>
       </c>
       <c r="W53" s="1" t="str">
         <f aca="false">IF(OR(D53="1X1",D53="1X2"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_west"),IF(E53="landmark",CONCATENATE(A53,"_k_west"),CONCATENATE(A53,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X53" s="1" t="str">
         <f aca="false">IF(NOT(D53="2X2"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_south"),IF(E53="landmark",CONCATENATE(A53,"_k_south"),CONCATENATE(A53,"_south"))))</f>
-        <v>temple_k_south</v>
+        <v>none</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="D54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="5"/>
-      <c r="P54" s="3"/>
-      <c r="S54" s="3"/>
+      <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" s="5" t="str">
+        <f aca="false">VLOOKUP(L54,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T54" s="1" t="str">
+        <f aca="false">IF(NOT(D54="1X1"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c"),IF(E54="landmark",CONCATENATE(A54,"_k"),IF(E54="house",CONCATENATE(A54,"_h"),A54))))</f>
+        <v>none</v>
+      </c>
+      <c r="U54" s="1" t="str">
+        <f aca="false">IF(D54="1X1","none",IF(E54="skyscraper",CONCATENATE(A54,"_c_north"),IF(E54="landmark",CONCATENATE(A54,"_k_north"),IF(E54="house",CONCATENATE(A54,"_h_north"),CONCATENATE(A54,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V54" s="1" t="str">
+        <f aca="false">IF(OR(D54="1X1",D54="2X1"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c_east"),IF(E54="landmark",CONCATENATE(A54,"_k_east"),CONCATENATE(A54,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W54" s="1" t="str">
+        <f aca="false">IF(OR(D54="1X1",D54="1X2"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c_west"),IF(E54="landmark",CONCATENATE(A54,"_k_west"),CONCATENATE(A54,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X54" s="1" t="str">
+        <f aca="false">IF(NOT(D54="2X2"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c_south"),IF(E54="landmark",CONCATENATE(A54,"_k_south"),CONCATENATE(A54,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M55" s="5" t="str">
+        <f aca="false">VLOOKUP(L55,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T55" s="1" t="str">
+        <f aca="false">IF(NOT(D55="1X1"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c"),IF(E55="landmark",CONCATENATE(A55,"_k"),IF(E55="house",CONCATENATE(A55,"_h"),A55))))</f>
+        <v>none</v>
+      </c>
+      <c r="U55" s="1" t="str">
+        <f aca="false">IF(D55="1X1","none",IF(E55="skyscraper",CONCATENATE(A55,"_c_north"),IF(E55="landmark",CONCATENATE(A55,"_k_north"),IF(E55="house",CONCATENATE(A55,"_h_north"),CONCATENATE(A55,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V55" s="1" t="str">
+        <f aca="false">IF(OR(D55="1X1",D55="2X1"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c_east"),IF(E55="landmark",CONCATENATE(A55,"_k_east"),CONCATENATE(A55,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W55" s="1" t="str">
+        <f aca="false">IF(OR(D55="1X1",D55="1X2"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c_west"),IF(E55="landmark",CONCATENATE(A55,"_k_west"),CONCATENATE(A55,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X55" s="1" t="str">
+        <f aca="false">IF(NOT(D55="2X2"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c_south"),IF(E55="landmark",CONCATENATE(A55,"_k_south"),CONCATENATE(A55,"_south"))))</f>
+        <v>temple_k_south</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+      <c r="D56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5"/>
+      <c r="P56" s="3"/>
+      <c r="S56" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C42 C44:C1048576">
+  <conditionalFormatting sqref="C1:C44 C46:C1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E25" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E27" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L54" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L56" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P54" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P56" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S54" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S56" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5224,16 +5404,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,11 +7564,11 @@
       </c>
       <c r="B128" s="1" t="str">
         <f aca="false">IF(C128="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A128,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D128" s="1" t="n">
         <f aca="false">IF(C128="Multi-tile",D127-1,MAX(IF(C128="ID not in use",0,IF(C128="1X1",1,IF(C128="2X2",4,2)))-1,0))</f>
@@ -7401,11 +7581,11 @@
       </c>
       <c r="B129" s="1" t="str">
         <f aca="false">IF(C129="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A129,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D129" s="1" t="n">
         <f aca="false">IF(C129="Multi-tile",D128-1,MAX(IF(C129="ID not in use",0,IF(C129="1X1",1,IF(C129="2X2",4,2)))-1,0))</f>
@@ -9622,30 +9802,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
@@ -9654,13 +9834,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -9680,13 +9860,13 @@
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9700,16 +9880,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,73 +9897,73 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="192">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t xml:space="preserve">old_office_building_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yamada_electronics_centre_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yamada_electronics_centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_YAMADA_ELECTRONICS_CENTRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yamada_electronics_centre_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yamada_electronics_centre_x</t>
   </si>
   <si>
     <t xml:space="preserve">yano_m</t>
@@ -714,24 +729,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
@@ -2945,10 +2960,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -2957,7 +2972,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>100</v>
@@ -2991,9 +3006,11 @@
         <v>32</v>
       </c>
       <c r="Q27" s="1" t="n">
+        <f aca="false">VLOOKUP(E27,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R27" s="1" t="n">
+        <f aca="false">VLOOKUP(E27,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="S27" s="3" t="s">
@@ -3001,7 +3018,7 @@
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>yano_m</v>
+        <v>yamada_electronics_centre_m</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
@@ -3025,66 +3042,66 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
+      <c r="E28" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M28" s="5" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R28" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>6</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>bank_building_c</v>
+        <v>yamada_electronics_centre_l</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3108,37 +3125,37 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
+      <c r="E29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>39</v>
@@ -3148,26 +3165,26 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O29" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>enterprise_tower_c</v>
+        <v>yamada_electronics_centre_x</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
@@ -3191,66 +3208,66 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M30" s="5" t="str">
         <f aca="false">VLOOKUP(L30,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O30" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P30" s="3" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>insurance_tower_c</v>
+        <v>yano_m</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
@@ -3274,22 +3291,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>220</v>
@@ -3298,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>30</v>
@@ -3314,26 +3331,26 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>kuroi_tower_c</v>
+        <v>bank_building_c</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
@@ -3357,22 +3374,22 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>220</v>
@@ -3381,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>30</v>
@@ -3403,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>24</v>
@@ -3412,11 +3429,11 @@
         <v>10</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>mitsui_tower_c</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
@@ -3440,31 +3457,31 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>30</v>
@@ -3486,7 +3503,7 @@
         <v>5</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>24</v>
@@ -3495,11 +3512,11 @@
         <v>10</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>modern_office_tower_c</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
@@ -3523,22 +3540,22 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>220</v>
@@ -3547,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>30</v>
@@ -3569,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>24</v>
@@ -3578,11 +3595,11 @@
         <v>10</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>multimedia_offices_c</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
@@ -3606,22 +3623,22 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>220</v>
@@ -3652,7 +3669,7 @@
         <v>5</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="1" t="n">
         <v>24</v>
@@ -3661,11 +3678,11 @@
         <v>10</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>office_tower_c</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
@@ -3689,31 +3706,31 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>30</v>
@@ -3735,7 +3752,7 @@
         <v>5</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>24</v>
@@ -3744,11 +3761,11 @@
         <v>10</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>sato_building_c</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
@@ -3772,25 +3789,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>1</v>
@@ -3818,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>24</v>
@@ -3827,11 +3844,11 @@
         <v>10</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>sugiyama_office_building_c</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
@@ -3855,31 +3872,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G38" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>30</v>
@@ -3895,13 +3912,13 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>24</v>
@@ -3910,19 +3927,19 @@
         <v>10</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
-        <v>none</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="2X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_east"),IF(E38="landmark",CONCATENATE(A38,"_k_east"),CONCATENATE(A38,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W38" s="1" t="str">
         <f aca="false">IF(OR(D38="1X1",D38="1X2"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c_west"),IF(E38="landmark",CONCATENATE(A38,"_k_west"),CONCATENATE(A38,"_west"))))</f>
@@ -3938,22 +3955,22 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>200</v>
@@ -3962,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>1989</v>
+        <v>1960</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>25</v>
@@ -3984,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>24</v>
@@ -3993,11 +4010,11 @@
         <v>10</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>ueda_office_block_c</v>
+        <v>sato_building_c</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
@@ -4021,31 +4038,31 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>1965</v>
+        <v>1990</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>30</v>
@@ -4067,20 +4084,20 @@
         <v>5</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
-        <v>yamaguchi_office_c</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
@@ -4104,22 +4121,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>255</v>
@@ -4128,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>30</v>
@@ -4150,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>24</v>
@@ -4159,7 +4176,7 @@
         <v>10</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
@@ -4167,11 +4184,11 @@
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>yamashiro_office_building_c_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
-        <v>yamashiro_office_building_c_east</v>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
@@ -4187,34 +4204,34 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>30</v>
+        <v>1955</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>1989</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>25</v>
@@ -4233,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>24</v>
@@ -4242,11 +4259,11 @@
         <v>10</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
-        <v>yamashita_building_c</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
@@ -4270,311 +4287,311 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G43" s="1" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>1700</v>
+        <v>1965</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="M43" s="5" t="str">
         <f aca="false">VLOOKUP(L43,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
-        <v>none</v>
+        <v>yamaguchi_office_c</v>
       </c>
       <c r="U43" s="1" t="str">
         <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>none</v>
       </c>
       <c r="V43" s="1" t="str">
-        <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),IF(E43="house",CONCATENATE(A43,"_h_east"),CONCATENATE(A43,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D43="1X1",D43="2X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_east"),IF(E43="landmark",CONCATENATE(A43,"_k_east"),CONCATENATE(A43,"_east"))))</f>
+        <v>none</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),IF(E43="house",CONCATENATE(A43,"_h_west"),CONCATENATE(A43,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D43="1X1",D43="1X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_west"),IF(E43="landmark",CONCATENATE(A43,"_k_west"),CONCATENATE(A43,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X43" s="1" t="str">
-        <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),IF(E43="house",CONCATENATE(A43,"_h_south"),CONCATENATE(A43,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D43="2X2"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c_south"),IF(E43="landmark",CONCATENATE(A43,"_k_south"),CONCATENATE(A43,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G44" s="1" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1870</v>
+        <v>1990</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="M44" s="5" t="str">
         <f aca="false">VLOOKUP(L44,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(NOT(D44="1X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c"),IF(E44="landmark",CONCATENATE(A44,"_k"),IF(E44="house",CONCATENATE(A44,"_h"),A44))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U44" s="1" t="str">
         <f aca="false">IF(D44="1X1","none",IF(E44="skyscraper",CONCATENATE(A44,"_c_north"),IF(E44="landmark",CONCATENATE(A44,"_k_north"),IF(E44="house",CONCATENATE(A44,"_h_north"),CONCATENATE(A44,"_north")))))</f>
-        <v>none</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V44" s="1" t="str">
-        <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),IF(E44="house",CONCATENATE(A44,"_h_east"),CONCATENATE(A44,"_east")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),CONCATENATE(A44,"_east"))))</f>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),IF(E44="house",CONCATENATE(A44,"_h_west"),CONCATENATE(A44,"_west")))))</f>
+        <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),CONCATENATE(A44,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X44" s="1" t="str">
-        <f aca="false">IF(NOT(D44="2X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_south"),IF(E44="landmark",CONCATENATE(A44,"_k_south"),IF(E44="house",CONCATENATE(A44,"_h_south"),CONCATENATE(A44,"_south")))))</f>
+        <f aca="false">IF(NOT(D44="2X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_south"),IF(E44="landmark",CONCATENATE(A44,"_k_south"),CONCATENATE(A44,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="6" t="n">
-        <v>95</v>
+      <c r="A45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H45" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="H45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I45" s="0" t="n">
-        <v>1950</v>
+      <c r="I45" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <v>5</v>
+      <c r="K45" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="M45" s="5" t="str">
         <f aca="false">VLOOKUP(L45,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
-      </c>
-      <c r="N45" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>3</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" s="0" t="n">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(NOT(D45="1X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c"),IF(E45="landmark",CONCATENATE(A45,"_k"),IF(E45="house",CONCATENATE(A45,"_h"),A45))))</f>
-        <v>convini_k</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U45" s="1" t="str">
         <f aca="false">IF(D45="1X1","none",IF(E45="skyscraper",CONCATENATE(A45,"_c_north"),IF(E45="landmark",CONCATENATE(A45,"_k_north"),IF(E45="house",CONCATENATE(A45,"_h_north"),CONCATENATE(A45,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V45" s="1" t="str">
-        <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),IF(E45="house",CONCATENATE(A45,"_h_east"),CONCATENATE(A45,"_east")))))</f>
+        <f aca="false">IF(OR(D45="1X1",D45="2X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_east"),IF(E45="landmark",CONCATENATE(A45,"_k_east"),CONCATENATE(A45,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),IF(E45="house",CONCATENATE(A45,"_h_west"),CONCATENATE(A45,"_west")))))</f>
+        <f aca="false">IF(OR(D45="1X1",D45="1X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_west"),IF(E45="landmark",CONCATENATE(A45,"_k_west"),CONCATENATE(A45,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X45" s="1" t="str">
-        <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),IF(E45="house",CONCATENATE(A45,"_h_south"),CONCATENATE(A45,"_south")))))</f>
-        <v>none</v>
-      </c>
-      <c r="Y45" s="0" t="s">
-        <v>138</v>
+        <f aca="false">IF(NOT(D45="2X2"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c_south"),IF(E45="landmark",CONCATENATE(A45,"_k_south"),CONCATENATE(A45,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="5" t="str">
         <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R46" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(NOT(D46="1X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c"),IF(E46="landmark",CONCATENATE(A46,"_k"),IF(E46="house",CONCATENATE(A46,"_h"),A46))))</f>
@@ -4582,169 +4599,169 @@
       </c>
       <c r="U46" s="1" t="str">
         <f aca="false">IF(D46="1X1","none",IF(E46="skyscraper",CONCATENATE(A46,"_c_north"),IF(E46="landmark",CONCATENATE(A46,"_k_north"),IF(E46="house",CONCATENATE(A46,"_h_north"),CONCATENATE(A46,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V46" s="1" t="str">
         <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),IF(E46="house",CONCATENATE(A46,"_h_east"),CONCATENATE(A46,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W46" s="1" t="str">
         <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),IF(E46="house",CONCATENATE(A46,"_h_west"),CONCATENATE(A46,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X46" s="1" t="str">
         <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),IF(E46="house",CONCATENATE(A46,"_h_south"),CONCATENATE(A46,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M47" s="5" t="str">
         <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(NOT(D47="1X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c"),IF(E47="landmark",CONCATENATE(A47,"_k"),IF(E47="house",CONCATENATE(A47,"_h"),A47))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U47" s="1" t="str">
         <f aca="false">IF(D47="1X1","none",IF(E47="skyscraper",CONCATENATE(A47,"_c_north"),IF(E47="landmark",CONCATENATE(A47,"_k_north"),IF(E47="house",CONCATENATE(A47,"_h_north"),CONCATENATE(A47,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V47" s="1" t="str">
-        <f aca="false">IF(OR(D47="1X1",D47="2X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_east"),IF(E47="landmark",CONCATENATE(A47,"_k_east"),CONCATENATE(A47,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D47="1X1",D47="2X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_east"),IF(E47="landmark",CONCATENATE(A47,"_k_east"),IF(E47="house",CONCATENATE(A47,"_h_east"),CONCATENATE(A47,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f aca="false">IF(OR(D47="1X1",D47="1X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_west"),IF(E47="landmark",CONCATENATE(A47,"_k_west"),CONCATENATE(A47,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D47="1X1",D47="1X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_west"),IF(E47="landmark",CONCATENATE(A47,"_k_west"),IF(E47="house",CONCATENATE(A47,"_h_west"),CONCATENATE(A47,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X47" s="1" t="str">
-        <f aca="false">IF(NOT(D47="2X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_south"),IF(E47="landmark",CONCATENATE(A47,"_k_south"),CONCATENATE(A47,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D47="2X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_south"),IF(E47="landmark",CONCATENATE(A47,"_k_south"),IF(E47="house",CONCATENATE(A47,"_h_south"),CONCATENATE(A47,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>93</v>
+      <c r="C48" s="6" t="n">
+        <v>95</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H48" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I48" s="1" t="n">
-        <v>1870</v>
+      <c r="I48" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="1" t="n">
-        <v>10</v>
+      <c r="K48" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M48" s="5" t="str">
         <f aca="false">VLOOKUP(L48,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
-      <c r="N48" s="1" t="n">
+      <c r="N48" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="O48" s="1" t="n">
+      <c r="O48" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q48" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R48" s="1" t="n">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(NOT(D48="1X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c"),IF(E48="landmark",CONCATENATE(A48,"_k"),IF(E48="house",CONCATENATE(A48,"_h"),A48))))</f>
-        <v>onsen_k</v>
+        <v>convini_k</v>
       </c>
       <c r="U48" s="1" t="str">
         <f aca="false">IF(D48="1X1","none",IF(E48="skyscraper",CONCATENATE(A48,"_c_north"),IF(E48="landmark",CONCATENATE(A48,"_k_north"),IF(E48="house",CONCATENATE(A48,"_h_north"),CONCATENATE(A48,"_north")))))</f>
@@ -4762,114 +4779,114 @@
         <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),IF(E48="house",CONCATENATE(A48,"_h_south"),CONCATENATE(A48,"_south")))))</f>
         <v>none</v>
       </c>
-      <c r="Y48" s="1" t="s">
-        <v>138</v>
+      <c r="Y48" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="M49" s="5" t="str">
         <f aca="false">VLOOKUP(L49,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="O49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(NOT(D49="1X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c"),IF(E49="landmark",CONCATENATE(A49,"_k"),IF(E49="house",CONCATENATE(A49,"_h"),A49))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U49" s="1" t="str">
         <f aca="false">IF(D49="1X1","none",IF(E49="skyscraper",CONCATENATE(A49,"_c_north"),IF(E49="landmark",CONCATENATE(A49,"_k_north"),IF(E49="house",CONCATENATE(A49,"_h_north"),CONCATENATE(A49,"_north")))))</f>
-        <v>none</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V49" s="1" t="str">
-        <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),CONCATENATE(A49,"_east"))))</f>
+        <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),IF(E49="house",CONCATENATE(A49,"_h_east"),CONCATENATE(A49,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),CONCATENATE(A49,"_west"))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),IF(E49="house",CONCATENATE(A49,"_h_west"),CONCATENATE(A49,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X49" s="1" t="str">
-        <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),CONCATENATE(A49,"_south"))))</f>
+        <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),IF(E49="house",CONCATENATE(A49,"_h_south"),CONCATENATE(A49,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <v>150</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>80</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>3</v>
@@ -4884,29 +4901,29 @@
         <v>20</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M50" s="5" t="str">
         <f aca="false">VLOOKUP(L50,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O50" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q50" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="T50" s="1" t="str">
         <f aca="false">IF(NOT(D50="1X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c"),IF(E50="landmark",CONCATENATE(A50,"_k"),IF(E50="house",CONCATENATE(A50,"_h"),A50))))</f>
@@ -4914,169 +4931,169 @@
       </c>
       <c r="U50" s="1" t="str">
         <f aca="false">IF(D50="1X1","none",IF(E50="skyscraper",CONCATENATE(A50,"_c_north"),IF(E50="landmark",CONCATENATE(A50,"_k_north"),IF(E50="house",CONCATENATE(A50,"_h_north"),CONCATENATE(A50,"_north")))))</f>
-        <v>police_station_k_north</v>
+        <v>hospital_k_north</v>
       </c>
       <c r="V50" s="1" t="str">
         <f aca="false">IF(OR(D50="1X1",D50="2X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_east"),IF(E50="landmark",CONCATENATE(A50,"_k_east"),CONCATENATE(A50,"_east"))))</f>
-        <v>police_station_k_east</v>
+        <v>hospital_k_east</v>
       </c>
       <c r="W50" s="1" t="str">
         <f aca="false">IF(OR(D50="1X1",D50="1X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_west"),IF(E50="landmark",CONCATENATE(A50,"_k_west"),CONCATENATE(A50,"_west"))))</f>
-        <v>none</v>
+        <v>hospital_k_west</v>
       </c>
       <c r="X50" s="1" t="str">
         <f aca="false">IF(NOT(D50="2X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_south"),IF(E50="landmark",CONCATENATE(A50,"_k_south"),CONCATENATE(A50,"_south"))))</f>
-        <v>none</v>
+        <v>hospital_k_south</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H51" s="0" t="n">
-        <v>3</v>
+      <c r="H51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>1700</v>
+        <v>1870</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M51" s="5" t="str">
         <f aca="false">VLOOKUP(L51,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O51" s="0" t="n">
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O51" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="T51" s="1" t="str">
         <f aca="false">IF(NOT(D51="1X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c"),IF(E51="landmark",CONCATENATE(A51,"_k"),IF(E51="house",CONCATENATE(A51,"_h"),A51))))</f>
-        <v>none</v>
+        <v>onsen_k</v>
       </c>
       <c r="U51" s="1" t="str">
         <f aca="false">IF(D51="1X1","none",IF(E51="skyscraper",CONCATENATE(A51,"_c_north"),IF(E51="landmark",CONCATENATE(A51,"_k_north"),IF(E51="house",CONCATENATE(A51,"_h_north"),CONCATENATE(A51,"_north")))))</f>
-        <v>shiro_k_north</v>
+        <v>none</v>
       </c>
       <c r="V51" s="1" t="str">
-        <f aca="false">IF(OR(D51="1X1",D51="2X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_east"),IF(E51="landmark",CONCATENATE(A51,"_k_east"),CONCATENATE(A51,"_east"))))</f>
-        <v>shiro_k_east</v>
+        <f aca="false">IF(OR(D51="1X1",D51="2X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_east"),IF(E51="landmark",CONCATENATE(A51,"_k_east"),IF(E51="house",CONCATENATE(A51,"_h_east"),CONCATENATE(A51,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W51" s="1" t="str">
-        <f aca="false">IF(OR(D51="1X1",D51="1X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_west"),IF(E51="landmark",CONCATENATE(A51,"_k_west"),CONCATENATE(A51,"_west"))))</f>
-        <v>shiro_k_west</v>
+        <f aca="false">IF(OR(D51="1X1",D51="1X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_west"),IF(E51="landmark",CONCATENATE(A51,"_k_west"),IF(E51="house",CONCATENATE(A51,"_h_west"),CONCATENATE(A51,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X51" s="1" t="str">
-        <f aca="false">IF(NOT(D51="2X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_south"),IF(E51="landmark",CONCATENATE(A51,"_k_south"),CONCATENATE(A51,"_south"))))</f>
-        <v>shiro_k_south</v>
+        <f aca="false">IF(NOT(D51="2X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_south"),IF(E51="landmark",CONCATENATE(A51,"_k_south"),IF(E51="house",CONCATENATE(A51,"_h_south"),CONCATENATE(A51,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="M52" s="5" t="str">
         <f aca="false">VLOOKUP(L52,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O52" s="0" t="n">
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="T52" s="1" t="str">
         <f aca="false">IF(NOT(D52="1X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c"),IF(E52="landmark",CONCATENATE(A52,"_k"),IF(E52="house",CONCATENATE(A52,"_h"),A52))))</f>
-        <v>shrine_k</v>
+        <v>pachinko_k</v>
       </c>
       <c r="U52" s="1" t="str">
         <f aca="false">IF(D52="1X1","none",IF(E52="skyscraper",CONCATENATE(A52,"_c_north"),IF(E52="landmark",CONCATENATE(A52,"_k_north"),IF(E52="house",CONCATENATE(A52,"_h_north"),CONCATENATE(A52,"_north")))))</f>
@@ -5095,36 +5112,36 @@
         <v>none</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>30</v>
@@ -5133,41 +5150,41 @@
         <v>20</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M53" s="5" t="str">
         <f aca="false">VLOOKUP(L53,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O53" s="0" t="n">
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O53" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="T53" s="1" t="str">
         <f aca="false">IF(NOT(D53="1X1"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c"),IF(E53="landmark",CONCATENATE(A53,"_k"),IF(E53="house",CONCATENATE(A53,"_h"),A53))))</f>
-        <v>shrine_prohibition_k</v>
+        <v>none</v>
       </c>
       <c r="U53" s="1" t="str">
         <f aca="false">IF(D53="1X1","none",IF(E53="skyscraper",CONCATENATE(A53,"_c_north"),IF(E53="landmark",CONCATENATE(A53,"_k_north"),IF(E53="house",CONCATENATE(A53,"_h_north"),CONCATENATE(A53,"_north")))))</f>
-        <v>none</v>
+        <v>police_station_k_north</v>
       </c>
       <c r="V53" s="1" t="str">
         <f aca="false">IF(OR(D53="1X1",D53="2X1"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_east"),IF(E53="landmark",CONCATENATE(A53,"_k_east"),CONCATENATE(A53,"_east"))))</f>
-        <v>none</v>
+        <v>police_station_k_east</v>
       </c>
       <c r="W53" s="1" t="str">
         <f aca="false">IF(OR(D53="1X1",D53="1X2"),"none",IF(E53="skyscraper",CONCATENATE(A53,"_c_west"),IF(E53="landmark",CONCATENATE(A53,"_k_west"),CONCATENATE(A53,"_west"))))</f>
@@ -5178,36 +5195,36 @@
         <v>none</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="H54" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>30</v>
@@ -5216,29 +5233,29 @@
         <v>20</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M54" s="5" t="str">
         <f aca="false">VLOOKUP(L54,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
-      <c r="N54" s="1" t="n">
+      <c r="N54" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O54" s="1" t="n">
+      <c r="O54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="Q54" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="T54" s="1" t="str">
         <f aca="false">IF(NOT(D54="1X1"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c"),IF(E54="landmark",CONCATENATE(A54,"_k"),IF(E54="house",CONCATENATE(A54,"_h"),A54))))</f>
@@ -5246,51 +5263,51 @@
       </c>
       <c r="U54" s="1" t="str">
         <f aca="false">IF(D54="1X1","none",IF(E54="skyscraper",CONCATENATE(A54,"_c_north"),IF(E54="landmark",CONCATENATE(A54,"_k_north"),IF(E54="house",CONCATENATE(A54,"_h_north"),CONCATENATE(A54,"_north")))))</f>
-        <v>stadium_k_north</v>
+        <v>shiro_k_north</v>
       </c>
       <c r="V54" s="1" t="str">
         <f aca="false">IF(OR(D54="1X1",D54="2X1"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c_east"),IF(E54="landmark",CONCATENATE(A54,"_k_east"),CONCATENATE(A54,"_east"))))</f>
-        <v>stadium_k_east</v>
+        <v>shiro_k_east</v>
       </c>
       <c r="W54" s="1" t="str">
         <f aca="false">IF(OR(D54="1X1",D54="1X2"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c_west"),IF(E54="landmark",CONCATENATE(A54,"_k_west"),CONCATENATE(A54,"_west"))))</f>
-        <v>stadium_k_west</v>
+        <v>shiro_k_west</v>
       </c>
       <c r="X54" s="1" t="str">
         <f aca="false">IF(NOT(D54="2X2"),"none",IF(E54="skyscraper",CONCATENATE(A54,"_c_south"),IF(E54="landmark",CONCATENATE(A54,"_k_south"),CONCATENATE(A54,"_south"))))</f>
-        <v>stadium_k_south</v>
+        <v>shiro_k_south</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>30</v>
@@ -5299,82 +5316,331 @@
         <v>20</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M55" s="5" t="str">
         <f aca="false">VLOOKUP(L55,dropdowns!E:F,2,0)</f>
         <v>ALL_TOWNZONES</v>
       </c>
-      <c r="N55" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O55" s="1" t="n">
+      <c r="N55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q55" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="T55" s="1" t="str">
         <f aca="false">IF(NOT(D55="1X1"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c"),IF(E55="landmark",CONCATENATE(A55,"_k"),IF(E55="house",CONCATENATE(A55,"_h"),A55))))</f>
-        <v>none</v>
+        <v>shrine_k</v>
       </c>
       <c r="U55" s="1" t="str">
         <f aca="false">IF(D55="1X1","none",IF(E55="skyscraper",CONCATENATE(A55,"_c_north"),IF(E55="landmark",CONCATENATE(A55,"_k_north"),IF(E55="house",CONCATENATE(A55,"_h_north"),CONCATENATE(A55,"_north")))))</f>
-        <v>temple_k_north</v>
+        <v>none</v>
       </c>
       <c r="V55" s="1" t="str">
         <f aca="false">IF(OR(D55="1X1",D55="2X1"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c_east"),IF(E55="landmark",CONCATENATE(A55,"_k_east"),CONCATENATE(A55,"_east"))))</f>
-        <v>temple_k_east</v>
+        <v>none</v>
       </c>
       <c r="W55" s="1" t="str">
         <f aca="false">IF(OR(D55="1X1",D55="1X2"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c_west"),IF(E55="landmark",CONCATENATE(A55,"_k_west"),CONCATENATE(A55,"_west"))))</f>
-        <v>temple_k_west</v>
+        <v>none</v>
       </c>
       <c r="X55" s="1" t="str">
         <f aca="false">IF(NOT(D55="2X2"),"none",IF(E55="skyscraper",CONCATENATE(A55,"_c_south"),IF(E55="landmark",CONCATENATE(A55,"_k_south"),CONCATENATE(A55,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" s="5" t="str">
+        <f aca="false">VLOOKUP(L56,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T56" s="1" t="str">
+        <f aca="false">IF(NOT(D56="1X1"),"none",IF(E56="skyscraper",CONCATENATE(A56,"_c"),IF(E56="landmark",CONCATENATE(A56,"_k"),IF(E56="house",CONCATENATE(A56,"_h"),A56))))</f>
+        <v>shrine_prohibition_k</v>
+      </c>
+      <c r="U56" s="1" t="str">
+        <f aca="false">IF(D56="1X1","none",IF(E56="skyscraper",CONCATENATE(A56,"_c_north"),IF(E56="landmark",CONCATENATE(A56,"_k_north"),IF(E56="house",CONCATENATE(A56,"_h_north"),CONCATENATE(A56,"_north")))))</f>
+        <v>none</v>
+      </c>
+      <c r="V56" s="1" t="str">
+        <f aca="false">IF(OR(D56="1X1",D56="2X1"),"none",IF(E56="skyscraper",CONCATENATE(A56,"_c_east"),IF(E56="landmark",CONCATENATE(A56,"_k_east"),CONCATENATE(A56,"_east"))))</f>
+        <v>none</v>
+      </c>
+      <c r="W56" s="1" t="str">
+        <f aca="false">IF(OR(D56="1X1",D56="1X2"),"none",IF(E56="skyscraper",CONCATENATE(A56,"_c_west"),IF(E56="landmark",CONCATENATE(A56,"_k_west"),CONCATENATE(A56,"_west"))))</f>
+        <v>none</v>
+      </c>
+      <c r="X56" s="1" t="str">
+        <f aca="false">IF(NOT(D56="2X2"),"none",IF(E56="skyscraper",CONCATENATE(A56,"_c_south"),IF(E56="landmark",CONCATENATE(A56,"_k_south"),CONCATENATE(A56,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M57" s="5" t="str">
+        <f aca="false">VLOOKUP(L57,dropdowns!E:F,2,0)</f>
+        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T57" s="1" t="str">
+        <f aca="false">IF(NOT(D57="1X1"),"none",IF(E57="skyscraper",CONCATENATE(A57,"_c"),IF(E57="landmark",CONCATENATE(A57,"_k"),IF(E57="house",CONCATENATE(A57,"_h"),A57))))</f>
+        <v>none</v>
+      </c>
+      <c r="U57" s="1" t="str">
+        <f aca="false">IF(D57="1X1","none",IF(E57="skyscraper",CONCATENATE(A57,"_c_north"),IF(E57="landmark",CONCATENATE(A57,"_k_north"),IF(E57="house",CONCATENATE(A57,"_h_north"),CONCATENATE(A57,"_north")))))</f>
+        <v>stadium_k_north</v>
+      </c>
+      <c r="V57" s="1" t="str">
+        <f aca="false">IF(OR(D57="1X1",D57="2X1"),"none",IF(E57="skyscraper",CONCATENATE(A57,"_c_east"),IF(E57="landmark",CONCATENATE(A57,"_k_east"),CONCATENATE(A57,"_east"))))</f>
+        <v>stadium_k_east</v>
+      </c>
+      <c r="W57" s="1" t="str">
+        <f aca="false">IF(OR(D57="1X1",D57="1X2"),"none",IF(E57="skyscraper",CONCATENATE(A57,"_c_west"),IF(E57="landmark",CONCATENATE(A57,"_k_west"),CONCATENATE(A57,"_west"))))</f>
+        <v>stadium_k_west</v>
+      </c>
+      <c r="X57" s="1" t="str">
+        <f aca="false">IF(NOT(D57="2X2"),"none",IF(E57="skyscraper",CONCATENATE(A57,"_c_south"),IF(E57="landmark",CONCATENATE(A57,"_k_south"),CONCATENATE(A57,"_south"))))</f>
+        <v>stadium_k_south</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M58" s="5" t="str">
+        <f aca="false">VLOOKUP(L58,dropdowns!E:F,2,0)</f>
+        <v>ALL_TOWNZONES</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T58" s="1" t="str">
+        <f aca="false">IF(NOT(D58="1X1"),"none",IF(E58="skyscraper",CONCATENATE(A58,"_c"),IF(E58="landmark",CONCATENATE(A58,"_k"),IF(E58="house",CONCATENATE(A58,"_h"),A58))))</f>
+        <v>none</v>
+      </c>
+      <c r="U58" s="1" t="str">
+        <f aca="false">IF(D58="1X1","none",IF(E58="skyscraper",CONCATENATE(A58,"_c_north"),IF(E58="landmark",CONCATENATE(A58,"_k_north"),IF(E58="house",CONCATENATE(A58,"_h_north"),CONCATENATE(A58,"_north")))))</f>
+        <v>temple_k_north</v>
+      </c>
+      <c r="V58" s="1" t="str">
+        <f aca="false">IF(OR(D58="1X1",D58="2X1"),"none",IF(E58="skyscraper",CONCATENATE(A58,"_c_east"),IF(E58="landmark",CONCATENATE(A58,"_k_east"),CONCATENATE(A58,"_east"))))</f>
+        <v>temple_k_east</v>
+      </c>
+      <c r="W58" s="1" t="str">
+        <f aca="false">IF(OR(D58="1X1",D58="1X2"),"none",IF(E58="skyscraper",CONCATENATE(A58,"_c_west"),IF(E58="landmark",CONCATENATE(A58,"_k_west"),CONCATENATE(A58,"_west"))))</f>
+        <v>temple_k_west</v>
+      </c>
+      <c r="X58" s="1" t="str">
+        <f aca="false">IF(NOT(D58="2X2"),"none",IF(E58="skyscraper",CONCATENATE(A58,"_c_south"),IF(E58="landmark",CONCATENATE(A58,"_k_south"),CONCATENATE(A58,"_south"))))</f>
         <v>temple_k_south</v>
       </c>
-      <c r="Y55" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="D56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5"/>
-      <c r="P56" s="3"/>
-      <c r="S56" s="3"/>
+      <c r="Y58" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="D59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="5"/>
+      <c r="P59" s="3"/>
+      <c r="S59" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C44 C46:C1048576">
+  <conditionalFormatting sqref="C1:C47 C49:C1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E27" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E30" type="list">
       <formula1>dropdowns!$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L56" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L59" type="list">
       <formula1>dropdowns!$E:$E</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P56" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P59" type="list">
       <formula1>dropdowns!$G:$G</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S56" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S59" type="list">
       <formula1>dropdowns!$D:$D</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5404,16 +5670,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,11 +7864,11 @@
       </c>
       <c r="B130" s="1" t="str">
         <f aca="false">IF(C130="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A130,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D130" s="1" t="n">
         <f aca="false">IF(C130="Multi-tile",D129-1,MAX(IF(C130="ID not in use",0,IF(C130="1X1",1,IF(C130="2X2",4,2)))-1,0))</f>
@@ -7615,11 +7881,11 @@
       </c>
       <c r="B131" s="1" t="str">
         <f aca="false">IF(C131="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A131,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D131" s="1" t="n">
         <f aca="false">IF(C131="Multi-tile",D130-1,MAX(IF(C131="ID not in use",0,IF(C131="1X1",1,IF(C131="2X2",4,2)))-1,0))</f>
@@ -7632,11 +7898,11 @@
       </c>
       <c r="B132" s="1" t="str">
         <f aca="false">IF(C132="ID not in use","ID not in use","Used")</f>
-        <v>ID not in use</v>
+        <v>Used</v>
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(A132,items!C:D,2,0),"ID not in use")</f>
-        <v>ID not in use</v>
+        <v>1X1</v>
       </c>
       <c r="D132" s="1" t="n">
         <f aca="false">IF(C132="Multi-tile",D131-1,MAX(IF(C132="ID not in use",0,IF(C132="1X1",1,IF(C132="2X2",4,2)))-1,0))</f>
@@ -9802,25 +10068,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9834,13 +10100,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -9863,10 +10129,10 @@
         <v>56</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9880,16 +10146,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9897,73 +10163,73 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/docs/buildings.xlsx
+++ b/docs/buildings.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="199">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t xml:space="preserve">hirata_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imai_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_IMAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaneko_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaneko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_KANEKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaneko_x</t>
   </si>
   <si>
     <t xml:space="preserve">kimura_s</t>
@@ -729,14 +750,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2121,38 +2142,38 @@
         <v>67</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1950</v>
+        <v>1965</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M17" s="5" t="str">
         <f aca="false">VLOOKUP(L17,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>27</v>
@@ -2165,18 +2186,18 @@
       </c>
       <c r="Q17" s="1" t="n">
         <f aca="false">VLOOKUP(E17,dropdowns!A:C,2,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">VLOOKUP(E17,dropdowns!A:C,3,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T17" s="1" t="str">
         <f aca="false">IF(NOT(D17="1X1"),"none",IF(E17="skyscraper",CONCATENATE(A17,"_c"),IF(E17="landmark",CONCATENATE(A17,"_k"),IF(E17="house",CONCATENATE(A17,"_h"),A17))))</f>
-        <v>kimura_s</v>
+        <v>imai_m</v>
       </c>
       <c r="U17" s="1" t="str">
         <f aca="false">IF(D17="1X1","none",IF(E17="skyscraper",CONCATENATE(A17,"_c_north"),IF(E17="landmark",CONCATENATE(A17,"_k_north"),IF(E17="house",CONCATENATE(A17,"_h_north"),CONCATENATE(A17,"_north")))))</f>
@@ -2203,41 +2224,41 @@
         <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M18" s="5" t="str">
         <f aca="false">VLOOKUP(L18,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>27</v>
@@ -2249,19 +2270,17 @@
         <v>32</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <f aca="false">VLOOKUP(E18,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R18" s="1" t="n">
-        <f aca="false">VLOOKUP(E18,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T18" s="1" t="str">
         <f aca="false">IF(NOT(D18="1X1"),"none",IF(E18="skyscraper",CONCATENATE(A18,"_c"),IF(E18="landmark",CONCATENATE(A18,"_k"),IF(E18="house",CONCATENATE(A18,"_h"),A18))))</f>
-        <v>kimura_m</v>
+        <v>kaneko_l</v>
       </c>
       <c r="U18" s="1" t="str">
         <f aca="false">IF(D18="1X1","none",IF(E18="skyscraper",CONCATENATE(A18,"_c_north"),IF(E18="landmark",CONCATENATE(A18,"_k_north"),IF(E18="house",CONCATENATE(A18,"_h_north"),CONCATENATE(A18,"_north")))))</f>
@@ -2285,44 +2304,44 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C19" s="2" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1945</v>
+        <v>2000</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M19" s="5" t="str">
         <f aca="false">VLOOKUP(L19,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>27</v>
@@ -2334,19 +2353,17 @@
         <v>32</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <f aca="false">VLOOKUP(E19,dropdowns!A:C,2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="R19" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <f aca="false">VLOOKUP(E19,dropdowns!A:C,3,0)</f>
-        <v>2</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T19" s="1" t="str">
         <f aca="false">IF(NOT(D19="1X1"),"none",IF(E19="skyscraper",CONCATENATE(A19,"_c"),IF(E19="landmark",CONCATENATE(A19,"_k"),IF(E19="house",CONCATENATE(A19,"_h"),A19))))</f>
-        <v>murakami_s</v>
+        <v>kaneko_x</v>
       </c>
       <c r="U19" s="1" t="str">
         <f aca="false">IF(D19="1X1","none",IF(E19="skyscraper",CONCATENATE(A19,"_c_north"),IF(E19="landmark",CONCATENATE(A19,"_k_north"),IF(E19="house",CONCATENATE(A19,"_h_north"),CONCATENATE(A19,"_north")))))</f>
@@ -2373,41 +2390,41 @@
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M20" s="5" t="str">
         <f aca="false">VLOOKUP(L20,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>27</v>
@@ -2420,18 +2437,18 @@
       </c>
       <c r="Q20" s="1" t="n">
         <f aca="false">VLOOKUP(E20,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R20" s="1" t="n">
         <f aca="false">VLOOKUP(E20,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T20" s="1" t="str">
         <f aca="false">IF(NOT(D20="1X1"),"none",IF(E20="skyscraper",CONCATENATE(A20,"_c"),IF(E20="landmark",CONCATENATE(A20,"_k"),IF(E20="house",CONCATENATE(A20,"_h"),A20))))</f>
-        <v>murakami_m</v>
+        <v>kimura_s</v>
       </c>
       <c r="U20" s="1" t="str">
         <f aca="false">IF(D20="1X1","none",IF(E20="skyscraper",CONCATENATE(A20,"_c_north"),IF(E20="landmark",CONCATENATE(A20,"_k_north"),IF(E20="house",CONCATENATE(A20,"_h_north"),CONCATENATE(A20,"_north")))))</f>
@@ -2455,13 +2472,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="2" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
@@ -2470,7 +2487,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>100</v>
@@ -2516,7 +2533,7 @@
       </c>
       <c r="T21" s="1" t="str">
         <f aca="false">IF(NOT(D21="1X1"),"none",IF(E21="skyscraper",CONCATENATE(A21,"_c"),IF(E21="landmark",CONCATENATE(A21,"_k"),IF(E21="house",CONCATENATE(A21,"_h"),A21))))</f>
-        <v>nakayama_m</v>
+        <v>kimura_m</v>
       </c>
       <c r="U21" s="1" t="str">
         <f aca="false">IF(D21="1X1","none",IF(E21="skyscraper",CONCATENATE(A21,"_c_north"),IF(E21="landmark",CONCATENATE(A21,"_k_north"),IF(E21="house",CONCATENATE(A21,"_h_north"),CONCATENATE(A21,"_north")))))</f>
@@ -2546,38 +2563,38 @@
         <v>78</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M22" s="5" t="str">
         <f aca="false">VLOOKUP(L22,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>27</v>
@@ -2590,18 +2607,18 @@
       </c>
       <c r="Q22" s="1" t="n">
         <f aca="false">VLOOKUP(E22,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R22" s="1" t="n">
         <f aca="false">VLOOKUP(E22,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T22" s="1" t="str">
         <f aca="false">IF(NOT(D22="1X1"),"none",IF(E22="skyscraper",CONCATENATE(A22,"_c"),IF(E22="landmark",CONCATENATE(A22,"_k"),IF(E22="house",CONCATENATE(A22,"_h"),A22))))</f>
-        <v>okada_office_tower_m</v>
+        <v>murakami_s</v>
       </c>
       <c r="U22" s="1" t="str">
         <f aca="false">IF(D22="1X1","none",IF(E22="skyscraper",CONCATENATE(A22,"_c_north"),IF(E22="landmark",CONCATENATE(A22,"_k_north"),IF(E22="house",CONCATENATE(A22,"_h_north"),CONCATENATE(A22,"_north")))))</f>
@@ -2631,38 +2648,38 @@
         <v>78</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M23" s="5" t="str">
         <f aca="false">VLOOKUP(L23,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>27</v>
@@ -2674,17 +2691,19 @@
         <v>32</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>14</v>
+        <f aca="false">VLOOKUP(E23,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>5</v>
+        <f aca="false">VLOOKUP(E23,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T23" s="1" t="str">
         <f aca="false">IF(NOT(D23="1X1"),"none",IF(E23="skyscraper",CONCATENATE(A23,"_c"),IF(E23="landmark",CONCATENATE(A23,"_k"),IF(E23="house",CONCATENATE(A23,"_h"),A23))))</f>
-        <v>okada_office_tower_l</v>
+        <v>murakami_m</v>
       </c>
       <c r="U23" s="1" t="str">
         <f aca="false">IF(D23="1X1","none",IF(E23="skyscraper",CONCATENATE(A23,"_c_north"),IF(E23="landmark",CONCATENATE(A23,"_k_north"),IF(E23="house",CONCATENATE(A23,"_h_north"),CONCATENATE(A23,"_north")))))</f>
@@ -2711,41 +2730,41 @@
         <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M24" s="5" t="str">
         <f aca="false">VLOOKUP(L24,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>27</v>
@@ -2757,17 +2776,19 @@
         <v>32</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>16</v>
+        <f aca="false">VLOOKUP(E24,dropdowns!A:C,2,0)</f>
+        <v>10</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>6</v>
+        <f aca="false">VLOOKUP(E24,dropdowns!A:C,3,0)</f>
+        <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T24" s="1" t="str">
         <f aca="false">IF(NOT(D24="1X1"),"none",IF(E24="skyscraper",CONCATENATE(A24,"_c"),IF(E24="landmark",CONCATENATE(A24,"_k"),IF(E24="house",CONCATENATE(A24,"_h"),A24))))</f>
-        <v>okada_office_tower_x</v>
+        <v>nakayama_m</v>
       </c>
       <c r="U24" s="1" t="str">
         <f aca="false">IF(D24="1X1","none",IF(E24="skyscraper",CONCATENATE(A24,"_c_north"),IF(E24="landmark",CONCATENATE(A24,"_k_north"),IF(E24="house",CONCATENATE(A24,"_h_north"),CONCATENATE(A24,"_north")))))</f>
@@ -2791,13 +2812,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -2806,7 +2827,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>100</v>
@@ -2815,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>30</v>
@@ -2840,9 +2861,11 @@
         <v>32</v>
       </c>
       <c r="Q25" s="1" t="n">
+        <f aca="false">VLOOKUP(E25,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R25" s="1" t="n">
+        <f aca="false">VLOOKUP(E25,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -2850,7 +2873,7 @@
       </c>
       <c r="T25" s="1" t="str">
         <f aca="false">IF(NOT(D25="1X1"),"none",IF(E25="skyscraper",CONCATENATE(A25,"_c"),IF(E25="landmark",CONCATENATE(A25,"_k"),IF(E25="house",CONCATENATE(A25,"_h"),A25))))</f>
-        <v>old_office_building_m</v>
+        <v>okada_office_tower_m</v>
       </c>
       <c r="U25" s="1" t="str">
         <f aca="false">IF(D25="1X1","none",IF(E25="skyscraper",CONCATENATE(A25,"_c_north"),IF(E25="landmark",CONCATENATE(A25,"_k_north"),IF(E25="house",CONCATENATE(A25,"_h_north"),CONCATENATE(A25,"_north")))))</f>
@@ -2874,13 +2897,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C26" s="2" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
@@ -2889,7 +2912,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>125</v>
@@ -2898,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>1945</v>
+        <v>1955</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>30</v>
@@ -2933,7 +2956,7 @@
       </c>
       <c r="T26" s="1" t="str">
         <f aca="false">IF(NOT(D26="1X1"),"none",IF(E26="skyscraper",CONCATENATE(A26,"_c"),IF(E26="landmark",CONCATENATE(A26,"_k"),IF(E26="house",CONCATENATE(A26,"_h"),A26))))</f>
-        <v>old_office_building_l</v>
+        <v>okada_office_tower_l</v>
       </c>
       <c r="U26" s="1" t="str">
         <f aca="false">IF(D26="1X1","none",IF(E26="skyscraper",CONCATENATE(A26,"_c_north"),IF(E26="landmark",CONCATENATE(A26,"_k_north"),IF(E26="house",CONCATENATE(A26,"_h_north"),CONCATENATE(A26,"_north")))))</f>
@@ -2957,44 +2980,44 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M27" s="5" t="str">
         <f aca="false">VLOOKUP(L27,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>27</v>
@@ -3006,19 +3029,17 @@
         <v>32</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <f aca="false">VLOOKUP(E27,dropdowns!A:C,2,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R27" s="1" t="n">
-        <f aca="false">VLOOKUP(E27,dropdowns!A:C,3,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T27" s="1" t="str">
         <f aca="false">IF(NOT(D27="1X1"),"none",IF(E27="skyscraper",CONCATENATE(A27,"_c"),IF(E27="landmark",CONCATENATE(A27,"_k"),IF(E27="house",CONCATENATE(A27,"_h"),A27))))</f>
-        <v>yamada_electronics_centre_m</v>
+        <v>okada_office_tower_x</v>
       </c>
       <c r="U27" s="1" t="str">
         <f aca="false">IF(D27="1X1","none",IF(E27="skyscraper",CONCATENATE(A27,"_c_north"),IF(E27="landmark",CONCATENATE(A27,"_k_north"),IF(E27="house",CONCATENATE(A27,"_h_north"),CONCATENATE(A27,"_north")))))</f>
@@ -3045,41 +3066,41 @@
         <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1970</v>
+        <v>1945</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M28" s="5" t="str">
         <f aca="false">VLOOKUP(L28,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>27</v>
@@ -3091,17 +3112,17 @@
         <v>32</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T28" s="1" t="str">
         <f aca="false">IF(NOT(D28="1X1"),"none",IF(E28="skyscraper",CONCATENATE(A28,"_c"),IF(E28="landmark",CONCATENATE(A28,"_k"),IF(E28="house",CONCATENATE(A28,"_h"),A28))))</f>
-        <v>yamada_electronics_centre_l</v>
+        <v>old_office_building_m</v>
       </c>
       <c r="U28" s="1" t="str">
         <f aca="false">IF(D28="1X1","none",IF(E28="skyscraper",CONCATENATE(A28,"_c_north"),IF(E28="landmark",CONCATENATE(A28,"_k_north"),IF(E28="house",CONCATENATE(A28,"_h_north"),CONCATENATE(A28,"_north")))))</f>
@@ -3125,44 +3146,44 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C29" s="2" t="n">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1970</v>
+        <v>1945</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M29" s="5" t="str">
         <f aca="false">VLOOKUP(L29,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>27</v>
@@ -3174,17 +3195,17 @@
         <v>32</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T29" s="1" t="str">
         <f aca="false">IF(NOT(D29="1X1"),"none",IF(E29="skyscraper",CONCATENATE(A29,"_c"),IF(E29="landmark",CONCATENATE(A29,"_k"),IF(E29="house",CONCATENATE(A29,"_h"),A29))))</f>
-        <v>yamada_electronics_centre_x</v>
+        <v>old_office_building_l</v>
       </c>
       <c r="U29" s="1" t="str">
         <f aca="false">IF(D29="1X1","none",IF(E29="skyscraper",CONCATENATE(A29,"_c_north"),IF(E29="landmark",CONCATENATE(A29,"_k_north"),IF(E29="house",CONCATENATE(A29,"_h_north"),CONCATENATE(A29,"_north")))))</f>
@@ -3208,13 +3229,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>27</v>
@@ -3223,7 +3244,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>100</v>
@@ -3257,9 +3278,11 @@
         <v>32</v>
       </c>
       <c r="Q30" s="1" t="n">
+        <f aca="false">VLOOKUP(E30,dropdowns!A:C,2,0)</f>
         <v>10</v>
       </c>
       <c r="R30" s="1" t="n">
+        <f aca="false">VLOOKUP(E30,dropdowns!A:C,3,0)</f>
         <v>4</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -3267,7 +3290,7 @@
       </c>
       <c r="T30" s="1" t="str">
         <f aca="false">IF(NOT(D30="1X1"),"none",IF(E30="skyscraper",CONCATENATE(A30,"_c"),IF(E30="landmark",CONCATENATE(A30,"_k"),IF(E30="house",CONCATENATE(A30,"_h"),A30))))</f>
-        <v>yano_m</v>
+        <v>yamada_electronics_centre_m</v>
       </c>
       <c r="U30" s="1" t="str">
         <f aca="false">IF(D30="1X1","none",IF(E30="skyscraper",CONCATENATE(A30,"_c_north"),IF(E30="landmark",CONCATENATE(A30,"_k_north"),IF(E30="house",CONCATENATE(A30,"_h_north"),CONCATENATE(A30,"_north")))))</f>
@@ -3291,66 +3314,66 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>94</v>
+      <c r="E31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M31" s="5" t="str">
         <f aca="false">VLOOKUP(L31,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB )</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="O31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="R31" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R31" s="1" t="n">
-        <v>6</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T31" s="1" t="str">
         <f aca="false">IF(NOT(D31="1X1"),"none",IF(E31="skyscraper",CONCATENATE(A31,"_c"),IF(E31="landmark",CONCATENATE(A31,"_k"),IF(E31="house",CONCATENATE(A31,"_h"),A31))))</f>
-        <v>bank_building_c</v>
+        <v>yamada_electronics_centre_l</v>
       </c>
       <c r="U31" s="1" t="str">
         <f aca="false">IF(D31="1X1","none",IF(E31="skyscraper",CONCATENATE(A31,"_c_north"),IF(E31="landmark",CONCATENATE(A31,"_k_north"),IF(E31="house",CONCATENATE(A31,"_h_north"),CONCATENATE(A31,"_north")))))</f>
@@ -3377,34 +3400,34 @@
         <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>94</v>
+      <c r="E32" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>39</v>
@@ -3414,26 +3437,26 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N32" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O32" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P32" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="T32" s="1" t="str">
         <f aca="false">IF(NOT(D32="1X1"),"none",IF(E32="skyscraper",CONCATENATE(A32,"_c"),IF(E32="landmark",CONCATENATE(A32,"_k"),IF(E32="house",CONCATENATE(A32,"_h"),A32))))</f>
-        <v>enterprise_tower_c</v>
+        <v>yamada_electronics_centre_x</v>
       </c>
       <c r="U32" s="1" t="str">
         <f aca="false">IF(D32="1X1","none",IF(E32="skyscraper",CONCATENATE(A32,"_c_north"),IF(E32="landmark",CONCATENATE(A32,"_k_north"),IF(E32="house",CONCATENATE(A32,"_h_north"),CONCATENATE(A32,"_north")))))</f>
@@ -3457,66 +3480,66 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>94</v>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M33" s="5" t="str">
         <f aca="false">VLOOKUP(L33,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_CENTRE)</v>
+        <v>bitmask(TOWNZONE_CENTRE, TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
       </c>
       <c r="N33" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O33" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="P33" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="T33" s="1" t="str">
         <f aca="false">IF(NOT(D33="1X1"),"none",IF(E33="skyscraper",CONCATENATE(A33,"_c"),IF(E33="landmark",CONCATENATE(A33,"_k"),IF(E33="house",CONCATENATE(A33,"_h"),A33))))</f>
-        <v>insurance_tower_c</v>
+        <v>yano_m</v>
       </c>
       <c r="U33" s="1" t="str">
         <f aca="false">IF(D33="1X1","none",IF(E33="skyscraper",CONCATENATE(A33,"_c_north"),IF(E33="landmark",CONCATENATE(A33,"_k_north"),IF(E33="house",CONCATENATE(A33,"_h_north"),CONCATENATE(A33,"_north")))))</f>
@@ -3540,22 +3563,22 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>220</v>
@@ -3564,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>30</v>
@@ -3580,26 +3603,26 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="T34" s="1" t="str">
         <f aca="false">IF(NOT(D34="1X1"),"none",IF(E34="skyscraper",CONCATENATE(A34,"_c"),IF(E34="landmark",CONCATENATE(A34,"_k"),IF(E34="house",CONCATENATE(A34,"_h"),A34))))</f>
-        <v>kuroi_tower_c</v>
+        <v>bank_building_c</v>
       </c>
       <c r="U34" s="1" t="str">
         <f aca="false">IF(D34="1X1","none",IF(E34="skyscraper",CONCATENATE(A34,"_c_north"),IF(E34="landmark",CONCATENATE(A34,"_k_north"),IF(E34="house",CONCATENATE(A34,"_h_north"),CONCATENATE(A34,"_north")))))</f>
@@ -3629,13 +3652,13 @@
         <v>104</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>105</v>
@@ -3647,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>30</v>
@@ -3669,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="1" t="n">
         <v>24</v>
@@ -3678,11 +3701,11 @@
         <v>10</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T35" s="1" t="str">
         <f aca="false">IF(NOT(D35="1X1"),"none",IF(E35="skyscraper",CONCATENATE(A35,"_c"),IF(E35="landmark",CONCATENATE(A35,"_k"),IF(E35="house",CONCATENATE(A35,"_h"),A35))))</f>
-        <v>mitsui_tower_c</v>
+        <v>enterprise_tower_c</v>
       </c>
       <c r="U35" s="1" t="str">
         <f aca="false">IF(D35="1X1","none",IF(E35="skyscraper",CONCATENATE(A35,"_c_north"),IF(E35="landmark",CONCATENATE(A35,"_k_north"),IF(E35="house",CONCATENATE(A35,"_h_north"),CONCATENATE(A35,"_north")))))</f>
@@ -3706,31 +3729,31 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>30</v>
@@ -3752,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>24</v>
@@ -3761,11 +3784,11 @@
         <v>10</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T36" s="1" t="str">
         <f aca="false">IF(NOT(D36="1X1"),"none",IF(E36="skyscraper",CONCATENATE(A36,"_c"),IF(E36="landmark",CONCATENATE(A36,"_k"),IF(E36="house",CONCATENATE(A36,"_h"),A36))))</f>
-        <v>modern_office_tower_c</v>
+        <v>insurance_tower_c</v>
       </c>
       <c r="U36" s="1" t="str">
         <f aca="false">IF(D36="1X1","none",IF(E36="skyscraper",CONCATENATE(A36,"_c_north"),IF(E36="landmark",CONCATENATE(A36,"_k_north"),IF(E36="house",CONCATENATE(A36,"_h_north"),CONCATENATE(A36,"_north")))))</f>
@@ -3789,22 +3812,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>220</v>
@@ -3813,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>30</v>
@@ -3835,7 +3858,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>24</v>
@@ -3844,11 +3867,11 @@
         <v>10</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T37" s="1" t="str">
         <f aca="false">IF(NOT(D37="1X1"),"none",IF(E37="skyscraper",CONCATENATE(A37,"_c"),IF(E37="landmark",CONCATENATE(A37,"_k"),IF(E37="house",CONCATENATE(A37,"_h"),A37))))</f>
-        <v>multimedia_offices_c</v>
+        <v>kuroi_tower_c</v>
       </c>
       <c r="U37" s="1" t="str">
         <f aca="false">IF(D37="1X1","none",IF(E37="skyscraper",CONCATENATE(A37,"_c_north"),IF(E37="landmark",CONCATENATE(A37,"_k_north"),IF(E37="house",CONCATENATE(A37,"_h_north"),CONCATENATE(A37,"_north")))))</f>
@@ -3872,22 +3895,22 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>220</v>
@@ -3918,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>24</v>
@@ -3927,11 +3950,11 @@
         <v>10</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T38" s="1" t="str">
         <f aca="false">IF(NOT(D38="1X1"),"none",IF(E38="skyscraper",CONCATENATE(A38,"_c"),IF(E38="landmark",CONCATENATE(A38,"_k"),IF(E38="house",CONCATENATE(A38,"_h"),A38))))</f>
-        <v>office_tower_c</v>
+        <v>mitsui_tower_c</v>
       </c>
       <c r="U38" s="1" t="str">
         <f aca="false">IF(D38="1X1","none",IF(E38="skyscraper",CONCATENATE(A38,"_c_north"),IF(E38="landmark",CONCATENATE(A38,"_k_north"),IF(E38="house",CONCATENATE(A38,"_h_north"),CONCATENATE(A38,"_north")))))</f>
@@ -3955,31 +3978,31 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>30</v>
@@ -4001,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>24</v>
@@ -4010,11 +4033,11 @@
         <v>10</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T39" s="1" t="str">
         <f aca="false">IF(NOT(D39="1X1"),"none",IF(E39="skyscraper",CONCATENATE(A39,"_c"),IF(E39="landmark",CONCATENATE(A39,"_k"),IF(E39="house",CONCATENATE(A39,"_h"),A39))))</f>
-        <v>sato_building_c</v>
+        <v>modern_office_tower_c</v>
       </c>
       <c r="U39" s="1" t="str">
         <f aca="false">IF(D39="1X1","none",IF(E39="skyscraper",CONCATENATE(A39,"_c_north"),IF(E39="landmark",CONCATENATE(A39,"_k_north"),IF(E39="house",CONCATENATE(A39,"_h_north"),CONCATENATE(A39,"_north")))))</f>
@@ -4038,25 +4061,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
@@ -4084,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q40" s="1" t="n">
         <v>24</v>
@@ -4093,11 +4116,11 @@
         <v>10</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T40" s="1" t="str">
         <f aca="false">IF(NOT(D40="1X1"),"none",IF(E40="skyscraper",CONCATENATE(A40,"_c"),IF(E40="landmark",CONCATENATE(A40,"_k"),IF(E40="house",CONCATENATE(A40,"_h"),A40))))</f>
-        <v>sugiyama_office_building_c</v>
+        <v>multimedia_offices_c</v>
       </c>
       <c r="U40" s="1" t="str">
         <f aca="false">IF(D40="1X1","none",IF(E40="skyscraper",CONCATENATE(A40,"_c_north"),IF(E40="landmark",CONCATENATE(A40,"_k_north"),IF(E40="house",CONCATENATE(A40,"_h_north"),CONCATENATE(A40,"_north")))))</f>
@@ -4121,31 +4144,31 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>30</v>
@@ -4161,13 +4184,13 @@
         <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O41" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>24</v>
@@ -4176,19 +4199,19 @@
         <v>10</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T41" s="1" t="str">
         <f aca="false">IF(NOT(D41="1X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c"),IF(E41="landmark",CONCATENATE(A41,"_k"),IF(E41="house",CONCATENATE(A41,"_h"),A41))))</f>
-        <v>none</v>
+        <v>office_tower_c</v>
       </c>
       <c r="U41" s="1" t="str">
         <f aca="false">IF(D41="1X1","none",IF(E41="skyscraper",CONCATENATE(A41,"_c_north"),IF(E41="landmark",CONCATENATE(A41,"_k_north"),IF(E41="house",CONCATENATE(A41,"_h_north"),CONCATENATE(A41,"_north")))))</f>
-        <v>tsuno_building_c_north</v>
+        <v>none</v>
       </c>
       <c r="V41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="2X1"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_east"),IF(E41="landmark",CONCATENATE(A41,"_k_east"),CONCATENATE(A41,"_east"))))</f>
-        <v>tsuno_building_c_east</v>
+        <v>none</v>
       </c>
       <c r="W41" s="1" t="str">
         <f aca="false">IF(OR(D41="1X1",D41="1X2"),"none",IF(E41="skyscraper",CONCATENATE(A41,"_c_west"),IF(E41="landmark",CONCATENATE(A41,"_k_west"),CONCATENATE(A41,"_west"))))</f>
@@ -4210,13 +4233,13 @@
         <v>119</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>120</v>
@@ -4228,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>1989</v>
+        <v>1960</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>25</v>
@@ -4250,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>24</v>
@@ -4259,11 +4282,11 @@
         <v>10</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T42" s="1" t="str">
         <f aca="false">IF(NOT(D42="1X1"),"none",IF(E42="skyscraper",CONCATENATE(A42,"_c"),IF(E42="landmark",CONCATENATE(A42,"_k"),IF(E42="house",CONCATENATE(A42,"_h"),A42))))</f>
-        <v>ueda_office_block_c</v>
+        <v>sato_building_c</v>
       </c>
       <c r="U42" s="1" t="str">
         <f aca="false">IF(D42="1X1","none",IF(E42="skyscraper",CONCATENATE(A42,"_c_north"),IF(E42="landmark",CONCATENATE(A42,"_k_north"),IF(E42="house",CONCATENATE(A42,"_h_north"),CONCATENATE(A42,"_north")))))</f>
@@ -4293,25 +4316,25 @@
         <v>121</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>1965</v>
+        <v>1990</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>30</v>
@@ -4333,20 +4356,20 @@
         <v>5</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T43" s="1" t="str">
         <f aca="false">IF(NOT(D43="1X1"),"none",IF(E43="skyscraper",CONCATENATE(A43,"_c"),IF(E43="landmark",CONCATENATE(A43,"_k"),IF(E43="house",CONCATENATE(A43,"_h"),A43))))</f>
-        <v>yamaguchi_office_c</v>
+        <v>sugiyama_office_building_c</v>
       </c>
       <c r="U43" s="1" t="str">
         <f aca="false">IF(D43="1X1","none",IF(E43="skyscraper",CONCATENATE(A43,"_c_north"),IF(E43="landmark",CONCATENATE(A43,"_k_north"),IF(E43="house",CONCATENATE(A43,"_h_north"),CONCATENATE(A43,"_north")))))</f>
@@ -4376,16 +4399,16 @@
         <v>123</v>
       </c>
       <c r="C44" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>255</v>
@@ -4394,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>30</v>
@@ -4416,7 +4439,7 @@
         <v>5</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q44" s="1" t="n">
         <v>24</v>
@@ -4425,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T44" s="1" t="str">
         <f aca="false">IF(NOT(D44="1X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c"),IF(E44="landmark",CONCATENATE(A44,"_k"),IF(E44="house",CONCATENATE(A44,"_h"),A44))))</f>
@@ -4433,11 +4456,11 @@
       </c>
       <c r="U44" s="1" t="str">
         <f aca="false">IF(D44="1X1","none",IF(E44="skyscraper",CONCATENATE(A44,"_c_north"),IF(E44="landmark",CONCATENATE(A44,"_k_north"),IF(E44="house",CONCATENATE(A44,"_h_north"),CONCATENATE(A44,"_north")))))</f>
-        <v>yamashiro_office_building_c_north</v>
+        <v>tsuno_building_c_north</v>
       </c>
       <c r="V44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="2X1"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_east"),IF(E44="landmark",CONCATENATE(A44,"_k_east"),CONCATENATE(A44,"_east"))))</f>
-        <v>yamashiro_office_building_c_east</v>
+        <v>tsuno_building_c_east</v>
       </c>
       <c r="W44" s="1" t="str">
         <f aca="false">IF(OR(D44="1X1",D44="1X2"),"none",IF(E44="skyscraper",CONCATENATE(A44,"_c_west"),IF(E44="landmark",CONCATENATE(A44,"_k_west"),CONCATENATE(A44,"_west"))))</f>
@@ -4453,34 +4476,34 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>30</v>
+        <v>1955</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>1989</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>25</v>
@@ -4499,7 +4522,7 @@
         <v>5</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>24</v>
@@ -4508,11 +4531,11 @@
         <v>10</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T45" s="1" t="str">
         <f aca="false">IF(NOT(D45="1X1"),"none",IF(E45="skyscraper",CONCATENATE(A45,"_c"),IF(E45="landmark",CONCATENATE(A45,"_k"),IF(E45="house",CONCATENATE(A45,"_h"),A45))))</f>
-        <v>yamashita_building_c</v>
+        <v>ueda_office_block_c</v>
       </c>
       <c r="U45" s="1" t="str">
         <f aca="false">IF(D45="1X1","none",IF(E45="skyscraper",CONCATENATE(A45,"_c_north"),IF(E45="landmark",CONCATENATE(A45,"_k_north"),IF(E45="house",CONCATENATE(A45,"_h_north"),CONCATENATE(A45,"_north")))))</f>
@@ -4536,311 +4559,311 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G46" s="1" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>1700</v>
+        <v>1965</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="M46" s="5" t="str">
         <f aca="false">VLOOKUP(L46,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="T46" s="1" t="str">
         <f aca="false">IF(NOT(D46="1X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c"),IF(E46="landmark",CONCATENATE(A46,"_k"),IF(E46="house",CONCATENATE(A46,"_h"),A46))))</f>
-        <v>none</v>
+        <v>yamaguchi_office_c</v>
       </c>
       <c r="U46" s="1" t="str">
         <f aca="false">IF(D46="1X1","none",IF(E46="skyscraper",CONCATENATE(A46,"_c_north"),IF(E46="landmark",CONCATENATE(A46,"_k_north"),IF(E46="house",CONCATENATE(A46,"_h_north"),CONCATENATE(A46,"_north")))))</f>
-        <v>farm_h_north</v>
+        <v>none</v>
       </c>
       <c r="V46" s="1" t="str">
-        <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),IF(E46="house",CONCATENATE(A46,"_h_east"),CONCATENATE(A46,"_east")))))</f>
-        <v>farm_h_east</v>
+        <f aca="false">IF(OR(D46="1X1",D46="2X1"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_east"),IF(E46="landmark",CONCATENATE(A46,"_k_east"),CONCATENATE(A46,"_east"))))</f>
+        <v>none</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),IF(E46="house",CONCATENATE(A46,"_h_west"),CONCATENATE(A46,"_west")))))</f>
-        <v>farm_h_west</v>
+        <f aca="false">IF(OR(D46="1X1",D46="1X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_west"),IF(E46="landmark",CONCATENATE(A46,"_k_west"),CONCATENATE(A46,"_west"))))</f>
+        <v>none</v>
       </c>
       <c r="X46" s="1" t="str">
-        <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),IF(E46="house",CONCATENATE(A46,"_h_south"),CONCATENATE(A46,"_south")))))</f>
-        <v>farm_h_south</v>
+        <f aca="false">IF(NOT(D46="2X2"),"none",IF(E46="skyscraper",CONCATENATE(A46,"_c_south"),IF(E46="landmark",CONCATENATE(A46,"_k_south"),CONCATENATE(A46,"_south"))))</f>
+        <v>none</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>1870</v>
+        <v>1990</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="M47" s="5" t="str">
         <f aca="false">VLOOKUP(L47,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="T47" s="1" t="str">
         <f aca="false">IF(NOT(D47="1X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c"),IF(E47="landmark",CONCATENATE(A47,"_k"),IF(E47="house",CONCATENATE(A47,"_h"),A47))))</f>
-        <v>naganuma_h</v>
+        <v>none</v>
       </c>
       <c r="U47" s="1" t="str">
         <f aca="false">IF(D47="1X1","none",IF(E47="skyscraper",CONCATENATE(A47,"_c_north"),IF(E47="landmark",CONCATENATE(A47,"_k_north"),IF(E47="house",CONCATENATE(A47,"_h_north"),CONCATENATE(A47,"_north")))))</f>
-        <v>none</v>
+        <v>yamashiro_office_building_c_north</v>
       </c>
       <c r="V47" s="1" t="str">
-        <f aca="false">IF(OR(D47="1X1",D47="2X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_east"),IF(E47="landmark",CONCATENATE(A47,"_k_east"),IF(E47="house",CONCATENATE(A47,"_h_east"),CONCATENATE(A47,"_east")))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D47="1X1",D47="2X1"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_east"),IF(E47="landmark",CONCATENATE(A47,"_k_east"),CONCATENATE(A47,"_east"))))</f>
+        <v>yamashiro_office_building_c_east</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f aca="false">IF(OR(D47="1X1",D47="1X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_west"),IF(E47="landmark",CONCATENATE(A47,"_k_west"),IF(E47="house",CONCATENATE(A47,"_h_west"),CONCATENATE(A47,"_west")))))</f>
+        <f aca="false">IF(OR(D47="1X1",D47="1X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_west"),IF(E47="landmark",CONCATENATE(A47,"_k_west"),CONCATENATE(A47,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X47" s="1" t="str">
-        <f aca="false">IF(NOT(D47="2X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_south"),IF(E47="landmark",CONCATENATE(A47,"_k_south"),IF(E47="house",CONCATENATE(A47,"_h_south"),CONCATENATE(A47,"_south")))))</f>
+        <f aca="false">IF(NOT(D47="2X2"),"none",IF(E47="skyscraper",CONCATENATE(A47,"_c_south"),IF(E47="landmark",CONCATENATE(A47,"_k_south"),CONCATENATE(A47,"_south"))))</f>
         <v>none</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="6" t="n">
-        <v>95</v>
+      <c r="A48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H48" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="H48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I48" s="0" t="n">
-        <v>1950</v>
+      <c r="I48" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="0" t="n">
-        <v>5</v>
+      <c r="K48" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="M48" s="5" t="str">
         <f aca="false">VLOOKUP(L48,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>3</v>
+        <v>bitmask(TOWNZONE_CENTRE)</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>3</v>
+        <v>103</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="T48" s="1" t="str">
         <f aca="false">IF(NOT(D48="1X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c"),IF(E48="landmark",CONCATENATE(A48,"_k"),IF(E48="house",CONCATENATE(A48,"_h"),A48))))</f>
-        <v>convini_k</v>
+        <v>yamashita_building_c</v>
       </c>
       <c r="U48" s="1" t="str">
         <f aca="false">IF(D48="1X1","none",IF(E48="skyscraper",CONCATENATE(A48,"_c_north"),IF(E48="landmark",CONCATENATE(A48,"_k_north"),IF(E48="house",CONCATENATE(A48,"_h_north"),CONCATENATE(A48,"_north")))))</f>
         <v>none</v>
       </c>
       <c r="V48" s="1" t="str">
-        <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),IF(E48="house",CONCATENATE(A48,"_h_east"),CONCATENATE(A48,"_east")))))</f>
+        <f aca="false">IF(OR(D48="1X1",D48="2X1"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_east"),IF(E48="landmark",CONCATENATE(A48,"_k_east"),CONCATENATE(A48,"_east"))))</f>
         <v>none</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),IF(E48="house",CONCATENATE(A48,"_h_west"),CONCATENATE(A48,"_west")))))</f>
+        <f aca="false">IF(OR(D48="1X1",D48="1X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_west"),IF(E48="landmark",CONCATENATE(A48,"_k_west"),CONCATENATE(A48,"_west"))))</f>
         <v>none</v>
       </c>
       <c r="X48" s="1" t="str">
-        <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),IF(E48="house",CONCATENATE(A48,"_h_south"),CONCATENATE(A48,"_south")))))</f>
-        <v>none</v>
-      </c>
-      <c r="Y48" s="0" t="s">
-        <v>143</v>
+        <f aca="false">IF(NOT(D48="2X2"),"none",IF(E48="skyscraper",CONCATENATE(A48,"_c_south"),IF(E48="landmark",CONCATENATE(A48,"_k_south"),CONCATENATE(A48,"_south"))))</f>
+        <v>none</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1970</v>
+        <v>1700</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M49" s="5" t="str">
         <f aca="false">VLOOKUP(L49,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
+        <v>bitmask(TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="T49" s="1" t="str">
         <f aca="false">IF(NOT(D49="1X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c"),IF(E49="landmark",CONCATENATE(A49,"_k"),IF(E49="house",CONCATENATE(A49,"_h"),A49))))</f>
@@ -4848,169 +4871,169 @@
       </c>
       <c r="U49" s="1" t="str">
         <f aca="false">IF(D49="1X1","none",IF(E49="skyscraper",CONCATENATE(A49,"_c_north"),IF(E49="landmark",CONCATENATE(A49,"_k_north"),IF(E49="house",CONCATENATE(A49,"_h_north"),CONCATENATE(A49,"_north")))))</f>
-        <v>fire_station_k_north</v>
+        <v>farm_h_north</v>
       </c>
       <c r="V49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="2X1"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_east"),IF(E49="landmark",CONCATENATE(A49,"_k_east"),IF(E49="house",CONCATENATE(A49,"_h_east"),CONCATENATE(A49,"_east")))))</f>
-        <v>none</v>
+        <v>farm_h_east</v>
       </c>
       <c r="W49" s="1" t="str">
         <f aca="false">IF(OR(D49="1X1",D49="1X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_west"),IF(E49="landmark",CONCATENATE(A49,"_k_west"),IF(E49="house",CONCATENATE(A49,"_h_west"),CONCATENATE(A49,"_west")))))</f>
-        <v>fire_station_k_west</v>
+        <v>farm_h_west</v>
       </c>
       <c r="X49" s="1" t="str">
         <f aca="false">IF(NOT(D49="2X2"),"none",IF(E49="skyscraper",CONCATENATE(A49,"_c_south"),IF(E49="landmark",CONCATENATE(A49,"_k_south"),IF(E49="house",CONCATENATE(A49,"_h_south"),CONCATENATE(A49,"_south")))))</f>
-        <v>none</v>
+        <v>farm_h_south</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>1970</v>
+        <v>1870</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M50" s="5" t="str">
         <f aca="false">VLOOKUP(L50,dropdowns!E:F,2,0)</f>
-        <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB )</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="T50" s="1" t="str">
         <f aca="false">IF(NOT(D50="1X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c"),IF(E50="landmark",CONCATENATE(A50,"_k"),IF(E50="house",CONCATENATE(A50,"_h"),A50))))</f>
-        <v>none</v>
+        <v>naganuma_h</v>
       </c>
       <c r="U50" s="1" t="str">
         <f aca="false">IF(D50="1X1","none",IF(E50="skyscraper",CONCATENATE(A50,"_c_north"),IF(E50="landmark",CONCATENATE(A50,"_k_north"),IF(E50="house",CONCATENATE(A50,"_h_north"),CONCATENATE(A50,"_north")))))</f>
-        <v>hospital_k_north</v>
+        <v>none</v>
       </c>
       <c r="V50" s="1" t="str">
-        <f aca="false">IF(OR(D50="1X1",D50="2X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_east"),IF(E50="landmark",CONCATENATE(A50,"_k_east"),CONCATENATE(A50,"_east"))))</f>
-        <v>hospital_k_east</v>
+        <f aca="false">IF(OR(D50="1X1",D50="2X1"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_east"),IF(E50="landmark",CONCATENATE(A50,"_k_east"),IF(E50="house",CONCATENATE(A50,"_h_east"),CONCATENATE(A50,"_east")))))</f>
+        <v>none</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f aca="false">IF(OR(D50="1X1",D50="1X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_west"),IF(E50="landmark",CONCATENATE(A50,"_k_west"),CONCATENATE(A50,"_west"))))</f>
-        <v>hospital_k_west</v>
+        <f aca="false">IF(OR(D50="1X1",D50="1X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_west"),IF(E50="landmark",CONCATENATE(A50,"_k_west"),IF(E50="house",CONCATENATE(A50,"_h_west"),CONCATENATE(A50,"_west")))))</f>
+        <v>none</v>
       </c>
       <c r="X50" s="1" t="str">
-        <f aca="false">IF(NOT(D50="2X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_south"),IF(E50="landmark",CONCATENATE(A50,"_k_south"),CONCATENATE(A50,"_south"))))</f>
-        <v>hospital_k_south</v>
+        <f aca="false">IF(NOT(D50="2X2"),"none",IF(E50="skyscraper",CONCATENATE(A50,"_c_south"),IF(E50="landmark",CONCATENATE(A50,"_k_south"),IF(E50="house",CONCATENATE(A50,"_h_south"),CONCATENATE(A50,"_south")))))</f>
+        <v>none</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>93</v>
+      <c r="A51" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>95</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H51" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I51" s="1" t="n">
-        <v>1870</v>
+      <c r="I51" s="0" t="n">
+        <v>1950</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="1" t="n">
-        <v>10</v>
+      <c r="K51" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M51" s="5" t="str">
         <f aca="false">VLOOKUP(L51,dropdowns!E:F,2,0)</f>
         <v>bitmask(TOWNZONE_INNER_SUBURB, TOWNZONE_OUTER_SUBURB, TOWNZONE_OUTSKIRT)</v>
       </c>
-      <c r="N51" s="1" t="n">
+      <c r="N51" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="O51" s="1" t="n">
+      <c r="O51" s="0" t="n">
         <v>3</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q51" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="T51" s="1" t="str">
         <f aca="false">IF(NOT(D51="1X1"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c"),IF(E51="landmark",CONCATENATE(A51,"_k"),IF(E51="house",CONCATENATE(A51,"_h"),A51))))</f>
-        <v>onsen_k</v>
+        <v>convini_k</v>
       </c>
       <c r="U51" s="1" t="str">
         <f aca="false">IF(D51="1X1","none",IF(E51="skyscraper",CONCATENATE(A51,"_c_north"),IF(E51="landmark",CONCATENATE(A51,"_k_north"),IF(E51="house",CONCATENATE(A51,"_h_north"),CONCATENATE(A51,"_north")))))</f>
@@ -5028,114 +5051,114 @@
         <f aca="false">IF(NOT(D51="2X2"),"none",IF(E51="skyscraper",CONCATENATE(A51,"_c_south"),IF(E51="landmark",CONCATENATE(A51,"_k_south"),IF(E51="house",CONCATENATE(A51,"_h_south"),CONCATENATE(A51,"_south")))))</f>
         <v>none</v>
       </c>
-      <c r="Y51" s="1" t="s">
-        <v>143</v>
+      <c r="Y51" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="M52" s="5" t="str">
         <f aca="false">VLOOKUP(L52,dropdowns!E:F,2,0)</f>
-        <v>ALL_TOWNZONES &amp; ~bitmask(TOWNZONE_EDGE)</v>
+        <v>bitmask(TOWNZONE_OUTER_SUBURB , TOWNZONE_OUTSKIRT, TOWNZONE_EDGE )</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="O52" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q52" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="T52" s="1" t="str">
         <f aca="false">IF(NOT(D52="1X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c"),IF(E52="landmark",CONCATENATE(A52,"_k"),IF(E52="house",CONCATENATE(A52,"_h"),A52))))</f>
-        <v>pachinko_k</v>
+        <v>none</v>
       </c>
       <c r="U52" s="1" t="str">
         <f aca="false">IF(D52="1X1","none",IF(E52="skyscraper",CONCATENATE(A52,"_c_north"),IF(E52="landmark",CONCATENATE(A52,"_k_north"),IF(E52="house",CONCATENATE(A52,"_h_north"),CONCATENATE(A52,"_north")))))</f>
-        <v>none</v>
+        <v>fire_station_k_north</v>
       </c>
       <c r="V52" s="1" t="str">
-        <f aca="false">IF(OR(D52="1X1",D52="2X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_east"),IF(E52="landmark",CONCATENATE(A52,"_k_east"),CONCATENATE(A52,"_east"))))</f>
+        <f aca="false">IF(OR(D52="1X1",D52="2X1"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_east"),IF(E52="landmark",CONCATENATE(A52,"_k_east"),IF(E52="house",CONCATENATE(A52,"_h_east"),CONCATENATE(A52,"_east")))))</f>
         <v>none</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f aca="false">IF(OR(D52="1X1",D52="1X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_west"),IF(E52="landmark",CONCATENATE(A52,"_k_west"),CONCATENATE(A52,"_west"))))</f>
-        <v>none</v>
+        <f aca="false">IF(OR(D52="1X1",D52="1X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_west"),IF(E52="landmark",CONCATENATE(A52,"_k_west"),IF(E52="house",CONCATENATE(A52,"_h_west"),CONCATENATE(A52,"_west")))))</f>
+        <v>fire_station_k_west</v>
       </c>
       <c r="X52" s="1" t="str">
-        <f aca="false">IF(NOT(D52="2X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_south"),IF(E52="landmark",CONCATENATE(A52,"_k_south"),CONCATENATE(A52,"_south"))))</f>
+        <f aca="false">IF(NOT(D52="2X2"),"none",IF(E52="skyscraper",CONCATENATE(A52,"_c_south"),IF(E52="landmark",CONCATENATE(A52,"_k_south"),IF(E52="house",CONCATENATE(A52,"_h_south"),CONCATENATE(A52,"_south")))))</f>
         <v>none</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>146